--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -959,7 +959,7 @@
         <v>59.0</v>
       </c>
       <c r="CP2" t="n">
-        <v>1677.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="3">
@@ -1243,7 +1243,7 @@
         <v>382.0</v>
       </c>
       <c r="CP3" t="n">
-        <v>382.0</v>
+        <v>391.0</v>
       </c>
     </row>
     <row r="4">
@@ -1527,7 +1527,7 @@
         <v>283.0</v>
       </c>
       <c r="CP4" t="n">
-        <v>283.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="5">
@@ -1811,7 +1811,7 @@
         <v>793.0</v>
       </c>
       <c r="CP5" t="n">
-        <v>792.0</v>
+        <v>852.0</v>
       </c>
     </row>
     <row r="6">
@@ -2095,7 +2095,7 @@
         <v>5151.0</v>
       </c>
       <c r="CP6" t="n">
-        <v>5150.0</v>
+        <v>5388.0</v>
       </c>
     </row>
     <row r="7">
@@ -2379,7 +2379,7 @@
         <v>442.0</v>
       </c>
       <c r="CP7" t="n">
-        <v>441.0</v>
+        <v>469.0</v>
       </c>
     </row>
     <row r="8">
@@ -2663,7 +2663,7 @@
         <v>160.0</v>
       </c>
       <c r="CP8" t="n">
-        <v>160.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="9">
@@ -2947,7 +2947,7 @@
         <v>163.0</v>
       </c>
       <c r="CP9" t="n">
-        <v>162.0</v>
+        <v>167.0</v>
       </c>
     </row>
     <row r="10">
@@ -3231,7 +3231,7 @@
         <v>252.0</v>
       </c>
       <c r="CP10" t="n">
-        <v>251.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="11">
@@ -3515,7 +3515,7 @@
         <v>432.0</v>
       </c>
       <c r="CP11" t="n">
-        <v>432.0</v>
+        <v>444.0</v>
       </c>
     </row>
     <row r="12">
@@ -3799,7 +3799,7 @@
         <v>410.0</v>
       </c>
       <c r="CP12" t="n">
-        <v>410.0</v>
+        <v>419.0</v>
       </c>
     </row>
     <row r="13">
@@ -4083,7 +4083,7 @@
         <v>879.0</v>
       </c>
       <c r="CP13" t="n">
-        <v>894.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="14">
@@ -4367,7 +4367,7 @@
         <v>4685.0</v>
       </c>
       <c r="CP14" t="n">
-        <v>4763.0</v>
+        <v>4925.0</v>
       </c>
     </row>
     <row r="15">
@@ -4651,7 +4651,7 @@
         <v>1114.0</v>
       </c>
       <c r="CP15" t="n">
-        <v>1113.0</v>
+        <v>1160.0</v>
       </c>
     </row>
     <row r="16">
@@ -4935,7 +4935,7 @@
         <v>1715.0</v>
       </c>
       <c r="CP16" t="n">
-        <v>1715.0</v>
+        <v>1787.0</v>
       </c>
     </row>
     <row r="17">
@@ -5219,7 +5219,7 @@
         <v>2000.0</v>
       </c>
       <c r="CP17" t="n">
-        <v>2000.0</v>
+        <v>2124.0</v>
       </c>
     </row>
     <row r="18">
@@ -5503,7 +5503,7 @@
         <v>67097.0</v>
       </c>
       <c r="CP18" t="n">
-        <v>68858.0</v>
+        <v>69606.0</v>
       </c>
     </row>
     <row r="19">
@@ -5787,7 +5787,7 @@
         <v>47554.0</v>
       </c>
       <c r="CP19" t="n">
-        <v>49205.0</v>
+        <v>49264.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
   <si>
     <t>02/25/20</t>
   </si>
@@ -294,6 +294,12 @@
     <t>05/27/20</t>
   </si>
   <si>
+    <t>05/28/20</t>
+  </si>
+  <si>
+    <t>05/29/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -677,10 +683,16 @@
       <c r="CP1" t="s">
         <v>92</v>
       </c>
+      <c r="CQ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -960,11 +972,17 @@
       </c>
       <c r="CP2" t="n">
         <v>61.0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1244,11 +1262,17 @@
       </c>
       <c r="CP3" t="n">
         <v>391.0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>405.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1528,11 +1552,17 @@
       </c>
       <c r="CP4" t="n">
         <v>295.0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>309.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1812,11 +1842,17 @@
       </c>
       <c r="CP5" t="n">
         <v>852.0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>882.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>882.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2096,11 +2132,17 @@
       </c>
       <c r="CP6" t="n">
         <v>5388.0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>5785.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>5785.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2380,11 +2422,17 @@
       </c>
       <c r="CP7" t="n">
         <v>469.0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>505.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2664,11 +2712,17 @@
       </c>
       <c r="CP8" t="n">
         <v>166.0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -2948,11 +3002,17 @@
       </c>
       <c r="CP9" t="n">
         <v>167.0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3232,11 +3292,17 @@
       </c>
       <c r="CP10" t="n">
         <v>263.0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3516,11 +3582,17 @@
       </c>
       <c r="CP11" t="n">
         <v>444.0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>476.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -3800,11 +3872,17 @@
       </c>
       <c r="CP12" t="n">
         <v>419.0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>443.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4084,11 +4162,17 @@
       </c>
       <c r="CP13" t="n">
         <v>966.0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>1034.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>1034.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4368,11 +4452,17 @@
       </c>
       <c r="CP14" t="n">
         <v>4925.0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>5256.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>5256.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -4652,11 +4742,17 @@
       </c>
       <c r="CP15" t="n">
         <v>1160.0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>1215.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>1215.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -4936,11 +5032,17 @@
       </c>
       <c r="CP16" t="n">
         <v>1787.0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>1929.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5220,11 +5322,17 @@
       </c>
       <c r="CP17" t="n">
         <v>2124.0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>2302.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>2302.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -5504,11 +5612,17 @@
       </c>
       <c r="CP18" t="n">
         <v>69606.0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>74614.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>74614.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -5788,6 +5902,12 @@
       </c>
       <c r="CP19" t="n">
         <v>49264.0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>52719.0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>52719.0</v>
       </c>
     </row>
   </sheetData>
@@ -6084,10 +6204,16 @@
       <c r="CP1" t="s">
         <v>92</v>
       </c>
+      <c r="CQ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -6366,12 +6492,18 @@
         <v>0.0</v>
       </c>
       <c r="CP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -6651,11 +6783,17 @@
       </c>
       <c r="CP3" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -6935,11 +7073,17 @@
       </c>
       <c r="CP4" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -7219,11 +7363,17 @@
       </c>
       <c r="CP5" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -7503,11 +7653,17 @@
       </c>
       <c r="CP6" t="n">
         <v>293.0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>297.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -7786,12 +7942,18 @@
         <v>15.0</v>
       </c>
       <c r="CP7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CR7" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8070,12 +8232,18 @@
         <v>5.0</v>
       </c>
       <c r="CP8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CR8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -8354,12 +8522,18 @@
         <v>14.0</v>
       </c>
       <c r="CP9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CR9" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -8638,12 +8812,18 @@
         <v>16.0</v>
       </c>
       <c r="CP10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CR10" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -8922,12 +9102,18 @@
         <v>34.0</v>
       </c>
       <c r="CP11" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CR11" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -9206,12 +9392,18 @@
         <v>15.0</v>
       </c>
       <c r="CP12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CR12" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -9491,11 +9683,17 @@
       </c>
       <c r="CP13" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -9775,11 +9973,17 @@
       </c>
       <c r="CP14" t="n">
         <v>321.0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>349.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -10058,12 +10262,18 @@
         <v>49.0</v>
       </c>
       <c r="CP15" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CR15" t="n">
         <v>51.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -10343,11 +10553,17 @@
       </c>
       <c r="CP16" t="n">
         <v>65.0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -10627,11 +10843,17 @@
       </c>
       <c r="CP17" t="n">
         <v>115.0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -10911,11 +11133,17 @@
       </c>
       <c r="CP18" t="n">
         <v>5638.0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>5856.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>5856.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -11195,6 +11423,12 @@
       </c>
       <c r="CP19" t="n">
         <v>3826.0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>3958.0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>3958.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="115">
   <si>
     <t>02/25/20</t>
   </si>
@@ -300,6 +300,12 @@
     <t>05/29/20</t>
   </si>
   <si>
+    <t>05/30/20</t>
+  </si>
+  <si>
+    <t>05/31/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -689,10 +695,16 @@
       <c r="CR1" t="s">
         <v>94</v>
       </c>
+      <c r="CS1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -977,12 +989,18 @@
         <v>64.0</v>
       </c>
       <c r="CR2" t="n">
-        <v>64.0</v>
+        <v>74.0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1091.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1267,12 +1285,18 @@
         <v>405.0</v>
       </c>
       <c r="CR3" t="n">
-        <v>405.0</v>
+        <v>414.0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>429.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1557,12 +1581,18 @@
         <v>309.0</v>
       </c>
       <c r="CR4" t="n">
-        <v>309.0</v>
+        <v>339.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>379.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1847,12 +1877,18 @@
         <v>882.0</v>
       </c>
       <c r="CR5" t="n">
-        <v>882.0</v>
+        <v>925.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>1006.0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>1006.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2137,12 +2173,18 @@
         <v>5785.0</v>
       </c>
       <c r="CR6" t="n">
-        <v>5785.0</v>
+        <v>6260.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>6626.0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>6623.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2427,12 +2469,18 @@
         <v>505.0</v>
       </c>
       <c r="CR7" t="n">
-        <v>505.0</v>
+        <v>550.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>593.0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>593.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2717,12 +2765,18 @@
         <v>174.0</v>
       </c>
       <c r="CR8" t="n">
-        <v>174.0</v>
+        <v>197.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>212.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3007,12 +3061,18 @@
         <v>182.0</v>
       </c>
       <c r="CR9" t="n">
-        <v>182.0</v>
+        <v>193.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3297,12 +3357,18 @@
         <v>290.0</v>
       </c>
       <c r="CR10" t="n">
-        <v>290.0</v>
+        <v>307.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>347.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3587,12 +3653,18 @@
         <v>476.0</v>
       </c>
       <c r="CR11" t="n">
-        <v>476.0</v>
+        <v>478.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>499.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -3877,12 +3949,18 @@
         <v>443.0</v>
       </c>
       <c r="CR12" t="n">
-        <v>443.0</v>
+        <v>457.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>478.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4167,12 +4245,18 @@
         <v>1034.0</v>
       </c>
       <c r="CR13" t="n">
-        <v>1034.0</v>
+        <v>1140.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>1181.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4457,12 +4541,18 @@
         <v>5256.0</v>
       </c>
       <c r="CR14" t="n">
-        <v>5256.0</v>
+        <v>5718.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>6244.0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>6374.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -4747,12 +4837,18 @@
         <v>1215.0</v>
       </c>
       <c r="CR15" t="n">
-        <v>1215.0</v>
+        <v>1297.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>1385.0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>1385.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5037,12 +5133,18 @@
         <v>1929.0</v>
       </c>
       <c r="CR16" t="n">
-        <v>1929.0</v>
+        <v>1997.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>2112.0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>2112.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5327,12 +5429,18 @@
         <v>2302.0</v>
       </c>
       <c r="CR17" t="n">
-        <v>2302.0</v>
+        <v>2420.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>2607.0</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>2607.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -5617,12 +5725,18 @@
         <v>74614.0</v>
       </c>
       <c r="CR18" t="n">
-        <v>74614.0</v>
+        <v>78790.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>82765.0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>84179.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -5907,7 +6021,13 @@
         <v>52719.0</v>
       </c>
       <c r="CR19" t="n">
-        <v>52719.0</v>
+        <v>55741.0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>58619.0</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>60055.0</v>
       </c>
     </row>
   </sheetData>
@@ -6210,10 +6330,16 @@
       <c r="CR1" t="s">
         <v>94</v>
       </c>
+      <c r="CS1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -6498,12 +6624,18 @@
         <v>0.0</v>
       </c>
       <c r="CR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -6789,11 +6921,17 @@
       </c>
       <c r="CR3" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -7078,12 +7216,18 @@
         <v>19.0</v>
       </c>
       <c r="CR4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CT4" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -7368,12 +7512,18 @@
         <v>46.0</v>
       </c>
       <c r="CR5" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -7658,12 +7808,18 @@
         <v>297.0</v>
       </c>
       <c r="CR6" t="n">
-        <v>297.0</v>
+        <v>312.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>332.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -7949,11 +8105,17 @@
       </c>
       <c r="CR7" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8238,12 +8400,18 @@
         <v>5.0</v>
       </c>
       <c r="CR8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -8528,12 +8696,18 @@
         <v>14.0</v>
       </c>
       <c r="CR9" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -8818,12 +8992,18 @@
         <v>16.0</v>
       </c>
       <c r="CR10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CT10" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -9109,11 +9289,17 @@
       </c>
       <c r="CR11" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -9398,12 +9584,18 @@
         <v>16.0</v>
       </c>
       <c r="CR12" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -9688,12 +9880,18 @@
         <v>50.0</v>
       </c>
       <c r="CR13" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -9978,12 +10176,18 @@
         <v>349.0</v>
       </c>
       <c r="CR14" t="n">
-        <v>349.0</v>
+        <v>372.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -10268,12 +10472,18 @@
         <v>51.0</v>
       </c>
       <c r="CR15" t="n">
-        <v>51.0</v>
+        <v>55.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -10558,12 +10768,18 @@
         <v>69.0</v>
       </c>
       <c r="CR16" t="n">
-        <v>69.0</v>
+        <v>74.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -10848,12 +11064,18 @@
         <v>117.0</v>
       </c>
       <c r="CR17" t="n">
-        <v>117.0</v>
+        <v>123.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -11138,12 +11360,18 @@
         <v>5856.0</v>
       </c>
       <c r="CR18" t="n">
-        <v>5856.0</v>
+        <v>6094.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>6299.0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>6370.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -11428,7 +11656,13 @@
         <v>3958.0</v>
       </c>
       <c r="CR19" t="n">
-        <v>3958.0</v>
+        <v>4116.0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>4239.0</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>4280.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
   <si>
     <t>02/25/20</t>
   </si>
@@ -306,6 +306,12 @@
     <t>05/31/20</t>
   </si>
   <si>
+    <t>06/01/20</t>
+  </si>
+  <si>
+    <t>06/02/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -701,10 +707,16 @@
       <c r="CT1" t="s">
         <v>96</v>
       </c>
+      <c r="CU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -995,12 +1007,18 @@
         <v>76.0</v>
       </c>
       <c r="CT2" t="n">
-        <v>1091.0</v>
+        <v>76.0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>7075.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1291,12 +1309,18 @@
         <v>429.0</v>
       </c>
       <c r="CT3" t="n">
-        <v>429.0</v>
+        <v>434.0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>438.0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>438.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1587,12 +1611,18 @@
         <v>379.0</v>
       </c>
       <c r="CT4" t="n">
-        <v>379.0</v>
+        <v>383.0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>383.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1883,12 +1913,18 @@
         <v>1006.0</v>
       </c>
       <c r="CT5" t="n">
-        <v>1006.0</v>
+        <v>1016.0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>1017.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>1017.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2179,12 +2215,18 @@
         <v>6626.0</v>
       </c>
       <c r="CT6" t="n">
-        <v>6623.0</v>
+        <v>6734.0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>6886.0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>6886.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2475,12 +2517,18 @@
         <v>593.0</v>
       </c>
       <c r="CT7" t="n">
-        <v>593.0</v>
+        <v>613.0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>616.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2771,12 +2819,18 @@
         <v>212.0</v>
       </c>
       <c r="CT8" t="n">
-        <v>212.0</v>
+        <v>219.0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3067,12 +3121,18 @@
         <v>203.0</v>
       </c>
       <c r="CT9" t="n">
-        <v>203.0</v>
+        <v>208.0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>208.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3364,11 +3424,17 @@
       </c>
       <c r="CT10" t="n">
         <v>347.0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>355.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3659,12 +3725,18 @@
         <v>499.0</v>
       </c>
       <c r="CT11" t="n">
-        <v>499.0</v>
+        <v>501.0</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>504.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -3955,12 +4027,18 @@
         <v>478.0</v>
       </c>
       <c r="CT12" t="n">
-        <v>478.0</v>
+        <v>484.0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>491.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4251,12 +4329,18 @@
         <v>1181.0</v>
       </c>
       <c r="CT13" t="n">
-        <v>1181.0</v>
+        <v>1231.0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>1237.0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>1237.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4547,12 +4631,18 @@
         <v>6244.0</v>
       </c>
       <c r="CT14" t="n">
-        <v>6374.0</v>
+        <v>6598.0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>6813.0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>6813.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -4843,12 +4933,18 @@
         <v>1385.0</v>
       </c>
       <c r="CT15" t="n">
-        <v>1385.0</v>
+        <v>1419.0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>1424.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5139,12 +5235,18 @@
         <v>2112.0</v>
       </c>
       <c r="CT16" t="n">
-        <v>2112.0</v>
+        <v>2145.0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>2163.0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>2163.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5435,12 +5537,18 @@
         <v>2607.0</v>
       </c>
       <c r="CT17" t="n">
-        <v>2607.0</v>
+        <v>2647.0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>2647.0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>2647.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -5731,12 +5839,18 @@
         <v>82765.0</v>
       </c>
       <c r="CT18" t="n">
-        <v>84179.0</v>
+        <v>84643.0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>85818.0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>85818.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6027,7 +6141,13 @@
         <v>58619.0</v>
       </c>
       <c r="CT19" t="n">
-        <v>60055.0</v>
+        <v>60131.0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>61126.0</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>61126.0</v>
       </c>
     </row>
   </sheetData>
@@ -6336,10 +6456,16 @@
       <c r="CT1" t="s">
         <v>96</v>
       </c>
+      <c r="CU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -6631,11 +6757,17 @@
       </c>
       <c r="CT2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>327.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -6927,11 +7059,17 @@
       </c>
       <c r="CT3" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -7222,12 +7360,18 @@
         <v>19.0</v>
       </c>
       <c r="CT4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CV4" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -7518,12 +7662,18 @@
         <v>49.0</v>
       </c>
       <c r="CT5" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CV5" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -7815,11 +7965,17 @@
       </c>
       <c r="CT6" t="n">
         <v>332.0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>342.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -8110,12 +8266,18 @@
         <v>17.0</v>
       </c>
       <c r="CT7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CV7" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8406,12 +8568,18 @@
         <v>7.0</v>
       </c>
       <c r="CT8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CV8" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -8702,12 +8870,18 @@
         <v>15.0</v>
       </c>
       <c r="CT9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CV9" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -8998,12 +9172,18 @@
         <v>16.0</v>
       </c>
       <c r="CT10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CV10" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -9294,12 +9474,18 @@
         <v>36.0</v>
       </c>
       <c r="CT11" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CV11" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -9590,12 +9776,18 @@
         <v>18.0</v>
       </c>
       <c r="CT12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CV12" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -9887,11 +10079,17 @@
       </c>
       <c r="CT13" t="n">
         <v>51.0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -10182,12 +10380,18 @@
         <v>389.0</v>
       </c>
       <c r="CT14" t="n">
+        <v>393.0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>393.0</v>
+      </c>
+      <c r="CV14" t="n">
         <v>393.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -10479,11 +10683,17 @@
       </c>
       <c r="CT15" t="n">
         <v>58.0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -10775,11 +10985,17 @@
       </c>
       <c r="CT16" t="n">
         <v>79.0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -11071,11 +11287,17 @@
       </c>
       <c r="CT17" t="n">
         <v>130.0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -11367,11 +11589,17 @@
       </c>
       <c r="CT18" t="n">
         <v>6370.0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>6409.0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>6409.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -11663,6 +11891,12 @@
       </c>
       <c r="CT19" t="n">
         <v>4280.0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>4304.0</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>4304.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -1013,7 +1013,7 @@
         <v>76.0</v>
       </c>
       <c r="CV2" t="n">
-        <v>7075.0</v>
+        <v>2861.0</v>
       </c>
     </row>
     <row r="3">
@@ -1315,7 +1315,7 @@
         <v>438.0</v>
       </c>
       <c r="CV3" t="n">
-        <v>438.0</v>
+        <v>437.0</v>
       </c>
     </row>
     <row r="4">
@@ -2221,7 +2221,7 @@
         <v>6886.0</v>
       </c>
       <c r="CV6" t="n">
-        <v>6886.0</v>
+        <v>6996.0</v>
       </c>
     </row>
     <row r="7">
@@ -3429,7 +3429,7 @@
         <v>355.0</v>
       </c>
       <c r="CV10" t="n">
-        <v>355.0</v>
+        <v>354.0</v>
       </c>
     </row>
     <row r="11">
@@ -4335,7 +4335,7 @@
         <v>1237.0</v>
       </c>
       <c r="CV13" t="n">
-        <v>1237.0</v>
+        <v>1236.0</v>
       </c>
     </row>
     <row r="14">
@@ -4637,7 +4637,7 @@
         <v>6813.0</v>
       </c>
       <c r="CV14" t="n">
-        <v>6813.0</v>
+        <v>7227.0</v>
       </c>
     </row>
     <row r="15">
@@ -5543,7 +5543,7 @@
         <v>2647.0</v>
       </c>
       <c r="CV17" t="n">
-        <v>2647.0</v>
+        <v>2650.0</v>
       </c>
     </row>
     <row r="18">
@@ -5845,7 +5845,7 @@
         <v>85818.0</v>
       </c>
       <c r="CV18" t="n">
-        <v>85818.0</v>
+        <v>89508.0</v>
       </c>
     </row>
     <row r="19">
@@ -6147,7 +6147,7 @@
         <v>61126.0</v>
       </c>
       <c r="CV19" t="n">
-        <v>61126.0</v>
+        <v>64367.0</v>
       </c>
     </row>
   </sheetData>
@@ -6762,7 +6762,7 @@
         <v>0.0</v>
       </c>
       <c r="CV2" t="n">
-        <v>327.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -7668,7 +7668,7 @@
         <v>49.0</v>
       </c>
       <c r="CV5" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="6">
@@ -7970,7 +7970,7 @@
         <v>342.0</v>
       </c>
       <c r="CV6" t="n">
-        <v>342.0</v>
+        <v>374.0</v>
       </c>
     </row>
     <row r="7">
@@ -8574,7 +8574,7 @@
         <v>7.0</v>
       </c>
       <c r="CV8" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -9480,7 +9480,7 @@
         <v>36.0</v>
       </c>
       <c r="CV11" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="12">
@@ -10084,7 +10084,7 @@
         <v>52.0</v>
       </c>
       <c r="CV13" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="14">
@@ -10386,7 +10386,7 @@
         <v>393.0</v>
       </c>
       <c r="CV14" t="n">
-        <v>393.0</v>
+        <v>417.0</v>
       </c>
     </row>
     <row r="15">
@@ -10688,7 +10688,7 @@
         <v>59.0</v>
       </c>
       <c r="CV15" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="16">
@@ -10990,7 +10990,7 @@
         <v>80.0</v>
       </c>
       <c r="CV16" t="n">
-        <v>80.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="17">
@@ -11292,7 +11292,7 @@
         <v>129.0</v>
       </c>
       <c r="CV17" t="n">
-        <v>129.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="18">
@@ -11594,7 +11594,7 @@
         <v>6409.0</v>
       </c>
       <c r="CV18" t="n">
-        <v>6409.0</v>
+        <v>6649.0</v>
       </c>
     </row>
     <row r="19">
@@ -11896,7 +11896,7 @@
         <v>4304.0</v>
       </c>
       <c r="CV19" t="n">
-        <v>4304.0</v>
+        <v>4443.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="118">
   <si>
     <t>02/25/20</t>
   </si>
@@ -312,6 +312,9 @@
     <t>06/02/20</t>
   </si>
   <si>
+    <t>06/03/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -713,10 +716,13 @@
       <c r="CV1" t="s">
         <v>98</v>
       </c>
+      <c r="CW1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1013,12 +1019,15 @@
         <v>76.0</v>
       </c>
       <c r="CV2" t="n">
-        <v>2861.0</v>
+        <v>79.0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1315,12 +1324,15 @@
         <v>438.0</v>
       </c>
       <c r="CV3" t="n">
-        <v>437.0</v>
+        <v>467.0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>485.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1617,12 +1629,15 @@
         <v>383.0</v>
       </c>
       <c r="CV4" t="n">
-        <v>383.0</v>
+        <v>437.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>459.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1919,12 +1934,15 @@
         <v>1017.0</v>
       </c>
       <c r="CV5" t="n">
-        <v>1017.0</v>
+        <v>1097.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>1167.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2221,12 +2239,15 @@
         <v>6886.0</v>
       </c>
       <c r="CV6" t="n">
-        <v>6996.0</v>
+        <v>7399.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>7889.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2523,12 +2544,15 @@
         <v>616.0</v>
       </c>
       <c r="CV7" t="n">
-        <v>616.0</v>
+        <v>689.0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>741.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2825,12 +2849,15 @@
         <v>220.0</v>
       </c>
       <c r="CV8" t="n">
-        <v>220.0</v>
+        <v>238.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>248.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3127,12 +3154,15 @@
         <v>208.0</v>
       </c>
       <c r="CV9" t="n">
-        <v>208.0</v>
+        <v>220.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3429,12 +3459,15 @@
         <v>355.0</v>
       </c>
       <c r="CV10" t="n">
-        <v>354.0</v>
+        <v>371.0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3731,12 +3764,15 @@
         <v>504.0</v>
       </c>
       <c r="CV11" t="n">
-        <v>504.0</v>
+        <v>531.0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>561.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4033,12 +4069,15 @@
         <v>491.0</v>
       </c>
       <c r="CV12" t="n">
-        <v>491.0</v>
+        <v>507.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>531.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4335,12 +4374,15 @@
         <v>1237.0</v>
       </c>
       <c r="CV13" t="n">
-        <v>1236.0</v>
+        <v>1291.0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>1458.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4637,12 +4679,15 @@
         <v>6813.0</v>
       </c>
       <c r="CV14" t="n">
-        <v>7227.0</v>
+        <v>7577.0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>8063.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -4939,12 +4984,15 @@
         <v>1424.0</v>
       </c>
       <c r="CV15" t="n">
-        <v>1424.0</v>
+        <v>1506.0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>1557.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5241,12 +5289,15 @@
         <v>2163.0</v>
       </c>
       <c r="CV16" t="n">
-        <v>2163.0</v>
+        <v>2310.0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>2392.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5543,12 +5594,15 @@
         <v>2647.0</v>
       </c>
       <c r="CV17" t="n">
-        <v>2650.0</v>
+        <v>2855.0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>3020.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -5845,12 +5899,15 @@
         <v>85818.0</v>
       </c>
       <c r="CV18" t="n">
-        <v>89508.0</v>
+        <v>90721.0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>94192.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6147,7 +6204,10 @@
         <v>61126.0</v>
       </c>
       <c r="CV19" t="n">
-        <v>64367.0</v>
+        <v>64443.0</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>66777.0</v>
       </c>
     </row>
   </sheetData>
@@ -6462,10 +6522,13 @@
       <c r="CV1" t="s">
         <v>98</v>
       </c>
+      <c r="CW1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -6762,12 +6825,15 @@
         <v>0.0</v>
       </c>
       <c r="CV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7064,12 +7130,15 @@
         <v>26.0</v>
       </c>
       <c r="CV3" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CW3" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -7367,11 +7436,14 @@
       </c>
       <c r="CV4" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -7668,12 +7740,15 @@
         <v>49.0</v>
       </c>
       <c r="CV5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CW5" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -7971,11 +8046,14 @@
       </c>
       <c r="CV6" t="n">
         <v>374.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>388.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -8272,12 +8350,15 @@
         <v>17.0</v>
       </c>
       <c r="CV7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CW7" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8574,12 +8655,15 @@
         <v>7.0</v>
       </c>
       <c r="CV8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CW8" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -8877,11 +8961,14 @@
       </c>
       <c r="CV9" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -9178,12 +9265,15 @@
         <v>16.0</v>
       </c>
       <c r="CV10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CW10" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -9481,11 +9571,14 @@
       </c>
       <c r="CV11" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -9782,12 +9875,15 @@
         <v>18.0</v>
       </c>
       <c r="CV12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CW12" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -10084,12 +10180,15 @@
         <v>52.0</v>
       </c>
       <c r="CV13" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="CW13" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -10387,11 +10486,14 @@
       </c>
       <c r="CV14" t="n">
         <v>417.0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>435.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -10689,11 +10791,14 @@
       </c>
       <c r="CV15" t="n">
         <v>62.0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -10991,11 +11096,14 @@
       </c>
       <c r="CV16" t="n">
         <v>86.0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -11293,11 +11401,14 @@
       </c>
       <c r="CV17" t="n">
         <v>141.0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -11595,11 +11706,14 @@
       </c>
       <c r="CV18" t="n">
         <v>6649.0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>6881.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -11897,6 +12011,9 @@
       </c>
       <c r="CV19" t="n">
         <v>4443.0</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>4564.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="120">
   <si>
     <t>02/25/20</t>
   </si>
@@ -315,6 +315,12 @@
     <t>06/03/20</t>
   </si>
   <si>
+    <t>06/04/20</t>
+  </si>
+  <si>
+    <t>06/05/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -719,10 +725,16 @@
       <c r="CW1" t="s">
         <v>99</v>
       </c>
+      <c r="CX1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1023,11 +1035,17 @@
       </c>
       <c r="CW2" t="n">
         <v>79.0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>5445.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1328,11 +1346,17 @@
       </c>
       <c r="CW3" t="n">
         <v>485.0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>505.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1633,11 +1657,17 @@
       </c>
       <c r="CW4" t="n">
         <v>459.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>478.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1938,11 +1968,17 @@
       </c>
       <c r="CW5" t="n">
         <v>1167.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>1257.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>1257.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2243,11 +2279,17 @@
       </c>
       <c r="CW6" t="n">
         <v>7889.0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>8408.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>8408.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2548,11 +2590,17 @@
       </c>
       <c r="CW7" t="n">
         <v>741.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>793.0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>793.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2853,11 +2901,17 @@
       </c>
       <c r="CW8" t="n">
         <v>248.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>265.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3158,11 +3212,17 @@
       </c>
       <c r="CW9" t="n">
         <v>245.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>255.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3463,11 +3523,17 @@
       </c>
       <c r="CW10" t="n">
         <v>396.0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>430.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3768,11 +3834,17 @@
       </c>
       <c r="CW11" t="n">
         <v>561.0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>586.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4073,11 +4145,17 @@
       </c>
       <c r="CW12" t="n">
         <v>531.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>559.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>559.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4378,11 +4456,17 @@
       </c>
       <c r="CW13" t="n">
         <v>1458.0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>1515.0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>1515.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4683,11 +4767,17 @@
       </c>
       <c r="CW14" t="n">
         <v>8063.0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>8615.0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>8615.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -4988,11 +5078,17 @@
       </c>
       <c r="CW15" t="n">
         <v>1557.0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>1680.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5293,11 +5389,17 @@
       </c>
       <c r="CW16" t="n">
         <v>2392.0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>2528.0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>2528.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5598,11 +5700,17 @@
       </c>
       <c r="CW17" t="n">
         <v>3020.0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>3188.0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>3188.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -5903,11 +6011,17 @@
       </c>
       <c r="CW18" t="n">
         <v>94192.0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>98058.0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>98058.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6208,6 +6322,12 @@
       </c>
       <c r="CW19" t="n">
         <v>66777.0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>69347.0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>69347.0</v>
       </c>
     </row>
   </sheetData>
@@ -6525,10 +6645,16 @@
       <c r="CW1" t="s">
         <v>99</v>
       </c>
+      <c r="CX1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -6829,11 +6955,17 @@
       </c>
       <c r="CW2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>281.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7134,11 +7266,17 @@
       </c>
       <c r="CW3" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -7439,11 +7577,17 @@
       </c>
       <c r="CW4" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -7744,11 +7888,17 @@
       </c>
       <c r="CW5" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -8049,11 +8199,17 @@
       </c>
       <c r="CW6" t="n">
         <v>388.0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>414.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -8353,12 +8509,18 @@
         <v>17.0</v>
       </c>
       <c r="CW7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CY7" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8659,11 +8821,17 @@
       </c>
       <c r="CW8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -8963,12 +9131,18 @@
         <v>15.0</v>
       </c>
       <c r="CW9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CY9" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -9269,11 +9443,17 @@
       </c>
       <c r="CW10" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -9574,11 +9754,17 @@
       </c>
       <c r="CW11" t="n">
         <v>42.0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -9878,12 +10064,18 @@
         <v>18.0</v>
       </c>
       <c r="CW12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CY12" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -10184,11 +10376,17 @@
       </c>
       <c r="CW13" t="n">
         <v>56.0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -10489,11 +10687,17 @@
       </c>
       <c r="CW14" t="n">
         <v>435.0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>465.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -10794,11 +10998,17 @@
       </c>
       <c r="CW15" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -11099,11 +11309,17 @@
       </c>
       <c r="CW16" t="n">
         <v>90.0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -11404,11 +11620,17 @@
       </c>
       <c r="CW17" t="n">
         <v>148.0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -11709,11 +11931,17 @@
       </c>
       <c r="CW18" t="n">
         <v>6881.0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>7079.0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>7079.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -12014,6 +12242,12 @@
       </c>
       <c r="CW19" t="n">
         <v>4564.0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>4675.0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>4675.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
   <si>
     <t>02/25/20</t>
   </si>
@@ -321,6 +321,15 @@
     <t>06/05/20</t>
   </si>
   <si>
+    <t>06/06/20</t>
+  </si>
+  <si>
+    <t>06/07/20</t>
+  </si>
+  <si>
+    <t>06/08/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -731,10 +740,19 @@
       <c r="CY1" t="s">
         <v>101</v>
       </c>
+      <c r="CZ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1040,12 +1058,21 @@
         <v>80.0</v>
       </c>
       <c r="CY2" t="n">
-        <v>5445.0</v>
+        <v>82.0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1351,12 +1378,21 @@
         <v>505.0</v>
       </c>
       <c r="CY3" t="n">
-        <v>505.0</v>
+        <v>529.0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>569.0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>582.0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>588.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1662,12 +1698,21 @@
         <v>478.0</v>
       </c>
       <c r="CY4" t="n">
-        <v>478.0</v>
+        <v>515.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>563.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -1973,12 +2018,21 @@
         <v>1257.0</v>
       </c>
       <c r="CY5" t="n">
-        <v>1257.0</v>
+        <v>1354.0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>1448.0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>1502.0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>1516.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2284,12 +2338,21 @@
         <v>8408.0</v>
       </c>
       <c r="CY6" t="n">
-        <v>8408.0</v>
+        <v>9001.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>9625.0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>9927.0</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>10002.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2595,12 +2658,21 @@
         <v>793.0</v>
       </c>
       <c r="CY7" t="n">
-        <v>793.0</v>
+        <v>854.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>913.0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>948.0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>981.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2906,12 +2978,21 @@
         <v>265.0</v>
       </c>
       <c r="CY8" t="n">
-        <v>265.0</v>
+        <v>289.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3217,12 +3298,21 @@
         <v>255.0</v>
       </c>
       <c r="CY9" t="n">
-        <v>255.0</v>
+        <v>265.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>296.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3528,12 +3618,21 @@
         <v>430.0</v>
       </c>
       <c r="CY10" t="n">
-        <v>430.0</v>
+        <v>464.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>495.0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>499.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3839,12 +3938,21 @@
         <v>586.0</v>
       </c>
       <c r="CY11" t="n">
-        <v>586.0</v>
+        <v>611.0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>635.0</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>647.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4150,12 +4258,21 @@
         <v>559.0</v>
       </c>
       <c r="CY12" t="n">
-        <v>559.0</v>
+        <v>566.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>603.0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>608.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4461,12 +4578,21 @@
         <v>1515.0</v>
       </c>
       <c r="CY13" t="n">
-        <v>1515.0</v>
+        <v>1668.0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>1757.0</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>1883.0</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>1891.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4772,12 +4898,21 @@
         <v>8615.0</v>
       </c>
       <c r="CY14" t="n">
-        <v>8615.0</v>
+        <v>9286.0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>10067.0</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>10234.0</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>10305.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5083,12 +5218,21 @@
         <v>1680.0</v>
       </c>
       <c r="CY15" t="n">
-        <v>1680.0</v>
+        <v>1758.0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>2027.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5394,12 +5538,21 @@
         <v>2528.0</v>
       </c>
       <c r="CY16" t="n">
-        <v>2528.0</v>
+        <v>2602.0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>2739.0</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>2826.0</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>2872.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5705,12 +5858,21 @@
         <v>3188.0</v>
       </c>
       <c r="CY17" t="n">
-        <v>3188.0</v>
+        <v>3360.0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>3536.0</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>3588.0</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>3610.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6016,12 +6178,21 @@
         <v>98058.0</v>
       </c>
       <c r="CY18" t="n">
-        <v>98058.0</v>
+        <v>101361.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>105105.0</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>106679.0</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>107802.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6327,7 +6498,16 @@
         <v>69347.0</v>
       </c>
       <c r="CY19" t="n">
-        <v>69347.0</v>
+        <v>71453.0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>73861.0</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>74796.0</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>75699.0</v>
       </c>
     </row>
   </sheetData>
@@ -6651,10 +6831,19 @@
       <c r="CY1" t="s">
         <v>101</v>
       </c>
+      <c r="CZ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -6960,12 +7149,21 @@
         <v>0.0</v>
       </c>
       <c r="CY2" t="n">
-        <v>281.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7271,12 +7469,21 @@
         <v>28.0</v>
       </c>
       <c r="CY3" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -7582,12 +7789,21 @@
         <v>24.0</v>
       </c>
       <c r="CY4" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -7893,12 +8109,21 @@
         <v>52.0</v>
       </c>
       <c r="CY5" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -8204,12 +8429,21 @@
         <v>414.0</v>
       </c>
       <c r="CY6" t="n">
-        <v>414.0</v>
+        <v>429.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>473.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -8515,12 +8749,21 @@
         <v>17.0</v>
       </c>
       <c r="CY7" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -8826,12 +9069,21 @@
         <v>9.0</v>
       </c>
       <c r="CY8" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -9137,12 +9389,21 @@
         <v>16.0</v>
       </c>
       <c r="CY9" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -9448,12 +9709,21 @@
         <v>18.0</v>
       </c>
       <c r="CY10" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -9759,12 +10029,21 @@
         <v>43.0</v>
       </c>
       <c r="CY11" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -10070,12 +10349,21 @@
         <v>18.0</v>
       </c>
       <c r="CY12" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -10381,12 +10669,21 @@
         <v>57.0</v>
       </c>
       <c r="CY13" t="n">
-        <v>57.0</v>
+        <v>61.0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -10692,12 +10989,21 @@
         <v>465.0</v>
       </c>
       <c r="CY14" t="n">
-        <v>465.0</v>
+        <v>471.0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>495.0</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>497.0</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>500.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -11003,12 +11309,21 @@
         <v>66.0</v>
       </c>
       <c r="CY15" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -11314,12 +11629,21 @@
         <v>97.0</v>
       </c>
       <c r="CY16" t="n">
-        <v>97.0</v>
+        <v>102.0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -11625,12 +11949,21 @@
         <v>158.0</v>
       </c>
       <c r="CY17" t="n">
-        <v>158.0</v>
+        <v>166.0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -11936,12 +12269,21 @@
         <v>7079.0</v>
       </c>
       <c r="CY18" t="n">
-        <v>7079.0</v>
+        <v>7307.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>7454.0</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>7515.0</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>7541.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -12247,7 +12589,16 @@
         <v>4675.0</v>
       </c>
       <c r="CY19" t="n">
-        <v>4675.0</v>
+        <v>4805.0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>4901.0</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>4920.0</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>4937.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
   <si>
     <t>02/25/20</t>
   </si>
@@ -330,6 +330,12 @@
     <t>06/08/20</t>
   </si>
   <si>
+    <t>06/09/20</t>
+  </si>
+  <si>
+    <t>06/10/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -749,10 +755,16 @@
       <c r="DB1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1068,11 +1080,17 @@
       </c>
       <c r="DB2" t="n">
         <v>87.0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1388,11 +1406,17 @@
       </c>
       <c r="DB3" t="n">
         <v>588.0</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>628.0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>652.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1708,11 +1732,17 @@
       </c>
       <c r="DB4" t="n">
         <v>563.0</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>606.0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>653.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2028,11 +2058,17 @@
       </c>
       <c r="DB5" t="n">
         <v>1516.0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>1588.0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>1729.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2348,11 +2384,17 @@
       </c>
       <c r="DB6" t="n">
         <v>10002.0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>10637.0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>11290.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2668,11 +2710,17 @@
       </c>
       <c r="DB7" t="n">
         <v>981.0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>1092.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -2988,11 +3036,17 @@
       </c>
       <c r="DB8" t="n">
         <v>299.0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>326.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3308,11 +3362,17 @@
       </c>
       <c r="DB9" t="n">
         <v>296.0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>307.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3628,11 +3688,17 @@
       </c>
       <c r="DB10" t="n">
         <v>499.0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>523.0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>578.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3948,11 +4014,17 @@
       </c>
       <c r="DB11" t="n">
         <v>647.0</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>681.0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>706.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4268,11 +4340,17 @@
       </c>
       <c r="DB12" t="n">
         <v>608.0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>639.0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>655.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4588,11 +4666,17 @@
       </c>
       <c r="DB13" t="n">
         <v>1891.0</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>2191.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4908,11 +4992,17 @@
       </c>
       <c r="DB14" t="n">
         <v>10305.0</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>10819.0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>11425.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5228,11 +5318,17 @@
       </c>
       <c r="DB15" t="n">
         <v>2027.0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>2156.0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>2260.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5548,11 +5644,17 @@
       </c>
       <c r="DB16" t="n">
         <v>2872.0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>3024.0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>3145.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5868,11 +5970,17 @@
       </c>
       <c r="DB17" t="n">
         <v>3610.0</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>3743.0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>3893.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6188,11 +6296,17 @@
       </c>
       <c r="DB18" t="n">
         <v>107802.0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>111371.0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>115319.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6508,6 +6622,12 @@
       </c>
       <c r="DB19" t="n">
         <v>75699.0</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>78026.0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>80457.0</v>
       </c>
     </row>
   </sheetData>
@@ -6840,10 +6960,16 @@
       <c r="DB1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -7158,12 +7284,18 @@
         <v>0.0</v>
       </c>
       <c r="DB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7479,11 +7611,17 @@
       </c>
       <c r="DB3" t="n">
         <v>35.0</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -7799,11 +7937,17 @@
       </c>
       <c r="DB4" t="n">
         <v>26.0</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -8119,11 +8263,17 @@
       </c>
       <c r="DB5" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -8439,11 +8589,17 @@
       </c>
       <c r="DB6" t="n">
         <v>473.0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>515.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -8759,11 +8915,17 @@
       </c>
       <c r="DB7" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9079,11 +9241,17 @@
       </c>
       <c r="DB8" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -9399,11 +9567,17 @@
       </c>
       <c r="DB9" t="n">
         <v>18.0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -9719,11 +9893,17 @@
       </c>
       <c r="DB10" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -10039,11 +10219,17 @@
       </c>
       <c r="DB11" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -10359,11 +10545,17 @@
       </c>
       <c r="DB12" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -10679,11 +10871,17 @@
       </c>
       <c r="DB13" t="n">
         <v>69.0</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -10999,11 +11197,17 @@
       </c>
       <c r="DB14" t="n">
         <v>500.0</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>514.0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>523.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -11319,11 +11523,17 @@
       </c>
       <c r="DB15" t="n">
         <v>76.0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -11639,11 +11849,17 @@
       </c>
       <c r="DB16" t="n">
         <v>106.0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -11959,11 +12175,17 @@
       </c>
       <c r="DB17" t="n">
         <v>170.0</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>195.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -12279,11 +12501,17 @@
       </c>
       <c r="DB18" t="n">
         <v>7541.0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>7790.0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>8064.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -12599,6 +12827,12 @@
       </c>
       <c r="DB19" t="n">
         <v>4937.0</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>5073.0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>5232.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
   <si>
     <t>02/25/20</t>
   </si>
@@ -336,6 +336,18 @@
     <t>06/10/20</t>
   </si>
   <si>
+    <t>06/11/20</t>
+  </si>
+  <si>
+    <t>06/12/20</t>
+  </si>
+  <si>
+    <t>06/13/20</t>
+  </si>
+  <si>
+    <t>06/14/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -761,10 +773,22 @@
       <c r="DD1" t="s">
         <v>106</v>
       </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1086,11 +1110,23 @@
       </c>
       <c r="DD2" t="n">
         <v>95.0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1412,11 +1448,23 @@
       </c>
       <c r="DD3" t="n">
         <v>652.0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>689.0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>709.0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>749.0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>775.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1738,11 +1786,23 @@
       </c>
       <c r="DD4" t="n">
         <v>653.0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>729.0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>761.0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>769.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2064,11 +2124,23 @@
       </c>
       <c r="DD5" t="n">
         <v>1729.0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>2065.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2390,11 +2462,23 @@
       </c>
       <c r="DD6" t="n">
         <v>11290.0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>11995.0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>12535.0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>13054.0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>13422.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2716,11 +2800,23 @@
       </c>
       <c r="DD7" t="n">
         <v>1092.0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>1195.0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>1254.0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>1292.0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>1347.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3042,11 +3138,23 @@
       </c>
       <c r="DD8" t="n">
         <v>326.0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>378.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3368,11 +3476,23 @@
       </c>
       <c r="DD9" t="n">
         <v>307.0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>352.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3694,11 +3814,23 @@
       </c>
       <c r="DD10" t="n">
         <v>578.0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>635.0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>657.0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>667.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4020,11 +4152,23 @@
       </c>
       <c r="DD11" t="n">
         <v>706.0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>739.0</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>767.0</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>777.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4346,11 +4490,23 @@
       </c>
       <c r="DD12" t="n">
         <v>655.0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>687.0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>698.0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>712.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4672,11 +4828,23 @@
       </c>
       <c r="DD13" t="n">
         <v>2191.0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>2328.0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>2405.0</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>2503.0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>2612.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4998,11 +5166,23 @@
       </c>
       <c r="DD14" t="n">
         <v>11425.0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>11984.0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>12443.0</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>12895.0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>13373.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5324,11 +5504,23 @@
       </c>
       <c r="DD15" t="n">
         <v>2260.0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>2449.0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>2645.0</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>2802.0</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>2881.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5650,11 +5842,23 @@
       </c>
       <c r="DD16" t="n">
         <v>3145.0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>3343.0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>3413.0</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>3493.0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>3566.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5976,11 +6180,23 @@
       </c>
       <c r="DD17" t="n">
         <v>3893.0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>4057.0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>4157.0</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>4223.0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>4356.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6302,11 +6518,23 @@
       </c>
       <c r="DD18" t="n">
         <v>115319.0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>119105.0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>122770.0</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>126142.0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>130047.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6628,6 +6856,18 @@
       </c>
       <c r="DD19" t="n">
         <v>80457.0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>83076.0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>85622.0</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>88025.0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>91198.0</v>
       </c>
     </row>
   </sheetData>
@@ -6966,10 +7206,22 @@
       <c r="DD1" t="s">
         <v>106</v>
       </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -7290,12 +7542,24 @@
         <v>0.0</v>
       </c>
       <c r="DD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DH2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7617,11 +7881,23 @@
       </c>
       <c r="DD3" t="n">
         <v>37.0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -7943,11 +8219,23 @@
       </c>
       <c r="DD4" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -8269,11 +8557,23 @@
       </c>
       <c r="DD5" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -8595,11 +8895,23 @@
       </c>
       <c r="DD6" t="n">
         <v>515.0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>535.0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>579.0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>595.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -8921,11 +9233,23 @@
       </c>
       <c r="DD7" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9247,11 +9571,23 @@
       </c>
       <c r="DD8" t="n">
         <v>13.0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -9573,11 +9909,23 @@
       </c>
       <c r="DD9" t="n">
         <v>15.0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -9899,11 +10247,23 @@
       </c>
       <c r="DD10" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -10225,11 +10585,23 @@
       </c>
       <c r="DD11" t="n">
         <v>47.0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -10551,11 +10923,23 @@
       </c>
       <c r="DD12" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -10877,11 +11261,23 @@
       </c>
       <c r="DD13" t="n">
         <v>89.0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -11203,11 +11599,23 @@
       </c>
       <c r="DD14" t="n">
         <v>523.0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>541.0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>571.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -11529,11 +11937,23 @@
       </c>
       <c r="DD15" t="n">
         <v>86.0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -11855,11 +12275,23 @@
       </c>
       <c r="DD16" t="n">
         <v>123.0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -12181,11 +12613,23 @@
       </c>
       <c r="DD17" t="n">
         <v>195.0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>204.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -12507,11 +12951,23 @@
       </c>
       <c r="DD18" t="n">
         <v>8064.0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>8279.0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>8459.0</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>8619.0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>8692.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -12833,6 +13289,18 @@
       </c>
       <c r="DD19" t="n">
         <v>5232.0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>5357.0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>5480.0</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>5599.0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>5623.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
   <si>
     <t>02/25/20</t>
   </si>
@@ -348,6 +348,9 @@
     <t>06/14/20</t>
   </si>
   <si>
+    <t>06/15/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -785,10 +788,13 @@
       <c r="DH1" t="s">
         <v>110</v>
       </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1122,11 +1128,14 @@
       </c>
       <c r="DH2" t="n">
         <v>103.0</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>3361.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1459,12 +1468,15 @@
         <v>749.0</v>
       </c>
       <c r="DH3" t="n">
+        <v>775.0</v>
+      </c>
+      <c r="DI3" t="n">
         <v>775.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1797,12 +1809,15 @@
         <v>761.0</v>
       </c>
       <c r="DH4" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="DI4" t="n">
         <v>769.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2135,12 +2150,15 @@
         <v>2014.0</v>
       </c>
       <c r="DH5" t="n">
+        <v>2065.0</v>
+      </c>
+      <c r="DI5" t="n">
         <v>2065.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2473,12 +2491,15 @@
         <v>13054.0</v>
       </c>
       <c r="DH6" t="n">
+        <v>13422.0</v>
+      </c>
+      <c r="DI6" t="n">
         <v>13422.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2811,12 +2832,15 @@
         <v>1292.0</v>
       </c>
       <c r="DH7" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="DI7" t="n">
         <v>1347.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3149,12 +3173,15 @@
         <v>376.0</v>
       </c>
       <c r="DH8" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="DI8" t="n">
         <v>378.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3487,12 +3514,15 @@
         <v>346.0</v>
       </c>
       <c r="DH9" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="DI9" t="n">
         <v>352.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3825,12 +3855,15 @@
         <v>657.0</v>
       </c>
       <c r="DH10" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="DI10" t="n">
         <v>667.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4163,12 +4196,15 @@
         <v>767.0</v>
       </c>
       <c r="DH11" t="n">
+        <v>777.0</v>
+      </c>
+      <c r="DI11" t="n">
         <v>777.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4501,12 +4537,15 @@
         <v>698.0</v>
       </c>
       <c r="DH12" t="n">
+        <v>712.0</v>
+      </c>
+      <c r="DI12" t="n">
         <v>712.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4839,12 +4878,15 @@
         <v>2503.0</v>
       </c>
       <c r="DH13" t="n">
+        <v>2612.0</v>
+      </c>
+      <c r="DI13" t="n">
         <v>2612.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5177,12 +5219,15 @@
         <v>12895.0</v>
       </c>
       <c r="DH14" t="n">
+        <v>13373.0</v>
+      </c>
+      <c r="DI14" t="n">
         <v>13373.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5515,12 +5560,15 @@
         <v>2802.0</v>
       </c>
       <c r="DH15" t="n">
+        <v>2881.0</v>
+      </c>
+      <c r="DI15" t="n">
         <v>2881.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5853,12 +5901,15 @@
         <v>3493.0</v>
       </c>
       <c r="DH16" t="n">
+        <v>3566.0</v>
+      </c>
+      <c r="DI16" t="n">
         <v>3566.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6191,12 +6242,15 @@
         <v>4223.0</v>
       </c>
       <c r="DH17" t="n">
+        <v>4356.0</v>
+      </c>
+      <c r="DI17" t="n">
         <v>4356.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6529,12 +6583,15 @@
         <v>126142.0</v>
       </c>
       <c r="DH18" t="n">
+        <v>130047.0</v>
+      </c>
+      <c r="DI18" t="n">
         <v>130047.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6867,6 +6924,9 @@
         <v>88025.0</v>
       </c>
       <c r="DH19" t="n">
+        <v>91198.0</v>
+      </c>
+      <c r="DI19" t="n">
         <v>91198.0</v>
       </c>
     </row>
@@ -7218,10 +7278,13 @@
       <c r="DH1" t="s">
         <v>110</v>
       </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -7555,11 +7618,14 @@
       </c>
       <c r="DH2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7892,12 +7958,15 @@
         <v>41.0</v>
       </c>
       <c r="DH3" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="DI3" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -8230,12 +8299,15 @@
         <v>28.0</v>
       </c>
       <c r="DH4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DI4" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -8568,12 +8640,15 @@
         <v>64.0</v>
       </c>
       <c r="DH5" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="DI5" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -8906,12 +8981,15 @@
         <v>579.0</v>
       </c>
       <c r="DH6" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="DI6" t="n">
         <v>595.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -9244,12 +9322,15 @@
         <v>24.0</v>
       </c>
       <c r="DH7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DI7" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9582,12 +9663,15 @@
         <v>15.0</v>
       </c>
       <c r="DH8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DI8" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -9920,12 +10004,15 @@
         <v>19.0</v>
       </c>
       <c r="DH9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DI9" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -10258,12 +10345,15 @@
         <v>24.0</v>
       </c>
       <c r="DH10" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DI10" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -10596,12 +10686,15 @@
         <v>48.0</v>
       </c>
       <c r="DH11" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DI11" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -10934,12 +11027,15 @@
         <v>28.0</v>
       </c>
       <c r="DH12" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DI12" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -11272,12 +11368,15 @@
         <v>101.0</v>
       </c>
       <c r="DH13" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="DI13" t="n">
         <v>105.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -11610,12 +11709,15 @@
         <v>558.0</v>
       </c>
       <c r="DH14" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="DI14" t="n">
         <v>571.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -11948,12 +12050,15 @@
         <v>99.0</v>
       </c>
       <c r="DH15" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="DI15" t="n">
         <v>102.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -12286,12 +12391,15 @@
         <v>131.0</v>
       </c>
       <c r="DH16" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="DI16" t="n">
         <v>132.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -12624,12 +12732,15 @@
         <v>203.0</v>
       </c>
       <c r="DH17" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="DI17" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -12962,12 +13073,15 @@
         <v>8619.0</v>
       </c>
       <c r="DH18" t="n">
+        <v>8692.0</v>
+      </c>
+      <c r="DI18" t="n">
         <v>8692.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -13300,6 +13414,9 @@
         <v>5599.0</v>
       </c>
       <c r="DH19" t="n">
+        <v>5623.0</v>
+      </c>
+      <c r="DI19" t="n">
         <v>5623.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
   <si>
     <t>02/25/20</t>
   </si>
@@ -336,6 +336,12 @@
     <t>06/10/20</t>
   </si>
   <si>
+    <t>06/11/20</t>
+  </si>
+  <si>
+    <t>06/12/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -761,10 +767,16 @@
       <c r="DD1" t="s">
         <v>106</v>
       </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1086,11 +1098,17 @@
       </c>
       <c r="DD2" t="n">
         <v>95.0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1412,11 +1430,17 @@
       </c>
       <c r="DD3" t="n">
         <v>652.0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>689.0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>709.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1738,11 +1762,17 @@
       </c>
       <c r="DD4" t="n">
         <v>653.0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>729.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2064,11 +2094,17 @@
       </c>
       <c r="DD5" t="n">
         <v>1729.0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>1959.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2390,11 +2426,17 @@
       </c>
       <c r="DD6" t="n">
         <v>11290.0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>11995.0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>12535.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2716,11 +2758,17 @@
       </c>
       <c r="DD7" t="n">
         <v>1092.0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>1195.0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>1254.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3042,11 +3090,17 @@
       </c>
       <c r="DD8" t="n">
         <v>326.0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>363.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3368,11 +3422,17 @@
       </c>
       <c r="DD9" t="n">
         <v>307.0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>332.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3694,11 +3754,17 @@
       </c>
       <c r="DD10" t="n">
         <v>578.0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>635.0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>650.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4020,11 +4086,17 @@
       </c>
       <c r="DD11" t="n">
         <v>706.0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>739.0</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>747.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4346,11 +4418,17 @@
       </c>
       <c r="DD12" t="n">
         <v>655.0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>687.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4672,11 +4750,17 @@
       </c>
       <c r="DD13" t="n">
         <v>2191.0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>2328.0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>2405.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4998,11 +5082,17 @@
       </c>
       <c r="DD14" t="n">
         <v>11425.0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>11984.0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>12443.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5324,11 +5414,17 @@
       </c>
       <c r="DD15" t="n">
         <v>2260.0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>2449.0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>2645.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5650,11 +5746,17 @@
       </c>
       <c r="DD16" t="n">
         <v>3145.0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>3343.0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>3413.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5976,11 +6078,17 @@
       </c>
       <c r="DD17" t="n">
         <v>3893.0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>4057.0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>4157.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6302,11 +6410,17 @@
       </c>
       <c r="DD18" t="n">
         <v>115319.0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>119105.0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>122770.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6628,6 +6742,12 @@
       </c>
       <c r="DD19" t="n">
         <v>80457.0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>83076.0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>85622.0</v>
       </c>
     </row>
   </sheetData>
@@ -6966,10 +7086,16 @@
       <c r="DD1" t="s">
         <v>106</v>
       </c>
+      <c r="DE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -7290,12 +7416,18 @@
         <v>0.0</v>
       </c>
       <c r="DD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7617,11 +7749,17 @@
       </c>
       <c r="DD3" t="n">
         <v>37.0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -7943,11 +8081,17 @@
       </c>
       <c r="DD4" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -8269,11 +8413,17 @@
       </c>
       <c r="DD5" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -8595,11 +8745,17 @@
       </c>
       <c r="DD6" t="n">
         <v>515.0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>535.0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>550.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -8921,11 +9077,17 @@
       </c>
       <c r="DD7" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9247,11 +9409,17 @@
       </c>
       <c r="DD8" t="n">
         <v>13.0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -9573,11 +9741,17 @@
       </c>
       <c r="DD9" t="n">
         <v>15.0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -9899,11 +10073,17 @@
       </c>
       <c r="DD10" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -10225,11 +10405,17 @@
       </c>
       <c r="DD11" t="n">
         <v>47.0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -10551,11 +10737,17 @@
       </c>
       <c r="DD12" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -10877,11 +11069,17 @@
       </c>
       <c r="DD13" t="n">
         <v>89.0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -11203,11 +11401,17 @@
       </c>
       <c r="DD14" t="n">
         <v>523.0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>541.0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>551.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -11529,11 +11733,17 @@
       </c>
       <c r="DD15" t="n">
         <v>86.0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -11855,11 +12065,17 @@
       </c>
       <c r="DD16" t="n">
         <v>123.0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -12181,11 +12397,17 @@
       </c>
       <c r="DD17" t="n">
         <v>195.0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>201.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -12507,11 +12729,17 @@
       </c>
       <c r="DD18" t="n">
         <v>8064.0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>8279.0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>8459.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -12833,6 +13061,12 @@
       </c>
       <c r="DD19" t="n">
         <v>5232.0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>5357.0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>5480.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -1130,7 +1130,7 @@
         <v>103.0</v>
       </c>
       <c r="DI2" t="n">
-        <v>3361.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="3">
@@ -1471,7 +1471,7 @@
         <v>775.0</v>
       </c>
       <c r="DI3" t="n">
-        <v>775.0</v>
+        <v>789.0</v>
       </c>
     </row>
     <row r="4">
@@ -1812,7 +1812,7 @@
         <v>769.0</v>
       </c>
       <c r="DI4" t="n">
-        <v>769.0</v>
+        <v>776.0</v>
       </c>
     </row>
     <row r="5">
@@ -2153,7 +2153,7 @@
         <v>2065.0</v>
       </c>
       <c r="DI5" t="n">
-        <v>2065.0</v>
+        <v>2070.0</v>
       </c>
     </row>
     <row r="6">
@@ -2494,7 +2494,7 @@
         <v>13422.0</v>
       </c>
       <c r="DI6" t="n">
-        <v>13422.0</v>
+        <v>13542.0</v>
       </c>
     </row>
     <row r="7">
@@ -2835,7 +2835,7 @@
         <v>1347.0</v>
       </c>
       <c r="DI7" t="n">
-        <v>1347.0</v>
+        <v>1364.0</v>
       </c>
     </row>
     <row r="8">
@@ -3176,7 +3176,7 @@
         <v>378.0</v>
       </c>
       <c r="DI8" t="n">
-        <v>378.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="9">
@@ -3858,7 +3858,7 @@
         <v>667.0</v>
       </c>
       <c r="DI10" t="n">
-        <v>667.0</v>
+        <v>669.0</v>
       </c>
     </row>
     <row r="11">
@@ -4199,7 +4199,7 @@
         <v>777.0</v>
       </c>
       <c r="DI11" t="n">
-        <v>777.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="12">
@@ -4540,7 +4540,7 @@
         <v>712.0</v>
       </c>
       <c r="DI12" t="n">
-        <v>712.0</v>
+        <v>716.0</v>
       </c>
     </row>
     <row r="13">
@@ -4881,7 +4881,7 @@
         <v>2612.0</v>
       </c>
       <c r="DI13" t="n">
-        <v>2612.0</v>
+        <v>2641.0</v>
       </c>
     </row>
     <row r="14">
@@ -5222,7 +5222,7 @@
         <v>13373.0</v>
       </c>
       <c r="DI14" t="n">
-        <v>13373.0</v>
+        <v>13743.0</v>
       </c>
     </row>
     <row r="15">
@@ -5563,7 +5563,7 @@
         <v>2881.0</v>
       </c>
       <c r="DI15" t="n">
-        <v>2881.0</v>
+        <v>2913.0</v>
       </c>
     </row>
     <row r="16">
@@ -5904,7 +5904,7 @@
         <v>3566.0</v>
       </c>
       <c r="DI16" t="n">
-        <v>3566.0</v>
+        <v>3589.0</v>
       </c>
     </row>
     <row r="17">
@@ -6245,7 +6245,7 @@
         <v>4356.0</v>
       </c>
       <c r="DI17" t="n">
-        <v>4356.0</v>
+        <v>4385.0</v>
       </c>
     </row>
     <row r="18">
@@ -6586,7 +6586,7 @@
         <v>130047.0</v>
       </c>
       <c r="DI18" t="n">
-        <v>130047.0</v>
+        <v>132641.0</v>
       </c>
     </row>
     <row r="19">
@@ -6927,7 +6927,7 @@
         <v>91198.0</v>
       </c>
       <c r="DI19" t="n">
-        <v>91198.0</v>
+        <v>93448.0</v>
       </c>
     </row>
   </sheetData>
@@ -7620,7 +7620,7 @@
         <v>0.0</v>
       </c>
       <c r="DI2" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -7961,7 +7961,7 @@
         <v>41.0</v>
       </c>
       <c r="DI3" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="4">
@@ -8643,7 +8643,7 @@
         <v>65.0</v>
       </c>
       <c r="DI5" t="n">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="6">
@@ -8984,7 +8984,7 @@
         <v>595.0</v>
       </c>
       <c r="DI6" t="n">
-        <v>595.0</v>
+        <v>602.0</v>
       </c>
     </row>
     <row r="7">
@@ -11030,7 +11030,7 @@
         <v>28.0</v>
       </c>
       <c r="DI12" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="13">
@@ -11371,7 +11371,7 @@
         <v>105.0</v>
       </c>
       <c r="DI13" t="n">
-        <v>105.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="14">
@@ -11712,7 +11712,7 @@
         <v>571.0</v>
       </c>
       <c r="DI14" t="n">
-        <v>571.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="15">
@@ -12053,7 +12053,7 @@
         <v>102.0</v>
       </c>
       <c r="DI15" t="n">
-        <v>102.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="16">
@@ -12394,7 +12394,7 @@
         <v>132.0</v>
       </c>
       <c r="DI16" t="n">
-        <v>132.0</v>
+        <v>134.0</v>
       </c>
     </row>
     <row r="17">
@@ -12735,7 +12735,7 @@
         <v>204.0</v>
       </c>
       <c r="DI17" t="n">
-        <v>204.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="18">
@@ -13076,7 +13076,7 @@
         <v>8692.0</v>
       </c>
       <c r="DI18" t="n">
-        <v>8692.0</v>
+        <v>8730.0</v>
       </c>
     </row>
     <row r="19">
@@ -13417,7 +13417,7 @@
         <v>5623.0</v>
       </c>
       <c r="DI19" t="n">
-        <v>5623.0</v>
+        <v>5652.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
   <si>
     <t>02/25/20</t>
   </si>
@@ -348,6 +348,9 @@
     <t>06/14/20</t>
   </si>
   <si>
+    <t>06/15/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -785,10 +788,13 @@
       <c r="DH1" t="s">
         <v>110</v>
       </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1121,12 +1127,15 @@
         <v>103.0</v>
       </c>
       <c r="DH2" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="DI2" t="n">
         <v>103.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1460,11 +1469,14 @@
       </c>
       <c r="DH3" t="n">
         <v>775.0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>789.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1798,11 +1810,14 @@
       </c>
       <c r="DH4" t="n">
         <v>769.0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>776.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2136,11 +2151,14 @@
       </c>
       <c r="DH5" t="n">
         <v>2065.0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>2070.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2474,11 +2492,14 @@
       </c>
       <c r="DH6" t="n">
         <v>13422.0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>13542.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2812,11 +2833,14 @@
       </c>
       <c r="DH7" t="n">
         <v>1347.0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>1364.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3150,11 +3174,14 @@
       </c>
       <c r="DH8" t="n">
         <v>378.0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>383.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3487,12 +3514,15 @@
         <v>346.0</v>
       </c>
       <c r="DH9" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="DI9" t="n">
         <v>352.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3826,11 +3856,14 @@
       </c>
       <c r="DH10" t="n">
         <v>667.0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>669.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4164,11 +4197,14 @@
       </c>
       <c r="DH11" t="n">
         <v>777.0</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>784.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4502,11 +4538,14 @@
       </c>
       <c r="DH12" t="n">
         <v>712.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>716.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4840,11 +4879,14 @@
       </c>
       <c r="DH13" t="n">
         <v>2612.0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>2641.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5178,11 +5220,14 @@
       </c>
       <c r="DH14" t="n">
         <v>13373.0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>13743.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5516,11 +5561,14 @@
       </c>
       <c r="DH15" t="n">
         <v>2881.0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>2913.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5854,11 +5902,14 @@
       </c>
       <c r="DH16" t="n">
         <v>3566.0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>3589.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6192,11 +6243,14 @@
       </c>
       <c r="DH17" t="n">
         <v>4356.0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>4385.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6530,11 +6584,14 @@
       </c>
       <c r="DH18" t="n">
         <v>130047.0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>132641.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6868,6 +6925,9 @@
       </c>
       <c r="DH19" t="n">
         <v>91198.0</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>93448.0</v>
       </c>
     </row>
   </sheetData>
@@ -7218,10 +7278,13 @@
       <c r="DH1" t="s">
         <v>110</v>
       </c>
+      <c r="DI1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -7554,12 +7617,15 @@
         <v>0.0</v>
       </c>
       <c r="DH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7893,11 +7959,14 @@
       </c>
       <c r="DH3" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -8230,12 +8299,15 @@
         <v>28.0</v>
       </c>
       <c r="DH4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DI4" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -8569,11 +8641,14 @@
       </c>
       <c r="DH5" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -8907,11 +8982,14 @@
       </c>
       <c r="DH6" t="n">
         <v>595.0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>602.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -9244,12 +9322,15 @@
         <v>24.0</v>
       </c>
       <c r="DH7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DI7" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9582,12 +9663,15 @@
         <v>15.0</v>
       </c>
       <c r="DH8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DI8" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -9920,12 +10004,15 @@
         <v>19.0</v>
       </c>
       <c r="DH9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DI9" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -10258,12 +10345,15 @@
         <v>24.0</v>
       </c>
       <c r="DH10" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DI10" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -10596,12 +10686,15 @@
         <v>48.0</v>
       </c>
       <c r="DH11" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DI11" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -10935,11 +11028,14 @@
       </c>
       <c r="DH12" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -11273,11 +11369,14 @@
       </c>
       <c r="DH13" t="n">
         <v>105.0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -11611,11 +11710,14 @@
       </c>
       <c r="DH14" t="n">
         <v>571.0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>583.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -11949,11 +12051,14 @@
       </c>
       <c r="DH15" t="n">
         <v>102.0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -12287,11 +12392,14 @@
       </c>
       <c r="DH16" t="n">
         <v>132.0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -12625,11 +12733,14 @@
       </c>
       <c r="DH17" t="n">
         <v>204.0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>207.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -12963,11 +13074,14 @@
       </c>
       <c r="DH18" t="n">
         <v>8692.0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>8730.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -13301,6 +13415,9 @@
       </c>
       <c r="DH19" t="n">
         <v>5623.0</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>5652.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="131">
   <si>
     <t>02/25/20</t>
   </si>
@@ -351,6 +351,9 @@
     <t>06/15/20</t>
   </si>
   <si>
+    <t>06/16/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -791,10 +794,13 @@
       <c r="DI1" t="s">
         <v>111</v>
       </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1131,11 +1137,14 @@
       </c>
       <c r="DI2" t="n">
         <v>103.0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>8928.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1471,12 +1480,15 @@
         <v>775.0</v>
       </c>
       <c r="DI3" t="n">
+        <v>789.0</v>
+      </c>
+      <c r="DJ3" t="n">
         <v>789.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1812,12 +1824,15 @@
         <v>769.0</v>
       </c>
       <c r="DI4" t="n">
+        <v>776.0</v>
+      </c>
+      <c r="DJ4" t="n">
         <v>776.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2153,12 +2168,15 @@
         <v>2065.0</v>
       </c>
       <c r="DI5" t="n">
+        <v>2070.0</v>
+      </c>
+      <c r="DJ5" t="n">
         <v>2070.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2494,12 +2512,15 @@
         <v>13422.0</v>
       </c>
       <c r="DI6" t="n">
+        <v>13542.0</v>
+      </c>
+      <c r="DJ6" t="n">
         <v>13542.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2835,12 +2856,15 @@
         <v>1347.0</v>
       </c>
       <c r="DI7" t="n">
+        <v>1364.0</v>
+      </c>
+      <c r="DJ7" t="n">
         <v>1364.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3176,12 +3200,15 @@
         <v>378.0</v>
       </c>
       <c r="DI8" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="DJ8" t="n">
         <v>383.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3517,12 +3544,15 @@
         <v>352.0</v>
       </c>
       <c r="DI9" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="DJ9" t="n">
         <v>352.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3858,12 +3888,15 @@
         <v>667.0</v>
       </c>
       <c r="DI10" t="n">
+        <v>669.0</v>
+      </c>
+      <c r="DJ10" t="n">
         <v>669.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4199,12 +4232,15 @@
         <v>777.0</v>
       </c>
       <c r="DI11" t="n">
+        <v>784.0</v>
+      </c>
+      <c r="DJ11" t="n">
         <v>784.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4540,12 +4576,15 @@
         <v>712.0</v>
       </c>
       <c r="DI12" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="DJ12" t="n">
         <v>716.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4881,12 +4920,15 @@
         <v>2612.0</v>
       </c>
       <c r="DI13" t="n">
+        <v>2641.0</v>
+      </c>
+      <c r="DJ13" t="n">
         <v>2641.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5222,12 +5264,15 @@
         <v>13373.0</v>
       </c>
       <c r="DI14" t="n">
+        <v>13743.0</v>
+      </c>
+      <c r="DJ14" t="n">
         <v>13743.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5563,12 +5608,15 @@
         <v>2881.0</v>
       </c>
       <c r="DI15" t="n">
+        <v>2913.0</v>
+      </c>
+      <c r="DJ15" t="n">
         <v>2913.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5904,12 +5952,15 @@
         <v>3566.0</v>
       </c>
       <c r="DI16" t="n">
+        <v>3589.0</v>
+      </c>
+      <c r="DJ16" t="n">
         <v>3589.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6245,12 +6296,15 @@
         <v>4356.0</v>
       </c>
       <c r="DI17" t="n">
+        <v>4385.0</v>
+      </c>
+      <c r="DJ17" t="n">
         <v>4385.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6586,12 +6640,15 @@
         <v>130047.0</v>
       </c>
       <c r="DI18" t="n">
+        <v>132641.0</v>
+      </c>
+      <c r="DJ18" t="n">
         <v>132641.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6927,6 +6984,9 @@
         <v>91198.0</v>
       </c>
       <c r="DI19" t="n">
+        <v>93448.0</v>
+      </c>
+      <c r="DJ19" t="n">
         <v>93448.0</v>
       </c>
     </row>
@@ -7281,10 +7341,13 @@
       <c r="DI1" t="s">
         <v>111</v>
       </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -7621,11 +7684,14 @@
       </c>
       <c r="DI2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>365.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7961,12 +8027,15 @@
         <v>41.0</v>
       </c>
       <c r="DI3" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="DJ3" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -8302,12 +8371,15 @@
         <v>28.0</v>
       </c>
       <c r="DI4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DJ4" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -8643,12 +8715,15 @@
         <v>65.0</v>
       </c>
       <c r="DI5" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="DJ5" t="n">
         <v>68.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -8984,12 +9059,15 @@
         <v>595.0</v>
       </c>
       <c r="DI6" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="DJ6" t="n">
         <v>602.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -9325,12 +9403,15 @@
         <v>24.0</v>
       </c>
       <c r="DI7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DJ7" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9666,12 +9747,15 @@
         <v>15.0</v>
       </c>
       <c r="DI8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DJ8" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -10007,12 +10091,15 @@
         <v>19.0</v>
       </c>
       <c r="DI9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DJ9" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -10348,12 +10435,15 @@
         <v>24.0</v>
       </c>
       <c r="DI10" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DJ10" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -10689,12 +10779,15 @@
         <v>49.0</v>
       </c>
       <c r="DI11" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DJ11" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -11030,12 +11123,15 @@
         <v>28.0</v>
       </c>
       <c r="DI12" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="DJ12" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -11371,12 +11467,15 @@
         <v>105.0</v>
       </c>
       <c r="DI13" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="DJ13" t="n">
         <v>107.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -11712,12 +11811,15 @@
         <v>571.0</v>
       </c>
       <c r="DI14" t="n">
+        <v>583.0</v>
+      </c>
+      <c r="DJ14" t="n">
         <v>583.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -12053,12 +12155,15 @@
         <v>102.0</v>
       </c>
       <c r="DI15" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="DJ15" t="n">
         <v>104.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -12394,12 +12499,15 @@
         <v>132.0</v>
       </c>
       <c r="DI16" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="DJ16" t="n">
         <v>134.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -12735,12 +12843,15 @@
         <v>204.0</v>
       </c>
       <c r="DI17" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="DJ17" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -13076,12 +13187,15 @@
         <v>8692.0</v>
       </c>
       <c r="DI18" t="n">
+        <v>8730.0</v>
+      </c>
+      <c r="DJ18" t="n">
         <v>8730.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -13417,6 +13531,9 @@
         <v>5623.0</v>
       </c>
       <c r="DI19" t="n">
+        <v>5652.0</v>
+      </c>
+      <c r="DJ19" t="n">
         <v>5652.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="133">
   <si>
     <t>02/25/20</t>
   </si>
@@ -354,6 +354,12 @@
     <t>06/16/20</t>
   </si>
   <si>
+    <t>06/17/20</t>
+  </si>
+  <si>
+    <t>06/18/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -797,10 +803,16 @@
       <c r="DJ1" t="s">
         <v>112</v>
       </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1139,12 +1151,18 @@
         <v>103.0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>8928.0</v>
+        <v>105.0</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1483,12 +1501,18 @@
         <v>789.0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>789.0</v>
+        <v>829.0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>833.0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>850.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1827,12 +1851,18 @@
         <v>776.0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>776.0</v>
+        <v>825.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>836.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>840.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2171,12 +2201,18 @@
         <v>2070.0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>2070.0</v>
+        <v>2158.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>2175.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>2209.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2515,12 +2551,18 @@
         <v>13542.0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>13542.0</v>
+        <v>14660.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>14810.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>14970.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2859,12 +2901,18 @@
         <v>1364.0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1364.0</v>
+        <v>1430.0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>1437.0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>1440.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3203,12 +3251,18 @@
         <v>383.0</v>
       </c>
       <c r="DJ8" t="n">
-        <v>383.0</v>
+        <v>434.0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>441.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3547,12 +3601,18 @@
         <v>352.0</v>
       </c>
       <c r="DJ9" t="n">
-        <v>352.0</v>
+        <v>370.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>375.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3891,12 +3951,18 @@
         <v>669.0</v>
       </c>
       <c r="DJ10" t="n">
-        <v>669.0</v>
+        <v>749.0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>753.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>756.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4235,12 +4301,18 @@
         <v>784.0</v>
       </c>
       <c r="DJ11" t="n">
-        <v>784.0</v>
+        <v>824.0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>838.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4579,12 +4651,18 @@
         <v>716.0</v>
       </c>
       <c r="DJ12" t="n">
-        <v>716.0</v>
+        <v>756.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>761.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>762.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4923,12 +5001,18 @@
         <v>2641.0</v>
       </c>
       <c r="DJ13" t="n">
-        <v>2641.0</v>
+        <v>2750.0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>2792.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>2837.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5267,12 +5351,18 @@
         <v>13743.0</v>
       </c>
       <c r="DJ14" t="n">
-        <v>13743.0</v>
+        <v>14390.0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>14443.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>14496.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5611,12 +5701,18 @@
         <v>2913.0</v>
       </c>
       <c r="DJ15" t="n">
-        <v>2913.0</v>
+        <v>3085.0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>3129.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>3153.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5955,12 +6051,18 @@
         <v>3589.0</v>
       </c>
       <c r="DJ16" t="n">
-        <v>3589.0</v>
+        <v>3858.0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>3887.0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>3913.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6299,12 +6401,18 @@
         <v>4385.0</v>
       </c>
       <c r="DJ17" t="n">
-        <v>4385.0</v>
+        <v>4646.0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>4701.0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>4730.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6643,12 +6751,18 @@
         <v>132641.0</v>
       </c>
       <c r="DJ18" t="n">
-        <v>132641.0</v>
+        <v>138416.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>139217.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>139914.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6987,7 +7101,13 @@
         <v>93448.0</v>
       </c>
       <c r="DJ19" t="n">
-        <v>93448.0</v>
+        <v>97676.0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>98132.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>98530.0</v>
       </c>
     </row>
   </sheetData>
@@ -7344,10 +7464,16 @@
       <c r="DJ1" t="s">
         <v>112</v>
       </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -7686,12 +7812,18 @@
         <v>0.0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>365.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -8030,12 +8162,18 @@
         <v>44.0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -8374,12 +8512,18 @@
         <v>28.0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -8718,12 +8862,18 @@
         <v>68.0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -9062,12 +9212,18 @@
         <v>602.0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>602.0</v>
+        <v>655.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>701.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>742.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -9406,12 +9562,18 @@
         <v>24.0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9750,12 +9912,18 @@
         <v>15.0</v>
       </c>
       <c r="DJ8" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -10095,11 +10263,17 @@
       </c>
       <c r="DJ9" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -10438,12 +10612,18 @@
         <v>24.0</v>
       </c>
       <c r="DJ10" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -10782,12 +10962,18 @@
         <v>49.0</v>
       </c>
       <c r="DJ11" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -11126,12 +11312,18 @@
         <v>29.0</v>
       </c>
       <c r="DJ12" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -11470,12 +11662,18 @@
         <v>107.0</v>
       </c>
       <c r="DJ13" t="n">
-        <v>107.0</v>
+        <v>119.0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -11814,12 +12012,18 @@
         <v>583.0</v>
       </c>
       <c r="DJ14" t="n">
-        <v>583.0</v>
+        <v>596.0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>625.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>649.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -12158,12 +12362,18 @@
         <v>104.0</v>
       </c>
       <c r="DJ15" t="n">
-        <v>104.0</v>
+        <v>112.0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -12502,12 +12712,18 @@
         <v>134.0</v>
       </c>
       <c r="DJ16" t="n">
-        <v>134.0</v>
+        <v>139.0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -12846,12 +13062,18 @@
         <v>207.0</v>
       </c>
       <c r="DJ17" t="n">
-        <v>207.0</v>
+        <v>210.0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -13190,12 +13412,18 @@
         <v>8730.0</v>
       </c>
       <c r="DJ18" t="n">
-        <v>8730.0</v>
+        <v>8988.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>9226.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>9451.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -13534,7 +13762,13 @@
         <v>5652.0</v>
       </c>
       <c r="DJ19" t="n">
-        <v>5652.0</v>
+        <v>5819.0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>5959.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>6097.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="136">
   <si>
     <t>02/25/20</t>
   </si>
@@ -360,6 +360,15 @@
     <t>06/18/20</t>
   </si>
   <si>
+    <t>06/19/20</t>
+  </si>
+  <si>
+    <t>06/20/20</t>
+  </si>
+  <si>
+    <t>06/21/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -809,10 +818,19 @@
       <c r="DL1" t="s">
         <v>114</v>
       </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1158,11 +1176,20 @@
       </c>
       <c r="DL2" t="n">
         <v>104.0</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1508,11 +1535,20 @@
       </c>
       <c r="DL3" t="n">
         <v>850.0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>994.0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>1053.0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>1067.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1858,11 +1894,20 @@
       </c>
       <c r="DL4" t="n">
         <v>840.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>1067.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>1187.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>1221.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2208,11 +2253,20 @@
       </c>
       <c r="DL5" t="n">
         <v>2209.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>2622.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>2870.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>2991.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2558,11 +2612,20 @@
       </c>
       <c r="DL6" t="n">
         <v>14970.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>18007.0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>18883.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>19302.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2908,11 +2971,20 @@
       </c>
       <c r="DL7" t="n">
         <v>1440.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>1808.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3258,11 +3330,20 @@
       </c>
       <c r="DL8" t="n">
         <v>441.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>594.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>637.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>644.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3608,11 +3689,20 @@
       </c>
       <c r="DL9" t="n">
         <v>375.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>463.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3958,11 +4048,20 @@
       </c>
       <c r="DL10" t="n">
         <v>756.0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>987.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>1069.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>1086.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4308,11 +4407,20 @@
       </c>
       <c r="DL11" t="n">
         <v>838.0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>884.0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>949.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4658,11 +4766,20 @@
       </c>
       <c r="DL12" t="n">
         <v>762.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>860.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>884.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>890.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5008,11 +5125,20 @@
       </c>
       <c r="DL13" t="n">
         <v>2837.0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>3354.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>3587.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>3735.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5358,11 +5484,20 @@
       </c>
       <c r="DL14" t="n">
         <v>14496.0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>16077.0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>16749.0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>17128.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5708,11 +5843,20 @@
       </c>
       <c r="DL15" t="n">
         <v>3153.0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>3858.0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>4087.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>4280.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6058,11 +6202,20 @@
       </c>
       <c r="DL16" t="n">
         <v>3913.0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>4450.0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>4577.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>4687.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6408,11 +6561,20 @@
       </c>
       <c r="DL17" t="n">
         <v>4730.0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>5415.0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>5647.0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>5830.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6758,11 +6920,20 @@
       </c>
       <c r="DL18" t="n">
         <v>139914.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>150306.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>151396.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>153068.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -7108,6 +7279,15 @@
       </c>
       <c r="DL19" t="n">
         <v>98530.0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>105407.0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>105591.0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>106540.0</v>
       </c>
     </row>
   </sheetData>
@@ -7470,10 +7650,19 @@
       <c r="DL1" t="s">
         <v>114</v>
       </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -7818,12 +8007,21 @@
         <v>0.0</v>
       </c>
       <c r="DL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -8169,11 +8367,20 @@
       </c>
       <c r="DL3" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -8519,11 +8726,20 @@
       </c>
       <c r="DL4" t="n">
         <v>34.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -8868,12 +9084,21 @@
         <v>76.0</v>
       </c>
       <c r="DL5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DO5" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -9219,11 +9444,20 @@
       </c>
       <c r="DL6" t="n">
         <v>742.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>783.0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>808.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>829.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -9569,11 +9803,20 @@
       </c>
       <c r="DL7" t="n">
         <v>30.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9919,11 +10162,20 @@
       </c>
       <c r="DL8" t="n">
         <v>18.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -10269,11 +10521,20 @@
       </c>
       <c r="DL9" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -10619,11 +10880,20 @@
       </c>
       <c r="DL10" t="n">
         <v>31.0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -10969,11 +11239,20 @@
       </c>
       <c r="DL11" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -11319,11 +11598,20 @@
       </c>
       <c r="DL12" t="n">
         <v>36.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -11669,11 +11957,20 @@
       </c>
       <c r="DL13" t="n">
         <v>136.0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -12019,11 +12316,20 @@
       </c>
       <c r="DL14" t="n">
         <v>649.0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>715.0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>735.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -12369,11 +12675,20 @@
       </c>
       <c r="DL15" t="n">
         <v>125.0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -12719,11 +13034,20 @@
       </c>
       <c r="DL16" t="n">
         <v>155.0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -13069,11 +13393,20 @@
       </c>
       <c r="DL17" t="n">
         <v>238.0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>263.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -13419,11 +13752,20 @@
       </c>
       <c r="DL18" t="n">
         <v>9451.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>9700.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>9884.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>9928.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -13769,6 +14111,15 @@
       </c>
       <c r="DL19" t="n">
         <v>6097.0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>6255.0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>6371.0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>6387.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
   <si>
     <t>02/25/20</t>
   </si>
@@ -351,6 +351,30 @@
     <t>06/15/20</t>
   </si>
   <si>
+    <t>06/16/20</t>
+  </si>
+  <si>
+    <t>06/17/20</t>
+  </si>
+  <si>
+    <t>06/18/20</t>
+  </si>
+  <si>
+    <t>06/19/20</t>
+  </si>
+  <si>
+    <t>06/20/20</t>
+  </si>
+  <si>
+    <t>06/21/20</t>
+  </si>
+  <si>
+    <t>06/22/20</t>
+  </si>
+  <si>
+    <t>06/23/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -791,10 +815,34 @@
       <c r="DI1" t="s">
         <v>111</v>
       </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1131,11 +1179,35 @@
       </c>
       <c r="DI2" t="n">
         <v>103.0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>7538.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1472,11 +1544,35 @@
       </c>
       <c r="DI3" t="n">
         <v>789.0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>829.0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>833.0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>994.0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>1053.0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>1067.0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>1070.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1813,11 +1909,35 @@
       </c>
       <c r="DI4" t="n">
         <v>776.0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>825.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>836.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>1067.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>1187.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>1221.0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>1229.0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>1229.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2154,11 +2274,35 @@
       </c>
       <c r="DI5" t="n">
         <v>2070.0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>2158.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>2175.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>2209.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>2622.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>2870.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>2991.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>2994.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>2994.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2495,11 +2639,35 @@
       </c>
       <c r="DI6" t="n">
         <v>13542.0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>14660.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>14810.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>14970.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>18007.0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>18883.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>19302.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>19723.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>19723.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2836,11 +3004,35 @@
       </c>
       <c r="DI7" t="n">
         <v>1364.0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>1430.0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>1437.0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>1440.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>1808.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>1848.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3177,11 +3369,35 @@
       </c>
       <c r="DI8" t="n">
         <v>383.0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>594.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>637.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>644.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>646.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3518,11 +3734,35 @@
       </c>
       <c r="DI9" t="n">
         <v>352.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>463.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>464.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3859,11 +4099,35 @@
       </c>
       <c r="DI10" t="n">
         <v>669.0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>749.0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>753.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>987.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>1069.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>1105.0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>1105.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4200,11 +4464,35 @@
       </c>
       <c r="DI11" t="n">
         <v>784.0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>824.0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>838.0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>884.0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>949.0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>957.0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>957.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4541,11 +4829,35 @@
       </c>
       <c r="DI12" t="n">
         <v>716.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>761.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>860.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>884.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>890.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>894.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4882,11 +5194,35 @@
       </c>
       <c r="DI13" t="n">
         <v>2641.0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>2750.0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>2792.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>2837.0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>3354.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>3587.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>3735.0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>3767.0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>3767.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5223,11 +5559,35 @@
       </c>
       <c r="DI14" t="n">
         <v>13743.0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>14390.0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>14443.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>14496.0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>16077.0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>16749.0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>17128.0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>17536.0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>17536.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5564,11 +5924,35 @@
       </c>
       <c r="DI15" t="n">
         <v>2913.0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>3085.0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>3129.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>3153.0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>3858.0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>4087.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>4280.0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>4410.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>4410.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5905,11 +6289,35 @@
       </c>
       <c r="DI16" t="n">
         <v>3589.0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>3858.0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>3887.0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>3913.0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>4450.0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>4577.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>4687.0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>4763.0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>4763.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6246,11 +6654,35 @@
       </c>
       <c r="DI17" t="n">
         <v>4385.0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>4646.0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>4701.0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>4730.0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>5415.0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>5647.0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>5830.0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>5921.0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>5921.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6587,11 +7019,35 @@
       </c>
       <c r="DI18" t="n">
         <v>132641.0</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>138416.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>139217.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>139914.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>150306.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>151396.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>153068.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>154610.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>154610.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -6928,6 +7384,30 @@
       </c>
       <c r="DI19" t="n">
         <v>93448.0</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>97676.0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>98132.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>98530.0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>105407.0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>105591.0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>106540.0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>107731.0</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>107731.0</v>
       </c>
     </row>
   </sheetData>
@@ -7281,10 +7761,34 @@
       <c r="DI1" t="s">
         <v>111</v>
       </c>
+      <c r="DJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -7621,11 +8125,35 @@
       </c>
       <c r="DI2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>434.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7962,11 +8490,35 @@
       </c>
       <c r="DI3" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -8303,11 +8855,35 @@
       </c>
       <c r="DI4" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -8644,11 +9220,35 @@
       </c>
       <c r="DI5" t="n">
         <v>68.0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -8985,11 +9585,35 @@
       </c>
       <c r="DI6" t="n">
         <v>602.0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>655.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>701.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>742.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>783.0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>808.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>829.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>839.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>839.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -9326,11 +9950,35 @@
       </c>
       <c r="DI7" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -9667,11 +10315,35 @@
       </c>
       <c r="DI8" t="n">
         <v>15.0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -10008,11 +10680,35 @@
       </c>
       <c r="DI9" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -10349,11 +11045,35 @@
       </c>
       <c r="DI10" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -10690,11 +11410,35 @@
       </c>
       <c r="DI11" t="n">
         <v>49.0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -11031,11 +11775,35 @@
       </c>
       <c r="DI12" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -11372,11 +12140,35 @@
       </c>
       <c r="DI13" t="n">
         <v>107.0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -11713,11 +12505,35 @@
       </c>
       <c r="DI14" t="n">
         <v>583.0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>596.0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>625.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>649.0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>715.0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>735.0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>746.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -12054,11 +12870,35 @@
       </c>
       <c r="DI15" t="n">
         <v>104.0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -12395,11 +13235,35 @@
       </c>
       <c r="DI16" t="n">
         <v>134.0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -12736,11 +13600,35 @@
       </c>
       <c r="DI17" t="n">
         <v>207.0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>263.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -13077,11 +13965,35 @@
       </c>
       <c r="DI18" t="n">
         <v>8730.0</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>8988.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>9226.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>9451.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>9700.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>9884.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>9928.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>9948.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>9948.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -13418,6 +14330,30 @@
       </c>
       <c r="DI19" t="n">
         <v>5652.0</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>5819.0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>5959.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>6097.0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>6255.0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>6371.0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>6387.0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>6404.0</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>6404.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
   <si>
     <t>02/25/20</t>
   </si>
@@ -369,6 +369,12 @@
     <t>06/21/20</t>
   </si>
   <si>
+    <t>06/22/20</t>
+  </si>
+  <si>
+    <t>06/23/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -827,10 +833,16 @@
       <c r="DO1" t="s">
         <v>117</v>
       </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1185,11 +1197,17 @@
       </c>
       <c r="DO2" t="n">
         <v>36.0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>7538.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1544,11 +1562,17 @@
       </c>
       <c r="DO3" t="n">
         <v>1067.0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>1070.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1903,11 +1927,17 @@
       </c>
       <c r="DO4" t="n">
         <v>1221.0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>1229.0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>1229.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2262,11 +2292,17 @@
       </c>
       <c r="DO5" t="n">
         <v>2991.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>2994.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>2994.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2621,11 +2657,17 @@
       </c>
       <c r="DO6" t="n">
         <v>19302.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>19723.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>19723.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2980,11 +3022,17 @@
       </c>
       <c r="DO7" t="n">
         <v>1808.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>1848.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3339,11 +3387,17 @@
       </c>
       <c r="DO8" t="n">
         <v>644.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>646.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3698,11 +3752,17 @@
       </c>
       <c r="DO9" t="n">
         <v>463.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>464.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4057,11 +4117,17 @@
       </c>
       <c r="DO10" t="n">
         <v>1086.0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>1105.0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>1105.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4416,11 +4482,17 @@
       </c>
       <c r="DO11" t="n">
         <v>949.0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>957.0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>957.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4775,11 +4847,17 @@
       </c>
       <c r="DO12" t="n">
         <v>890.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>894.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5134,11 +5212,17 @@
       </c>
       <c r="DO13" t="n">
         <v>3735.0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>3767.0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>3767.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5493,11 +5577,17 @@
       </c>
       <c r="DO14" t="n">
         <v>17128.0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>17536.0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>17536.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5852,11 +5942,17 @@
       </c>
       <c r="DO15" t="n">
         <v>4280.0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>4410.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>4410.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6211,11 +6307,17 @@
       </c>
       <c r="DO16" t="n">
         <v>4687.0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>4763.0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>4763.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6570,11 +6672,17 @@
       </c>
       <c r="DO17" t="n">
         <v>5830.0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>5921.0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>5921.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -6929,11 +7037,17 @@
       </c>
       <c r="DO18" t="n">
         <v>153068.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>154610.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>154610.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -7288,6 +7402,12 @@
       </c>
       <c r="DO19" t="n">
         <v>106540.0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>107731.0</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>107731.0</v>
       </c>
     </row>
   </sheetData>
@@ -7659,10 +7779,16 @@
       <c r="DO1" t="s">
         <v>117</v>
       </c>
+      <c r="DP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -8017,11 +8143,17 @@
       </c>
       <c r="DO2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>434.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -8375,12 +8507,18 @@
         <v>55.0</v>
       </c>
       <c r="DO3" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DQ3" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -8734,12 +8872,18 @@
         <v>38.0</v>
       </c>
       <c r="DO4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DQ4" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -9093,12 +9237,18 @@
         <v>78.0</v>
       </c>
       <c r="DO5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DQ5" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -9453,11 +9603,17 @@
       </c>
       <c r="DO6" t="n">
         <v>829.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>839.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>839.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -9811,12 +9967,18 @@
         <v>32.0</v>
       </c>
       <c r="DO7" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DQ7" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10170,12 +10332,18 @@
         <v>21.0</v>
       </c>
       <c r="DO8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DQ8" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -10529,12 +10697,18 @@
         <v>24.0</v>
       </c>
       <c r="DO9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DQ9" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -10888,12 +11062,18 @@
         <v>30.0</v>
       </c>
       <c r="DO10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DQ10" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -11247,12 +11427,18 @@
         <v>53.0</v>
       </c>
       <c r="DO11" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DQ11" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -11606,12 +11792,18 @@
         <v>35.0</v>
       </c>
       <c r="DO12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DQ12" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -11966,11 +12158,17 @@
       </c>
       <c r="DO13" t="n">
         <v>149.0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -12325,11 +12523,17 @@
       </c>
       <c r="DO14" t="n">
         <v>735.0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>746.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -12684,11 +12888,17 @@
       </c>
       <c r="DO15" t="n">
         <v>144.0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -13043,11 +13253,17 @@
       </c>
       <c r="DO16" t="n">
         <v>171.0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -13401,12 +13617,18 @@
         <v>262.0</v>
       </c>
       <c r="DO17" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="DQ17" t="n">
         <v>263.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -13761,11 +13983,17 @@
       </c>
       <c r="DO18" t="n">
         <v>9928.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>9948.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>9948.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -14120,6 +14348,12 @@
       </c>
       <c r="DO19" t="n">
         <v>6387.0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>6404.0</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>6404.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="139">
   <si>
     <t>02/25/20</t>
   </si>
@@ -375,6 +375,9 @@
     <t>06/23/20</t>
   </si>
   <si>
+    <t>06/24/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -839,10 +842,13 @@
       <c r="DQ1" t="s">
         <v>119</v>
       </c>
+      <c r="DR1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1203,11 +1209,14 @@
       </c>
       <c r="DQ2" t="n">
         <v>7538.0</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>16885.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1567,12 +1576,15 @@
         <v>1070.0</v>
       </c>
       <c r="DQ3" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="DR3" t="n">
         <v>1070.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1932,12 +1944,15 @@
         <v>1229.0</v>
       </c>
       <c r="DQ4" t="n">
+        <v>1229.0</v>
+      </c>
+      <c r="DR4" t="n">
         <v>1229.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2297,12 +2312,15 @@
         <v>2994.0</v>
       </c>
       <c r="DQ5" t="n">
+        <v>2994.0</v>
+      </c>
+      <c r="DR5" t="n">
         <v>2994.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2662,12 +2680,15 @@
         <v>19723.0</v>
       </c>
       <c r="DQ6" t="n">
+        <v>19723.0</v>
+      </c>
+      <c r="DR6" t="n">
         <v>19723.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3027,12 +3048,15 @@
         <v>1848.0</v>
       </c>
       <c r="DQ7" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="DR7" t="n">
         <v>1848.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3392,12 +3416,15 @@
         <v>646.0</v>
       </c>
       <c r="DQ8" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="DR8" t="n">
         <v>646.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3757,12 +3784,15 @@
         <v>464.0</v>
       </c>
       <c r="DQ9" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="DR9" t="n">
         <v>464.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4122,12 +4152,15 @@
         <v>1105.0</v>
       </c>
       <c r="DQ10" t="n">
+        <v>1105.0</v>
+      </c>
+      <c r="DR10" t="n">
         <v>1105.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4487,12 +4520,15 @@
         <v>957.0</v>
       </c>
       <c r="DQ11" t="n">
+        <v>957.0</v>
+      </c>
+      <c r="DR11" t="n">
         <v>957.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4852,12 +4888,15 @@
         <v>894.0</v>
       </c>
       <c r="DQ12" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="DR12" t="n">
         <v>894.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5217,12 +5256,15 @@
         <v>3767.0</v>
       </c>
       <c r="DQ13" t="n">
+        <v>3767.0</v>
+      </c>
+      <c r="DR13" t="n">
         <v>3767.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5582,12 +5624,15 @@
         <v>17536.0</v>
       </c>
       <c r="DQ14" t="n">
+        <v>17536.0</v>
+      </c>
+      <c r="DR14" t="n">
         <v>17536.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5947,12 +5992,15 @@
         <v>4410.0</v>
       </c>
       <c r="DQ15" t="n">
+        <v>4410.0</v>
+      </c>
+      <c r="DR15" t="n">
         <v>4410.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6312,12 +6360,15 @@
         <v>4763.0</v>
       </c>
       <c r="DQ16" t="n">
+        <v>4763.0</v>
+      </c>
+      <c r="DR16" t="n">
         <v>4763.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6677,12 +6728,15 @@
         <v>5921.0</v>
       </c>
       <c r="DQ17" t="n">
+        <v>5921.0</v>
+      </c>
+      <c r="DR17" t="n">
         <v>5921.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -7042,12 +7096,15 @@
         <v>154610.0</v>
       </c>
       <c r="DQ18" t="n">
+        <v>154610.0</v>
+      </c>
+      <c r="DR18" t="n">
         <v>154610.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -7407,6 +7464,9 @@
         <v>107731.0</v>
       </c>
       <c r="DQ19" t="n">
+        <v>107731.0</v>
+      </c>
+      <c r="DR19" t="n">
         <v>107731.0</v>
       </c>
     </row>
@@ -7785,10 +7845,13 @@
       <c r="DQ1" t="s">
         <v>119</v>
       </c>
+      <c r="DR1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -8149,11 +8212,14 @@
       </c>
       <c r="DQ2" t="n">
         <v>434.0</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>718.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -8513,12 +8579,15 @@
         <v>56.0</v>
       </c>
       <c r="DQ3" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DR3" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -8878,12 +8947,15 @@
         <v>39.0</v>
       </c>
       <c r="DQ4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DR4" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -9243,12 +9315,15 @@
         <v>78.0</v>
       </c>
       <c r="DQ5" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DR5" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -9608,12 +9683,15 @@
         <v>839.0</v>
       </c>
       <c r="DQ6" t="n">
+        <v>839.0</v>
+      </c>
+      <c r="DR6" t="n">
         <v>839.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -9973,12 +10051,15 @@
         <v>33.0</v>
       </c>
       <c r="DQ7" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DR7" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10338,12 +10419,15 @@
         <v>21.0</v>
       </c>
       <c r="DQ8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DR8" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -10703,12 +10787,15 @@
         <v>24.0</v>
       </c>
       <c r="DQ9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DR9" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -11068,12 +11155,15 @@
         <v>30.0</v>
       </c>
       <c r="DQ10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DR10" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -11433,12 +11523,15 @@
         <v>53.0</v>
       </c>
       <c r="DQ11" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DR11" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -11798,12 +11891,15 @@
         <v>35.0</v>
       </c>
       <c r="DQ12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DR12" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -12163,12 +12259,15 @@
         <v>152.0</v>
       </c>
       <c r="DQ13" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="DR13" t="n">
         <v>152.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -12528,12 +12627,15 @@
         <v>746.0</v>
       </c>
       <c r="DQ14" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="DR14" t="n">
         <v>746.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -12893,12 +12995,15 @@
         <v>145.0</v>
       </c>
       <c r="DQ15" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="DR15" t="n">
         <v>145.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -13258,12 +13363,15 @@
         <v>172.0</v>
       </c>
       <c r="DQ16" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="DR16" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -13623,12 +13731,15 @@
         <v>263.0</v>
       </c>
       <c r="DQ17" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="DR17" t="n">
         <v>263.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -13988,12 +14099,15 @@
         <v>9948.0</v>
       </c>
       <c r="DQ18" t="n">
+        <v>9948.0</v>
+      </c>
+      <c r="DR18" t="n">
         <v>9948.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -14353,6 +14467,9 @@
         <v>6404.0</v>
       </c>
       <c r="DQ19" t="n">
+        <v>6404.0</v>
+      </c>
+      <c r="DR19" t="n">
         <v>6404.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -1208,10 +1208,10 @@
         <v>36.0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>7538.0</v>
+        <v>37.0</v>
       </c>
       <c r="DR2" t="n">
-        <v>16885.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="3">
@@ -1576,10 +1576,10 @@
         <v>1070.0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1070.0</v>
+        <v>1169.0</v>
       </c>
       <c r="DR3" t="n">
-        <v>1070.0</v>
+        <v>1283.0</v>
       </c>
     </row>
     <row r="4">
@@ -1944,10 +1944,10 @@
         <v>1229.0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1229.0</v>
+        <v>1304.0</v>
       </c>
       <c r="DR4" t="n">
-        <v>1229.0</v>
+        <v>1403.0</v>
       </c>
     </row>
     <row r="5">
@@ -2312,10 +2312,10 @@
         <v>2994.0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>2994.0</v>
+        <v>3169.0</v>
       </c>
       <c r="DR5" t="n">
-        <v>2994.0</v>
+        <v>3447.0</v>
       </c>
     </row>
     <row r="6">
@@ -2680,10 +2680,10 @@
         <v>19723.0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>19723.0</v>
+        <v>20753.0</v>
       </c>
       <c r="DR6" t="n">
-        <v>19723.0</v>
+        <v>22194.0</v>
       </c>
     </row>
     <row r="7">
@@ -3048,10 +3048,10 @@
         <v>1848.0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1848.0</v>
+        <v>1892.0</v>
       </c>
       <c r="DR7" t="n">
-        <v>1848.0</v>
+        <v>1977.0</v>
       </c>
     </row>
     <row r="8">
@@ -3416,10 +3416,10 @@
         <v>646.0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>646.0</v>
+        <v>692.0</v>
       </c>
       <c r="DR8" t="n">
-        <v>646.0</v>
+        <v>754.0</v>
       </c>
     </row>
     <row r="9">
@@ -3784,10 +3784,10 @@
         <v>464.0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>464.0</v>
+        <v>510.0</v>
       </c>
       <c r="DR9" t="n">
-        <v>464.0</v>
+        <v>539.0</v>
       </c>
     </row>
     <row r="10">
@@ -4152,10 +4152,10 @@
         <v>1105.0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1105.0</v>
+        <v>1195.0</v>
       </c>
       <c r="DR10" t="n">
-        <v>1105.0</v>
+        <v>1273.0</v>
       </c>
     </row>
     <row r="11">
@@ -4520,10 +4520,10 @@
         <v>957.0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>957.0</v>
+        <v>1016.0</v>
       </c>
       <c r="DR11" t="n">
-        <v>957.0</v>
+        <v>1090.0</v>
       </c>
     </row>
     <row r="12">
@@ -4888,10 +4888,10 @@
         <v>894.0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>894.0</v>
+        <v>922.0</v>
       </c>
       <c r="DR12" t="n">
-        <v>894.0</v>
+        <v>958.0</v>
       </c>
     </row>
     <row r="13">
@@ -5256,10 +5256,10 @@
         <v>3767.0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>3767.0</v>
+        <v>3954.0</v>
       </c>
       <c r="DR13" t="n">
-        <v>3767.0</v>
+        <v>4282.0</v>
       </c>
     </row>
     <row r="14">
@@ -5624,10 +5624,10 @@
         <v>17536.0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>17536.0</v>
+        <v>18275.0</v>
       </c>
       <c r="DR14" t="n">
-        <v>17536.0</v>
+        <v>19009.0</v>
       </c>
     </row>
     <row r="15">
@@ -5992,10 +5992,10 @@
         <v>4410.0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>4410.0</v>
+        <v>4587.0</v>
       </c>
       <c r="DR15" t="n">
-        <v>4410.0</v>
+        <v>4843.0</v>
       </c>
     </row>
     <row r="16">
@@ -6360,10 +6360,10 @@
         <v>4763.0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>4763.0</v>
+        <v>5029.0</v>
       </c>
       <c r="DR16" t="n">
-        <v>4763.0</v>
+        <v>5271.0</v>
       </c>
     </row>
     <row r="17">
@@ -6728,10 +6728,10 @@
         <v>5921.0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>5921.0</v>
+        <v>6338.0</v>
       </c>
       <c r="DR17" t="n">
-        <v>5921.0</v>
+        <v>6772.0</v>
       </c>
     </row>
     <row r="18">
@@ -7096,10 +7096,10 @@
         <v>154610.0</v>
       </c>
       <c r="DQ18" t="n">
-        <v>154610.0</v>
+        <v>158633.0</v>
       </c>
       <c r="DR18" t="n">
-        <v>154610.0</v>
+        <v>163689.0</v>
       </c>
     </row>
     <row r="19">
@@ -7464,10 +7464,10 @@
         <v>107731.0</v>
       </c>
       <c r="DQ19" t="n">
-        <v>107731.0</v>
+        <v>110214.0</v>
       </c>
       <c r="DR19" t="n">
-        <v>107731.0</v>
+        <v>113261.0</v>
       </c>
     </row>
   </sheetData>
@@ -8211,10 +8211,10 @@
         <v>0.0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>434.0</v>
+        <v>0.0</v>
       </c>
       <c r="DR2" t="n">
-        <v>718.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -8579,10 +8579,10 @@
         <v>56.0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="DR3" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="4">
@@ -8947,10 +8947,10 @@
         <v>39.0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="DR4" t="n">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="5">
@@ -9315,10 +9315,10 @@
         <v>78.0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="DR5" t="n">
-        <v>78.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="6">
@@ -9683,10 +9683,10 @@
         <v>839.0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>839.0</v>
+        <v>912.0</v>
       </c>
       <c r="DR6" t="n">
-        <v>839.0</v>
+        <v>954.0</v>
       </c>
     </row>
     <row r="7">
@@ -10051,10 +10051,10 @@
         <v>33.0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="DR7" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="8">
@@ -10787,10 +10787,10 @@
         <v>24.0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="DR9" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
@@ -11155,10 +11155,10 @@
         <v>30.0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="DR10" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="11">
@@ -11523,10 +11523,10 @@
         <v>53.0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="DR11" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="12">
@@ -12259,10 +12259,10 @@
         <v>152.0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>152.0</v>
+        <v>170.0</v>
       </c>
       <c r="DR13" t="n">
-        <v>152.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="14">
@@ -12627,10 +12627,10 @@
         <v>746.0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>746.0</v>
+        <v>771.0</v>
       </c>
       <c r="DR14" t="n">
-        <v>746.0</v>
+        <v>789.0</v>
       </c>
     </row>
     <row r="15">
@@ -12995,10 +12995,10 @@
         <v>145.0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>145.0</v>
+        <v>157.0</v>
       </c>
       <c r="DR15" t="n">
-        <v>145.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="16">
@@ -13363,10 +13363,10 @@
         <v>172.0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>172.0</v>
+        <v>182.0</v>
       </c>
       <c r="DR16" t="n">
-        <v>172.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="17">
@@ -13731,10 +13731,10 @@
         <v>263.0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>263.0</v>
+        <v>281.0</v>
       </c>
       <c r="DR17" t="n">
-        <v>263.0</v>
+        <v>293.0</v>
       </c>
     </row>
     <row r="18">
@@ -14099,10 +14099,10 @@
         <v>9948.0</v>
       </c>
       <c r="DQ18" t="n">
-        <v>9948.0</v>
+        <v>10213.0</v>
       </c>
       <c r="DR18" t="n">
-        <v>9948.0</v>
+        <v>10386.0</v>
       </c>
     </row>
     <row r="19">
@@ -14467,10 +14467,10 @@
         <v>6404.0</v>
       </c>
       <c r="DQ19" t="n">
-        <v>6404.0</v>
+        <v>6583.0</v>
       </c>
       <c r="DR19" t="n">
-        <v>6404.0</v>
+        <v>6675.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="140">
   <si>
     <t>02/25/20</t>
   </si>
@@ -378,6 +378,9 @@
     <t>06/24/20</t>
   </si>
   <si>
+    <t>06/25/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -845,10 +848,13 @@
       <c r="DR1" t="s">
         <v>120</v>
       </c>
+      <c r="DS1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1212,11 +1218,14 @@
       </c>
       <c r="DR2" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1580,11 +1589,14 @@
       </c>
       <c r="DR3" t="n">
         <v>1283.0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>1387.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1948,11 +1960,14 @@
       </c>
       <c r="DR4" t="n">
         <v>1403.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>1478.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2316,11 +2331,14 @@
       </c>
       <c r="DR5" t="n">
         <v>3447.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>3651.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2684,11 +2702,14 @@
       </c>
       <c r="DR6" t="n">
         <v>22194.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>23351.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3052,11 +3073,14 @@
       </c>
       <c r="DR7" t="n">
         <v>1977.0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>2074.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3420,11 +3444,14 @@
       </c>
       <c r="DR8" t="n">
         <v>754.0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>836.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3788,11 +3815,14 @@
       </c>
       <c r="DR9" t="n">
         <v>539.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>577.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4156,11 +4186,14 @@
       </c>
       <c r="DR10" t="n">
         <v>1273.0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>1348.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4524,11 +4557,14 @@
       </c>
       <c r="DR11" t="n">
         <v>1090.0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>1132.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4892,11 +4928,14 @@
       </c>
       <c r="DR12" t="n">
         <v>958.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>1003.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5260,11 +5299,14 @@
       </c>
       <c r="DR13" t="n">
         <v>4282.0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>4522.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5628,11 +5670,14 @@
       </c>
       <c r="DR14" t="n">
         <v>19009.0</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>19564.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5996,11 +6041,14 @@
       </c>
       <c r="DR15" t="n">
         <v>4843.0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>5132.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6364,11 +6412,14 @@
       </c>
       <c r="DR16" t="n">
         <v>5271.0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>5532.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6732,11 +6783,14 @@
       </c>
       <c r="DR17" t="n">
         <v>6772.0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>7294.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -7100,11 +7154,14 @@
       </c>
       <c r="DR18" t="n">
         <v>163689.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>169664.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -7468,6 +7525,9 @@
       </c>
       <c r="DR19" t="n">
         <v>113261.0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>117311.0</v>
       </c>
     </row>
   </sheetData>
@@ -7848,10 +7908,13 @@
       <c r="DR1" t="s">
         <v>120</v>
       </c>
+      <c r="DS1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -8214,12 +8277,15 @@
         <v>0.0</v>
       </c>
       <c r="DR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DS2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -8583,11 +8649,14 @@
       </c>
       <c r="DR3" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -8951,11 +9020,14 @@
       </c>
       <c r="DR4" t="n">
         <v>48.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -9319,11 +9391,14 @@
       </c>
       <c r="DR5" t="n">
         <v>89.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -9687,11 +9762,14 @@
       </c>
       <c r="DR6" t="n">
         <v>954.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>998.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -10055,11 +10133,14 @@
       </c>
       <c r="DR7" t="n">
         <v>37.0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10423,11 +10504,14 @@
       </c>
       <c r="DR8" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -10791,11 +10875,14 @@
       </c>
       <c r="DR9" t="n">
         <v>26.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -11159,11 +11246,14 @@
       </c>
       <c r="DR10" t="n">
         <v>33.0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -11527,11 +11617,14 @@
       </c>
       <c r="DR11" t="n">
         <v>55.0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -11895,11 +11988,14 @@
       </c>
       <c r="DR12" t="n">
         <v>35.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -12263,11 +12359,14 @@
       </c>
       <c r="DR13" t="n">
         <v>181.0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -12631,11 +12730,14 @@
       </c>
       <c r="DR14" t="n">
         <v>789.0</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>837.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -12999,11 +13101,14 @@
       </c>
       <c r="DR15" t="n">
         <v>163.0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -13367,11 +13472,14 @@
       </c>
       <c r="DR16" t="n">
         <v>184.0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -13735,11 +13843,14 @@
       </c>
       <c r="DR17" t="n">
         <v>293.0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>307.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -14103,11 +14214,14 @@
       </c>
       <c r="DR18" t="n">
         <v>10386.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>10644.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -14471,6 +14585,9 @@
       </c>
       <c r="DR19" t="n">
         <v>6675.0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>6794.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="143">
   <si>
     <t>02/25/20</t>
   </si>
@@ -381,6 +381,15 @@
     <t>06/25/20</t>
   </si>
   <si>
+    <t>06/26/20</t>
+  </si>
+  <si>
+    <t>06/27/20</t>
+  </si>
+  <si>
+    <t>06/28/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -851,10 +860,19 @@
       <c r="DS1" t="s">
         <v>121</v>
       </c>
+      <c r="DT1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1221,11 +1239,20 @@
       </c>
       <c r="DS2" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1592,11 +1619,20 @@
       </c>
       <c r="DS3" t="n">
         <v>1387.0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>1468.0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>1589.0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>1634.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1963,11 +1999,20 @@
       </c>
       <c r="DS4" t="n">
         <v>1478.0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>1599.0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>1679.0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>1743.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2334,11 +2379,20 @@
       </c>
       <c r="DS5" t="n">
         <v>3651.0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>3833.0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>4019.0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>4182.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2705,11 +2759,20 @@
       </c>
       <c r="DS6" t="n">
         <v>23351.0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>24813.0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>26040.0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>27054.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3076,11 +3139,20 @@
       </c>
       <c r="DS7" t="n">
         <v>2074.0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>2176.0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>2265.0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>2369.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3447,11 +3519,20 @@
       </c>
       <c r="DS8" t="n">
         <v>836.0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>908.0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>976.0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>995.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3818,11 +3899,20 @@
       </c>
       <c r="DS9" t="n">
         <v>577.0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>691.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4189,11 +4279,20 @@
       </c>
       <c r="DS10" t="n">
         <v>1348.0</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>1417.0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>1512.0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>1534.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4560,11 +4659,20 @@
       </c>
       <c r="DS11" t="n">
         <v>1132.0</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>1187.0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>1251.0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>1419.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4931,11 +5039,20 @@
       </c>
       <c r="DS12" t="n">
         <v>1003.0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>1041.0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>1076.0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>1102.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5302,11 +5419,20 @@
       </c>
       <c r="DS13" t="n">
         <v>4522.0</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>4930.0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>5236.0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>5418.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5673,11 +5799,20 @@
       </c>
       <c r="DS14" t="n">
         <v>19564.0</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>20109.0</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>20655.0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>21032.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -6044,11 +6179,20 @@
       </c>
       <c r="DS15" t="n">
         <v>5132.0</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>5488.0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>5793.0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>6110.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6415,11 +6559,20 @@
       </c>
       <c r="DS16" t="n">
         <v>5532.0</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>5714.0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>6038.0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>6248.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6786,11 +6939,20 @@
       </c>
       <c r="DS17" t="n">
         <v>7294.0</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>7764.0</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>8193.0</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>8890.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -7157,11 +7319,20 @@
       </c>
       <c r="DS18" t="n">
         <v>169664.0</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>175415.0</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>178556.0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>181267.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -7528,6 +7699,15 @@
       </c>
       <c r="DS19" t="n">
         <v>117311.0</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>121163.0</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>122759.0</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>124105.0</v>
       </c>
     </row>
   </sheetData>
@@ -7911,10 +8091,19 @@
       <c r="DS1" t="s">
         <v>121</v>
       </c>
+      <c r="DT1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -8280,12 +8469,21 @@
         <v>0.0</v>
       </c>
       <c r="DS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DV2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -8652,11 +8850,20 @@
       </c>
       <c r="DS3" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -9023,11 +9230,20 @@
       </c>
       <c r="DS4" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -9394,11 +9610,20 @@
       </c>
       <c r="DS5" t="n">
         <v>91.0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -9765,11 +9990,20 @@
       </c>
       <c r="DS6" t="n">
         <v>998.0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>1049.0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>1065.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -10135,12 +10369,21 @@
         <v>37.0</v>
       </c>
       <c r="DS7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DV7" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10507,11 +10750,20 @@
       </c>
       <c r="DS8" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -10878,11 +11130,20 @@
       </c>
       <c r="DS9" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -11248,12 +11509,21 @@
         <v>33.0</v>
       </c>
       <c r="DS10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DV10" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -11620,11 +11890,20 @@
       </c>
       <c r="DS11" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -11991,11 +12270,20 @@
       </c>
       <c r="DS12" t="n">
         <v>36.0</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -12362,11 +12650,20 @@
       </c>
       <c r="DS13" t="n">
         <v>192.0</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -12733,11 +13030,20 @@
       </c>
       <c r="DS14" t="n">
         <v>837.0</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>844.0</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>863.0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>877.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -13104,11 +13410,20 @@
       </c>
       <c r="DS15" t="n">
         <v>165.0</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>185.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -13475,11 +13790,20 @@
       </c>
       <c r="DS16" t="n">
         <v>191.0</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -13846,11 +14170,20 @@
       </c>
       <c r="DS17" t="n">
         <v>307.0</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>329.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -14217,11 +14550,20 @@
       </c>
       <c r="DS18" t="n">
         <v>10644.0</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>10779.0</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>10969.0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>11005.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -14588,6 +14930,15 @@
       </c>
       <c r="DS19" t="n">
         <v>6794.0</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>6880.0</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>6982.0</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>7003.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="144">
   <si>
     <t>02/25/20</t>
   </si>
@@ -390,6 +390,9 @@
     <t>06/28/20</t>
   </si>
   <si>
+    <t>06/29/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -869,10 +872,13 @@
       <c r="DV1" t="s">
         <v>124</v>
       </c>
+      <c r="DW1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1248,11 +1254,14 @@
       </c>
       <c r="DV2" t="n">
         <v>49.0</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>3457.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1627,12 +1636,15 @@
         <v>1589.0</v>
       </c>
       <c r="DV3" t="n">
+        <v>1634.0</v>
+      </c>
+      <c r="DW3" t="n">
         <v>1634.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2007,12 +2019,15 @@
         <v>1679.0</v>
       </c>
       <c r="DV4" t="n">
+        <v>1743.0</v>
+      </c>
+      <c r="DW4" t="n">
         <v>1743.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2387,12 +2402,15 @@
         <v>4019.0</v>
       </c>
       <c r="DV5" t="n">
+        <v>4182.0</v>
+      </c>
+      <c r="DW5" t="n">
         <v>4182.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2767,12 +2785,15 @@
         <v>26040.0</v>
       </c>
       <c r="DV6" t="n">
+        <v>27054.0</v>
+      </c>
+      <c r="DW6" t="n">
         <v>27054.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3147,12 +3168,15 @@
         <v>2265.0</v>
       </c>
       <c r="DV7" t="n">
+        <v>2369.0</v>
+      </c>
+      <c r="DW7" t="n">
         <v>2369.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3527,12 +3551,15 @@
         <v>976.0</v>
       </c>
       <c r="DV8" t="n">
+        <v>995.0</v>
+      </c>
+      <c r="DW8" t="n">
         <v>995.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3907,12 +3934,15 @@
         <v>654.0</v>
       </c>
       <c r="DV9" t="n">
+        <v>691.0</v>
+      </c>
+      <c r="DW9" t="n">
         <v>691.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4287,12 +4317,15 @@
         <v>1512.0</v>
       </c>
       <c r="DV10" t="n">
+        <v>1534.0</v>
+      </c>
+      <c r="DW10" t="n">
         <v>1534.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4667,12 +4700,15 @@
         <v>1251.0</v>
       </c>
       <c r="DV11" t="n">
+        <v>1419.0</v>
+      </c>
+      <c r="DW11" t="n">
         <v>1419.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -5047,12 +5083,15 @@
         <v>1076.0</v>
       </c>
       <c r="DV12" t="n">
+        <v>1102.0</v>
+      </c>
+      <c r="DW12" t="n">
         <v>1102.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5427,12 +5466,15 @@
         <v>5236.0</v>
       </c>
       <c r="DV13" t="n">
+        <v>5418.0</v>
+      </c>
+      <c r="DW13" t="n">
         <v>5418.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5807,12 +5849,15 @@
         <v>20655.0</v>
       </c>
       <c r="DV14" t="n">
+        <v>21032.0</v>
+      </c>
+      <c r="DW14" t="n">
         <v>21032.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -6187,12 +6232,15 @@
         <v>5793.0</v>
       </c>
       <c r="DV15" t="n">
+        <v>6110.0</v>
+      </c>
+      <c r="DW15" t="n">
         <v>6110.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6567,12 +6615,15 @@
         <v>6038.0</v>
       </c>
       <c r="DV16" t="n">
+        <v>6248.0</v>
+      </c>
+      <c r="DW16" t="n">
         <v>6248.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6947,12 +6998,15 @@
         <v>8193.0</v>
       </c>
       <c r="DV17" t="n">
+        <v>8890.0</v>
+      </c>
+      <c r="DW17" t="n">
         <v>8890.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -7327,12 +7381,15 @@
         <v>178556.0</v>
       </c>
       <c r="DV18" t="n">
+        <v>181267.0</v>
+      </c>
+      <c r="DW18" t="n">
         <v>181267.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -7707,6 +7764,9 @@
         <v>122759.0</v>
       </c>
       <c r="DV19" t="n">
+        <v>124105.0</v>
+      </c>
+      <c r="DW19" t="n">
         <v>124105.0</v>
       </c>
     </row>
@@ -8100,10 +8160,13 @@
       <c r="DV1" t="s">
         <v>124</v>
       </c>
+      <c r="DW1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -8479,11 +8542,14 @@
       </c>
       <c r="DV2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -8858,12 +8924,15 @@
         <v>67.0</v>
       </c>
       <c r="DV3" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="DW3" t="n">
         <v>68.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -9238,12 +9307,15 @@
         <v>62.0</v>
       </c>
       <c r="DV4" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="DW4" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -9618,12 +9690,15 @@
         <v>100.0</v>
       </c>
       <c r="DV5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="DW5" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -9998,12 +10073,15 @@
         <v>1049.0</v>
       </c>
       <c r="DV6" t="n">
+        <v>1065.0</v>
+      </c>
+      <c r="DW6" t="n">
         <v>1065.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -10378,12 +10456,15 @@
         <v>38.0</v>
       </c>
       <c r="DV7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DW7" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10758,12 +10839,15 @@
         <v>28.0</v>
       </c>
       <c r="DV8" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="DW8" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -11138,12 +11222,15 @@
         <v>30.0</v>
       </c>
       <c r="DV9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DW9" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -11518,12 +11605,15 @@
         <v>38.0</v>
       </c>
       <c r="DV10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DW10" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -11898,12 +11988,15 @@
         <v>64.0</v>
       </c>
       <c r="DV11" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="DW11" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -12278,12 +12371,15 @@
         <v>37.0</v>
       </c>
       <c r="DV12" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DW12" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -12658,12 +12754,15 @@
         <v>208.0</v>
       </c>
       <c r="DV13" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="DW13" t="n">
         <v>210.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -13038,12 +13137,15 @@
         <v>863.0</v>
       </c>
       <c r="DV14" t="n">
+        <v>877.0</v>
+      </c>
+      <c r="DW14" t="n">
         <v>877.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -13418,12 +13520,15 @@
         <v>181.0</v>
       </c>
       <c r="DV15" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="DW15" t="n">
         <v>185.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -13798,12 +13903,15 @@
         <v>200.0</v>
       </c>
       <c r="DV16" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="DW16" t="n">
         <v>200.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -14178,12 +14286,15 @@
         <v>329.0</v>
       </c>
       <c r="DV17" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="DW17" t="n">
         <v>329.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -14558,12 +14669,15 @@
         <v>10969.0</v>
       </c>
       <c r="DV18" t="n">
+        <v>11005.0</v>
+      </c>
+      <c r="DW18" t="n">
         <v>11005.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -14938,6 +15052,9 @@
         <v>6982.0</v>
       </c>
       <c r="DV19" t="n">
+        <v>7003.0</v>
+      </c>
+      <c r="DW19" t="n">
         <v>7003.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="145">
   <si>
     <t>02/25/20</t>
   </si>
@@ -393,6 +393,9 @@
     <t>06/29/20</t>
   </si>
   <si>
+    <t>06/30/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -875,10 +878,13 @@
       <c r="DW1" t="s">
         <v>125</v>
       </c>
+      <c r="DX1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1256,12 +1262,15 @@
         <v>49.0</v>
       </c>
       <c r="DW2" t="n">
-        <v>3457.0</v>
+        <v>50.0</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1639,12 +1648,15 @@
         <v>1634.0</v>
       </c>
       <c r="DW3" t="n">
-        <v>1634.0</v>
+        <v>1668.0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>1715.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2022,12 +2034,15 @@
         <v>1743.0</v>
       </c>
       <c r="DW4" t="n">
-        <v>1743.0</v>
+        <v>1752.0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>1813.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2405,12 +2420,15 @@
         <v>4182.0</v>
       </c>
       <c r="DW5" t="n">
-        <v>4182.0</v>
+        <v>4258.0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>4424.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2788,12 +2806,15 @@
         <v>27054.0</v>
       </c>
       <c r="DW6" t="n">
-        <v>27054.0</v>
+        <v>27402.0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>28481.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3171,12 +3192,15 @@
         <v>2369.0</v>
       </c>
       <c r="DW7" t="n">
-        <v>2369.0</v>
+        <v>2407.0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>2425.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3554,12 +3578,15 @@
         <v>995.0</v>
       </c>
       <c r="DW8" t="n">
-        <v>995.0</v>
+        <v>999.0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>1041.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3937,12 +3964,15 @@
         <v>691.0</v>
       </c>
       <c r="DW9" t="n">
-        <v>691.0</v>
+        <v>711.0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>736.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4320,12 +4350,15 @@
         <v>1534.0</v>
       </c>
       <c r="DW10" t="n">
-        <v>1534.0</v>
+        <v>1554.0</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>1611.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4703,12 +4736,15 @@
         <v>1419.0</v>
       </c>
       <c r="DW11" t="n">
-        <v>1419.0</v>
+        <v>1445.0</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>1481.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -5086,12 +5122,15 @@
         <v>1102.0</v>
       </c>
       <c r="DW12" t="n">
-        <v>1102.0</v>
+        <v>1108.0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>1151.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5469,12 +5508,15 @@
         <v>5418.0</v>
       </c>
       <c r="DW13" t="n">
-        <v>5418.0</v>
+        <v>5548.0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>5694.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5852,12 +5894,15 @@
         <v>21032.0</v>
       </c>
       <c r="DW14" t="n">
-        <v>21032.0</v>
+        <v>21294.0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>21605.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -6235,12 +6280,15 @@
         <v>6110.0</v>
       </c>
       <c r="DW15" t="n">
-        <v>6110.0</v>
+        <v>6359.0</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>6495.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6618,12 +6666,15 @@
         <v>6248.0</v>
       </c>
       <c r="DW16" t="n">
-        <v>6248.0</v>
+        <v>6413.0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>6543.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -7001,12 +7052,15 @@
         <v>8890.0</v>
       </c>
       <c r="DW17" t="n">
-        <v>8890.0</v>
+        <v>9247.0</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>9492.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -7384,12 +7438,15 @@
         <v>181267.0</v>
       </c>
       <c r="DW18" t="n">
-        <v>181267.0</v>
+        <v>182930.0</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>186622.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -7767,7 +7824,10 @@
         <v>124105.0</v>
       </c>
       <c r="DW19" t="n">
-        <v>124105.0</v>
+        <v>125012.0</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>127119.0</v>
       </c>
     </row>
   </sheetData>
@@ -8163,10 +8223,13 @@
       <c r="DW1" t="s">
         <v>125</v>
       </c>
+      <c r="DX1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -8544,12 +8607,15 @@
         <v>0.0</v>
       </c>
       <c r="DW2" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -8927,12 +8993,15 @@
         <v>68.0</v>
       </c>
       <c r="DW3" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -9311,11 +9380,14 @@
       </c>
       <c r="DW4" t="n">
         <v>62.0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -9693,12 +9765,15 @@
         <v>100.0</v>
       </c>
       <c r="DW5" t="n">
-        <v>100.0</v>
+        <v>101.0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -10076,12 +10151,15 @@
         <v>1065.0</v>
       </c>
       <c r="DW6" t="n">
-        <v>1065.0</v>
+        <v>1078.0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>1130.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -10460,11 +10538,14 @@
       </c>
       <c r="DW7" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10843,11 +10924,14 @@
       </c>
       <c r="DW8" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -11226,11 +11310,14 @@
       </c>
       <c r="DW9" t="n">
         <v>30.0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -11609,11 +11696,14 @@
       </c>
       <c r="DW10" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -11992,11 +12082,14 @@
       </c>
       <c r="DW11" t="n">
         <v>64.0</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -12375,11 +12468,14 @@
       </c>
       <c r="DW12" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -12757,12 +12853,15 @@
         <v>210.0</v>
       </c>
       <c r="DW13" t="n">
-        <v>210.0</v>
+        <v>215.0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -13141,11 +13240,14 @@
       </c>
       <c r="DW14" t="n">
         <v>877.0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>893.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -13523,12 +13625,15 @@
         <v>185.0</v>
       </c>
       <c r="DW15" t="n">
-        <v>185.0</v>
+        <v>193.0</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>204.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -13906,12 +14011,15 @@
         <v>200.0</v>
       </c>
       <c r="DW16" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -14289,12 +14397,15 @@
         <v>329.0</v>
       </c>
       <c r="DW17" t="n">
-        <v>329.0</v>
+        <v>330.0</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>348.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -14672,12 +14783,15 @@
         <v>11005.0</v>
       </c>
       <c r="DW18" t="n">
-        <v>11005.0</v>
+        <v>11034.0</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>11252.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -15055,7 +15169,10 @@
         <v>7003.0</v>
       </c>
       <c r="DW19" t="n">
-        <v>7003.0</v>
+        <v>7026.0</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>7162.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
   <si>
     <t>02/25/20</t>
   </si>
@@ -396,6 +396,9 @@
     <t>06/30/20</t>
   </si>
   <si>
+    <t>07/01/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -881,10 +884,13 @@
       <c r="DX1" t="s">
         <v>126</v>
       </c>
+      <c r="DY1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1266,11 +1272,14 @@
       </c>
       <c r="DX2" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>8606.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1651,12 +1660,15 @@
         <v>1668.0</v>
       </c>
       <c r="DX3" t="n">
+        <v>1715.0</v>
+      </c>
+      <c r="DY3" t="n">
         <v>1715.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2037,12 +2049,15 @@
         <v>1752.0</v>
       </c>
       <c r="DX4" t="n">
+        <v>1813.0</v>
+      </c>
+      <c r="DY4" t="n">
         <v>1813.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2423,12 +2438,15 @@
         <v>4258.0</v>
       </c>
       <c r="DX5" t="n">
+        <v>4424.0</v>
+      </c>
+      <c r="DY5" t="n">
         <v>4424.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2809,12 +2827,15 @@
         <v>27402.0</v>
       </c>
       <c r="DX6" t="n">
+        <v>28481.0</v>
+      </c>
+      <c r="DY6" t="n">
         <v>28481.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3195,12 +3216,15 @@
         <v>2407.0</v>
       </c>
       <c r="DX7" t="n">
+        <v>2425.0</v>
+      </c>
+      <c r="DY7" t="n">
         <v>2425.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3581,12 +3605,15 @@
         <v>999.0</v>
       </c>
       <c r="DX8" t="n">
+        <v>1041.0</v>
+      </c>
+      <c r="DY8" t="n">
         <v>1041.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3967,12 +3994,15 @@
         <v>711.0</v>
       </c>
       <c r="DX9" t="n">
+        <v>736.0</v>
+      </c>
+      <c r="DY9" t="n">
         <v>736.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4353,12 +4383,15 @@
         <v>1554.0</v>
       </c>
       <c r="DX10" t="n">
+        <v>1611.0</v>
+      </c>
+      <c r="DY10" t="n">
         <v>1611.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4739,12 +4772,15 @@
         <v>1445.0</v>
       </c>
       <c r="DX11" t="n">
+        <v>1481.0</v>
+      </c>
+      <c r="DY11" t="n">
         <v>1481.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -5125,12 +5161,15 @@
         <v>1108.0</v>
       </c>
       <c r="DX12" t="n">
+        <v>1151.0</v>
+      </c>
+      <c r="DY12" t="n">
         <v>1151.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5511,12 +5550,15 @@
         <v>5548.0</v>
       </c>
       <c r="DX13" t="n">
+        <v>5694.0</v>
+      </c>
+      <c r="DY13" t="n">
         <v>5694.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5897,12 +5939,15 @@
         <v>21294.0</v>
       </c>
       <c r="DX14" t="n">
+        <v>21605.0</v>
+      </c>
+      <c r="DY14" t="n">
         <v>21605.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -6283,12 +6328,15 @@
         <v>6359.0</v>
       </c>
       <c r="DX15" t="n">
+        <v>6495.0</v>
+      </c>
+      <c r="DY15" t="n">
         <v>6495.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6669,12 +6717,15 @@
         <v>6413.0</v>
       </c>
       <c r="DX16" t="n">
+        <v>6543.0</v>
+      </c>
+      <c r="DY16" t="n">
         <v>6543.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -7055,12 +7106,15 @@
         <v>9247.0</v>
       </c>
       <c r="DX17" t="n">
+        <v>9492.0</v>
+      </c>
+      <c r="DY17" t="n">
         <v>9492.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -7441,12 +7495,15 @@
         <v>182930.0</v>
       </c>
       <c r="DX18" t="n">
+        <v>186622.0</v>
+      </c>
+      <c r="DY18" t="n">
         <v>186622.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -7827,6 +7884,9 @@
         <v>125012.0</v>
       </c>
       <c r="DX19" t="n">
+        <v>127119.0</v>
+      </c>
+      <c r="DY19" t="n">
         <v>127119.0</v>
       </c>
     </row>
@@ -8226,10 +8286,13 @@
       <c r="DX1" t="s">
         <v>126</v>
       </c>
+      <c r="DY1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -8611,11 +8674,14 @@
       </c>
       <c r="DX2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -8996,12 +9062,15 @@
         <v>70.0</v>
       </c>
       <c r="DX3" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="DY3" t="n">
         <v>73.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -9382,12 +9451,15 @@
         <v>62.0</v>
       </c>
       <c r="DX4" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="DY4" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -9768,12 +9840,15 @@
         <v>101.0</v>
       </c>
       <c r="DX5" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="DY5" t="n">
         <v>102.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -10154,12 +10229,15 @@
         <v>1078.0</v>
       </c>
       <c r="DX6" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="DY6" t="n">
         <v>1130.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -10540,12 +10618,15 @@
         <v>38.0</v>
       </c>
       <c r="DX7" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="DY7" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -10926,12 +11007,15 @@
         <v>29.0</v>
       </c>
       <c r="DX8" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DY8" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -11312,12 +11396,15 @@
         <v>30.0</v>
       </c>
       <c r="DX9" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DY9" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -11698,12 +11785,15 @@
         <v>38.0</v>
       </c>
       <c r="DX10" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DY10" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -12084,12 +12174,15 @@
         <v>64.0</v>
       </c>
       <c r="DX11" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="DY11" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -12470,12 +12563,15 @@
         <v>38.0</v>
       </c>
       <c r="DX12" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="DY12" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -12856,12 +12952,15 @@
         <v>215.0</v>
       </c>
       <c r="DX13" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="DY13" t="n">
         <v>231.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -13242,12 +13341,15 @@
         <v>877.0</v>
       </c>
       <c r="DX14" t="n">
+        <v>893.0</v>
+      </c>
+      <c r="DY14" t="n">
         <v>893.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -13628,12 +13730,15 @@
         <v>193.0</v>
       </c>
       <c r="DX15" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="DY15" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -14014,12 +14119,15 @@
         <v>201.0</v>
       </c>
       <c r="DX16" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="DY16" t="n">
         <v>211.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -14400,12 +14508,15 @@
         <v>330.0</v>
       </c>
       <c r="DX17" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="DY17" t="n">
         <v>348.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -14786,12 +14897,15 @@
         <v>11034.0</v>
       </c>
       <c r="DX18" t="n">
+        <v>11252.0</v>
+      </c>
+      <c r="DY18" t="n">
         <v>11252.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -15172,6 +15286,9 @@
         <v>7026.0</v>
       </c>
       <c r="DX19" t="n">
+        <v>7162.0</v>
+      </c>
+      <c r="DY19" t="n">
         <v>7162.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="154">
   <si>
     <t>02/25/20</t>
   </si>
@@ -399,6 +399,30 @@
     <t>07/01/20</t>
   </si>
   <si>
+    <t>07/02/20</t>
+  </si>
+  <si>
+    <t>07/03/20</t>
+  </si>
+  <si>
+    <t>07/04/20</t>
+  </si>
+  <si>
+    <t>07/05/20</t>
+  </si>
+  <si>
+    <t>07/06/20</t>
+  </si>
+  <si>
+    <t>07/07/20</t>
+  </si>
+  <si>
+    <t>07/08/20</t>
+  </si>
+  <si>
+    <t>07/09/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -887,10 +911,34 @@
       <c r="DY1" t="s">
         <v>127</v>
       </c>
+      <c r="DZ1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1274,12 +1322,36 @@
         <v>51.0</v>
       </c>
       <c r="DY2" t="n">
-        <v>8606.0</v>
+        <v>49.0</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1663,12 +1735,36 @@
         <v>1715.0</v>
       </c>
       <c r="DY3" t="n">
-        <v>1715.0</v>
+        <v>1863.0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>2140.0</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>2159.0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>2280.0</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>2371.0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>2528.0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>2706.0</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>2934.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2052,12 +2148,36 @@
         <v>1813.0</v>
       </c>
       <c r="DY4" t="n">
-        <v>1813.0</v>
+        <v>1907.0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>2087.0</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>2094.0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>2166.0</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>2174.0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>2277.0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>2401.0</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>2505.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2441,12 +2561,36 @@
         <v>4424.0</v>
       </c>
       <c r="DY5" t="n">
-        <v>4424.0</v>
+        <v>4645.0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>4890.0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>5090.0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>5103.0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>5286.0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>5289.0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>5534.0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>5693.0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>5828.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2830,12 +2974,36 @@
         <v>28481.0</v>
       </c>
       <c r="DY6" t="n">
-        <v>28481.0</v>
+        <v>30151.0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>31798.0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>33117.0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>33576.0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>34803.0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>35030.0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>37303.0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>39152.0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>40843.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3219,12 +3387,36 @@
         <v>2425.0</v>
       </c>
       <c r="DY7" t="n">
-        <v>2425.0</v>
+        <v>2531.0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>2641.0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>2712.0</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>2737.0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>2876.0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>2897.0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>2985.0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>3109.0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>3189.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3608,12 +3800,36 @@
         <v>1041.0</v>
       </c>
       <c r="DY8" t="n">
-        <v>1041.0</v>
+        <v>1092.0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>1151.0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>1206.0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>1210.0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>1271.0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>1276.0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>1364.0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>1477.0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>1562.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3997,12 +4213,36 @@
         <v>736.0</v>
       </c>
       <c r="DY9" t="n">
-        <v>736.0</v>
+        <v>759.0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>784.0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>824.0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>831.0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>864.0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>932.0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>983.0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>1027.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4386,12 +4626,36 @@
         <v>1611.0</v>
       </c>
       <c r="DY10" t="n">
-        <v>1611.0</v>
+        <v>1698.0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>1941.0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>2045.0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>2154.0</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>2259.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4775,12 +5039,36 @@
         <v>1481.0</v>
       </c>
       <c r="DY11" t="n">
-        <v>1481.0</v>
+        <v>1566.0</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>1641.0</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>1703.0</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>1731.0</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>1898.0</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>2118.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -5164,12 +5452,36 @@
         <v>1151.0</v>
       </c>
       <c r="DY12" t="n">
-        <v>1151.0</v>
+        <v>1214.0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>1299.0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>1339.0</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>1340.0</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>1363.0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>1372.0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>1417.0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>1532.0</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>1573.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5553,12 +5865,36 @@
         <v>5694.0</v>
       </c>
       <c r="DY13" t="n">
-        <v>5694.0</v>
+        <v>5990.0</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>6326.0</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>6826.0</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>7010.0</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>7301.0</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>7341.0</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>7952.0</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>8395.0</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>8812.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5942,12 +6278,36 @@
         <v>21605.0</v>
       </c>
       <c r="DY14" t="n">
-        <v>21605.0</v>
+        <v>22099.0</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>22823.0</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>23547.0</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>23693.0</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>24297.0</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>25154.0</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>25802.0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>26568.0</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>27037.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -6331,12 +6691,36 @@
         <v>6495.0</v>
       </c>
       <c r="DY15" t="n">
-        <v>6495.0</v>
+        <v>6851.0</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>7232.0</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>7613.0</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>7626.0</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>8132.0</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>8303.0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>8595.0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>9040.0</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>9603.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6720,12 +7104,36 @@
         <v>6543.0</v>
       </c>
       <c r="DY16" t="n">
-        <v>6543.0</v>
+        <v>6851.0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>7104.0</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>7415.0</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>7475.0</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>7843.0</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>7977.0</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>8239.0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>8482.0</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>8679.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -7109,12 +7517,36 @@
         <v>9492.0</v>
       </c>
       <c r="DY17" t="n">
-        <v>9492.0</v>
+        <v>9920.0</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>10434.0</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>10879.0</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>10946.0</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>11276.0</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>11505.0</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>11911.0</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>12167.0</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>12675.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -7498,12 +7930,36 @@
         <v>186622.0</v>
       </c>
       <c r="DY18" t="n">
-        <v>186622.0</v>
+        <v>190749.0</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>198260.0</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>201928.0</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>203094.0</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>206673.0</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>207514.0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>211870.0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>215426.0</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>219011.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -7887,7 +8343,31 @@
         <v>127119.0</v>
       </c>
       <c r="DY19" t="n">
-        <v>127119.0</v>
+        <v>129328.0</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>134984.0</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>137074.0</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>137762.0</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>139871.0</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>140231.0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>142502.0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>144573.0</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>146739.0</v>
       </c>
     </row>
   </sheetData>
@@ -8289,10 +8769,34 @@
       <c r="DY1" t="s">
         <v>127</v>
       </c>
+      <c r="DZ1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -8676,12 +9180,36 @@
         <v>0.0</v>
       </c>
       <c r="DY2" t="n">
-        <v>267.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -9065,12 +9593,36 @@
         <v>73.0</v>
       </c>
       <c r="DY3" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -9454,12 +10006,36 @@
         <v>65.0</v>
       </c>
       <c r="DY4" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -9843,12 +10419,36 @@
         <v>102.0</v>
       </c>
       <c r="DY5" t="n">
-        <v>102.0</v>
+        <v>106.0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -10232,12 +10832,36 @@
         <v>1130.0</v>
       </c>
       <c r="DY6" t="n">
-        <v>1130.0</v>
+        <v>1155.0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>1196.0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>1244.0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>1280.0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>1294.0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>1309.0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>1364.0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>1421.0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>1486.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -10621,12 +11245,36 @@
         <v>40.0</v>
       </c>
       <c r="DY7" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -11011,11 +11659,35 @@
       </c>
       <c r="DY8" t="n">
         <v>31.0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -11399,12 +12071,36 @@
         <v>31.0</v>
       </c>
       <c r="DY9" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -11788,12 +12484,36 @@
         <v>45.0</v>
       </c>
       <c r="DY10" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -12177,12 +12897,36 @@
         <v>67.0</v>
       </c>
       <c r="DY11" t="n">
-        <v>67.0</v>
+        <v>69.0</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -12566,12 +13310,36 @@
         <v>40.0</v>
       </c>
       <c r="DY12" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -12955,12 +13723,36 @@
         <v>231.0</v>
       </c>
       <c r="DY13" t="n">
-        <v>231.0</v>
+        <v>239.0</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>312.0</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>327.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -13344,12 +14136,36 @@
         <v>893.0</v>
       </c>
       <c r="DY14" t="n">
-        <v>893.0</v>
+        <v>901.0</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>918.0</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>941.0</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>962.0</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>965.0</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>970.0</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>979.0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>982.0</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>1002.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -13733,12 +14549,36 @@
         <v>204.0</v>
       </c>
       <c r="DY15" t="n">
-        <v>204.0</v>
+        <v>213.0</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>291.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -14122,12 +14962,36 @@
         <v>211.0</v>
       </c>
       <c r="DY16" t="n">
-        <v>211.0</v>
+        <v>221.0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>273.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -14511,12 +15375,36 @@
         <v>348.0</v>
       </c>
       <c r="DY17" t="n">
-        <v>348.0</v>
+        <v>353.0</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>423.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -14900,12 +15788,36 @@
         <v>11252.0</v>
       </c>
       <c r="DY18" t="n">
-        <v>11252.0</v>
+        <v>11435.0</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>11642.0</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>11864.0</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>12052.0</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>12100.0</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>12124.0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>12306.0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>12501.0</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>12686.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -15289,7 +16201,31 @@
         <v>7162.0</v>
       </c>
       <c r="DY19" t="n">
-        <v>7162.0</v>
+        <v>7258.0</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>7370.0</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>7479.0</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>7597.0</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>7621.0</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>7634.0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>7743.0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>7864.0</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>7964.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="165">
   <si>
     <t>02/25/20</t>
   </si>
@@ -423,6 +423,39 @@
     <t>07/09/20</t>
   </si>
   <si>
+    <t>07/10/20</t>
+  </si>
+  <si>
+    <t>07/11/20</t>
+  </si>
+  <si>
+    <t>07/12/20</t>
+  </si>
+  <si>
+    <t>07/13/20</t>
+  </si>
+  <si>
+    <t>07/14/20</t>
+  </si>
+  <si>
+    <t>07/15/20</t>
+  </si>
+  <si>
+    <t>07/16/20</t>
+  </si>
+  <si>
+    <t>07/17/20</t>
+  </si>
+  <si>
+    <t>07/18/20</t>
+  </si>
+  <si>
+    <t>07/19/20</t>
+  </si>
+  <si>
+    <t>07/20/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -935,10 +968,43 @@
       <c r="EG1" t="s">
         <v>135</v>
       </c>
+      <c r="EH1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1347,11 +1413,44 @@
       </c>
       <c r="EG2" t="n">
         <v>60.0</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1760,11 +1859,44 @@
       </c>
       <c r="EG3" t="n">
         <v>2934.0</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>3114.0</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>3254.0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>3328.0</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>3338.0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>3536.0</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>3746.0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>3970.0</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>4119.0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>4170.0</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>4220.0</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>4232.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2173,11 +2305,44 @@
       </c>
       <c r="EG4" t="n">
         <v>2505.0</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>2619.0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>2662.0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>2689.0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>2694.0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>2818.0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>2910.0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>3004.0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>3056.0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>3086.0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>3095.0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>3102.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2586,11 +2751,44 @@
       </c>
       <c r="EG5" t="n">
         <v>5828.0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>6074.0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>6285.0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>6450.0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>6456.0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>6800.0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>6999.0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>7151.0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>7228.0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>7573.0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>7588.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2999,11 +3197,44 @@
       </c>
       <c r="EG6" t="n">
         <v>40843.0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>42553.0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>44007.0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>44724.0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>45185.0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>46923.0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>48283.0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>50177.0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>51255.0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>52136.0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>52648.0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>53105.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3412,11 +3643,44 @@
       </c>
       <c r="EG7" t="n">
         <v>3189.0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>3357.0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>3429.0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>3527.0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>3538.0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>3668.0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>3727.0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>3856.0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>3921.0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>3947.0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>3980.0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>4016.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3825,11 +4089,44 @@
       </c>
       <c r="EG8" t="n">
         <v>1562.0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>1656.0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>1772.0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>1771.0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>2053.0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>2093.0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>2118.0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>2123.0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>2128.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4238,11 +4535,44 @@
       </c>
       <c r="EG9" t="n">
         <v>1027.0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>1119.0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>1118.0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>1179.0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>1197.0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>1233.0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>1259.0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>1264.0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>1269.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4651,11 +4981,44 @@
       </c>
       <c r="EG10" t="n">
         <v>2259.0</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>2322.0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>2438.0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>2463.0</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>2466.0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>2615.0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>2724.0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>2829.0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>2897.0</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>2971.0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>2978.0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>2982.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5064,11 +5427,44 @@
       </c>
       <c r="EG11" t="n">
         <v>2118.0</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>2211.0</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>2309.0</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>2343.0</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>2352.0</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>2451.0</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>2528.0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>2643.0</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>2748.0</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>2787.0</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>2801.0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>2810.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -5477,11 +5873,44 @@
       </c>
       <c r="EG12" t="n">
         <v>1573.0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>1671.0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>1695.0</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>1701.0</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>1713.0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>1767.0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>1838.0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>1983.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5890,11 +6319,44 @@
       </c>
       <c r="EG13" t="n">
         <v>8812.0</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>9471.0</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>9875.0</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>10100.0</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>10217.0</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>10703.0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>11170.0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>11679.0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>11978.0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>12247.0</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>12456.0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>12486.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -6303,11 +6765,44 @@
       </c>
       <c r="EG14" t="n">
         <v>27037.0</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>27595.0</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>28266.0</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>28417.0</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>28495.0</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>28975.0</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>29292.0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>29769.0</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>30099.0</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>30271.0</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>30361.0</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>30564.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -6716,11 +7211,44 @@
       </c>
       <c r="EG15" t="n">
         <v>9603.0</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>10209.0</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>10691.0</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>11076.0</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>11289.0</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>11837.0</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>12200.0</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>12995.0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>13356.0</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>13535.0</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>13658.0</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>13708.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -7129,11 +7657,44 @@
       </c>
       <c r="EG16" t="n">
         <v>8679.0</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>8921.0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>9154.0</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>9450.0</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>9490.0</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>9815.0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>10096.0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>10454.0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>10648.0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>10854.0</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>10971.0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>11001.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -7542,11 +8103,44 @@
       </c>
       <c r="EG17" t="n">
         <v>12675.0</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>13076.0</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>13554.0</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>13923.0</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>14059.0</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>14659.0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>14934.0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>15376.0</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>15613.0</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>15738.0</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>15843.0</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>15896.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -7955,11 +8549,44 @@
       </c>
       <c r="EG18" t="n">
         <v>219011.0</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>223150.0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>226381.0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>228854.0</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>230365.0</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>237105.0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>239732.0</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>243036.0</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>245232.0</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>247650.0</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>249039.0</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>249476.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -8368,6 +8995,39 @@
       </c>
       <c r="EG19" t="n">
         <v>146739.0</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>149431.0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>151365.0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>152806.0</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>154013.0</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>158802.0</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>160326.0</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>162242.0</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>163624.0</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>165094.0</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>166073.0</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>166348.0</v>
       </c>
     </row>
   </sheetData>
@@ -8793,10 +9453,43 @@
       <c r="EG1" t="s">
         <v>135</v>
       </c>
+      <c r="EH1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -9204,12 +9897,45 @@
         <v>0.0</v>
       </c>
       <c r="EG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ER2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -9618,11 +10344,44 @@
       </c>
       <c r="EG3" t="n">
         <v>105.0</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -10031,11 +10790,44 @@
       </c>
       <c r="EG4" t="n">
         <v>85.0</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -10444,11 +11236,44 @@
       </c>
       <c r="EG5" t="n">
         <v>127.0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -10857,11 +11682,44 @@
       </c>
       <c r="EG6" t="n">
         <v>1486.0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>1534.0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>1575.0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>1602.0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>1616.0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>1714.0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>1756.0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>1803.0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>1895.0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>1929.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -11270,11 +12128,44 @@
       </c>
       <c r="EG7" t="n">
         <v>53.0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -11683,11 +12574,44 @@
       </c>
       <c r="EG8" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -12096,11 +13020,44 @@
       </c>
       <c r="EG9" t="n">
         <v>37.0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -12509,11 +13466,44 @@
       </c>
       <c r="EG10" t="n">
         <v>60.0</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -12922,11 +13912,44 @@
       </c>
       <c r="EG11" t="n">
         <v>79.0</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -13335,11 +14358,44 @@
       </c>
       <c r="EG12" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -13748,11 +14804,44 @@
       </c>
       <c r="EG13" t="n">
         <v>327.0</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>427.0</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>433.0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>436.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -14161,11 +15250,44 @@
       </c>
       <c r="EG14" t="n">
         <v>1002.0</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>1038.0</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>1045.0</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>1045.0</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>1060.0</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>1097.0</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>1132.0</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>1151.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -14574,11 +15696,44 @@
       </c>
       <c r="EG15" t="n">
         <v>291.0</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>411.0</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>420.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -14987,11 +16142,44 @@
       </c>
       <c r="EG16" t="n">
         <v>273.0</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>383.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -15400,11 +16588,44 @@
       </c>
       <c r="EG17" t="n">
         <v>423.0</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>431.0</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>487.0</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>508.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -15813,11 +17034,44 @@
       </c>
       <c r="EG18" t="n">
         <v>12686.0</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>12889.0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>13036.0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>13117.0</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>13143.0</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>13345.0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>13529.0</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>13760.0</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>13934.0</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>14088.0</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>14116.0</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>14140.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -16226,6 +17480,39 @@
       </c>
       <c r="EG19" t="n">
         <v>7964.0</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>8089.0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>8176.0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>8212.0</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>8231.0</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>8336.0</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>8451.0</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>8585.0</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>8696.0</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>8770.0</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>8778.0</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>8799.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="166">
   <si>
     <t>02/25/20</t>
   </si>
@@ -456,6 +456,9 @@
     <t>07/20/20</t>
   </si>
   <si>
+    <t>07/21/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1001,10 +1004,13 @@
       <c r="ER1" t="s">
         <v>146</v>
       </c>
+      <c r="ES1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1445,12 +1451,15 @@
         <v>88.0</v>
       </c>
       <c r="ER2" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="ES2" t="n">
         <v>88.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1892,11 +1901,14 @@
       </c>
       <c r="ER3" t="n">
         <v>4232.0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>4491.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2338,11 +2350,14 @@
       </c>
       <c r="ER4" t="n">
         <v>3102.0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>3182.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2784,11 +2799,14 @@
       </c>
       <c r="ER5" t="n">
         <v>7588.0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>7797.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3230,11 +3248,14 @@
       </c>
       <c r="ER6" t="n">
         <v>53105.0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>54072.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3676,11 +3697,14 @@
       </c>
       <c r="ER7" t="n">
         <v>4016.0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>4120.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4122,11 +4146,14 @@
       </c>
       <c r="ER8" t="n">
         <v>2128.0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>2230.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4568,11 +4595,14 @@
       </c>
       <c r="ER9" t="n">
         <v>1269.0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>1294.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5014,11 +5044,14 @@
       </c>
       <c r="ER10" t="n">
         <v>2982.0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>3109.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5460,11 +5493,14 @@
       </c>
       <c r="ER11" t="n">
         <v>2810.0</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>2937.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -5906,11 +5942,14 @@
       </c>
       <c r="ER12" t="n">
         <v>1983.0</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>2004.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6352,11 +6391,14 @@
       </c>
       <c r="ER13" t="n">
         <v>12486.0</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>12710.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -6798,11 +6840,14 @@
       </c>
       <c r="ER14" t="n">
         <v>30564.0</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>30796.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7244,11 +7289,14 @@
       </c>
       <c r="ER15" t="n">
         <v>13708.0</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>14279.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -7690,11 +7738,14 @@
       </c>
       <c r="ER16" t="n">
         <v>11001.0</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>11211.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8136,11 +8187,14 @@
       </c>
       <c r="ER17" t="n">
         <v>15896.0</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>16283.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -8582,11 +8636,14 @@
       </c>
       <c r="ER18" t="n">
         <v>249476.0</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>252066.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9028,6 +9085,9 @@
       </c>
       <c r="ER19" t="n">
         <v>166348.0</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>167801.0</v>
       </c>
     </row>
   </sheetData>
@@ -9486,10 +9546,13 @@
       <c r="ER1" t="s">
         <v>146</v>
       </c>
+      <c r="ES1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -9930,12 +9993,15 @@
         <v>0.0</v>
       </c>
       <c r="ER2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ES2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -10377,11 +10443,14 @@
       </c>
       <c r="ER3" t="n">
         <v>143.0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -10823,11 +10892,14 @@
       </c>
       <c r="ER4" t="n">
         <v>111.0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -11269,11 +11341,14 @@
       </c>
       <c r="ER5" t="n">
         <v>169.0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -11715,11 +11790,14 @@
       </c>
       <c r="ER6" t="n">
         <v>1929.0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>2011.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -12161,11 +12239,14 @@
       </c>
       <c r="ER7" t="n">
         <v>74.0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -12607,11 +12688,14 @@
       </c>
       <c r="ER8" t="n">
         <v>60.0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -13053,11 +13137,14 @@
       </c>
       <c r="ER9" t="n">
         <v>42.0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -13499,11 +13586,14 @@
       </c>
       <c r="ER10" t="n">
         <v>73.0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -13945,11 +14035,14 @@
       </c>
       <c r="ER11" t="n">
         <v>102.0</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -14390,12 +14483,15 @@
         <v>47.0</v>
       </c>
       <c r="ER12" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="ES12" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -14837,11 +14933,14 @@
       </c>
       <c r="ER13" t="n">
         <v>436.0</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>453.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -15283,11 +15382,14 @@
       </c>
       <c r="ER14" t="n">
         <v>1151.0</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>1160.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -15729,11 +15831,14 @@
       </c>
       <c r="ER15" t="n">
         <v>420.0</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>429.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -16175,11 +16280,14 @@
       </c>
       <c r="ER16" t="n">
         <v>383.0</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>404.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -16621,11 +16729,14 @@
       </c>
       <c r="ER17" t="n">
         <v>508.0</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>528.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -17067,11 +17178,14 @@
       </c>
       <c r="ER18" t="n">
         <v>14140.0</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>14329.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -17513,6 +17627,9 @@
       </c>
       <c r="ER19" t="n">
         <v>8799.0</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>8920.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
   <si>
     <t>02/25/20</t>
   </si>
@@ -459,6 +459,9 @@
     <t>07/21/20</t>
   </si>
   <si>
+    <t>07/22/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1007,10 +1010,13 @@
       <c r="ES1" t="s">
         <v>147</v>
       </c>
+      <c r="ET1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1455,11 +1461,14 @@
       </c>
       <c r="ES2" t="n">
         <v>88.0</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>16865.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1903,12 +1912,15 @@
         <v>4232.0</v>
       </c>
       <c r="ES3" t="n">
+        <v>4491.0</v>
+      </c>
+      <c r="ET3" t="n">
         <v>4491.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2352,12 +2364,15 @@
         <v>3102.0</v>
       </c>
       <c r="ES4" t="n">
+        <v>3182.0</v>
+      </c>
+      <c r="ET4" t="n">
         <v>3182.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2801,12 +2816,15 @@
         <v>7588.0</v>
       </c>
       <c r="ES5" t="n">
+        <v>7797.0</v>
+      </c>
+      <c r="ET5" t="n">
         <v>7797.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3250,12 +3268,15 @@
         <v>53105.0</v>
       </c>
       <c r="ES6" t="n">
+        <v>54072.0</v>
+      </c>
+      <c r="ET6" t="n">
         <v>54072.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3699,12 +3720,15 @@
         <v>4016.0</v>
       </c>
       <c r="ES7" t="n">
+        <v>4120.0</v>
+      </c>
+      <c r="ET7" t="n">
         <v>4120.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4148,12 +4172,15 @@
         <v>2128.0</v>
       </c>
       <c r="ES8" t="n">
+        <v>2230.0</v>
+      </c>
+      <c r="ET8" t="n">
         <v>2230.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4597,12 +4624,15 @@
         <v>1269.0</v>
       </c>
       <c r="ES9" t="n">
+        <v>1294.0</v>
+      </c>
+      <c r="ET9" t="n">
         <v>1294.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5046,12 +5076,15 @@
         <v>2982.0</v>
       </c>
       <c r="ES10" t="n">
+        <v>3109.0</v>
+      </c>
+      <c r="ET10" t="n">
         <v>3109.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5495,12 +5528,15 @@
         <v>2810.0</v>
       </c>
       <c r="ES11" t="n">
+        <v>2937.0</v>
+      </c>
+      <c r="ET11" t="n">
         <v>2937.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -5944,12 +5980,15 @@
         <v>1983.0</v>
       </c>
       <c r="ES12" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="ET12" t="n">
         <v>2004.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6393,12 +6432,15 @@
         <v>12486.0</v>
       </c>
       <c r="ES13" t="n">
+        <v>12710.0</v>
+      </c>
+      <c r="ET13" t="n">
         <v>12710.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -6842,12 +6884,15 @@
         <v>30564.0</v>
       </c>
       <c r="ES14" t="n">
+        <v>30796.0</v>
+      </c>
+      <c r="ET14" t="n">
         <v>30796.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7291,12 +7336,15 @@
         <v>13708.0</v>
       </c>
       <c r="ES15" t="n">
+        <v>14279.0</v>
+      </c>
+      <c r="ET15" t="n">
         <v>14279.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -7740,12 +7788,15 @@
         <v>11001.0</v>
       </c>
       <c r="ES16" t="n">
+        <v>11211.0</v>
+      </c>
+      <c r="ET16" t="n">
         <v>11211.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8189,12 +8240,15 @@
         <v>15896.0</v>
       </c>
       <c r="ES17" t="n">
+        <v>16283.0</v>
+      </c>
+      <c r="ET17" t="n">
         <v>16283.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -8638,12 +8692,15 @@
         <v>249476.0</v>
       </c>
       <c r="ES18" t="n">
+        <v>252066.0</v>
+      </c>
+      <c r="ET18" t="n">
         <v>252066.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9087,6 +9144,9 @@
         <v>166348.0</v>
       </c>
       <c r="ES19" t="n">
+        <v>167801.0</v>
+      </c>
+      <c r="ET19" t="n">
         <v>167801.0</v>
       </c>
     </row>
@@ -9549,10 +9609,13 @@
       <c r="ES1" t="s">
         <v>147</v>
       </c>
+      <c r="ET1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -9997,11 +10060,14 @@
       </c>
       <c r="ES2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>361.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -10445,12 +10511,15 @@
         <v>143.0</v>
       </c>
       <c r="ES3" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="ET3" t="n">
         <v>148.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -10894,12 +10963,15 @@
         <v>111.0</v>
       </c>
       <c r="ES4" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="ET4" t="n">
         <v>119.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -11343,12 +11415,15 @@
         <v>169.0</v>
       </c>
       <c r="ES5" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="ET5" t="n">
         <v>171.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -11792,12 +11867,15 @@
         <v>1929.0</v>
       </c>
       <c r="ES6" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="ET6" t="n">
         <v>2011.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -12241,12 +12319,15 @@
         <v>74.0</v>
       </c>
       <c r="ES7" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="ET7" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -12690,12 +12771,15 @@
         <v>60.0</v>
       </c>
       <c r="ES8" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="ET8" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -13139,12 +13223,15 @@
         <v>42.0</v>
       </c>
       <c r="ES9" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="ET9" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -13588,12 +13675,15 @@
         <v>73.0</v>
       </c>
       <c r="ES10" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="ET10" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -14037,12 +14127,15 @@
         <v>102.0</v>
       </c>
       <c r="ES11" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="ET11" t="n">
         <v>109.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -14486,12 +14579,15 @@
         <v>47.0</v>
       </c>
       <c r="ES12" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="ET12" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -14935,12 +15031,15 @@
         <v>436.0</v>
       </c>
       <c r="ES13" t="n">
+        <v>453.0</v>
+      </c>
+      <c r="ET13" t="n">
         <v>453.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -15384,12 +15483,15 @@
         <v>1151.0</v>
       </c>
       <c r="ES14" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="ET14" t="n">
         <v>1160.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -15833,12 +15935,15 @@
         <v>420.0</v>
       </c>
       <c r="ES15" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="ET15" t="n">
         <v>429.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -16282,12 +16387,15 @@
         <v>383.0</v>
       </c>
       <c r="ES16" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="ET16" t="n">
         <v>404.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -16731,12 +16839,15 @@
         <v>508.0</v>
       </c>
       <c r="ES17" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="ET17" t="n">
         <v>528.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -17180,12 +17291,15 @@
         <v>14140.0</v>
       </c>
       <c r="ES18" t="n">
+        <v>14329.0</v>
+      </c>
+      <c r="ET18" t="n">
         <v>14329.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -17629,6 +17743,9 @@
         <v>8799.0</v>
       </c>
       <c r="ES19" t="n">
+        <v>8920.0</v>
+      </c>
+      <c r="ET19" t="n">
         <v>8920.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="168">
   <si>
     <t>02/25/20</t>
   </si>
@@ -462,6 +462,9 @@
     <t>07/22/20</t>
   </si>
   <si>
+    <t>07/23/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1013,10 +1016,13 @@
       <c r="ET1" t="s">
         <v>148</v>
       </c>
+      <c r="EU1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1463,12 +1469,15 @@
         <v>88.0</v>
       </c>
       <c r="ET2" t="n">
-        <v>16865.0</v>
+        <v>90.0</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1915,12 +1924,15 @@
         <v>4491.0</v>
       </c>
       <c r="ET3" t="n">
-        <v>4491.0</v>
+        <v>5079.0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>5485.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2367,12 +2379,15 @@
         <v>3182.0</v>
       </c>
       <c r="ET4" t="n">
-        <v>3182.0</v>
+        <v>3329.0</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>3465.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2819,12 +2834,15 @@
         <v>7797.0</v>
       </c>
       <c r="ET5" t="n">
-        <v>7797.0</v>
+        <v>8296.0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>8701.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3271,12 +3289,15 @@
         <v>54072.0</v>
       </c>
       <c r="ET6" t="n">
-        <v>54072.0</v>
+        <v>57292.0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>59728.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3723,12 +3744,15 @@
         <v>4120.0</v>
       </c>
       <c r="ET7" t="n">
-        <v>4120.0</v>
+        <v>4380.0</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>4559.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4175,12 +4199,15 @@
         <v>2230.0</v>
       </c>
       <c r="ET8" t="n">
-        <v>2230.0</v>
+        <v>2371.0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>2466.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4627,12 +4654,15 @@
         <v>1294.0</v>
       </c>
       <c r="ET9" t="n">
-        <v>1294.0</v>
+        <v>1391.0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>1454.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5079,12 +5109,15 @@
         <v>3109.0</v>
       </c>
       <c r="ET10" t="n">
-        <v>3109.0</v>
+        <v>3343.0</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>3562.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5531,12 +5564,15 @@
         <v>2937.0</v>
       </c>
       <c r="ET11" t="n">
-        <v>2937.0</v>
+        <v>3166.0</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>3332.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -5983,12 +6019,15 @@
         <v>2004.0</v>
       </c>
       <c r="ET12" t="n">
-        <v>2004.0</v>
+        <v>2203.0</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>2332.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6435,12 +6474,15 @@
         <v>12710.0</v>
       </c>
       <c r="ET13" t="n">
-        <v>12710.0</v>
+        <v>13534.0</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>14012.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -6887,12 +6929,15 @@
         <v>30796.0</v>
       </c>
       <c r="ET14" t="n">
-        <v>30796.0</v>
+        <v>31494.0</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>32093.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7339,12 +7384,15 @@
         <v>14279.0</v>
       </c>
       <c r="ET15" t="n">
-        <v>14279.0</v>
+        <v>15565.0</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>16168.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -7791,12 +7839,15 @@
         <v>11211.0</v>
       </c>
       <c r="ET16" t="n">
-        <v>11211.0</v>
+        <v>12047.0</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>12643.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8243,12 +8294,15 @@
         <v>16283.0</v>
       </c>
       <c r="ET17" t="n">
-        <v>16283.0</v>
+        <v>17516.0</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>18137.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -8695,12 +8749,15 @@
         <v>252066.0</v>
       </c>
       <c r="ET18" t="n">
-        <v>252066.0</v>
+        <v>258350.0</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>263778.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9147,7 +9204,10 @@
         <v>167801.0</v>
       </c>
       <c r="ET19" t="n">
-        <v>167801.0</v>
+        <v>171119.0</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>173710.0</v>
       </c>
     </row>
   </sheetData>
@@ -9612,10 +9672,13 @@
       <c r="ET1" t="s">
         <v>148</v>
       </c>
+      <c r="EU1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -10062,12 +10125,15 @@
         <v>0.0</v>
       </c>
       <c r="ET2" t="n">
-        <v>361.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -10514,12 +10580,15 @@
         <v>148.0</v>
       </c>
       <c r="ET3" t="n">
-        <v>148.0</v>
+        <v>160.0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -10966,12 +11035,15 @@
         <v>119.0</v>
       </c>
       <c r="ET4" t="n">
-        <v>119.0</v>
+        <v>123.0</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -11418,12 +11490,15 @@
         <v>171.0</v>
       </c>
       <c r="ET5" t="n">
-        <v>171.0</v>
+        <v>175.0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -11870,12 +11945,15 @@
         <v>2011.0</v>
       </c>
       <c r="ET6" t="n">
-        <v>2011.0</v>
+        <v>2070.0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>2141.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -12322,12 +12400,15 @@
         <v>77.0</v>
       </c>
       <c r="ET7" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -12774,12 +12855,15 @@
         <v>65.0</v>
       </c>
       <c r="ET8" t="n">
-        <v>65.0</v>
+        <v>76.0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -13226,12 +13310,15 @@
         <v>45.0</v>
       </c>
       <c r="ET9" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -13678,12 +13765,15 @@
         <v>76.0</v>
       </c>
       <c r="ET10" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -14130,12 +14220,15 @@
         <v>109.0</v>
       </c>
       <c r="ET11" t="n">
-        <v>109.0</v>
+        <v>112.0</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -14583,11 +14676,14 @@
       </c>
       <c r="ET12" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -15034,12 +15130,15 @@
         <v>453.0</v>
       </c>
       <c r="ET13" t="n">
-        <v>453.0</v>
+        <v>470.0</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>484.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -15486,12 +15585,15 @@
         <v>1160.0</v>
       </c>
       <c r="ET14" t="n">
-        <v>1160.0</v>
+        <v>1173.0</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>1195.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -15938,12 +16040,15 @@
         <v>429.0</v>
       </c>
       <c r="ET15" t="n">
-        <v>429.0</v>
+        <v>441.0</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>455.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -16390,12 +16495,15 @@
         <v>404.0</v>
       </c>
       <c r="ET16" t="n">
-        <v>404.0</v>
+        <v>415.0</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>429.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -16842,12 +16950,15 @@
         <v>528.0</v>
       </c>
       <c r="ET17" t="n">
-        <v>528.0</v>
+        <v>540.0</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>566.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -17294,12 +17405,15 @@
         <v>14329.0</v>
       </c>
       <c r="ET18" t="n">
-        <v>14329.0</v>
+        <v>14523.0</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>14694.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -17746,7 +17860,10 @@
         <v>8920.0</v>
       </c>
       <c r="ET19" t="n">
-        <v>8920.0</v>
+        <v>9025.0</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>9098.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="171">
   <si>
     <t>02/25/20</t>
   </si>
@@ -465,6 +465,15 @@
     <t>07/23/20</t>
   </si>
   <si>
+    <t>07/24/20</t>
+  </si>
+  <si>
+    <t>07/25/20</t>
+  </si>
+  <si>
+    <t>07/26/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1019,10 +1028,19 @@
       <c r="EU1" t="s">
         <v>149</v>
       </c>
+      <c r="EV1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1473,11 +1491,20 @@
       </c>
       <c r="EU2" t="n">
         <v>92.0</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1928,11 +1955,20 @@
       </c>
       <c r="EU3" t="n">
         <v>5485.0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>5832.0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>6224.0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>6285.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2383,11 +2419,20 @@
       </c>
       <c r="EU4" t="n">
         <v>3465.0</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>3599.0</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>3763.0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>3800.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2838,11 +2883,20 @@
       </c>
       <c r="EU5" t="n">
         <v>8701.0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>9207.0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>9634.0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>9914.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3293,11 +3347,20 @@
       </c>
       <c r="EU6" t="n">
         <v>59728.0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>62135.0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>65214.0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>65995.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3748,11 +3811,20 @@
       </c>
       <c r="EU7" t="n">
         <v>4559.0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>4700.0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>4917.0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>4960.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4203,11 +4275,20 @@
       </c>
       <c r="EU8" t="n">
         <v>2466.0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>2561.0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>2729.0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>2787.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4658,11 +4739,20 @@
       </c>
       <c r="EU9" t="n">
         <v>1454.0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>1545.0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>1661.0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>1690.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5113,11 +5203,20 @@
       </c>
       <c r="EU10" t="n">
         <v>3562.0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>3679.0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>3862.0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>3889.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5568,11 +5667,20 @@
       </c>
       <c r="EU11" t="n">
         <v>3332.0</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>3411.0</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>3690.0</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>3714.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6023,11 +6131,20 @@
       </c>
       <c r="EU12" t="n">
         <v>2332.0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>2429.0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>2712.0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>2848.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6478,11 +6595,20 @@
       </c>
       <c r="EU13" t="n">
         <v>14012.0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>14783.0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>15449.0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>15702.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -6933,11 +7059,20 @@
       </c>
       <c r="EU14" t="n">
         <v>32093.0</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>32701.0</v>
+      </c>
+      <c r="EW14" t="n">
+        <v>33869.0</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>34089.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7388,11 +7523,20 @@
       </c>
       <c r="EU15" t="n">
         <v>16168.0</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>16743.0</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>18051.0</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>18499.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -7843,11 +7987,20 @@
       </c>
       <c r="EU16" t="n">
         <v>12643.0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>13199.0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>13903.0</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>14410.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8298,11 +8451,20 @@
       </c>
       <c r="EU17" t="n">
         <v>18137.0</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>18665.0</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>19403.0</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>19564.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -8753,11 +8915,20 @@
       </c>
       <c r="EU18" t="n">
         <v>263778.0</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>267937.0</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>274307.0</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>275743.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9208,6 +9379,15 @@
       </c>
       <c r="EU19" t="n">
         <v>173710.0</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>176190.0</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>179115.0</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>179777.0</v>
       </c>
     </row>
   </sheetData>
@@ -9675,10 +9855,19 @@
       <c r="EU1" t="s">
         <v>149</v>
       </c>
+      <c r="EV1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -10128,12 +10317,21 @@
         <v>0.0</v>
       </c>
       <c r="EU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EX2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -10584,11 +10782,20 @@
       </c>
       <c r="EU3" t="n">
         <v>166.0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -11039,11 +11246,20 @@
       </c>
       <c r="EU4" t="n">
         <v>124.0</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -11494,11 +11710,20 @@
       </c>
       <c r="EU5" t="n">
         <v>181.0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>193.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -11949,11 +12174,20 @@
       </c>
       <c r="EU6" t="n">
         <v>2141.0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>2183.0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>2245.0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>2266.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -12404,11 +12638,20 @@
       </c>
       <c r="EU7" t="n">
         <v>83.0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -12859,11 +13102,20 @@
       </c>
       <c r="EU8" t="n">
         <v>79.0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -13314,11 +13566,20 @@
       </c>
       <c r="EU9" t="n">
         <v>50.0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -13769,11 +14030,20 @@
       </c>
       <c r="EU10" t="n">
         <v>85.0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -14224,11 +14494,20 @@
       </c>
       <c r="EU11" t="n">
         <v>113.0</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -14679,11 +14958,20 @@
       </c>
       <c r="EU12" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -15134,11 +15422,20 @@
       </c>
       <c r="EU13" t="n">
         <v>484.0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>530.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -15589,11 +15886,20 @@
       </c>
       <c r="EU14" t="n">
         <v>1195.0</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>1216.0</v>
+      </c>
+      <c r="EW14" t="n">
+        <v>1251.0</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>1261.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -16044,11 +16350,20 @@
       </c>
       <c r="EU15" t="n">
         <v>455.0</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>503.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -16499,11 +16814,20 @@
       </c>
       <c r="EU16" t="n">
         <v>429.0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>471.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -16954,11 +17278,20 @@
       </c>
       <c r="EU17" t="n">
         <v>566.0</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>584.0</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>596.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -17409,11 +17742,20 @@
       </c>
       <c r="EU18" t="n">
         <v>14694.0</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>14839.0</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>14948.0</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>14978.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -17864,6 +18206,15 @@
       </c>
       <c r="EU19" t="n">
         <v>9098.0</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>9156.0</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>9205.0</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>9222.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="172">
   <si>
     <t>02/25/20</t>
   </si>
@@ -474,6 +474,9 @@
     <t>07/26/20</t>
   </si>
   <si>
+    <t>07/27/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1037,10 +1040,13 @@
       <c r="EX1" t="s">
         <v>152</v>
       </c>
+      <c r="EY1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1499,12 +1505,15 @@
         <v>93.0</v>
       </c>
       <c r="EX2" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="EY2" t="n">
         <v>93.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1964,11 +1973,14 @@
       </c>
       <c r="EX3" t="n">
         <v>6285.0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>6296.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2428,11 +2440,14 @@
       </c>
       <c r="EX4" t="n">
         <v>3800.0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>3804.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2892,11 +2907,14 @@
       </c>
       <c r="EX5" t="n">
         <v>9914.0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>9923.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3356,11 +3374,14 @@
       </c>
       <c r="EX6" t="n">
         <v>65995.0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>66523.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3820,11 +3841,14 @@
       </c>
       <c r="EX7" t="n">
         <v>4960.0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>4988.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4284,11 +4308,14 @@
       </c>
       <c r="EX8" t="n">
         <v>2787.0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>2794.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4748,11 +4775,14 @@
       </c>
       <c r="EX9" t="n">
         <v>1690.0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>1692.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5212,11 +5242,14 @@
       </c>
       <c r="EX10" t="n">
         <v>3889.0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>3918.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5676,11 +5709,14 @@
       </c>
       <c r="EX11" t="n">
         <v>3714.0</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>3731.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6140,11 +6176,14 @@
       </c>
       <c r="EX12" t="n">
         <v>2848.0</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>2857.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6604,11 +6643,14 @@
       </c>
       <c r="EX13" t="n">
         <v>15702.0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>15768.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7068,11 +7110,14 @@
       </c>
       <c r="EX14" t="n">
         <v>34089.0</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>34119.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7532,11 +7577,14 @@
       </c>
       <c r="EX15" t="n">
         <v>18499.0</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>18706.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -7996,11 +8044,14 @@
       </c>
       <c r="EX16" t="n">
         <v>14410.0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>14508.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8460,11 +8511,14 @@
       </c>
       <c r="EX17" t="n">
         <v>19564.0</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>19629.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -8924,11 +8978,14 @@
       </c>
       <c r="EX18" t="n">
         <v>275743.0</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>278305.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9388,6 +9445,9 @@
       </c>
       <c r="EX19" t="n">
         <v>179777.0</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>182027.0</v>
       </c>
     </row>
   </sheetData>
@@ -9864,10 +9924,13 @@
       <c r="EX1" t="s">
         <v>152</v>
       </c>
+      <c r="EY1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -10326,12 +10389,15 @@
         <v>0.0</v>
       </c>
       <c r="EX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EY2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -10790,12 +10856,15 @@
         <v>179.0</v>
       </c>
       <c r="EX3" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="EY3" t="n">
         <v>182.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -11254,12 +11323,15 @@
         <v>131.0</v>
       </c>
       <c r="EX4" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="EY4" t="n">
         <v>131.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -11718,12 +11790,15 @@
         <v>191.0</v>
       </c>
       <c r="EX5" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="EY5" t="n">
         <v>193.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -12183,11 +12258,14 @@
       </c>
       <c r="EX6" t="n">
         <v>2266.0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>2285.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -12646,12 +12724,15 @@
         <v>86.0</v>
       </c>
       <c r="EX7" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="EY7" t="n">
         <v>89.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -13110,12 +13191,15 @@
         <v>81.0</v>
       </c>
       <c r="EX8" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="EY8" t="n">
         <v>82.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -13574,12 +13658,15 @@
         <v>53.0</v>
       </c>
       <c r="EX9" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EY9" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -14039,11 +14126,14 @@
       </c>
       <c r="EX10" t="n">
         <v>89.0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -14503,11 +14593,14 @@
       </c>
       <c r="EX11" t="n">
         <v>122.0</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>126.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -14966,12 +15059,15 @@
         <v>60.0</v>
       </c>
       <c r="EX12" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="EY12" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -15431,11 +15527,14 @@
       </c>
       <c r="EX13" t="n">
         <v>530.0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>531.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -15894,12 +15993,15 @@
         <v>1251.0</v>
       </c>
       <c r="EX14" t="n">
+        <v>1261.0</v>
+      </c>
+      <c r="EY14" t="n">
         <v>1261.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -16359,11 +16461,14 @@
       </c>
       <c r="EX15" t="n">
         <v>503.0</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>514.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -16823,11 +16928,14 @@
       </c>
       <c r="EX16" t="n">
         <v>471.0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>475.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -17286,12 +17394,15 @@
         <v>595.0</v>
       </c>
       <c r="EX17" t="n">
+        <v>596.0</v>
+      </c>
+      <c r="EY17" t="n">
         <v>596.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -17751,11 +17862,14 @@
       </c>
       <c r="EX18" t="n">
         <v>14978.0</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>15008.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -18215,6 +18329,9 @@
       </c>
       <c r="EX19" t="n">
         <v>9222.0</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>9241.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="173">
   <si>
     <t>02/25/20</t>
   </si>
@@ -477,6 +477,9 @@
     <t>07/27/20</t>
   </si>
   <si>
+    <t>07/28/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1043,10 +1046,13 @@
       <c r="EY1" t="s">
         <v>153</v>
       </c>
+      <c r="EZ1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1508,12 +1514,15 @@
         <v>93.0</v>
       </c>
       <c r="EY2" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="EZ2" t="n">
         <v>93.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1975,12 +1984,15 @@
         <v>6285.0</v>
       </c>
       <c r="EY3" t="n">
+        <v>6296.0</v>
+      </c>
+      <c r="EZ3" t="n">
         <v>6296.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2442,12 +2454,15 @@
         <v>3800.0</v>
       </c>
       <c r="EY4" t="n">
+        <v>3804.0</v>
+      </c>
+      <c r="EZ4" t="n">
         <v>3804.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2909,12 +2924,15 @@
         <v>9914.0</v>
       </c>
       <c r="EY5" t="n">
+        <v>9923.0</v>
+      </c>
+      <c r="EZ5" t="n">
         <v>9923.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3376,12 +3394,15 @@
         <v>65995.0</v>
       </c>
       <c r="EY6" t="n">
+        <v>66523.0</v>
+      </c>
+      <c r="EZ6" t="n">
         <v>66523.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3843,12 +3864,15 @@
         <v>4960.0</v>
       </c>
       <c r="EY7" t="n">
+        <v>4988.0</v>
+      </c>
+      <c r="EZ7" t="n">
         <v>4988.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4310,12 +4334,15 @@
         <v>2787.0</v>
       </c>
       <c r="EY8" t="n">
+        <v>2794.0</v>
+      </c>
+      <c r="EZ8" t="n">
         <v>2794.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4777,12 +4804,15 @@
         <v>1690.0</v>
       </c>
       <c r="EY9" t="n">
+        <v>1692.0</v>
+      </c>
+      <c r="EZ9" t="n">
         <v>1692.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5244,12 +5274,15 @@
         <v>3889.0</v>
       </c>
       <c r="EY10" t="n">
+        <v>3918.0</v>
+      </c>
+      <c r="EZ10" t="n">
         <v>3918.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5711,12 +5744,15 @@
         <v>3714.0</v>
       </c>
       <c r="EY11" t="n">
+        <v>3731.0</v>
+      </c>
+      <c r="EZ11" t="n">
         <v>3731.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6178,12 +6214,15 @@
         <v>2848.0</v>
       </c>
       <c r="EY12" t="n">
+        <v>2857.0</v>
+      </c>
+      <c r="EZ12" t="n">
         <v>2857.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6645,12 +6684,15 @@
         <v>15702.0</v>
       </c>
       <c r="EY13" t="n">
+        <v>15768.0</v>
+      </c>
+      <c r="EZ13" t="n">
         <v>15768.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7112,12 +7154,15 @@
         <v>34089.0</v>
       </c>
       <c r="EY14" t="n">
+        <v>34119.0</v>
+      </c>
+      <c r="EZ14" t="n">
         <v>34119.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7579,12 +7624,15 @@
         <v>18499.0</v>
       </c>
       <c r="EY15" t="n">
+        <v>18706.0</v>
+      </c>
+      <c r="EZ15" t="n">
         <v>18706.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8046,12 +8094,15 @@
         <v>14410.0</v>
       </c>
       <c r="EY16" t="n">
+        <v>14508.0</v>
+      </c>
+      <c r="EZ16" t="n">
         <v>14508.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8513,12 +8564,15 @@
         <v>19564.0</v>
       </c>
       <c r="EY17" t="n">
+        <v>19629.0</v>
+      </c>
+      <c r="EZ17" t="n">
         <v>19629.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -8980,12 +9034,15 @@
         <v>275743.0</v>
       </c>
       <c r="EY18" t="n">
+        <v>278305.0</v>
+      </c>
+      <c r="EZ18" t="n">
         <v>278305.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9447,6 +9504,9 @@
         <v>179777.0</v>
       </c>
       <c r="EY19" t="n">
+        <v>182027.0</v>
+      </c>
+      <c r="EZ19" t="n">
         <v>182027.0</v>
       </c>
     </row>
@@ -9927,10 +9987,13 @@
       <c r="EY1" t="s">
         <v>153</v>
       </c>
+      <c r="EZ1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -10392,12 +10455,15 @@
         <v>0.0</v>
       </c>
       <c r="EY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EZ2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -10859,12 +10925,15 @@
         <v>182.0</v>
       </c>
       <c r="EY3" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="EZ3" t="n">
         <v>182.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -11326,12 +11395,15 @@
         <v>131.0</v>
       </c>
       <c r="EY4" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="EZ4" t="n">
         <v>131.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -11793,12 +11865,15 @@
         <v>193.0</v>
       </c>
       <c r="EY5" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="EZ5" t="n">
         <v>193.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -12260,12 +12335,15 @@
         <v>2266.0</v>
       </c>
       <c r="EY6" t="n">
+        <v>2285.0</v>
+      </c>
+      <c r="EZ6" t="n">
         <v>2285.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -12727,12 +12805,15 @@
         <v>89.0</v>
       </c>
       <c r="EY7" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="EZ7" t="n">
         <v>89.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -13194,12 +13275,15 @@
         <v>82.0</v>
       </c>
       <c r="EY8" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="EZ8" t="n">
         <v>82.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -13661,12 +13745,15 @@
         <v>53.0</v>
       </c>
       <c r="EY9" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EZ9" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -14128,12 +14215,15 @@
         <v>89.0</v>
       </c>
       <c r="EY10" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="EZ10" t="n">
         <v>90.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -14595,12 +14685,15 @@
         <v>122.0</v>
       </c>
       <c r="EY11" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="EZ11" t="n">
         <v>126.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -15062,12 +15155,15 @@
         <v>60.0</v>
       </c>
       <c r="EY12" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="EZ12" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -15529,12 +15625,15 @@
         <v>530.0</v>
       </c>
       <c r="EY13" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="EZ13" t="n">
         <v>531.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -15996,12 +16095,15 @@
         <v>1261.0</v>
       </c>
       <c r="EY14" t="n">
+        <v>1261.0</v>
+      </c>
+      <c r="EZ14" t="n">
         <v>1261.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -16463,12 +16565,15 @@
         <v>503.0</v>
       </c>
       <c r="EY15" t="n">
+        <v>514.0</v>
+      </c>
+      <c r="EZ15" t="n">
         <v>514.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -16930,12 +17035,15 @@
         <v>471.0</v>
       </c>
       <c r="EY16" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="EZ16" t="n">
         <v>475.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -17397,12 +17505,15 @@
         <v>596.0</v>
       </c>
       <c r="EY17" t="n">
+        <v>596.0</v>
+      </c>
+      <c r="EZ17" t="n">
         <v>596.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -17864,12 +17975,15 @@
         <v>14978.0</v>
       </c>
       <c r="EY18" t="n">
+        <v>15008.0</v>
+      </c>
+      <c r="EZ18" t="n">
         <v>15008.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -18331,6 +18445,9 @@
         <v>9222.0</v>
       </c>
       <c r="EY19" t="n">
+        <v>9241.0</v>
+      </c>
+      <c r="EZ19" t="n">
         <v>9241.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="175">
   <si>
     <t>02/25/20</t>
   </si>
@@ -480,6 +480,12 @@
     <t>07/28/20</t>
   </si>
   <si>
+    <t>07/29/20</t>
+  </si>
+  <si>
+    <t>07/30/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1049,10 +1055,16 @@
       <c r="EZ1" t="s">
         <v>154</v>
       </c>
+      <c r="FA1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1517,12 +1529,18 @@
         <v>93.0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>93.0</v>
+        <v>504.0</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -1987,12 +2005,18 @@
         <v>6296.0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>6296.0</v>
+        <v>6534.0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>6899.0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>7183.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2457,12 +2481,18 @@
         <v>3804.0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3804.0</v>
+        <v>3981.0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>4115.0</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>4215.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2927,12 +2957,18 @@
         <v>9923.0</v>
       </c>
       <c r="EZ5" t="n">
-        <v>9923.0</v>
+        <v>10195.0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>10624.0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>11146.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3397,12 +3433,18 @@
         <v>66523.0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>66523.0</v>
+        <v>68500.0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>71080.0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>74533.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3867,12 +3909,18 @@
         <v>4988.0</v>
       </c>
       <c r="EZ7" t="n">
-        <v>4988.0</v>
+        <v>5284.0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>5491.0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>5766.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4337,12 +4385,18 @@
         <v>2794.0</v>
       </c>
       <c r="EZ8" t="n">
-        <v>2794.0</v>
+        <v>2887.0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>3075.0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>3195.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4807,12 +4861,18 @@
         <v>1692.0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1692.0</v>
+        <v>1738.0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>1948.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5277,12 +5337,18 @@
         <v>3918.0</v>
       </c>
       <c r="EZ10" t="n">
-        <v>3918.0</v>
+        <v>4119.0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>4360.0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>4471.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5747,12 +5813,18 @@
         <v>3731.0</v>
       </c>
       <c r="EZ11" t="n">
-        <v>3731.0</v>
+        <v>3870.0</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>4065.0</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>4238.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6217,12 +6289,18 @@
         <v>2857.0</v>
       </c>
       <c r="EZ12" t="n">
-        <v>2857.0</v>
+        <v>3007.0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>3169.0</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>3313.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6687,12 +6765,18 @@
         <v>15768.0</v>
       </c>
       <c r="EZ13" t="n">
-        <v>15768.0</v>
+        <v>16375.0</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>17006.0</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>17519.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7157,12 +7241,18 @@
         <v>34119.0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>34119.0</v>
+        <v>34484.0</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>35094.0</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>35703.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7627,12 +7717,18 @@
         <v>18706.0</v>
       </c>
       <c r="EZ15" t="n">
-        <v>18706.0</v>
+        <v>19400.0</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>20516.0</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>21089.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8097,12 +8193,18 @@
         <v>14508.0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>14508.0</v>
+        <v>14959.0</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>15893.0</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>16305.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8567,12 +8669,18 @@
         <v>19629.0</v>
       </c>
       <c r="EZ17" t="n">
-        <v>19629.0</v>
+        <v>20485.0</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>21158.0</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>21924.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9037,12 +9145,18 @@
         <v>278305.0</v>
       </c>
       <c r="EZ18" t="n">
-        <v>278305.0</v>
+        <v>283979.0</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>289286.0</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>296355.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9507,7 +9621,13 @@
         <v>182027.0</v>
       </c>
       <c r="EZ19" t="n">
-        <v>182027.0</v>
+        <v>185708.0</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>188827.0</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>193684.0</v>
       </c>
     </row>
   </sheetData>
@@ -9990,10 +10110,16 @@
       <c r="EZ1" t="s">
         <v>154</v>
       </c>
+      <c r="FA1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -10458,12 +10584,18 @@
         <v>0.0</v>
       </c>
       <c r="EZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FB2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -10928,12 +11060,18 @@
         <v>182.0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>182.0</v>
+        <v>190.0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>204.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -11398,12 +11536,18 @@
         <v>131.0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>131.0</v>
+        <v>133.0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -11868,12 +12012,18 @@
         <v>193.0</v>
       </c>
       <c r="EZ5" t="n">
-        <v>193.0</v>
+        <v>198.0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -12338,12 +12488,18 @@
         <v>2285.0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>2285.0</v>
+        <v>2380.0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>2448.0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>2502.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -12808,12 +12964,18 @@
         <v>89.0</v>
       </c>
       <c r="EZ7" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -13278,12 +13440,18 @@
         <v>82.0</v>
       </c>
       <c r="EZ8" t="n">
-        <v>82.0</v>
+        <v>89.0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -13749,11 +13917,17 @@
       </c>
       <c r="EZ9" t="n">
         <v>53.0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -14218,12 +14392,18 @@
         <v>90.0</v>
       </c>
       <c r="EZ10" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -14688,12 +14868,18 @@
         <v>126.0</v>
       </c>
       <c r="EZ11" t="n">
-        <v>126.0</v>
+        <v>132.0</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -15158,12 +15344,18 @@
         <v>60.0</v>
       </c>
       <c r="EZ12" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -15628,12 +15820,18 @@
         <v>531.0</v>
       </c>
       <c r="EZ13" t="n">
-        <v>531.0</v>
+        <v>549.0</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>563.0</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>576.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -16098,12 +16296,18 @@
         <v>1261.0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>1261.0</v>
+        <v>1298.0</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>1331.0</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>1358.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -16568,12 +16772,18 @@
         <v>514.0</v>
       </c>
       <c r="EZ15" t="n">
-        <v>514.0</v>
+        <v>535.0</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>573.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -17038,12 +17248,18 @@
         <v>475.0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>475.0</v>
+        <v>483.0</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>518.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -17508,12 +17724,18 @@
         <v>596.0</v>
       </c>
       <c r="EZ17" t="n">
-        <v>596.0</v>
+        <v>621.0</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>626.0</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>638.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -17978,12 +18200,18 @@
         <v>15008.0</v>
       </c>
       <c r="EZ18" t="n">
-        <v>15008.0</v>
+        <v>15149.0</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>15278.0</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>15427.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -18448,7 +18676,13 @@
         <v>9241.0</v>
       </c>
       <c r="EZ19" t="n">
-        <v>9241.0</v>
+        <v>9318.0</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>9396.0</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>9470.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="178">
   <si>
     <t>02/25/20</t>
   </si>
@@ -486,6 +486,15 @@
     <t>07/30/20</t>
   </si>
   <si>
+    <t>07/31/20</t>
+  </si>
+  <si>
+    <t>08/01/20</t>
+  </si>
+  <si>
+    <t>08/02/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1061,10 +1070,19 @@
       <c r="FB1" t="s">
         <v>156</v>
       </c>
+      <c r="FC1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1536,11 +1554,20 @@
       </c>
       <c r="FB2" t="n">
         <v>103.0</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>6489.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2012,11 +2039,20 @@
       </c>
       <c r="FB3" t="n">
         <v>7183.0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>7484.0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>7686.0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>7686.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2488,11 +2524,20 @@
       </c>
       <c r="FB4" t="n">
         <v>4215.0</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>4355.0</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>4483.0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>4483.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2964,11 +3009,20 @@
       </c>
       <c r="FB5" t="n">
         <v>11146.0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>11649.0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>12009.0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>12009.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3440,11 +3494,20 @@
       </c>
       <c r="FB6" t="n">
         <v>74533.0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>77114.0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>79197.0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>79197.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3916,11 +3979,20 @@
       </c>
       <c r="FB7" t="n">
         <v>5766.0</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>5933.0</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>6047.0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>6047.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4392,11 +4464,20 @@
       </c>
       <c r="FB8" t="n">
         <v>3195.0</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>3302.0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>3409.0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>3409.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4868,11 +4949,20 @@
       </c>
       <c r="FB9" t="n">
         <v>1948.0</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>2046.0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>2046.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5344,11 +5434,20 @@
       </c>
       <c r="FB10" t="n">
         <v>4471.0</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>4604.0</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>4801.0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>4801.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5820,11 +5919,20 @@
       </c>
       <c r="FB11" t="n">
         <v>4238.0</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>4352.0</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>4521.0</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>4521.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6296,11 +6404,20 @@
       </c>
       <c r="FB12" t="n">
         <v>3313.0</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>3429.0</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>3480.0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>3480.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6772,11 +6889,20 @@
       </c>
       <c r="FB13" t="n">
         <v>17519.0</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>18039.0</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>18439.0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>18439.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7248,11 +7374,20 @@
       </c>
       <c r="FB14" t="n">
         <v>35703.0</v>
+      </c>
+      <c r="FC14" t="n">
+        <v>36093.0</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>36420.0</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>36420.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7724,11 +7859,20 @@
       </c>
       <c r="FB15" t="n">
         <v>21089.0</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>21820.0</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>22463.0</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>22463.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8200,11 +8344,20 @@
       </c>
       <c r="FB16" t="n">
         <v>16305.0</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>16930.0</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>17420.0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>17420.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8676,11 +8829,20 @@
       </c>
       <c r="FB17" t="n">
         <v>21924.0</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>22401.0</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>22830.0</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>22830.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9152,11 +9314,20 @@
       </c>
       <c r="FB18" t="n">
         <v>296355.0</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>302681.0</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>306945.0</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>306945.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9628,6 +9799,15 @@
       </c>
       <c r="FB19" t="n">
         <v>193684.0</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>197560.0</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>199674.0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>199674.0</v>
       </c>
     </row>
   </sheetData>
@@ -10116,10 +10296,19 @@
       <c r="FB1" t="s">
         <v>156</v>
       </c>
+      <c r="FC1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -10591,11 +10780,20 @@
       </c>
       <c r="FB2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -11067,11 +11265,20 @@
       </c>
       <c r="FB3" t="n">
         <v>204.0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>213.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -11543,11 +11750,20 @@
       </c>
       <c r="FB4" t="n">
         <v>144.0</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -12019,11 +12235,20 @@
       </c>
       <c r="FB5" t="n">
         <v>215.0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -12495,11 +12720,20 @@
       </c>
       <c r="FB6" t="n">
         <v>2502.0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>2565.0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>2602.0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>2602.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -12971,11 +13205,20 @@
       </c>
       <c r="FB7" t="n">
         <v>99.0</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -13447,11 +13690,20 @@
       </c>
       <c r="FB8" t="n">
         <v>90.0</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -13923,11 +14175,20 @@
       </c>
       <c r="FB9" t="n">
         <v>58.0</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -14399,11 +14660,20 @@
       </c>
       <c r="FB10" t="n">
         <v>99.0</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -14875,11 +15145,20 @@
       </c>
       <c r="FB11" t="n">
         <v>139.0</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -15351,11 +15630,20 @@
       </c>
       <c r="FB12" t="n">
         <v>70.0</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -15827,11 +16115,20 @@
       </c>
       <c r="FB13" t="n">
         <v>576.0</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>584.0</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>600.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -16303,11 +16600,20 @@
       </c>
       <c r="FB14" t="n">
         <v>1358.0</v>
+      </c>
+      <c r="FC14" t="n">
+        <v>1368.0</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>1376.0</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>1376.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -16779,11 +17085,20 @@
       </c>
       <c r="FB15" t="n">
         <v>573.0</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>588.0</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>595.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -17255,11 +17570,20 @@
       </c>
       <c r="FB16" t="n">
         <v>518.0</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>535.0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>535.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -17731,11 +18055,20 @@
       </c>
       <c r="FB17" t="n">
         <v>638.0</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>656.0</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>667.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -18207,11 +18540,20 @@
       </c>
       <c r="FB18" t="n">
         <v>15427.0</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>15551.0</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>15680.0</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>15680.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -18683,6 +19025,15 @@
       </c>
       <c r="FB19" t="n">
         <v>9470.0</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>9549.0</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>9619.0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>9619.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="179">
   <si>
     <t>02/25/20</t>
   </si>
@@ -495,6 +495,9 @@
     <t>08/02/20</t>
   </si>
   <si>
+    <t>08/03/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1079,10 +1082,13 @@
       <c r="FE1" t="s">
         <v>159</v>
       </c>
+      <c r="FF1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1563,11 +1569,14 @@
       </c>
       <c r="FE2" t="n">
         <v>6489.0</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>8022.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2047,12 +2056,15 @@
         <v>7686.0</v>
       </c>
       <c r="FE3" t="n">
+        <v>7686.0</v>
+      </c>
+      <c r="FF3" t="n">
         <v>7686.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2532,12 +2544,15 @@
         <v>4483.0</v>
       </c>
       <c r="FE4" t="n">
+        <v>4483.0</v>
+      </c>
+      <c r="FF4" t="n">
         <v>4483.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3017,12 +3032,15 @@
         <v>12009.0</v>
       </c>
       <c r="FE5" t="n">
+        <v>12009.0</v>
+      </c>
+      <c r="FF5" t="n">
         <v>12009.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3502,12 +3520,15 @@
         <v>79197.0</v>
       </c>
       <c r="FE6" t="n">
+        <v>79197.0</v>
+      </c>
+      <c r="FF6" t="n">
         <v>79197.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3987,12 +4008,15 @@
         <v>6047.0</v>
       </c>
       <c r="FE7" t="n">
+        <v>6047.0</v>
+      </c>
+      <c r="FF7" t="n">
         <v>6047.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4472,12 +4496,15 @@
         <v>3409.0</v>
       </c>
       <c r="FE8" t="n">
+        <v>3409.0</v>
+      </c>
+      <c r="FF8" t="n">
         <v>3409.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4957,12 +4984,15 @@
         <v>2046.0</v>
       </c>
       <c r="FE9" t="n">
+        <v>2046.0</v>
+      </c>
+      <c r="FF9" t="n">
         <v>2046.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5442,12 +5472,15 @@
         <v>4801.0</v>
       </c>
       <c r="FE10" t="n">
+        <v>4801.0</v>
+      </c>
+      <c r="FF10" t="n">
         <v>4801.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5927,12 +5960,15 @@
         <v>4521.0</v>
       </c>
       <c r="FE11" t="n">
+        <v>4521.0</v>
+      </c>
+      <c r="FF11" t="n">
         <v>4521.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6412,12 +6448,15 @@
         <v>3480.0</v>
       </c>
       <c r="FE12" t="n">
+        <v>3480.0</v>
+      </c>
+      <c r="FF12" t="n">
         <v>3480.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6897,12 +6936,15 @@
         <v>18439.0</v>
       </c>
       <c r="FE13" t="n">
+        <v>18439.0</v>
+      </c>
+      <c r="FF13" t="n">
         <v>18439.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7382,12 +7424,15 @@
         <v>36420.0</v>
       </c>
       <c r="FE14" t="n">
+        <v>36420.0</v>
+      </c>
+      <c r="FF14" t="n">
         <v>36420.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7867,12 +7912,15 @@
         <v>22463.0</v>
       </c>
       <c r="FE15" t="n">
+        <v>22463.0</v>
+      </c>
+      <c r="FF15" t="n">
         <v>22463.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8352,12 +8400,15 @@
         <v>17420.0</v>
       </c>
       <c r="FE16" t="n">
+        <v>17420.0</v>
+      </c>
+      <c r="FF16" t="n">
         <v>17420.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8837,12 +8888,15 @@
         <v>22830.0</v>
       </c>
       <c r="FE17" t="n">
+        <v>22830.0</v>
+      </c>
+      <c r="FF17" t="n">
         <v>22830.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9322,12 +9376,15 @@
         <v>306945.0</v>
       </c>
       <c r="FE18" t="n">
+        <v>306945.0</v>
+      </c>
+      <c r="FF18" t="n">
         <v>306945.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9807,6 +9864,9 @@
         <v>199674.0</v>
       </c>
       <c r="FE19" t="n">
+        <v>199674.0</v>
+      </c>
+      <c r="FF19" t="n">
         <v>199674.0</v>
       </c>
     </row>
@@ -10305,10 +10365,13 @@
       <c r="FE1" t="s">
         <v>159</v>
       </c>
+      <c r="FF1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -10789,11 +10852,14 @@
       </c>
       <c r="FE2" t="n">
         <v>81.0</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -11273,12 +11339,15 @@
         <v>213.0</v>
       </c>
       <c r="FE3" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="FF3" t="n">
         <v>213.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -11758,12 +11827,15 @@
         <v>145.0</v>
       </c>
       <c r="FE4" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="FF4" t="n">
         <v>145.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -12243,12 +12315,15 @@
         <v>237.0</v>
       </c>
       <c r="FE5" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="FF5" t="n">
         <v>237.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -12728,12 +12803,15 @@
         <v>2602.0</v>
       </c>
       <c r="FE6" t="n">
+        <v>2602.0</v>
+      </c>
+      <c r="FF6" t="n">
         <v>2602.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -13213,12 +13291,15 @@
         <v>101.0</v>
       </c>
       <c r="FE7" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="FF7" t="n">
         <v>101.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -13698,12 +13779,15 @@
         <v>97.0</v>
       </c>
       <c r="FE8" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="FF8" t="n">
         <v>97.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -14183,12 +14267,15 @@
         <v>60.0</v>
       </c>
       <c r="FE9" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="FF9" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -14668,12 +14755,15 @@
         <v>108.0</v>
       </c>
       <c r="FE10" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="FF10" t="n">
         <v>108.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -15153,12 +15243,15 @@
         <v>148.0</v>
       </c>
       <c r="FE11" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="FF11" t="n">
         <v>148.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -15638,12 +15731,15 @@
         <v>72.0</v>
       </c>
       <c r="FE12" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="FF12" t="n">
         <v>72.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -16123,12 +16219,15 @@
         <v>600.0</v>
       </c>
       <c r="FE13" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="FF13" t="n">
         <v>600.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -16608,12 +16707,15 @@
         <v>1376.0</v>
       </c>
       <c r="FE14" t="n">
+        <v>1376.0</v>
+      </c>
+      <c r="FF14" t="n">
         <v>1376.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -17093,12 +17195,15 @@
         <v>595.0</v>
       </c>
       <c r="FE15" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="FF15" t="n">
         <v>595.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -17578,12 +17683,15 @@
         <v>535.0</v>
       </c>
       <c r="FE16" t="n">
+        <v>535.0</v>
+      </c>
+      <c r="FF16" t="n">
         <v>535.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -18063,12 +18171,15 @@
         <v>667.0</v>
       </c>
       <c r="FE17" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="FF17" t="n">
         <v>667.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -18548,12 +18659,15 @@
         <v>15680.0</v>
       </c>
       <c r="FE18" t="n">
+        <v>15680.0</v>
+      </c>
+      <c r="FF18" t="n">
         <v>15680.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -19033,6 +19147,9 @@
         <v>9619.0</v>
       </c>
       <c r="FE19" t="n">
+        <v>9619.0</v>
+      </c>
+      <c r="FF19" t="n">
         <v>9619.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
   <si>
     <t>02/25/20</t>
   </si>
@@ -498,6 +498,9 @@
     <t>08/03/20</t>
   </si>
   <si>
+    <t>08/04/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1085,10 +1088,13 @@
       <c r="FF1" t="s">
         <v>160</v>
       </c>
+      <c r="FG1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1568,15 +1574,18 @@
         <v>122.0</v>
       </c>
       <c r="FE2" t="n">
-        <v>6489.0</v>
+        <v>125.0</v>
       </c>
       <c r="FF2" t="n">
-        <v>8022.0</v>
+        <v>126.0</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2056,15 +2065,18 @@
         <v>7686.0</v>
       </c>
       <c r="FE3" t="n">
-        <v>7686.0</v>
+        <v>7763.0</v>
       </c>
       <c r="FF3" t="n">
-        <v>7686.0</v>
+        <v>7785.0</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>8153.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2544,15 +2556,18 @@
         <v>4483.0</v>
       </c>
       <c r="FE4" t="n">
-        <v>4483.0</v>
+        <v>4522.0</v>
       </c>
       <c r="FF4" t="n">
-        <v>4483.0</v>
+        <v>4527.0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>4890.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3032,15 +3047,18 @@
         <v>12009.0</v>
       </c>
       <c r="FE5" t="n">
-        <v>12009.0</v>
+        <v>12147.0</v>
       </c>
       <c r="FF5" t="n">
-        <v>12009.0</v>
+        <v>12171.0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>12711.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3520,15 +3538,18 @@
         <v>79197.0</v>
       </c>
       <c r="FE6" t="n">
-        <v>79197.0</v>
+        <v>80721.0</v>
       </c>
       <c r="FF6" t="n">
-        <v>79197.0</v>
+        <v>81130.0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>84144.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4008,15 +4029,18 @@
         <v>6047.0</v>
       </c>
       <c r="FE7" t="n">
-        <v>6047.0</v>
+        <v>6142.0</v>
       </c>
       <c r="FF7" t="n">
-        <v>6047.0</v>
+        <v>6185.0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>6501.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4496,15 +4520,18 @@
         <v>3409.0</v>
       </c>
       <c r="FE8" t="n">
-        <v>3409.0</v>
+        <v>3446.0</v>
       </c>
       <c r="FF8" t="n">
-        <v>3409.0</v>
+        <v>3460.0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>3831.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4984,15 +5011,18 @@
         <v>2046.0</v>
       </c>
       <c r="FE9" t="n">
-        <v>2046.0</v>
+        <v>2059.0</v>
       </c>
       <c r="FF9" t="n">
-        <v>2046.0</v>
+        <v>2061.0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>2157.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5472,15 +5502,18 @@
         <v>4801.0</v>
       </c>
       <c r="FE10" t="n">
-        <v>4801.0</v>
+        <v>4881.0</v>
       </c>
       <c r="FF10" t="n">
-        <v>4801.0</v>
+        <v>4886.0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>5123.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5960,15 +5993,18 @@
         <v>4521.0</v>
       </c>
       <c r="FE11" t="n">
-        <v>4521.0</v>
+        <v>4656.0</v>
       </c>
       <c r="FF11" t="n">
-        <v>4521.0</v>
+        <v>4670.0</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>4940.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6448,15 +6484,18 @@
         <v>3480.0</v>
       </c>
       <c r="FE12" t="n">
-        <v>3480.0</v>
+        <v>3539.0</v>
       </c>
       <c r="FF12" t="n">
-        <v>3480.0</v>
+        <v>3589.0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>3761.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6936,15 +6975,18 @@
         <v>18439.0</v>
       </c>
       <c r="FE13" t="n">
-        <v>18439.0</v>
+        <v>18727.0</v>
       </c>
       <c r="FF13" t="n">
-        <v>18439.0</v>
+        <v>18763.0</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>19395.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7424,15 +7466,18 @@
         <v>36420.0</v>
       </c>
       <c r="FE14" t="n">
-        <v>36420.0</v>
+        <v>37095.0</v>
       </c>
       <c r="FF14" t="n">
-        <v>36420.0</v>
+        <v>37118.0</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>38055.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7912,15 +7957,18 @@
         <v>22463.0</v>
       </c>
       <c r="FE15" t="n">
-        <v>22463.0</v>
+        <v>23076.0</v>
       </c>
       <c r="FF15" t="n">
-        <v>22463.0</v>
+        <v>23261.0</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>24527.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8400,15 +8448,18 @@
         <v>17420.0</v>
       </c>
       <c r="FE16" t="n">
-        <v>17420.0</v>
+        <v>17821.0</v>
       </c>
       <c r="FF16" t="n">
-        <v>17420.0</v>
+        <v>17872.0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>18570.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8888,15 +8939,18 @@
         <v>22830.0</v>
       </c>
       <c r="FE17" t="n">
-        <v>22830.0</v>
+        <v>22927.0</v>
       </c>
       <c r="FF17" t="n">
-        <v>22830.0</v>
+        <v>23003.0</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>23956.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9376,15 +9430,18 @@
         <v>306945.0</v>
       </c>
       <c r="FE18" t="n">
-        <v>306945.0</v>
+        <v>309038.0</v>
       </c>
       <c r="FF18" t="n">
-        <v>306945.0</v>
+        <v>309611.0</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>314744.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9864,10 +9921,13 @@
         <v>199674.0</v>
       </c>
       <c r="FE19" t="n">
-        <v>199674.0</v>
+        <v>200444.0</v>
       </c>
       <c r="FF19" t="n">
-        <v>199674.0</v>
+        <v>200705.0</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>203279.0</v>
       </c>
     </row>
   </sheetData>
@@ -10368,10 +10428,13 @@
       <c r="FF1" t="s">
         <v>160</v>
       </c>
+      <c r="FG1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -10851,15 +10914,18 @@
         <v>0.0</v>
       </c>
       <c r="FE2" t="n">
-        <v>81.0</v>
+        <v>0.0</v>
       </c>
       <c r="FF2" t="n">
-        <v>129.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -11339,15 +11405,18 @@
         <v>213.0</v>
       </c>
       <c r="FE3" t="n">
-        <v>213.0</v>
+        <v>217.0</v>
       </c>
       <c r="FF3" t="n">
-        <v>213.0</v>
+        <v>217.0</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>226.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -11830,12 +11899,15 @@
         <v>145.0</v>
       </c>
       <c r="FF4" t="n">
-        <v>145.0</v>
+        <v>146.0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -12315,15 +12387,18 @@
         <v>237.0</v>
       </c>
       <c r="FE5" t="n">
-        <v>237.0</v>
+        <v>238.0</v>
       </c>
       <c r="FF5" t="n">
-        <v>237.0</v>
+        <v>240.0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -12803,15 +12878,18 @@
         <v>2602.0</v>
       </c>
       <c r="FE6" t="n">
-        <v>2602.0</v>
+        <v>2619.0</v>
       </c>
       <c r="FF6" t="n">
-        <v>2602.0</v>
+        <v>2639.0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>2717.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -13294,12 +13372,15 @@
         <v>101.0</v>
       </c>
       <c r="FF7" t="n">
-        <v>101.0</v>
+        <v>102.0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -13782,12 +13863,15 @@
         <v>97.0</v>
       </c>
       <c r="FF8" t="n">
-        <v>97.0</v>
+        <v>98.0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -14267,15 +14351,18 @@
         <v>60.0</v>
       </c>
       <c r="FE9" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="FF9" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -14759,11 +14846,14 @@
       </c>
       <c r="FF10" t="n">
         <v>108.0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -15247,11 +15337,14 @@
       </c>
       <c r="FF11" t="n">
         <v>148.0</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -15734,12 +15827,15 @@
         <v>72.0</v>
       </c>
       <c r="FF12" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -16219,15 +16315,18 @@
         <v>600.0</v>
       </c>
       <c r="FE13" t="n">
-        <v>600.0</v>
+        <v>606.0</v>
       </c>
       <c r="FF13" t="n">
-        <v>600.0</v>
+        <v>607.0</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>634.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -16707,15 +16806,18 @@
         <v>1376.0</v>
       </c>
       <c r="FE14" t="n">
-        <v>1376.0</v>
+        <v>1377.0</v>
       </c>
       <c r="FF14" t="n">
-        <v>1376.0</v>
+        <v>1378.0</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>1397.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -17195,15 +17297,18 @@
         <v>595.0</v>
       </c>
       <c r="FE15" t="n">
-        <v>595.0</v>
+        <v>600.0</v>
       </c>
       <c r="FF15" t="n">
-        <v>595.0</v>
+        <v>607.0</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>629.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -17686,12 +17791,15 @@
         <v>535.0</v>
       </c>
       <c r="FF16" t="n">
-        <v>535.0</v>
+        <v>536.0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>555.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -18175,11 +18283,14 @@
       </c>
       <c r="FF17" t="n">
         <v>667.0</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>678.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -18659,15 +18770,18 @@
         <v>15680.0</v>
       </c>
       <c r="FE18" t="n">
-        <v>15680.0</v>
+        <v>15726.0</v>
       </c>
       <c r="FF18" t="n">
-        <v>15680.0</v>
+        <v>15736.0</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>15861.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -19147,10 +19261,13 @@
         <v>9619.0</v>
       </c>
       <c r="FE19" t="n">
-        <v>9619.0</v>
+        <v>9634.0</v>
       </c>
       <c r="FF19" t="n">
-        <v>9619.0</v>
+        <v>9644.0</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>9702.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="181">
   <si>
     <t>02/25/20</t>
   </si>
@@ -501,6 +501,9 @@
     <t>08/04/20</t>
   </si>
   <si>
+    <t>08/05/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1091,10 +1094,13 @@
       <c r="FG1" t="s">
         <v>161</v>
       </c>
+      <c r="FH1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1581,11 +1587,14 @@
       </c>
       <c r="FG2" t="n">
         <v>131.0</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2072,11 +2081,14 @@
       </c>
       <c r="FG3" t="n">
         <v>8153.0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>8364.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2563,11 +2575,14 @@
       </c>
       <c r="FG4" t="n">
         <v>4890.0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>4967.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3054,11 +3069,14 @@
       </c>
       <c r="FG5" t="n">
         <v>12711.0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>13060.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3545,11 +3563,14 @@
       </c>
       <c r="FG6" t="n">
         <v>84144.0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>85757.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4036,11 +4057,14 @@
       </c>
       <c r="FG7" t="n">
         <v>6501.0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>6637.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4527,11 +4551,14 @@
       </c>
       <c r="FG8" t="n">
         <v>3831.0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>3972.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5018,11 +5045,14 @@
       </c>
       <c r="FG9" t="n">
         <v>2157.0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>2235.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5509,11 +5539,14 @@
       </c>
       <c r="FG10" t="n">
         <v>5123.0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>5268.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6000,11 +6033,14 @@
       </c>
       <c r="FG11" t="n">
         <v>4940.0</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>5058.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6491,11 +6527,14 @@
       </c>
       <c r="FG12" t="n">
         <v>3761.0</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>3880.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6982,11 +7021,14 @@
       </c>
       <c r="FG13" t="n">
         <v>19395.0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>19792.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7473,11 +7515,14 @@
       </c>
       <c r="FG14" t="n">
         <v>38055.0</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>38419.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -7964,11 +8009,14 @@
       </c>
       <c r="FG15" t="n">
         <v>24527.0</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>25161.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8455,11 +8503,14 @@
       </c>
       <c r="FG16" t="n">
         <v>18570.0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>19007.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8946,11 +8997,14 @@
       </c>
       <c r="FG17" t="n">
         <v>23956.0</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>24415.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9437,11 +9491,14 @@
       </c>
       <c r="FG18" t="n">
         <v>314744.0</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>319140.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9928,6 +9985,9 @@
       </c>
       <c r="FG19" t="n">
         <v>203279.0</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>206102.0</v>
       </c>
     </row>
   </sheetData>
@@ -10431,10 +10491,13 @@
       <c r="FG1" t="s">
         <v>161</v>
       </c>
+      <c r="FH1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -10920,12 +10983,15 @@
         <v>0.0</v>
       </c>
       <c r="FG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FH2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -11412,11 +11478,14 @@
       </c>
       <c r="FG3" t="n">
         <v>226.0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>228.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -11903,11 +11972,14 @@
       </c>
       <c r="FG4" t="n">
         <v>147.0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -12394,11 +12466,14 @@
       </c>
       <c r="FG5" t="n">
         <v>245.0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -12885,11 +12960,14 @@
       </c>
       <c r="FG6" t="n">
         <v>2717.0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>2786.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -13376,11 +13454,14 @@
       </c>
       <c r="FG7" t="n">
         <v>103.0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -13867,11 +13948,14 @@
       </c>
       <c r="FG8" t="n">
         <v>103.0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -14358,11 +14442,14 @@
       </c>
       <c r="FG9" t="n">
         <v>63.0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -14849,11 +14936,14 @@
       </c>
       <c r="FG10" t="n">
         <v>112.0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -15340,11 +15430,14 @@
       </c>
       <c r="FG11" t="n">
         <v>152.0</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -15831,11 +15924,14 @@
       </c>
       <c r="FG12" t="n">
         <v>80.0</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -16322,11 +16418,14 @@
       </c>
       <c r="FG13" t="n">
         <v>634.0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>658.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -16813,11 +16912,14 @@
       </c>
       <c r="FG14" t="n">
         <v>1397.0</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>1421.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -17304,11 +17406,14 @@
       </c>
       <c r="FG15" t="n">
         <v>629.0</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>640.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -17795,11 +17900,14 @@
       </c>
       <c r="FG16" t="n">
         <v>555.0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>571.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -18286,11 +18394,14 @@
       </c>
       <c r="FG17" t="n">
         <v>678.0</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>690.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -18777,11 +18888,14 @@
       </c>
       <c r="FG18" t="n">
         <v>15861.0</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>16068.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -19268,6 +19382,9 @@
       </c>
       <c r="FG19" t="n">
         <v>9702.0</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>9806.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="182">
   <si>
     <t>02/25/20</t>
   </si>
@@ -504,6 +504,9 @@
     <t>08/05/20</t>
   </si>
   <si>
+    <t>08/06/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1097,10 +1100,13 @@
       <c r="FH1" t="s">
         <v>162</v>
       </c>
+      <c r="FI1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1590,11 +1596,14 @@
       </c>
       <c r="FH2" t="n">
         <v>133.0</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>13538.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2083,12 +2092,15 @@
         <v>8153.0</v>
       </c>
       <c r="FH3" t="n">
+        <v>8364.0</v>
+      </c>
+      <c r="FI3" t="n">
         <v>8364.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2577,12 +2589,15 @@
         <v>4890.0</v>
       </c>
       <c r="FH4" t="n">
+        <v>4967.0</v>
+      </c>
+      <c r="FI4" t="n">
         <v>4967.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3071,12 +3086,15 @@
         <v>12711.0</v>
       </c>
       <c r="FH5" t="n">
+        <v>13060.0</v>
+      </c>
+      <c r="FI5" t="n">
         <v>13060.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3565,12 +3583,15 @@
         <v>84144.0</v>
       </c>
       <c r="FH6" t="n">
+        <v>85757.0</v>
+      </c>
+      <c r="FI6" t="n">
         <v>85757.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4059,12 +4080,15 @@
         <v>6501.0</v>
       </c>
       <c r="FH7" t="n">
+        <v>6637.0</v>
+      </c>
+      <c r="FI7" t="n">
         <v>6637.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4553,12 +4577,15 @@
         <v>3831.0</v>
       </c>
       <c r="FH8" t="n">
+        <v>3972.0</v>
+      </c>
+      <c r="FI8" t="n">
         <v>3972.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5047,12 +5074,15 @@
         <v>2157.0</v>
       </c>
       <c r="FH9" t="n">
+        <v>2235.0</v>
+      </c>
+      <c r="FI9" t="n">
         <v>2235.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5541,12 +5571,15 @@
         <v>5123.0</v>
       </c>
       <c r="FH10" t="n">
+        <v>5268.0</v>
+      </c>
+      <c r="FI10" t="n">
         <v>5268.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6035,12 +6068,15 @@
         <v>4940.0</v>
       </c>
       <c r="FH11" t="n">
+        <v>5058.0</v>
+      </c>
+      <c r="FI11" t="n">
         <v>5058.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6529,12 +6565,15 @@
         <v>3761.0</v>
       </c>
       <c r="FH12" t="n">
+        <v>3880.0</v>
+      </c>
+      <c r="FI12" t="n">
         <v>3880.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -7023,12 +7062,15 @@
         <v>19395.0</v>
       </c>
       <c r="FH13" t="n">
+        <v>19792.0</v>
+      </c>
+      <c r="FI13" t="n">
         <v>19792.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7517,12 +7559,15 @@
         <v>38055.0</v>
       </c>
       <c r="FH14" t="n">
+        <v>38419.0</v>
+      </c>
+      <c r="FI14" t="n">
         <v>38419.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -8011,12 +8056,15 @@
         <v>24527.0</v>
       </c>
       <c r="FH15" t="n">
+        <v>25161.0</v>
+      </c>
+      <c r="FI15" t="n">
         <v>25161.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8505,12 +8553,15 @@
         <v>18570.0</v>
       </c>
       <c r="FH16" t="n">
+        <v>19007.0</v>
+      </c>
+      <c r="FI16" t="n">
         <v>19007.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8999,12 +9050,15 @@
         <v>23956.0</v>
       </c>
       <c r="FH17" t="n">
+        <v>24415.0</v>
+      </c>
+      <c r="FI17" t="n">
         <v>24415.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9493,12 +9547,15 @@
         <v>314744.0</v>
       </c>
       <c r="FH18" t="n">
+        <v>319140.0</v>
+      </c>
+      <c r="FI18" t="n">
         <v>319140.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -9987,6 +10044,9 @@
         <v>203279.0</v>
       </c>
       <c r="FH19" t="n">
+        <v>206102.0</v>
+      </c>
+      <c r="FI19" t="n">
         <v>206102.0</v>
       </c>
     </row>
@@ -10494,10 +10554,13 @@
       <c r="FH1" t="s">
         <v>162</v>
       </c>
+      <c r="FI1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -10987,11 +11050,14 @@
       </c>
       <c r="FH2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>339.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -11480,12 +11546,15 @@
         <v>226.0</v>
       </c>
       <c r="FH3" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="FI3" t="n">
         <v>228.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -11974,12 +12043,15 @@
         <v>147.0</v>
       </c>
       <c r="FH4" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="FI4" t="n">
         <v>150.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -12468,12 +12540,15 @@
         <v>245.0</v>
       </c>
       <c r="FH5" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="FI5" t="n">
         <v>256.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -12962,12 +13037,15 @@
         <v>2717.0</v>
       </c>
       <c r="FH6" t="n">
+        <v>2786.0</v>
+      </c>
+      <c r="FI6" t="n">
         <v>2786.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -13456,12 +13534,15 @@
         <v>103.0</v>
       </c>
       <c r="FH7" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="FI7" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -13950,12 +14031,15 @@
         <v>103.0</v>
       </c>
       <c r="FH8" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="FI8" t="n">
         <v>111.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -14444,12 +14528,15 @@
         <v>63.0</v>
       </c>
       <c r="FH9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="FI9" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -14938,12 +15025,15 @@
         <v>112.0</v>
       </c>
       <c r="FH10" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="FI10" t="n">
         <v>115.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -15432,12 +15522,15 @@
         <v>152.0</v>
       </c>
       <c r="FH11" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="FI11" t="n">
         <v>161.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -15926,12 +16019,15 @@
         <v>80.0</v>
       </c>
       <c r="FH12" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="FI12" t="n">
         <v>84.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -16420,12 +16516,15 @@
         <v>634.0</v>
       </c>
       <c r="FH13" t="n">
+        <v>658.0</v>
+      </c>
+      <c r="FI13" t="n">
         <v>658.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -16914,12 +17013,15 @@
         <v>1397.0</v>
       </c>
       <c r="FH14" t="n">
+        <v>1421.0</v>
+      </c>
+      <c r="FI14" t="n">
         <v>1421.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -17408,12 +17510,15 @@
         <v>629.0</v>
       </c>
       <c r="FH15" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="FI15" t="n">
         <v>640.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -17902,12 +18007,15 @@
         <v>555.0</v>
       </c>
       <c r="FH16" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="FI16" t="n">
         <v>571.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -18396,12 +18504,15 @@
         <v>678.0</v>
       </c>
       <c r="FH17" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="FI17" t="n">
         <v>690.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -18890,12 +19001,15 @@
         <v>15861.0</v>
       </c>
       <c r="FH18" t="n">
+        <v>16068.0</v>
+      </c>
+      <c r="FI18" t="n">
         <v>16068.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -19384,6 +19498,9 @@
         <v>9702.0</v>
       </c>
       <c r="FH19" t="n">
+        <v>9806.0</v>
+      </c>
+      <c r="FI19" t="n">
         <v>9806.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="185">
   <si>
     <t>02/25/20</t>
   </si>
@@ -507,6 +507,15 @@
     <t>08/06/20</t>
   </si>
   <si>
+    <t>08/07/20</t>
+  </si>
+  <si>
+    <t>08/08/20</t>
+  </si>
+  <si>
+    <t>08/09/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1103,10 +1112,19 @@
       <c r="FI1" t="s">
         <v>163</v>
       </c>
+      <c r="FJ1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1598,12 +1616,21 @@
         <v>133.0</v>
       </c>
       <c r="FI2" t="n">
-        <v>13538.0</v>
+        <v>133.0</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>9842.0</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>23194.0</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>28589.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2095,12 +2122,21 @@
         <v>8364.0</v>
       </c>
       <c r="FI3" t="n">
-        <v>8364.0</v>
+        <v>8576.0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>8576.0</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>8576.0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>8576.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2592,12 +2628,21 @@
         <v>4967.0</v>
       </c>
       <c r="FI4" t="n">
-        <v>4967.0</v>
+        <v>5112.0</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>5112.0</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>5112.0</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>5112.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3089,12 +3134,21 @@
         <v>13060.0</v>
       </c>
       <c r="FI5" t="n">
-        <v>13060.0</v>
+        <v>13610.0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>13610.0</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>13610.0</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>13610.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3586,12 +3640,21 @@
         <v>85757.0</v>
       </c>
       <c r="FI6" t="n">
-        <v>85757.0</v>
+        <v>87885.0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>87885.0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>87885.0</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>87885.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4083,12 +4146,21 @@
         <v>6637.0</v>
       </c>
       <c r="FI7" t="n">
-        <v>6637.0</v>
+        <v>6926.0</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>6926.0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>6926.0</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>6926.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4580,12 +4652,21 @@
         <v>3972.0</v>
       </c>
       <c r="FI8" t="n">
-        <v>3972.0</v>
+        <v>4136.0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>4136.0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>4136.0</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>4136.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5077,12 +5158,21 @@
         <v>2235.0</v>
       </c>
       <c r="FI9" t="n">
-        <v>2235.0</v>
+        <v>2309.0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>2309.0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>2309.0</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>2309.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5574,12 +5664,21 @@
         <v>5268.0</v>
       </c>
       <c r="FI10" t="n">
-        <v>5268.0</v>
+        <v>5450.0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>5450.0</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>5450.0</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>5450.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6071,12 +6170,21 @@
         <v>5058.0</v>
       </c>
       <c r="FI11" t="n">
-        <v>5058.0</v>
+        <v>5211.0</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>5211.0</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>5211.0</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>5211.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6568,12 +6676,21 @@
         <v>3880.0</v>
       </c>
       <c r="FI12" t="n">
-        <v>3880.0</v>
+        <v>4024.0</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>4024.0</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>4024.0</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>4024.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -7065,12 +7182,21 @@
         <v>19792.0</v>
       </c>
       <c r="FI13" t="n">
-        <v>19792.0</v>
+        <v>20287.0</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>20287.0</v>
+      </c>
+      <c r="FK13" t="n">
+        <v>20287.0</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>20287.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7562,12 +7688,21 @@
         <v>38419.0</v>
       </c>
       <c r="FI14" t="n">
-        <v>38419.0</v>
+        <v>39071.0</v>
+      </c>
+      <c r="FJ14" t="n">
+        <v>39071.0</v>
+      </c>
+      <c r="FK14" t="n">
+        <v>39071.0</v>
+      </c>
+      <c r="FL14" t="n">
+        <v>39071.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -8059,12 +8194,21 @@
         <v>25161.0</v>
       </c>
       <c r="FI15" t="n">
-        <v>25161.0</v>
+        <v>26224.0</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>26224.0</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>26224.0</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>26224.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8556,12 +8700,21 @@
         <v>19007.0</v>
       </c>
       <c r="FI16" t="n">
-        <v>19007.0</v>
+        <v>19991.0</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>19991.0</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>19991.0</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>19991.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -9053,12 +9206,21 @@
         <v>24415.0</v>
       </c>
       <c r="FI17" t="n">
-        <v>24415.0</v>
+        <v>24931.0</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>24931.0</v>
+      </c>
+      <c r="FK17" t="n">
+        <v>24931.0</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>24931.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9550,12 +9712,21 @@
         <v>319140.0</v>
       </c>
       <c r="FI18" t="n">
-        <v>319140.0</v>
+        <v>324794.0</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>324794.0</v>
+      </c>
+      <c r="FK18" t="n">
+        <v>324794.0</v>
+      </c>
+      <c r="FL18" t="n">
+        <v>324794.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -10047,7 +10218,16 @@
         <v>206102.0</v>
       </c>
       <c r="FI19" t="n">
-        <v>206102.0</v>
+        <v>209559.0</v>
+      </c>
+      <c r="FJ19" t="n">
+        <v>209559.0</v>
+      </c>
+      <c r="FK19" t="n">
+        <v>209559.0</v>
+      </c>
+      <c r="FL19" t="n">
+        <v>209559.0</v>
       </c>
     </row>
   </sheetData>
@@ -10557,10 +10737,19 @@
       <c r="FI1" t="s">
         <v>163</v>
       </c>
+      <c r="FJ1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -11052,12 +11241,21 @@
         <v>0.0</v>
       </c>
       <c r="FI2" t="n">
-        <v>339.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>568.0</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>666.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -11549,12 +11747,21 @@
         <v>228.0</v>
       </c>
       <c r="FI3" t="n">
-        <v>228.0</v>
+        <v>232.0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>232.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -12046,12 +12253,21 @@
         <v>150.0</v>
       </c>
       <c r="FI4" t="n">
-        <v>150.0</v>
+        <v>151.0</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -12543,12 +12759,21 @@
         <v>256.0</v>
       </c>
       <c r="FI5" t="n">
-        <v>256.0</v>
+        <v>263.0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>263.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -13040,12 +13265,21 @@
         <v>2786.0</v>
       </c>
       <c r="FI6" t="n">
-        <v>2786.0</v>
+        <v>2856.0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>2856.0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>2856.0</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>2856.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -13537,12 +13771,21 @@
         <v>106.0</v>
       </c>
       <c r="FI7" t="n">
-        <v>106.0</v>
+        <v>109.0</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -14034,12 +14277,21 @@
         <v>111.0</v>
       </c>
       <c r="FI8" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="FL8" t="n">
         <v>111.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -14531,12 +14783,21 @@
         <v>64.0</v>
       </c>
       <c r="FI9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="FL9" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -15028,12 +15289,21 @@
         <v>115.0</v>
       </c>
       <c r="FI10" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="FL10" t="n">
         <v>115.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -15525,12 +15795,21 @@
         <v>161.0</v>
       </c>
       <c r="FI11" t="n">
-        <v>161.0</v>
+        <v>162.0</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -16022,12 +16301,21 @@
         <v>84.0</v>
       </c>
       <c r="FI12" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -16519,12 +16807,21 @@
         <v>658.0</v>
       </c>
       <c r="FI13" t="n">
-        <v>658.0</v>
+        <v>687.0</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>687.0</v>
+      </c>
+      <c r="FK13" t="n">
+        <v>687.0</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>687.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -17016,12 +17313,21 @@
         <v>1421.0</v>
       </c>
       <c r="FI14" t="n">
-        <v>1421.0</v>
+        <v>1447.0</v>
+      </c>
+      <c r="FJ14" t="n">
+        <v>1447.0</v>
+      </c>
+      <c r="FK14" t="n">
+        <v>1447.0</v>
+      </c>
+      <c r="FL14" t="n">
+        <v>1447.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -17513,12 +17819,21 @@
         <v>640.0</v>
       </c>
       <c r="FI15" t="n">
-        <v>640.0</v>
+        <v>661.0</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>661.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -18010,12 +18325,21 @@
         <v>571.0</v>
       </c>
       <c r="FI16" t="n">
-        <v>571.0</v>
+        <v>585.0</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>585.0</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>585.0</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>585.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -18507,12 +18831,21 @@
         <v>690.0</v>
       </c>
       <c r="FI17" t="n">
-        <v>690.0</v>
+        <v>707.0</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="FK17" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>707.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -19004,12 +19337,21 @@
         <v>16068.0</v>
       </c>
       <c r="FI18" t="n">
-        <v>16068.0</v>
+        <v>16212.0</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>16212.0</v>
+      </c>
+      <c r="FK18" t="n">
+        <v>16212.0</v>
+      </c>
+      <c r="FL18" t="n">
+        <v>16212.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -19501,7 +19843,16 @@
         <v>9806.0</v>
       </c>
       <c r="FI19" t="n">
-        <v>9806.0</v>
+        <v>9909.0</v>
+      </c>
+      <c r="FJ19" t="n">
+        <v>9909.0</v>
+      </c>
+      <c r="FK19" t="n">
+        <v>9909.0</v>
+      </c>
+      <c r="FL19" t="n">
+        <v>9909.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
   <si>
     <t>02/25/20</t>
   </si>
@@ -516,6 +516,9 @@
     <t>08/09/20</t>
   </si>
   <si>
+    <t>08/10/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1121,10 +1124,13 @@
       <c r="FL1" t="s">
         <v>166</v>
       </c>
+      <c r="FM1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1626,11 +1632,14 @@
       </c>
       <c r="FL2" t="n">
         <v>28589.0</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>29878.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2131,12 +2140,15 @@
         <v>8576.0</v>
       </c>
       <c r="FL3" t="n">
+        <v>8576.0</v>
+      </c>
+      <c r="FM3" t="n">
         <v>8576.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2637,12 +2649,15 @@
         <v>5112.0</v>
       </c>
       <c r="FL4" t="n">
+        <v>5112.0</v>
+      </c>
+      <c r="FM4" t="n">
         <v>5112.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3143,12 +3158,15 @@
         <v>13610.0</v>
       </c>
       <c r="FL5" t="n">
+        <v>13610.0</v>
+      </c>
+      <c r="FM5" t="n">
         <v>13610.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3649,12 +3667,15 @@
         <v>87885.0</v>
       </c>
       <c r="FL6" t="n">
+        <v>87885.0</v>
+      </c>
+      <c r="FM6" t="n">
         <v>87885.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4155,12 +4176,15 @@
         <v>6926.0</v>
       </c>
       <c r="FL7" t="n">
+        <v>6926.0</v>
+      </c>
+      <c r="FM7" t="n">
         <v>6926.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4661,12 +4685,15 @@
         <v>4136.0</v>
       </c>
       <c r="FL8" t="n">
+        <v>4136.0</v>
+      </c>
+      <c r="FM8" t="n">
         <v>4136.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5167,12 +5194,15 @@
         <v>2309.0</v>
       </c>
       <c r="FL9" t="n">
+        <v>2309.0</v>
+      </c>
+      <c r="FM9" t="n">
         <v>2309.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5673,12 +5703,15 @@
         <v>5450.0</v>
       </c>
       <c r="FL10" t="n">
+        <v>5450.0</v>
+      </c>
+      <c r="FM10" t="n">
         <v>5450.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6179,12 +6212,15 @@
         <v>5211.0</v>
       </c>
       <c r="FL11" t="n">
+        <v>5211.0</v>
+      </c>
+      <c r="FM11" t="n">
         <v>5211.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6685,12 +6721,15 @@
         <v>4024.0</v>
       </c>
       <c r="FL12" t="n">
+        <v>4024.0</v>
+      </c>
+      <c r="FM12" t="n">
         <v>4024.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -7191,12 +7230,15 @@
         <v>20287.0</v>
       </c>
       <c r="FL13" t="n">
+        <v>20287.0</v>
+      </c>
+      <c r="FM13" t="n">
         <v>20287.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7697,12 +7739,15 @@
         <v>39071.0</v>
       </c>
       <c r="FL14" t="n">
+        <v>39071.0</v>
+      </c>
+      <c r="FM14" t="n">
         <v>39071.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -8203,12 +8248,15 @@
         <v>26224.0</v>
       </c>
       <c r="FL15" t="n">
+        <v>26224.0</v>
+      </c>
+      <c r="FM15" t="n">
         <v>26224.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8709,12 +8757,15 @@
         <v>19991.0</v>
       </c>
       <c r="FL16" t="n">
+        <v>19991.0</v>
+      </c>
+      <c r="FM16" t="n">
         <v>19991.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -9215,12 +9266,15 @@
         <v>24931.0</v>
       </c>
       <c r="FL17" t="n">
+        <v>24931.0</v>
+      </c>
+      <c r="FM17" t="n">
         <v>24931.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9721,12 +9775,15 @@
         <v>324794.0</v>
       </c>
       <c r="FL18" t="n">
+        <v>324794.0</v>
+      </c>
+      <c r="FM18" t="n">
         <v>324794.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -10227,6 +10284,9 @@
         <v>209559.0</v>
       </c>
       <c r="FL19" t="n">
+        <v>209559.0</v>
+      </c>
+      <c r="FM19" t="n">
         <v>209559.0</v>
       </c>
     </row>
@@ -10746,10 +10806,13 @@
       <c r="FL1" t="s">
         <v>166</v>
       </c>
+      <c r="FM1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -11251,11 +11314,14 @@
       </c>
       <c r="FL2" t="n">
         <v>666.0</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>703.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -11756,12 +11822,15 @@
         <v>232.0</v>
       </c>
       <c r="FL3" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="FM3" t="n">
         <v>232.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -12262,12 +12331,15 @@
         <v>151.0</v>
       </c>
       <c r="FL4" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="FM4" t="n">
         <v>151.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -12768,12 +12840,15 @@
         <v>263.0</v>
       </c>
       <c r="FL5" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="FM5" t="n">
         <v>263.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -13274,12 +13349,15 @@
         <v>2856.0</v>
       </c>
       <c r="FL6" t="n">
+        <v>2856.0</v>
+      </c>
+      <c r="FM6" t="n">
         <v>2856.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -13780,12 +13858,15 @@
         <v>109.0</v>
       </c>
       <c r="FL7" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="FM7" t="n">
         <v>109.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -14286,12 +14367,15 @@
         <v>111.0</v>
       </c>
       <c r="FL8" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="FM8" t="n">
         <v>111.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -14792,12 +14876,15 @@
         <v>64.0</v>
       </c>
       <c r="FL9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="FM9" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -15298,12 +15385,15 @@
         <v>115.0</v>
       </c>
       <c r="FL10" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="FM10" t="n">
         <v>115.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -15804,12 +15894,15 @@
         <v>162.0</v>
       </c>
       <c r="FL11" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="FM11" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -16310,12 +16403,15 @@
         <v>86.0</v>
       </c>
       <c r="FL12" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="FM12" t="n">
         <v>86.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -16816,12 +16912,15 @@
         <v>687.0</v>
       </c>
       <c r="FL13" t="n">
+        <v>687.0</v>
+      </c>
+      <c r="FM13" t="n">
         <v>687.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -17322,12 +17421,15 @@
         <v>1447.0</v>
       </c>
       <c r="FL14" t="n">
+        <v>1447.0</v>
+      </c>
+      <c r="FM14" t="n">
         <v>1447.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -17828,12 +17930,15 @@
         <v>661.0</v>
       </c>
       <c r="FL15" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="FM15" t="n">
         <v>661.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -18334,12 +18439,15 @@
         <v>585.0</v>
       </c>
       <c r="FL16" t="n">
+        <v>585.0</v>
+      </c>
+      <c r="FM16" t="n">
         <v>585.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -18840,12 +18948,15 @@
         <v>707.0</v>
       </c>
       <c r="FL17" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="FM17" t="n">
         <v>707.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -19346,12 +19457,15 @@
         <v>16212.0</v>
       </c>
       <c r="FL18" t="n">
+        <v>16212.0</v>
+      </c>
+      <c r="FM18" t="n">
         <v>16212.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -19852,6 +19966,9 @@
         <v>9909.0</v>
       </c>
       <c r="FL19" t="n">
+        <v>9909.0</v>
+      </c>
+      <c r="FM19" t="n">
         <v>9909.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="187">
   <si>
     <t>02/25/20</t>
   </si>
@@ -519,6 +519,9 @@
     <t>08/10/20</t>
   </si>
   <si>
+    <t>08/11/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1127,10 +1130,13 @@
       <c r="FM1" t="s">
         <v>167</v>
       </c>
+      <c r="FN1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1635,11 +1641,14 @@
       </c>
       <c r="FM2" t="n">
         <v>29878.0</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>41025.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2143,12 +2152,15 @@
         <v>8576.0</v>
       </c>
       <c r="FM3" t="n">
+        <v>8576.0</v>
+      </c>
+      <c r="FN3" t="n">
         <v>8576.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2652,12 +2664,15 @@
         <v>5112.0</v>
       </c>
       <c r="FM4" t="n">
+        <v>5112.0</v>
+      </c>
+      <c r="FN4" t="n">
         <v>5112.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3161,12 +3176,15 @@
         <v>13610.0</v>
       </c>
       <c r="FM5" t="n">
+        <v>13610.0</v>
+      </c>
+      <c r="FN5" t="n">
         <v>13610.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3670,12 +3688,15 @@
         <v>87885.0</v>
       </c>
       <c r="FM6" t="n">
+        <v>87885.0</v>
+      </c>
+      <c r="FN6" t="n">
         <v>87885.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4179,12 +4200,15 @@
         <v>6926.0</v>
       </c>
       <c r="FM7" t="n">
+        <v>6926.0</v>
+      </c>
+      <c r="FN7" t="n">
         <v>6926.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4688,12 +4712,15 @@
         <v>4136.0</v>
       </c>
       <c r="FM8" t="n">
+        <v>4136.0</v>
+      </c>
+      <c r="FN8" t="n">
         <v>4136.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5197,12 +5224,15 @@
         <v>2309.0</v>
       </c>
       <c r="FM9" t="n">
+        <v>2309.0</v>
+      </c>
+      <c r="FN9" t="n">
         <v>2309.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5706,12 +5736,15 @@
         <v>5450.0</v>
       </c>
       <c r="FM10" t="n">
+        <v>5450.0</v>
+      </c>
+      <c r="FN10" t="n">
         <v>5450.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6215,12 +6248,15 @@
         <v>5211.0</v>
       </c>
       <c r="FM11" t="n">
+        <v>5211.0</v>
+      </c>
+      <c r="FN11" t="n">
         <v>5211.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6724,12 +6760,15 @@
         <v>4024.0</v>
       </c>
       <c r="FM12" t="n">
+        <v>4024.0</v>
+      </c>
+      <c r="FN12" t="n">
         <v>4024.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -7233,12 +7272,15 @@
         <v>20287.0</v>
       </c>
       <c r="FM13" t="n">
+        <v>20287.0</v>
+      </c>
+      <c r="FN13" t="n">
         <v>20287.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7742,12 +7784,15 @@
         <v>39071.0</v>
       </c>
       <c r="FM14" t="n">
+        <v>39071.0</v>
+      </c>
+      <c r="FN14" t="n">
         <v>39071.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -8251,12 +8296,15 @@
         <v>26224.0</v>
       </c>
       <c r="FM15" t="n">
+        <v>26224.0</v>
+      </c>
+      <c r="FN15" t="n">
         <v>26224.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8760,12 +8808,15 @@
         <v>19991.0</v>
       </c>
       <c r="FM16" t="n">
+        <v>19991.0</v>
+      </c>
+      <c r="FN16" t="n">
         <v>19991.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -9269,12 +9320,15 @@
         <v>24931.0</v>
       </c>
       <c r="FM17" t="n">
+        <v>24931.0</v>
+      </c>
+      <c r="FN17" t="n">
         <v>24931.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9778,12 +9832,15 @@
         <v>324794.0</v>
       </c>
       <c r="FM18" t="n">
+        <v>324794.0</v>
+      </c>
+      <c r="FN18" t="n">
         <v>324794.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -10287,6 +10344,9 @@
         <v>209559.0</v>
       </c>
       <c r="FM19" t="n">
+        <v>209559.0</v>
+      </c>
+      <c r="FN19" t="n">
         <v>209559.0</v>
       </c>
     </row>
@@ -10809,10 +10869,13 @@
       <c r="FM1" t="s">
         <v>167</v>
       </c>
+      <c r="FN1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -11317,11 +11380,14 @@
       </c>
       <c r="FM2" t="n">
         <v>703.0</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1123.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -11825,12 +11891,15 @@
         <v>232.0</v>
       </c>
       <c r="FM3" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="FN3" t="n">
         <v>232.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -12334,12 +12403,15 @@
         <v>151.0</v>
       </c>
       <c r="FM4" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="FN4" t="n">
         <v>151.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -12843,12 +12915,15 @@
         <v>263.0</v>
       </c>
       <c r="FM5" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="FN5" t="n">
         <v>263.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -13352,12 +13427,15 @@
         <v>2856.0</v>
       </c>
       <c r="FM6" t="n">
+        <v>2856.0</v>
+      </c>
+      <c r="FN6" t="n">
         <v>2856.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -13861,12 +13939,15 @@
         <v>109.0</v>
       </c>
       <c r="FM7" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="FN7" t="n">
         <v>109.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -14370,12 +14451,15 @@
         <v>111.0</v>
       </c>
       <c r="FM8" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="FN8" t="n">
         <v>111.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -14879,12 +14963,15 @@
         <v>64.0</v>
       </c>
       <c r="FM9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="FN9" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -15388,12 +15475,15 @@
         <v>115.0</v>
       </c>
       <c r="FM10" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="FN10" t="n">
         <v>115.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -15897,12 +15987,15 @@
         <v>162.0</v>
       </c>
       <c r="FM11" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="FN11" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -16406,12 +16499,15 @@
         <v>86.0</v>
       </c>
       <c r="FM12" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="FN12" t="n">
         <v>86.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -16915,12 +17011,15 @@
         <v>687.0</v>
       </c>
       <c r="FM13" t="n">
+        <v>687.0</v>
+      </c>
+      <c r="FN13" t="n">
         <v>687.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -17424,12 +17523,15 @@
         <v>1447.0</v>
       </c>
       <c r="FM14" t="n">
+        <v>1447.0</v>
+      </c>
+      <c r="FN14" t="n">
         <v>1447.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -17933,12 +18035,15 @@
         <v>661.0</v>
       </c>
       <c r="FM15" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="FN15" t="n">
         <v>661.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -18442,12 +18547,15 @@
         <v>585.0</v>
       </c>
       <c r="FM16" t="n">
+        <v>585.0</v>
+      </c>
+      <c r="FN16" t="n">
         <v>585.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -18951,12 +19059,15 @@
         <v>707.0</v>
       </c>
       <c r="FM17" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="FN17" t="n">
         <v>707.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -19460,12 +19571,15 @@
         <v>16212.0</v>
       </c>
       <c r="FM18" t="n">
+        <v>16212.0</v>
+      </c>
+      <c r="FN18" t="n">
         <v>16212.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -19969,6 +20083,9 @@
         <v>9909.0</v>
       </c>
       <c r="FM19" t="n">
+        <v>9909.0</v>
+      </c>
+      <c r="FN19" t="n">
         <v>9909.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="188">
   <si>
     <t>02/25/20</t>
   </si>
@@ -522,6 +522,9 @@
     <t>08/11/20</t>
   </si>
   <si>
+    <t>08/12/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1133,10 +1136,13 @@
       <c r="FN1" t="s">
         <v>168</v>
       </c>
+      <c r="FO1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1643,12 +1649,15 @@
         <v>29878.0</v>
       </c>
       <c r="FN2" t="n">
-        <v>41025.0</v>
+        <v>142.0</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>15761.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2155,12 +2164,15 @@
         <v>8576.0</v>
       </c>
       <c r="FN3" t="n">
-        <v>8576.0</v>
+        <v>9500.0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>9500.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2667,12 +2679,15 @@
         <v>5112.0</v>
       </c>
       <c r="FN4" t="n">
-        <v>5112.0</v>
+        <v>5718.0</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>5718.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3179,12 +3194,15 @@
         <v>13610.0</v>
       </c>
       <c r="FN5" t="n">
-        <v>13610.0</v>
+        <v>14956.0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>14956.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3691,12 +3709,15 @@
         <v>87885.0</v>
       </c>
       <c r="FN6" t="n">
-        <v>87885.0</v>
+        <v>95489.0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>95489.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4203,12 +4224,15 @@
         <v>6926.0</v>
       </c>
       <c r="FN7" t="n">
-        <v>6926.0</v>
+        <v>7782.0</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>7782.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4715,12 +4739,15 @@
         <v>4136.0</v>
       </c>
       <c r="FN8" t="n">
-        <v>4136.0</v>
+        <v>4727.0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>4727.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5227,12 +5254,15 @@
         <v>2309.0</v>
       </c>
       <c r="FN9" t="n">
-        <v>2309.0</v>
+        <v>2525.0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>2525.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5739,12 +5769,15 @@
         <v>5450.0</v>
       </c>
       <c r="FN10" t="n">
-        <v>5450.0</v>
+        <v>6048.0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>6048.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6251,12 +6284,15 @@
         <v>5211.0</v>
       </c>
       <c r="FN11" t="n">
-        <v>5211.0</v>
+        <v>5818.0</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>5818.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6763,12 +6799,15 @@
         <v>4024.0</v>
       </c>
       <c r="FN12" t="n">
-        <v>4024.0</v>
+        <v>4463.0</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>4463.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -7275,12 +7314,15 @@
         <v>20287.0</v>
       </c>
       <c r="FN13" t="n">
-        <v>20287.0</v>
+        <v>22082.0</v>
+      </c>
+      <c r="FO13" t="n">
+        <v>22082.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7787,12 +7829,15 @@
         <v>39071.0</v>
       </c>
       <c r="FN14" t="n">
-        <v>39071.0</v>
+        <v>41640.0</v>
+      </c>
+      <c r="FO14" t="n">
+        <v>41640.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -8299,12 +8344,15 @@
         <v>26224.0</v>
       </c>
       <c r="FN15" t="n">
-        <v>26224.0</v>
+        <v>30038.0</v>
+      </c>
+      <c r="FO15" t="n">
+        <v>30038.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8811,12 +8859,15 @@
         <v>19991.0</v>
       </c>
       <c r="FN16" t="n">
-        <v>19991.0</v>
+        <v>22429.0</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>22429.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -9323,12 +9374,15 @@
         <v>24931.0</v>
       </c>
       <c r="FN17" t="n">
-        <v>24931.0</v>
+        <v>26755.0</v>
+      </c>
+      <c r="FO17" t="n">
+        <v>26755.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9835,12 +9889,15 @@
         <v>324794.0</v>
       </c>
       <c r="FN18" t="n">
-        <v>324794.0</v>
+        <v>339450.0</v>
+      </c>
+      <c r="FO18" t="n">
+        <v>339450.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -10347,7 +10404,10 @@
         <v>209559.0</v>
       </c>
       <c r="FN19" t="n">
-        <v>209559.0</v>
+        <v>217244.0</v>
+      </c>
+      <c r="FO19" t="n">
+        <v>217244.0</v>
       </c>
     </row>
   </sheetData>
@@ -10872,10 +10932,13 @@
       <c r="FN1" t="s">
         <v>168</v>
       </c>
+      <c r="FO1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -11382,12 +11445,15 @@
         <v>703.0</v>
       </c>
       <c r="FN2" t="n">
-        <v>1123.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>298.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -11894,12 +11960,15 @@
         <v>232.0</v>
       </c>
       <c r="FN3" t="n">
-        <v>232.0</v>
+        <v>241.0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>241.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -12406,12 +12475,15 @@
         <v>151.0</v>
       </c>
       <c r="FN4" t="n">
-        <v>151.0</v>
+        <v>166.0</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -12918,12 +12990,15 @@
         <v>263.0</v>
       </c>
       <c r="FN5" t="n">
-        <v>263.0</v>
+        <v>276.0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>276.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -13430,12 +13505,15 @@
         <v>2856.0</v>
       </c>
       <c r="FN6" t="n">
-        <v>2856.0</v>
+        <v>3060.0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>3060.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -13942,12 +14020,15 @@
         <v>109.0</v>
       </c>
       <c r="FN7" t="n">
-        <v>109.0</v>
+        <v>131.0</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -14454,12 +14535,15 @@
         <v>111.0</v>
       </c>
       <c r="FN8" t="n">
-        <v>111.0</v>
+        <v>121.0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -14966,12 +15050,15 @@
         <v>64.0</v>
       </c>
       <c r="FN9" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -15478,12 +15565,15 @@
         <v>115.0</v>
       </c>
       <c r="FN10" t="n">
-        <v>115.0</v>
+        <v>124.0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -15990,12 +16080,15 @@
         <v>162.0</v>
       </c>
       <c r="FN11" t="n">
-        <v>162.0</v>
+        <v>174.0</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -16502,12 +16595,15 @@
         <v>86.0</v>
       </c>
       <c r="FN12" t="n">
-        <v>86.0</v>
+        <v>94.0</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -17014,12 +17110,15 @@
         <v>687.0</v>
       </c>
       <c r="FN13" t="n">
-        <v>687.0</v>
+        <v>740.0</v>
+      </c>
+      <c r="FO13" t="n">
+        <v>740.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -17526,12 +17625,15 @@
         <v>1447.0</v>
       </c>
       <c r="FN14" t="n">
-        <v>1447.0</v>
+        <v>1487.0</v>
+      </c>
+      <c r="FO14" t="n">
+        <v>1487.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -18038,12 +18140,15 @@
         <v>661.0</v>
       </c>
       <c r="FN15" t="n">
-        <v>661.0</v>
+        <v>741.0</v>
+      </c>
+      <c r="FO15" t="n">
+        <v>741.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -18550,12 +18655,15 @@
         <v>585.0</v>
       </c>
       <c r="FN16" t="n">
-        <v>585.0</v>
+        <v>659.0</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>659.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -19062,12 +19170,15 @@
         <v>707.0</v>
       </c>
       <c r="FN17" t="n">
-        <v>707.0</v>
+        <v>746.0</v>
+      </c>
+      <c r="FO17" t="n">
+        <v>746.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -19574,12 +19685,15 @@
         <v>16212.0</v>
       </c>
       <c r="FN18" t="n">
-        <v>16212.0</v>
+        <v>16744.0</v>
+      </c>
+      <c r="FO18" t="n">
+        <v>16744.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -20086,7 +20200,10 @@
         <v>9909.0</v>
       </c>
       <c r="FN19" t="n">
-        <v>9909.0</v>
+        <v>10221.0</v>
+      </c>
+      <c r="FO19" t="n">
+        <v>10221.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="189">
   <si>
     <t>02/25/20</t>
   </si>
@@ -525,6 +525,9 @@
     <t>08/12/20</t>
   </si>
   <si>
+    <t>08/13/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1139,10 +1142,13 @@
       <c r="FO1" t="s">
         <v>169</v>
       </c>
+      <c r="FP1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1643,21 +1649,24 @@
         <v>23194.0</v>
       </c>
       <c r="FL2" t="n">
-        <v>28589.0</v>
+        <v>141.0</v>
       </c>
       <c r="FM2" t="n">
-        <v>29878.0</v>
+        <v>141.0</v>
       </c>
       <c r="FN2" t="n">
         <v>142.0</v>
       </c>
       <c r="FO2" t="n">
-        <v>15761.0</v>
+        <v>144.0</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>19418.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2158,21 +2167,24 @@
         <v>8576.0</v>
       </c>
       <c r="FL3" t="n">
-        <v>8576.0</v>
+        <v>9176.0</v>
       </c>
       <c r="FM3" t="n">
-        <v>8576.0</v>
+        <v>9205.0</v>
       </c>
       <c r="FN3" t="n">
         <v>9500.0</v>
       </c>
       <c r="FO3" t="n">
-        <v>9500.0</v>
+        <v>9741.0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>9741.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2673,21 +2685,24 @@
         <v>5112.0</v>
       </c>
       <c r="FL4" t="n">
-        <v>5112.0</v>
+        <v>5539.0</v>
       </c>
       <c r="FM4" t="n">
-        <v>5112.0</v>
+        <v>5547.0</v>
       </c>
       <c r="FN4" t="n">
         <v>5718.0</v>
       </c>
       <c r="FO4" t="n">
-        <v>5718.0</v>
+        <v>5913.0</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>5913.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3188,21 +3203,24 @@
         <v>13610.0</v>
       </c>
       <c r="FL5" t="n">
-        <v>13610.0</v>
+        <v>14631.0</v>
       </c>
       <c r="FM5" t="n">
-        <v>13610.0</v>
+        <v>14638.0</v>
       </c>
       <c r="FN5" t="n">
         <v>14956.0</v>
       </c>
       <c r="FO5" t="n">
-        <v>14956.0</v>
+        <v>15304.0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>15304.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3703,21 +3721,24 @@
         <v>87885.0</v>
       </c>
       <c r="FL6" t="n">
-        <v>87885.0</v>
+        <v>92804.0</v>
       </c>
       <c r="FM6" t="n">
-        <v>87885.0</v>
+        <v>93185.0</v>
       </c>
       <c r="FN6" t="n">
         <v>95489.0</v>
       </c>
       <c r="FO6" t="n">
-        <v>95489.0</v>
+        <v>97669.0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>97669.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4218,21 +4239,24 @@
         <v>6926.0</v>
       </c>
       <c r="FL7" t="n">
-        <v>6926.0</v>
+        <v>7484.0</v>
       </c>
       <c r="FM7" t="n">
-        <v>6926.0</v>
+        <v>7511.0</v>
       </c>
       <c r="FN7" t="n">
         <v>7782.0</v>
       </c>
       <c r="FO7" t="n">
-        <v>7782.0</v>
+        <v>7997.0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>7997.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4733,21 +4757,24 @@
         <v>4136.0</v>
       </c>
       <c r="FL8" t="n">
-        <v>4136.0</v>
+        <v>4601.0</v>
       </c>
       <c r="FM8" t="n">
-        <v>4136.0</v>
+        <v>4601.0</v>
       </c>
       <c r="FN8" t="n">
         <v>4727.0</v>
       </c>
       <c r="FO8" t="n">
-        <v>4727.0</v>
+        <v>4892.0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>4892.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5248,21 +5275,24 @@
         <v>2309.0</v>
       </c>
       <c r="FL9" t="n">
-        <v>2309.0</v>
+        <v>2444.0</v>
       </c>
       <c r="FM9" t="n">
-        <v>2309.0</v>
+        <v>2444.0</v>
       </c>
       <c r="FN9" t="n">
         <v>2525.0</v>
       </c>
       <c r="FO9" t="n">
-        <v>2525.0</v>
+        <v>2591.0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>2591.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5763,21 +5793,24 @@
         <v>5450.0</v>
       </c>
       <c r="FL10" t="n">
-        <v>5450.0</v>
+        <v>5816.0</v>
       </c>
       <c r="FM10" t="n">
-        <v>5450.0</v>
+        <v>5817.0</v>
       </c>
       <c r="FN10" t="n">
         <v>6048.0</v>
       </c>
       <c r="FO10" t="n">
-        <v>6048.0</v>
+        <v>6159.0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>6159.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6278,21 +6311,24 @@
         <v>5211.0</v>
       </c>
       <c r="FL11" t="n">
-        <v>5211.0</v>
+        <v>5659.0</v>
       </c>
       <c r="FM11" t="n">
-        <v>5211.0</v>
+        <v>5672.0</v>
       </c>
       <c r="FN11" t="n">
         <v>5818.0</v>
       </c>
       <c r="FO11" t="n">
-        <v>5818.0</v>
+        <v>6016.0</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>6016.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6793,21 +6829,24 @@
         <v>4024.0</v>
       </c>
       <c r="FL12" t="n">
-        <v>4024.0</v>
+        <v>4358.0</v>
       </c>
       <c r="FM12" t="n">
-        <v>4024.0</v>
+        <v>4367.0</v>
       </c>
       <c r="FN12" t="n">
         <v>4463.0</v>
       </c>
       <c r="FO12" t="n">
-        <v>4463.0</v>
+        <v>4554.0</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>4554.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -7308,21 +7347,24 @@
         <v>20287.0</v>
       </c>
       <c r="FL13" t="n">
-        <v>20287.0</v>
+        <v>21473.0</v>
       </c>
       <c r="FM13" t="n">
-        <v>20287.0</v>
+        <v>21491.0</v>
       </c>
       <c r="FN13" t="n">
         <v>22082.0</v>
       </c>
       <c r="FO13" t="n">
-        <v>22082.0</v>
+        <v>22466.0</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>22466.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7823,21 +7865,24 @@
         <v>39071.0</v>
       </c>
       <c r="FL14" t="n">
-        <v>39071.0</v>
+        <v>41333.0</v>
       </c>
       <c r="FM14" t="n">
-        <v>39071.0</v>
+        <v>41356.0</v>
       </c>
       <c r="FN14" t="n">
         <v>41640.0</v>
       </c>
       <c r="FO14" t="n">
-        <v>41640.0</v>
+        <v>42131.0</v>
+      </c>
+      <c r="FP14" t="n">
+        <v>42131.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -8338,21 +8383,24 @@
         <v>26224.0</v>
       </c>
       <c r="FL15" t="n">
-        <v>26224.0</v>
+        <v>29309.0</v>
       </c>
       <c r="FM15" t="n">
-        <v>26224.0</v>
+        <v>29483.0</v>
       </c>
       <c r="FN15" t="n">
         <v>30038.0</v>
       </c>
       <c r="FO15" t="n">
-        <v>30038.0</v>
+        <v>30684.0</v>
+      </c>
+      <c r="FP15" t="n">
+        <v>30684.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8853,21 +8901,24 @@
         <v>19991.0</v>
       </c>
       <c r="FL16" t="n">
-        <v>19991.0</v>
+        <v>21924.0</v>
       </c>
       <c r="FM16" t="n">
-        <v>19991.0</v>
+        <v>22006.0</v>
       </c>
       <c r="FN16" t="n">
         <v>22429.0</v>
       </c>
       <c r="FO16" t="n">
-        <v>22429.0</v>
+        <v>23045.0</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>23045.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -9368,21 +9419,24 @@
         <v>24931.0</v>
       </c>
       <c r="FL17" t="n">
-        <v>24931.0</v>
+        <v>26277.0</v>
       </c>
       <c r="FM17" t="n">
-        <v>24931.0</v>
+        <v>26306.0</v>
       </c>
       <c r="FN17" t="n">
         <v>26755.0</v>
       </c>
       <c r="FO17" t="n">
-        <v>26755.0</v>
+        <v>27255.0</v>
+      </c>
+      <c r="FP17" t="n">
+        <v>27255.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9883,21 +9937,24 @@
         <v>324794.0</v>
       </c>
       <c r="FL18" t="n">
-        <v>324794.0</v>
+        <v>334157.0</v>
       </c>
       <c r="FM18" t="n">
-        <v>324794.0</v>
+        <v>334645.0</v>
       </c>
       <c r="FN18" t="n">
         <v>339450.0</v>
       </c>
       <c r="FO18" t="n">
-        <v>339450.0</v>
+        <v>348620.0</v>
+      </c>
+      <c r="FP18" t="n">
+        <v>348620.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -10398,16 +10455,19 @@
         <v>209559.0</v>
       </c>
       <c r="FL19" t="n">
-        <v>209559.0</v>
+        <v>214094.0</v>
       </c>
       <c r="FM19" t="n">
-        <v>209559.0</v>
+        <v>214329.0</v>
       </c>
       <c r="FN19" t="n">
         <v>217244.0</v>
       </c>
       <c r="FO19" t="n">
-        <v>217244.0</v>
+        <v>224140.0</v>
+      </c>
+      <c r="FP19" t="n">
+        <v>224140.0</v>
       </c>
     </row>
   </sheetData>
@@ -10935,10 +10995,13 @@
       <c r="FO1" t="s">
         <v>169</v>
       </c>
+      <c r="FP1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -11439,21 +11502,24 @@
         <v>568.0</v>
       </c>
       <c r="FL2" t="n">
-        <v>666.0</v>
+        <v>0.0</v>
       </c>
       <c r="FM2" t="n">
-        <v>703.0</v>
+        <v>0.0</v>
       </c>
       <c r="FN2" t="n">
         <v>0.0</v>
       </c>
       <c r="FO2" t="n">
-        <v>298.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>455.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -11954,21 +12020,24 @@
         <v>232.0</v>
       </c>
       <c r="FL3" t="n">
-        <v>232.0</v>
+        <v>238.0</v>
       </c>
       <c r="FM3" t="n">
-        <v>232.0</v>
+        <v>238.0</v>
       </c>
       <c r="FN3" t="n">
         <v>241.0</v>
       </c>
       <c r="FO3" t="n">
-        <v>241.0</v>
+        <v>248.0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>248.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -12469,21 +12538,24 @@
         <v>151.0</v>
       </c>
       <c r="FL4" t="n">
-        <v>151.0</v>
+        <v>157.0</v>
       </c>
       <c r="FM4" t="n">
-        <v>151.0</v>
+        <v>160.0</v>
       </c>
       <c r="FN4" t="n">
         <v>166.0</v>
       </c>
       <c r="FO4" t="n">
-        <v>166.0</v>
+        <v>169.0</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -12984,21 +13056,24 @@
         <v>263.0</v>
       </c>
       <c r="FL5" t="n">
-        <v>263.0</v>
+        <v>270.0</v>
       </c>
       <c r="FM5" t="n">
-        <v>263.0</v>
+        <v>270.0</v>
       </c>
       <c r="FN5" t="n">
         <v>276.0</v>
       </c>
       <c r="FO5" t="n">
-        <v>276.0</v>
+        <v>291.0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>291.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -13499,21 +13574,24 @@
         <v>2856.0</v>
       </c>
       <c r="FL6" t="n">
-        <v>2856.0</v>
+        <v>2971.0</v>
       </c>
       <c r="FM6" t="n">
-        <v>2856.0</v>
+        <v>2982.0</v>
       </c>
       <c r="FN6" t="n">
         <v>3060.0</v>
       </c>
       <c r="FO6" t="n">
-        <v>3060.0</v>
+        <v>3108.0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>3108.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -14014,21 +14092,24 @@
         <v>109.0</v>
       </c>
       <c r="FL7" t="n">
-        <v>109.0</v>
+        <v>125.0</v>
       </c>
       <c r="FM7" t="n">
-        <v>109.0</v>
+        <v>128.0</v>
       </c>
       <c r="FN7" t="n">
         <v>131.0</v>
       </c>
       <c r="FO7" t="n">
-        <v>131.0</v>
+        <v>133.0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -14529,21 +14610,24 @@
         <v>111.0</v>
       </c>
       <c r="FL8" t="n">
-        <v>111.0</v>
+        <v>115.0</v>
       </c>
       <c r="FM8" t="n">
-        <v>111.0</v>
+        <v>115.0</v>
       </c>
       <c r="FN8" t="n">
         <v>121.0</v>
       </c>
       <c r="FO8" t="n">
-        <v>121.0</v>
+        <v>124.0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -15044,21 +15128,24 @@
         <v>64.0</v>
       </c>
       <c r="FL9" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="FM9" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="FN9" t="n">
         <v>67.0</v>
       </c>
       <c r="FO9" t="n">
-        <v>67.0</v>
+        <v>69.0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -15559,21 +15646,24 @@
         <v>115.0</v>
       </c>
       <c r="FL10" t="n">
-        <v>115.0</v>
+        <v>120.0</v>
       </c>
       <c r="FM10" t="n">
-        <v>115.0</v>
+        <v>120.0</v>
       </c>
       <c r="FN10" t="n">
         <v>124.0</v>
       </c>
       <c r="FO10" t="n">
-        <v>124.0</v>
+        <v>126.0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>126.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -16074,21 +16164,24 @@
         <v>162.0</v>
       </c>
       <c r="FL11" t="n">
-        <v>162.0</v>
+        <v>167.0</v>
       </c>
       <c r="FM11" t="n">
-        <v>162.0</v>
+        <v>167.0</v>
       </c>
       <c r="FN11" t="n">
         <v>174.0</v>
       </c>
       <c r="FO11" t="n">
-        <v>174.0</v>
+        <v>178.0</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>178.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -16589,21 +16682,24 @@
         <v>86.0</v>
       </c>
       <c r="FL12" t="n">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
       <c r="FM12" t="n">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
       <c r="FN12" t="n">
         <v>94.0</v>
       </c>
       <c r="FO12" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -17104,21 +17200,24 @@
         <v>687.0</v>
       </c>
       <c r="FL13" t="n">
-        <v>687.0</v>
+        <v>718.0</v>
       </c>
       <c r="FM13" t="n">
-        <v>687.0</v>
+        <v>718.0</v>
       </c>
       <c r="FN13" t="n">
         <v>740.0</v>
       </c>
       <c r="FO13" t="n">
-        <v>740.0</v>
+        <v>755.0</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>755.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -17619,21 +17718,24 @@
         <v>1447.0</v>
       </c>
       <c r="FL14" t="n">
-        <v>1447.0</v>
+        <v>1479.0</v>
       </c>
       <c r="FM14" t="n">
-        <v>1447.0</v>
+        <v>1480.0</v>
       </c>
       <c r="FN14" t="n">
         <v>1487.0</v>
       </c>
       <c r="FO14" t="n">
-        <v>1487.0</v>
+        <v>1508.0</v>
+      </c>
+      <c r="FP14" t="n">
+        <v>1508.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -18134,21 +18236,24 @@
         <v>661.0</v>
       </c>
       <c r="FL15" t="n">
-        <v>661.0</v>
+        <v>710.0</v>
       </c>
       <c r="FM15" t="n">
-        <v>661.0</v>
+        <v>718.0</v>
       </c>
       <c r="FN15" t="n">
         <v>741.0</v>
       </c>
       <c r="FO15" t="n">
-        <v>741.0</v>
+        <v>756.0</v>
+      </c>
+      <c r="FP15" t="n">
+        <v>756.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -18649,21 +18754,24 @@
         <v>585.0</v>
       </c>
       <c r="FL16" t="n">
-        <v>585.0</v>
+        <v>621.0</v>
       </c>
       <c r="FM16" t="n">
-        <v>585.0</v>
+        <v>621.0</v>
       </c>
       <c r="FN16" t="n">
         <v>659.0</v>
       </c>
       <c r="FO16" t="n">
-        <v>659.0</v>
+        <v>669.0</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>669.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -19164,21 +19272,24 @@
         <v>707.0</v>
       </c>
       <c r="FL17" t="n">
-        <v>707.0</v>
+        <v>726.0</v>
       </c>
       <c r="FM17" t="n">
-        <v>707.0</v>
+        <v>726.0</v>
       </c>
       <c r="FN17" t="n">
         <v>746.0</v>
       </c>
       <c r="FO17" t="n">
-        <v>746.0</v>
+        <v>749.0</v>
+      </c>
+      <c r="FP17" t="n">
+        <v>749.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -19679,21 +19790,24 @@
         <v>16212.0</v>
       </c>
       <c r="FL18" t="n">
-        <v>16212.0</v>
+        <v>16542.0</v>
       </c>
       <c r="FM18" t="n">
-        <v>16212.0</v>
+        <v>16553.0</v>
       </c>
       <c r="FN18" t="n">
         <v>16744.0</v>
       </c>
       <c r="FO18" t="n">
-        <v>16744.0</v>
+        <v>16889.0</v>
+      </c>
+      <c r="FP18" t="n">
+        <v>16889.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -20194,16 +20308,19 @@
         <v>9909.0</v>
       </c>
       <c r="FL19" t="n">
-        <v>9909.0</v>
+        <v>10099.0</v>
       </c>
       <c r="FM19" t="n">
-        <v>9909.0</v>
+        <v>10107.0</v>
       </c>
       <c r="FN19" t="n">
         <v>10221.0</v>
       </c>
       <c r="FO19" t="n">
-        <v>10221.0</v>
+        <v>10311.0</v>
+      </c>
+      <c r="FP19" t="n">
+        <v>10311.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="192">
   <si>
     <t>02/25/20</t>
   </si>
@@ -528,6 +528,15 @@
     <t>08/13/20</t>
   </si>
   <si>
+    <t>08/14/20</t>
+  </si>
+  <si>
+    <t>08/15/20</t>
+  </si>
+  <si>
+    <t>08/16/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1145,10 +1154,19 @@
       <c r="FP1" t="s">
         <v>170</v>
       </c>
+      <c r="FQ1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1643,10 +1661,10 @@
         <v>133.0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>9842.0</v>
+        <v>133.0</v>
       </c>
       <c r="FK2" t="n">
-        <v>23194.0</v>
+        <v>136.0</v>
       </c>
       <c r="FL2" t="n">
         <v>141.0</v>
@@ -1661,12 +1679,21 @@
         <v>144.0</v>
       </c>
       <c r="FP2" t="n">
-        <v>19418.0</v>
+        <v>140.0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>2104.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2161,10 +2188,10 @@
         <v>8576.0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>8576.0</v>
+        <v>8787.0</v>
       </c>
       <c r="FK3" t="n">
-        <v>8576.0</v>
+        <v>9070.0</v>
       </c>
       <c r="FL3" t="n">
         <v>9176.0</v>
@@ -2179,12 +2206,21 @@
         <v>9741.0</v>
       </c>
       <c r="FP3" t="n">
-        <v>9741.0</v>
+        <v>9952.0</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>10088.0</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>10297.0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>10297.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2679,10 +2715,10 @@
         <v>5112.0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>5112.0</v>
+        <v>5237.0</v>
       </c>
       <c r="FK4" t="n">
-        <v>5112.0</v>
+        <v>5448.0</v>
       </c>
       <c r="FL4" t="n">
         <v>5539.0</v>
@@ -2697,12 +2733,21 @@
         <v>5913.0</v>
       </c>
       <c r="FP4" t="n">
-        <v>5913.0</v>
+        <v>6104.0</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>6419.0</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>6619.0</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>6619.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3197,10 +3242,10 @@
         <v>13610.0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>13610.0</v>
+        <v>13959.0</v>
       </c>
       <c r="FK5" t="n">
-        <v>13610.0</v>
+        <v>14380.0</v>
       </c>
       <c r="FL5" t="n">
         <v>14631.0</v>
@@ -3215,12 +3260,21 @@
         <v>15304.0</v>
       </c>
       <c r="FP5" t="n">
-        <v>15304.0</v>
+        <v>15695.0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>16162.0</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>16553.0</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>16553.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3715,10 +3769,10 @@
         <v>87885.0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>87885.0</v>
+        <v>89932.0</v>
       </c>
       <c r="FK6" t="n">
-        <v>87885.0</v>
+        <v>92125.0</v>
       </c>
       <c r="FL6" t="n">
         <v>92804.0</v>
@@ -3733,12 +3787,21 @@
         <v>97669.0</v>
       </c>
       <c r="FP6" t="n">
-        <v>97669.0</v>
+        <v>101097.0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>103231.0</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>105947.0</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>105947.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4233,10 +4296,10 @@
         <v>6926.0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>6926.0</v>
+        <v>7132.0</v>
       </c>
       <c r="FK7" t="n">
-        <v>6926.0</v>
+        <v>7385.0</v>
       </c>
       <c r="FL7" t="n">
         <v>7484.0</v>
@@ -4251,12 +4314,21 @@
         <v>7997.0</v>
       </c>
       <c r="FP7" t="n">
-        <v>7997.0</v>
+        <v>8210.0</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>8465.0</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>8784.0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>8784.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4751,10 +4823,10 @@
         <v>4136.0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>4136.0</v>
+        <v>4294.0</v>
       </c>
       <c r="FK8" t="n">
-        <v>4136.0</v>
+        <v>4561.0</v>
       </c>
       <c r="FL8" t="n">
         <v>4601.0</v>
@@ -4769,12 +4841,21 @@
         <v>4892.0</v>
       </c>
       <c r="FP8" t="n">
-        <v>4892.0</v>
+        <v>5102.0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>5360.0</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>5610.0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>5610.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5269,10 +5350,10 @@
         <v>2309.0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>2309.0</v>
+        <v>2357.0</v>
       </c>
       <c r="FK9" t="n">
-        <v>2309.0</v>
+        <v>2426.0</v>
       </c>
       <c r="FL9" t="n">
         <v>2444.0</v>
@@ -5287,12 +5368,21 @@
         <v>2591.0</v>
       </c>
       <c r="FP9" t="n">
-        <v>2591.0</v>
+        <v>2702.0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>2752.0</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>2875.0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>2875.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5787,10 +5877,10 @@
         <v>5450.0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>5450.0</v>
+        <v>5557.0</v>
       </c>
       <c r="FK10" t="n">
-        <v>5450.0</v>
+        <v>5757.0</v>
       </c>
       <c r="FL10" t="n">
         <v>5816.0</v>
@@ -5805,12 +5895,21 @@
         <v>6159.0</v>
       </c>
       <c r="FP10" t="n">
-        <v>6159.0</v>
+        <v>6345.0</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>6514.0</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>6722.0</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>6722.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6305,10 +6404,10 @@
         <v>5211.0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>5211.0</v>
+        <v>5320.0</v>
       </c>
       <c r="FK11" t="n">
-        <v>5211.0</v>
+        <v>5561.0</v>
       </c>
       <c r="FL11" t="n">
         <v>5659.0</v>
@@ -6323,12 +6422,21 @@
         <v>6016.0</v>
       </c>
       <c r="FP11" t="n">
-        <v>6016.0</v>
+        <v>6251.0</v>
+      </c>
+      <c r="FQ11" t="n">
+        <v>6387.0</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>6568.0</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>6568.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6823,10 +6931,10 @@
         <v>4024.0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>4024.0</v>
+        <v>4069.0</v>
       </c>
       <c r="FK12" t="n">
-        <v>4024.0</v>
+        <v>4275.0</v>
       </c>
       <c r="FL12" t="n">
         <v>4358.0</v>
@@ -6841,12 +6949,21 @@
         <v>4554.0</v>
       </c>
       <c r="FP12" t="n">
-        <v>4554.0</v>
+        <v>4644.0</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>4751.0</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>4842.0</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>4842.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -7341,10 +7458,10 @@
         <v>20287.0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>20287.0</v>
+        <v>20652.0</v>
       </c>
       <c r="FK13" t="n">
-        <v>20287.0</v>
+        <v>21138.0</v>
       </c>
       <c r="FL13" t="n">
         <v>21473.0</v>
@@ -7359,12 +7476,21 @@
         <v>22466.0</v>
       </c>
       <c r="FP13" t="n">
-        <v>22466.0</v>
+        <v>23152.0</v>
+      </c>
+      <c r="FQ13" t="n">
+        <v>23711.0</v>
+      </c>
+      <c r="FR13" t="n">
+        <v>24147.0</v>
+      </c>
+      <c r="FS13" t="n">
+        <v>24147.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -7859,10 +7985,10 @@
         <v>39071.0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>39071.0</v>
+        <v>39694.0</v>
       </c>
       <c r="FK14" t="n">
-        <v>39071.0</v>
+        <v>40572.0</v>
       </c>
       <c r="FL14" t="n">
         <v>41333.0</v>
@@ -7877,12 +8003,21 @@
         <v>42131.0</v>
       </c>
       <c r="FP14" t="n">
-        <v>42131.0</v>
+        <v>42724.0</v>
+      </c>
+      <c r="FQ14" t="n">
+        <v>43201.0</v>
+      </c>
+      <c r="FR14" t="n">
+        <v>43732.0</v>
+      </c>
+      <c r="FS14" t="n">
+        <v>43732.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -8377,10 +8512,10 @@
         <v>26224.0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>26224.0</v>
+        <v>27116.0</v>
       </c>
       <c r="FK15" t="n">
-        <v>26224.0</v>
+        <v>28664.0</v>
       </c>
       <c r="FL15" t="n">
         <v>29309.0</v>
@@ -8395,12 +8530,21 @@
         <v>30684.0</v>
       </c>
       <c r="FP15" t="n">
-        <v>30684.0</v>
+        <v>31730.0</v>
+      </c>
+      <c r="FQ15" t="n">
+        <v>32602.0</v>
+      </c>
+      <c r="FR15" t="n">
+        <v>33620.0</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>33620.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8895,10 +9039,10 @@
         <v>19991.0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>19991.0</v>
+        <v>20442.0</v>
       </c>
       <c r="FK16" t="n">
-        <v>19991.0</v>
+        <v>21490.0</v>
       </c>
       <c r="FL16" t="n">
         <v>21924.0</v>
@@ -8913,12 +9057,21 @@
         <v>23045.0</v>
       </c>
       <c r="FP16" t="n">
-        <v>23045.0</v>
+        <v>24139.0</v>
+      </c>
+      <c r="FQ16" t="n">
+        <v>24715.0</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>25401.0</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>25401.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -9413,10 +9566,10 @@
         <v>24931.0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>24931.0</v>
+        <v>25354.0</v>
       </c>
       <c r="FK17" t="n">
-        <v>24931.0</v>
+        <v>26011.0</v>
       </c>
       <c r="FL17" t="n">
         <v>26277.0</v>
@@ -9431,12 +9584,21 @@
         <v>27255.0</v>
       </c>
       <c r="FP17" t="n">
-        <v>27255.0</v>
+        <v>28045.0</v>
+      </c>
+      <c r="FQ17" t="n">
+        <v>28433.0</v>
+      </c>
+      <c r="FR17" t="n">
+        <v>29346.0</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>29346.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -9931,10 +10093,10 @@
         <v>324794.0</v>
       </c>
       <c r="FJ18" t="n">
-        <v>324794.0</v>
+        <v>328344.0</v>
       </c>
       <c r="FK18" t="n">
-        <v>324794.0</v>
+        <v>332732.0</v>
       </c>
       <c r="FL18" t="n">
         <v>334157.0</v>
@@ -9949,12 +10111,21 @@
         <v>348620.0</v>
       </c>
       <c r="FP18" t="n">
-        <v>348620.0</v>
+        <v>358423.0</v>
+      </c>
+      <c r="FQ18" t="n">
+        <v>363190.0</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>366326.0</v>
+      </c>
+      <c r="FS18" t="n">
+        <v>366326.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -10449,10 +10620,10 @@
         <v>209559.0</v>
       </c>
       <c r="FJ19" t="n">
-        <v>209559.0</v>
+        <v>211469.0</v>
       </c>
       <c r="FK19" t="n">
-        <v>209559.0</v>
+        <v>213507.0</v>
       </c>
       <c r="FL19" t="n">
         <v>214094.0</v>
@@ -10467,7 +10638,16 @@
         <v>224140.0</v>
       </c>
       <c r="FP19" t="n">
-        <v>224140.0</v>
+        <v>231203.0</v>
+      </c>
+      <c r="FQ19" t="n">
+        <v>233987.0</v>
+      </c>
+      <c r="FR19" t="n">
+        <v>235519.0</v>
+      </c>
+      <c r="FS19" t="n">
+        <v>235519.0</v>
       </c>
     </row>
   </sheetData>
@@ -10998,10 +11178,19 @@
       <c r="FP1" t="s">
         <v>170</v>
       </c>
+      <c r="FQ1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -11496,10 +11685,10 @@
         <v>0.0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>287.0</v>
+        <v>0.0</v>
       </c>
       <c r="FK2" t="n">
-        <v>568.0</v>
+        <v>0.0</v>
       </c>
       <c r="FL2" t="n">
         <v>0.0</v>
@@ -11514,12 +11703,21 @@
         <v>0.0</v>
       </c>
       <c r="FP2" t="n">
-        <v>455.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -12014,10 +12212,10 @@
         <v>232.0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>232.0</v>
+        <v>234.0</v>
       </c>
       <c r="FK3" t="n">
-        <v>232.0</v>
+        <v>236.0</v>
       </c>
       <c r="FL3" t="n">
         <v>238.0</v>
@@ -12032,12 +12230,21 @@
         <v>248.0</v>
       </c>
       <c r="FP3" t="n">
-        <v>248.0</v>
+        <v>256.0</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>258.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -12532,10 +12739,10 @@
         <v>151.0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>151.0</v>
+        <v>155.0</v>
       </c>
       <c r="FK4" t="n">
-        <v>151.0</v>
+        <v>156.0</v>
       </c>
       <c r="FL4" t="n">
         <v>157.0</v>
@@ -12550,12 +12757,21 @@
         <v>169.0</v>
       </c>
       <c r="FP4" t="n">
-        <v>169.0</v>
+        <v>174.0</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -13050,10 +13266,10 @@
         <v>263.0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>263.0</v>
+        <v>266.0</v>
       </c>
       <c r="FK5" t="n">
-        <v>263.0</v>
+        <v>268.0</v>
       </c>
       <c r="FL5" t="n">
         <v>270.0</v>
@@ -13068,12 +13284,21 @@
         <v>291.0</v>
       </c>
       <c r="FP5" t="n">
-        <v>291.0</v>
+        <v>296.0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>309.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -13568,10 +13793,10 @@
         <v>2856.0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>2856.0</v>
+        <v>2901.0</v>
       </c>
       <c r="FK6" t="n">
-        <v>2856.0</v>
+        <v>2957.0</v>
       </c>
       <c r="FL6" t="n">
         <v>2971.0</v>
@@ -13586,12 +13811,21 @@
         <v>3108.0</v>
       </c>
       <c r="FP6" t="n">
-        <v>3108.0</v>
+        <v>3177.0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>3229.0</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>3263.0</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>3263.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -14086,10 +14320,10 @@
         <v>109.0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>109.0</v>
+        <v>114.0</v>
       </c>
       <c r="FK7" t="n">
-        <v>109.0</v>
+        <v>125.0</v>
       </c>
       <c r="FL7" t="n">
         <v>125.0</v>
@@ -14104,12 +14338,21 @@
         <v>133.0</v>
       </c>
       <c r="FP7" t="n">
-        <v>133.0</v>
+        <v>139.0</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -14604,7 +14847,7 @@
         <v>111.0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>111.0</v>
+        <v>112.0</v>
       </c>
       <c r="FK8" t="n">
         <v>111.0</v>
@@ -14622,12 +14865,21 @@
         <v>124.0</v>
       </c>
       <c r="FP8" t="n">
-        <v>124.0</v>
+        <v>138.0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -15125,7 +15377,7 @@
         <v>64.0</v>
       </c>
       <c r="FK9" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="FL9" t="n">
         <v>65.0</v>
@@ -15140,12 +15392,21 @@
         <v>69.0</v>
       </c>
       <c r="FP9" t="n">
-        <v>69.0</v>
+        <v>74.0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -15640,10 +15901,10 @@
         <v>115.0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="FK10" t="n">
-        <v>115.0</v>
+        <v>119.0</v>
       </c>
       <c r="FL10" t="n">
         <v>120.0</v>
@@ -15658,12 +15919,21 @@
         <v>126.0</v>
       </c>
       <c r="FP10" t="n">
-        <v>126.0</v>
+        <v>127.0</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -16158,10 +16428,10 @@
         <v>162.0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>162.0</v>
+        <v>163.0</v>
       </c>
       <c r="FK11" t="n">
-        <v>162.0</v>
+        <v>167.0</v>
       </c>
       <c r="FL11" t="n">
         <v>167.0</v>
@@ -16176,12 +16446,21 @@
         <v>178.0</v>
       </c>
       <c r="FP11" t="n">
-        <v>178.0</v>
+        <v>182.0</v>
+      </c>
+      <c r="FQ11" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -16676,10 +16955,10 @@
         <v>86.0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="FK12" t="n">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
       <c r="FL12" t="n">
         <v>90.0</v>
@@ -16694,12 +16973,21 @@
         <v>97.0</v>
       </c>
       <c r="FP12" t="n">
-        <v>97.0</v>
+        <v>104.0</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -17194,10 +17482,10 @@
         <v>687.0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>687.0</v>
+        <v>704.0</v>
       </c>
       <c r="FK13" t="n">
-        <v>687.0</v>
+        <v>710.0</v>
       </c>
       <c r="FL13" t="n">
         <v>718.0</v>
@@ -17212,12 +17500,21 @@
         <v>755.0</v>
       </c>
       <c r="FP13" t="n">
-        <v>755.0</v>
+        <v>764.0</v>
+      </c>
+      <c r="FQ13" t="n">
+        <v>781.0</v>
+      </c>
+      <c r="FR13" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="FS13" t="n">
+        <v>792.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -17712,10 +18009,10 @@
         <v>1447.0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>1447.0</v>
+        <v>1458.0</v>
       </c>
       <c r="FK14" t="n">
-        <v>1447.0</v>
+        <v>1479.0</v>
       </c>
       <c r="FL14" t="n">
         <v>1479.0</v>
@@ -17730,12 +18027,21 @@
         <v>1508.0</v>
       </c>
       <c r="FP14" t="n">
-        <v>1508.0</v>
+        <v>1562.0</v>
+      </c>
+      <c r="FQ14" t="n">
+        <v>1575.0</v>
+      </c>
+      <c r="FR14" t="n">
+        <v>1586.0</v>
+      </c>
+      <c r="FS14" t="n">
+        <v>1586.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -18230,10 +18536,10 @@
         <v>661.0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>661.0</v>
+        <v>672.0</v>
       </c>
       <c r="FK15" t="n">
-        <v>661.0</v>
+        <v>688.0</v>
       </c>
       <c r="FL15" t="n">
         <v>710.0</v>
@@ -18248,12 +18554,21 @@
         <v>756.0</v>
       </c>
       <c r="FP15" t="n">
-        <v>756.0</v>
+        <v>768.0</v>
+      </c>
+      <c r="FQ15" t="n">
+        <v>781.0</v>
+      </c>
+      <c r="FR15" t="n">
+        <v>787.0</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>787.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -18748,10 +19063,10 @@
         <v>585.0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>585.0</v>
+        <v>610.0</v>
       </c>
       <c r="FK16" t="n">
-        <v>585.0</v>
+        <v>621.0</v>
       </c>
       <c r="FL16" t="n">
         <v>621.0</v>
@@ -18766,12 +19081,21 @@
         <v>669.0</v>
       </c>
       <c r="FP16" t="n">
-        <v>669.0</v>
+        <v>683.0</v>
+      </c>
+      <c r="FQ16" t="n">
+        <v>689.0</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>702.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -19266,10 +19590,10 @@
         <v>707.0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>707.0</v>
+        <v>717.0</v>
       </c>
       <c r="FK17" t="n">
-        <v>707.0</v>
+        <v>725.0</v>
       </c>
       <c r="FL17" t="n">
         <v>726.0</v>
@@ -19284,12 +19608,21 @@
         <v>749.0</v>
       </c>
       <c r="FP17" t="n">
-        <v>749.0</v>
+        <v>759.0</v>
+      </c>
+      <c r="FQ17" t="n">
+        <v>767.0</v>
+      </c>
+      <c r="FR17" t="n">
+        <v>773.0</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>773.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -19784,10 +20117,10 @@
         <v>16212.0</v>
       </c>
       <c r="FJ18" t="n">
-        <v>16212.0</v>
+        <v>16361.0</v>
       </c>
       <c r="FK18" t="n">
-        <v>16212.0</v>
+        <v>16499.0</v>
       </c>
       <c r="FL18" t="n">
         <v>16542.0</v>
@@ -19802,12 +20135,21 @@
         <v>16889.0</v>
       </c>
       <c r="FP18" t="n">
-        <v>16889.0</v>
+        <v>17121.0</v>
+      </c>
+      <c r="FQ18" t="n">
+        <v>17278.0</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>17344.0</v>
+      </c>
+      <c r="FS18" t="n">
+        <v>17344.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -20302,10 +20644,10 @@
         <v>9909.0</v>
       </c>
       <c r="FJ19" t="n">
-        <v>9909.0</v>
+        <v>10012.0</v>
       </c>
       <c r="FK19" t="n">
-        <v>9909.0</v>
+        <v>10085.0</v>
       </c>
       <c r="FL19" t="n">
         <v>10099.0</v>
@@ -20320,7 +20662,16 @@
         <v>10311.0</v>
       </c>
       <c r="FP19" t="n">
-        <v>10311.0</v>
+        <v>10453.0</v>
+      </c>
+      <c r="FQ19" t="n">
+        <v>10563.0</v>
+      </c>
+      <c r="FR19" t="n">
+        <v>10592.0</v>
+      </c>
+      <c r="FS19" t="n">
+        <v>10592.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="206">
   <si>
     <t>02/25/20</t>
   </si>
@@ -537,6 +537,48 @@
     <t>08/16/20</t>
   </si>
   <si>
+    <t>08/17/20</t>
+  </si>
+  <si>
+    <t>08/18/20</t>
+  </si>
+  <si>
+    <t>08/19/20</t>
+  </si>
+  <si>
+    <t>08/20/20</t>
+  </si>
+  <si>
+    <t>08/21/20</t>
+  </si>
+  <si>
+    <t>08/22/20</t>
+  </si>
+  <si>
+    <t>08/23/20</t>
+  </si>
+  <si>
+    <t>08/24/20</t>
+  </si>
+  <si>
+    <t>08/25/20</t>
+  </si>
+  <si>
+    <t>08/26/20</t>
+  </si>
+  <si>
+    <t>08/27/20</t>
+  </si>
+  <si>
+    <t>08/28/20</t>
+  </si>
+  <si>
+    <t>08/29/20</t>
+  </si>
+  <si>
+    <t>08/30/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1163,10 +1205,52 @@
       <c r="FS1" t="s">
         <v>173</v>
       </c>
+      <c r="FT1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>180</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1688,12 +1772,54 @@
         <v>141.0</v>
       </c>
       <c r="FS2" t="n">
-        <v>2104.0</v>
+        <v>141.0</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>5369.0</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>7351.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2215,12 +2341,54 @@
         <v>10297.0</v>
       </c>
       <c r="FS3" t="n">
-        <v>10297.0</v>
+        <v>10304.0</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>10410.0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>10649.0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>10790.0</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>11022.0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>11096.0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>11366.0</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>11423.0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>11507.0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>11614.0</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>11857.0</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>12013.0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>12146.0</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>12146.0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>12146.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2742,12 +2910,54 @@
         <v>6619.0</v>
       </c>
       <c r="FS4" t="n">
-        <v>6619.0</v>
+        <v>6648.0</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>6689.0</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>6866.0</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>7060.0</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>7187.0</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>7304.0</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>7567.0</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>7762.0</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>7856.0</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>8031.0</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>8249.0</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>8420.0</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>8643.0</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>8643.0</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>8643.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3269,12 +3479,54 @@
         <v>16553.0</v>
       </c>
       <c r="FS5" t="n">
-        <v>16553.0</v>
+        <v>16649.0</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>16730.0</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>17011.0</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>17459.0</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>17813.0</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>17985.0</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>18492.0</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>18621.0</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>18677.0</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>19043.0</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>19359.0</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>19653.0</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>20084.0</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>20084.0</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>20084.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3796,12 +4048,54 @@
         <v>105947.0</v>
       </c>
       <c r="FS6" t="n">
-        <v>105947.0</v>
+        <v>106330.0</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>107267.0</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>108970.0</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>110617.0</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>112427.0</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>113422.0</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>115581.0</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>116464.0</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>116829.0</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>118683.0</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>120486.0</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>121964.0</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>124249.0</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>124249.0</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>124249.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4323,12 +4617,54 @@
         <v>8784.0</v>
       </c>
       <c r="FS7" t="n">
-        <v>8784.0</v>
+        <v>8822.0</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>8916.0</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>9059.0</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>9294.0</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>9528.0</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>9683.0</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>10007.0</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>10158.0</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>10212.0</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>10346.0</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>10633.0</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>10794.0</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>11032.0</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>11032.0</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>11032.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -4851,11 +5187,53 @@
       </c>
       <c r="FS8" t="n">
         <v>5610.0</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>5626.0</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>5850.0</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>5984.0</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>6255.0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>6347.0</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>6551.0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>6650.0</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>6681.0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>6810.0</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>7103.0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>7239.0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>7497.0</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>7497.0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>7497.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5377,12 +5755,54 @@
         <v>2875.0</v>
       </c>
       <c r="FS9" t="n">
-        <v>2875.0</v>
+        <v>2884.0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>2916.0</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>2973.0</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>3037.0</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>3098.0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>3131.0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>3192.0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>3212.0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>3237.0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>3308.0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>3350.0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>3404.0</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>3486.0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>3486.0</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>3486.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5904,12 +6324,54 @@
         <v>6722.0</v>
       </c>
       <c r="FS10" t="n">
-        <v>6722.0</v>
+        <v>6728.0</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>6790.0</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>7029.0</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>7209.0</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>7347.0</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>7396.0</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>7567.0</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>7612.0</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>7713.0</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>7892.0</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>8035.0</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>8182.0</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>8376.0</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>8376.0</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>8376.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6431,12 +6893,54 @@
         <v>6568.0</v>
       </c>
       <c r="FS11" t="n">
-        <v>6568.0</v>
+        <v>6579.0</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>6669.0</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>6749.0</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>6914.0</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>7086.0</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>7143.0</v>
+      </c>
+      <c r="FY11" t="n">
+        <v>7285.0</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>7375.0</v>
+      </c>
+      <c r="GA11" t="n">
+        <v>7420.0</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>7564.0</v>
+      </c>
+      <c r="GC11" t="n">
+        <v>7738.0</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>7905.0</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>8064.0</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>8064.0</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>8064.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -6958,12 +7462,54 @@
         <v>4842.0</v>
       </c>
       <c r="FS12" t="n">
-        <v>4842.0</v>
+        <v>4846.0</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>4861.0</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>4964.0</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>5040.0</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>5118.0</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>5170.0</v>
+      </c>
+      <c r="FY12" t="n">
+        <v>5283.0</v>
+      </c>
+      <c r="FZ12" t="n">
+        <v>5342.0</v>
+      </c>
+      <c r="GA12" t="n">
+        <v>5358.0</v>
+      </c>
+      <c r="GB12" t="n">
+        <v>5435.0</v>
+      </c>
+      <c r="GC12" t="n">
+        <v>5507.0</v>
+      </c>
+      <c r="GD12" t="n">
+        <v>5570.0</v>
+      </c>
+      <c r="GE12" t="n">
+        <v>5641.0</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>5641.0</v>
+      </c>
+      <c r="GG12" t="n">
+        <v>5641.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -7485,12 +8031,54 @@
         <v>24147.0</v>
       </c>
       <c r="FS13" t="n">
-        <v>24147.0</v>
+        <v>24291.0</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>24321.0</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>24800.0</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>25415.0</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>25904.0</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>26098.0</v>
+      </c>
+      <c r="FY13" t="n">
+        <v>26421.0</v>
+      </c>
+      <c r="FZ13" t="n">
+        <v>26642.0</v>
+      </c>
+      <c r="GA13" t="n">
+        <v>26685.0</v>
+      </c>
+      <c r="GB13" t="n">
+        <v>27050.0</v>
+      </c>
+      <c r="GC13" t="n">
+        <v>27553.0</v>
+      </c>
+      <c r="GD13" t="n">
+        <v>27747.0</v>
+      </c>
+      <c r="GE13" t="n">
+        <v>28501.0</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>28501.0</v>
+      </c>
+      <c r="GG13" t="n">
+        <v>28501.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -8012,12 +8600,54 @@
         <v>43732.0</v>
       </c>
       <c r="FS14" t="n">
-        <v>43732.0</v>
+        <v>43861.0</v>
+      </c>
+      <c r="FT14" t="n">
+        <v>43950.0</v>
+      </c>
+      <c r="FU14" t="n">
+        <v>44294.0</v>
+      </c>
+      <c r="FV14" t="n">
+        <v>44706.0</v>
+      </c>
+      <c r="FW14" t="n">
+        <v>45086.0</v>
+      </c>
+      <c r="FX14" t="n">
+        <v>45446.0</v>
+      </c>
+      <c r="FY14" t="n">
+        <v>45930.0</v>
+      </c>
+      <c r="FZ14" t="n">
+        <v>46056.0</v>
+      </c>
+      <c r="GA14" t="n">
+        <v>46119.0</v>
+      </c>
+      <c r="GB14" t="n">
+        <v>46388.0</v>
+      </c>
+      <c r="GC14" t="n">
+        <v>46906.0</v>
+      </c>
+      <c r="GD14" t="n">
+        <v>47166.0</v>
+      </c>
+      <c r="GE14" t="n">
+        <v>47635.0</v>
+      </c>
+      <c r="GF14" t="n">
+        <v>47635.0</v>
+      </c>
+      <c r="GG14" t="n">
+        <v>47635.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -8539,12 +9169,54 @@
         <v>33620.0</v>
       </c>
       <c r="FS15" t="n">
-        <v>33620.0</v>
+        <v>33777.0</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>34097.0</v>
+      </c>
+      <c r="FU15" t="n">
+        <v>34577.0</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>35554.0</v>
+      </c>
+      <c r="FW15" t="n">
+        <v>36372.0</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>36894.0</v>
+      </c>
+      <c r="FY15" t="n">
+        <v>38035.0</v>
+      </c>
+      <c r="FZ15" t="n">
+        <v>38564.0</v>
+      </c>
+      <c r="GA15" t="n">
+        <v>38946.0</v>
+      </c>
+      <c r="GB15" t="n">
+        <v>39343.0</v>
+      </c>
+      <c r="GC15" t="n">
+        <v>40245.0</v>
+      </c>
+      <c r="GD15" t="n">
+        <v>41036.0</v>
+      </c>
+      <c r="GE15" t="n">
+        <v>41944.0</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>41944.0</v>
+      </c>
+      <c r="GG15" t="n">
+        <v>41944.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -9066,12 +9738,54 @@
         <v>25401.0</v>
       </c>
       <c r="FS16" t="n">
-        <v>25401.0</v>
+        <v>25475.0</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>25718.0</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>26239.0</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>26746.0</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>27293.0</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>27722.0</v>
+      </c>
+      <c r="FY16" t="n">
+        <v>28451.0</v>
+      </c>
+      <c r="FZ16" t="n">
+        <v>28813.0</v>
+      </c>
+      <c r="GA16" t="n">
+        <v>28961.0</v>
+      </c>
+      <c r="GB16" t="n">
+        <v>29545.0</v>
+      </c>
+      <c r="GC16" t="n">
+        <v>30232.0</v>
+      </c>
+      <c r="GD16" t="n">
+        <v>30693.0</v>
+      </c>
+      <c r="GE16" t="n">
+        <v>31413.0</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>31413.0</v>
+      </c>
+      <c r="GG16" t="n">
+        <v>31413.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -9593,12 +10307,54 @@
         <v>29346.0</v>
       </c>
       <c r="FS17" t="n">
-        <v>29346.0</v>
+        <v>29394.0</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>29727.0</v>
+      </c>
+      <c r="FU17" t="n">
+        <v>30078.0</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>30417.0</v>
+      </c>
+      <c r="FW17" t="n">
+        <v>30861.0</v>
+      </c>
+      <c r="FX17" t="n">
+        <v>31152.0</v>
+      </c>
+      <c r="FY17" t="n">
+        <v>31699.0</v>
+      </c>
+      <c r="FZ17" t="n">
+        <v>31892.0</v>
+      </c>
+      <c r="GA17" t="n">
+        <v>32088.0</v>
+      </c>
+      <c r="GB17" t="n">
+        <v>32436.0</v>
+      </c>
+      <c r="GC17" t="n">
+        <v>32998.0</v>
+      </c>
+      <c r="GD17" t="n">
+        <v>33284.0</v>
+      </c>
+      <c r="GE17" t="n">
+        <v>33771.0</v>
+      </c>
+      <c r="GF17" t="n">
+        <v>33771.0</v>
+      </c>
+      <c r="GG17" t="n">
+        <v>33771.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -10120,12 +10876,54 @@
         <v>366326.0</v>
       </c>
       <c r="FS18" t="n">
-        <v>366326.0</v>
+        <v>367154.0</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>367837.0</v>
+      </c>
+      <c r="FU18" t="n">
+        <v>371271.0</v>
+      </c>
+      <c r="FV18" t="n">
+        <v>374983.0</v>
+      </c>
+      <c r="FW18" t="n">
+        <v>378279.0</v>
+      </c>
+      <c r="FX18" t="n">
+        <v>379819.0</v>
+      </c>
+      <c r="FY18" t="n">
+        <v>385665.0</v>
+      </c>
+      <c r="FZ18" t="n">
+        <v>387391.0</v>
+      </c>
+      <c r="GA18" t="n">
+        <v>388039.0</v>
+      </c>
+      <c r="GB18" t="n">
+        <v>392030.0</v>
+      </c>
+      <c r="GC18" t="n">
+        <v>395730.0</v>
+      </c>
+      <c r="GD18" t="n">
+        <v>399229.0</v>
+      </c>
+      <c r="GE18" t="n">
+        <v>403571.0</v>
+      </c>
+      <c r="GF18" t="n">
+        <v>403571.0</v>
+      </c>
+      <c r="GG18" t="n">
+        <v>403571.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -10647,7 +11445,49 @@
         <v>235519.0</v>
       </c>
       <c r="FS19" t="n">
-        <v>235519.0</v>
+        <v>235866.0</v>
+      </c>
+      <c r="FT19" t="n">
+        <v>236163.0</v>
+      </c>
+      <c r="FU19" t="n">
+        <v>237934.0</v>
+      </c>
+      <c r="FV19" t="n">
+        <v>240115.0</v>
+      </c>
+      <c r="FW19" t="n">
+        <v>241764.0</v>
+      </c>
+      <c r="FX19" t="n">
+        <v>242589.0</v>
+      </c>
+      <c r="FY19" t="n">
+        <v>246492.0</v>
+      </c>
+      <c r="FZ19" t="n">
+        <v>247403.0</v>
+      </c>
+      <c r="GA19" t="n">
+        <v>247730.0</v>
+      </c>
+      <c r="GB19" t="n">
+        <v>250171.0</v>
+      </c>
+      <c r="GC19" t="n">
+        <v>252063.0</v>
+      </c>
+      <c r="GD19" t="n">
+        <v>254146.0</v>
+      </c>
+      <c r="GE19" t="n">
+        <v>256511.0</v>
+      </c>
+      <c r="GF19" t="n">
+        <v>256511.0</v>
+      </c>
+      <c r="GG19" t="n">
+        <v>256511.0</v>
       </c>
     </row>
   </sheetData>
@@ -11187,10 +12027,52 @@
       <c r="FS1" t="s">
         <v>173</v>
       </c>
+      <c r="FT1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>180</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -11712,12 +12594,54 @@
         <v>0.0</v>
       </c>
       <c r="FS2" t="n">
-        <v>72.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>284.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -12240,11 +13164,53 @@
       </c>
       <c r="FS3" t="n">
         <v>258.0</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>308.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -12766,12 +13732,54 @@
         <v>176.0</v>
       </c>
       <c r="FS4" t="n">
-        <v>176.0</v>
+        <v>177.0</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -13294,11 +14302,53 @@
       </c>
       <c r="FS5" t="n">
         <v>309.0</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>361.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -13820,12 +14870,54 @@
         <v>3263.0</v>
       </c>
       <c r="FS6" t="n">
-        <v>3263.0</v>
+        <v>3276.0</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>3285.0</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>3354.0</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>3398.0</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>3436.0</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>3479.0</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>3525.0</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>3541.0</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>3542.0</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>3599.0</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>3653.0</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>3688.0</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>3731.0</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>3731.0</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>3731.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -14347,12 +15439,54 @@
         <v>142.0</v>
       </c>
       <c r="FS7" t="n">
-        <v>142.0</v>
+        <v>143.0</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>178.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -14875,11 +16009,53 @@
       </c>
       <c r="FS8" t="n">
         <v>143.0</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -15402,11 +16578,53 @@
       </c>
       <c r="FS9" t="n">
         <v>75.0</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -15929,11 +17147,53 @@
       </c>
       <c r="FS10" t="n">
         <v>133.0</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -16455,12 +17715,54 @@
         <v>189.0</v>
       </c>
       <c r="FS11" t="n">
-        <v>189.0</v>
+        <v>191.0</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="FY11" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="GA11" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="GC11" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -16983,11 +18285,53 @@
       </c>
       <c r="FS12" t="n">
         <v>108.0</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="FY12" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="FZ12" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="GA12" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="GB12" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="GC12" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="GD12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="GE12" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="GG12" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -17509,12 +18853,54 @@
         <v>792.0</v>
       </c>
       <c r="FS13" t="n">
-        <v>792.0</v>
+        <v>793.0</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>793.0</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>831.0</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>845.0</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>854.0</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>867.0</v>
+      </c>
+      <c r="FY13" t="n">
+        <v>879.0</v>
+      </c>
+      <c r="FZ13" t="n">
+        <v>883.0</v>
+      </c>
+      <c r="GA13" t="n">
+        <v>884.0</v>
+      </c>
+      <c r="GB13" t="n">
+        <v>898.0</v>
+      </c>
+      <c r="GC13" t="n">
+        <v>910.0</v>
+      </c>
+      <c r="GD13" t="n">
+        <v>913.0</v>
+      </c>
+      <c r="GE13" t="n">
+        <v>926.0</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>926.0</v>
+      </c>
+      <c r="GG13" t="n">
+        <v>926.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -18037,11 +19423,53 @@
       </c>
       <c r="FS14" t="n">
         <v>1586.0</v>
+      </c>
+      <c r="FT14" t="n">
+        <v>1586.0</v>
+      </c>
+      <c r="FU14" t="n">
+        <v>1613.0</v>
+      </c>
+      <c r="FV14" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="FW14" t="n">
+        <v>1632.0</v>
+      </c>
+      <c r="FX14" t="n">
+        <v>1641.0</v>
+      </c>
+      <c r="FY14" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="FZ14" t="n">
+        <v>1651.0</v>
+      </c>
+      <c r="GA14" t="n">
+        <v>1651.0</v>
+      </c>
+      <c r="GB14" t="n">
+        <v>1675.0</v>
+      </c>
+      <c r="GC14" t="n">
+        <v>1684.0</v>
+      </c>
+      <c r="GD14" t="n">
+        <v>1692.0</v>
+      </c>
+      <c r="GE14" t="n">
+        <v>1704.0</v>
+      </c>
+      <c r="GF14" t="n">
+        <v>1704.0</v>
+      </c>
+      <c r="GG14" t="n">
+        <v>1704.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -18563,12 +19991,54 @@
         <v>787.0</v>
       </c>
       <c r="FS15" t="n">
-        <v>787.0</v>
+        <v>796.0</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>811.0</v>
+      </c>
+      <c r="FU15" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="FW15" t="n">
+        <v>874.0</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>895.0</v>
+      </c>
+      <c r="FY15" t="n">
+        <v>908.0</v>
+      </c>
+      <c r="FZ15" t="n">
+        <v>918.0</v>
+      </c>
+      <c r="GA15" t="n">
+        <v>928.0</v>
+      </c>
+      <c r="GB15" t="n">
+        <v>952.0</v>
+      </c>
+      <c r="GC15" t="n">
+        <v>962.0</v>
+      </c>
+      <c r="GD15" t="n">
+        <v>972.0</v>
+      </c>
+      <c r="GE15" t="n">
+        <v>983.0</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>983.0</v>
+      </c>
+      <c r="GG15" t="n">
+        <v>983.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -19090,12 +20560,54 @@
         <v>702.0</v>
       </c>
       <c r="FS16" t="n">
-        <v>702.0</v>
+        <v>710.0</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>712.0</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>763.0</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>776.0</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>791.0</v>
+      </c>
+      <c r="FY16" t="n">
+        <v>804.0</v>
+      </c>
+      <c r="FZ16" t="n">
+        <v>804.0</v>
+      </c>
+      <c r="GA16" t="n">
+        <v>804.0</v>
+      </c>
+      <c r="GB16" t="n">
+        <v>828.0</v>
+      </c>
+      <c r="GC16" t="n">
+        <v>841.0</v>
+      </c>
+      <c r="GD16" t="n">
+        <v>859.0</v>
+      </c>
+      <c r="GE16" t="n">
+        <v>870.0</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>870.0</v>
+      </c>
+      <c r="GG16" t="n">
+        <v>870.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -19618,11 +21130,53 @@
       </c>
       <c r="FS17" t="n">
         <v>773.0</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>773.0</v>
+      </c>
+      <c r="FU17" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>813.0</v>
+      </c>
+      <c r="FW17" t="n">
+        <v>817.0</v>
+      </c>
+      <c r="FX17" t="n">
+        <v>824.0</v>
+      </c>
+      <c r="FY17" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="FZ17" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="GA17" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="GB17" t="n">
+        <v>852.0</v>
+      </c>
+      <c r="GC17" t="n">
+        <v>862.0</v>
+      </c>
+      <c r="GD17" t="n">
+        <v>871.0</v>
+      </c>
+      <c r="GE17" t="n">
+        <v>876.0</v>
+      </c>
+      <c r="GF17" t="n">
+        <v>876.0</v>
+      </c>
+      <c r="GG17" t="n">
+        <v>876.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -20144,12 +21698,54 @@
         <v>17344.0</v>
       </c>
       <c r="FS18" t="n">
-        <v>17344.0</v>
+        <v>17381.0</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>17400.0</v>
+      </c>
+      <c r="FU18" t="n">
+        <v>17542.0</v>
+      </c>
+      <c r="FV18" t="n">
+        <v>17677.0</v>
+      </c>
+      <c r="FW18" t="n">
+        <v>17863.0</v>
+      </c>
+      <c r="FX18" t="n">
+        <v>17986.0</v>
+      </c>
+      <c r="FY18" t="n">
+        <v>18090.0</v>
+      </c>
+      <c r="FZ18" t="n">
+        <v>18121.0</v>
+      </c>
+      <c r="GA18" t="n">
+        <v>18140.0</v>
+      </c>
+      <c r="GB18" t="n">
+        <v>18360.0</v>
+      </c>
+      <c r="GC18" t="n">
+        <v>18497.0</v>
+      </c>
+      <c r="GD18" t="n">
+        <v>18609.0</v>
+      </c>
+      <c r="GE18" t="n">
+        <v>18756.0</v>
+      </c>
+      <c r="GF18" t="n">
+        <v>18756.0</v>
+      </c>
+      <c r="GG18" t="n">
+        <v>18756.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -20671,7 +22267,49 @@
         <v>10592.0</v>
       </c>
       <c r="FS19" t="n">
-        <v>10592.0</v>
+        <v>10605.0</v>
+      </c>
+      <c r="FT19" t="n">
+        <v>10625.0</v>
+      </c>
+      <c r="FU19" t="n">
+        <v>10700.0</v>
+      </c>
+      <c r="FV19" t="n">
+        <v>10761.0</v>
+      </c>
+      <c r="FW19" t="n">
+        <v>10863.0</v>
+      </c>
+      <c r="FX19" t="n">
+        <v>10936.0</v>
+      </c>
+      <c r="FY19" t="n">
+        <v>11003.0</v>
+      </c>
+      <c r="FZ19" t="n">
+        <v>11023.0</v>
+      </c>
+      <c r="GA19" t="n">
+        <v>11031.0</v>
+      </c>
+      <c r="GB19" t="n">
+        <v>11141.0</v>
+      </c>
+      <c r="GC19" t="n">
+        <v>11215.0</v>
+      </c>
+      <c r="GD19" t="n">
+        <v>11278.0</v>
+      </c>
+      <c r="GE19" t="n">
+        <v>11344.0</v>
+      </c>
+      <c r="GF19" t="n">
+        <v>11344.0</v>
+      </c>
+      <c r="GG19" t="n">
+        <v>11344.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="207">
   <si>
     <t>02/25/20</t>
   </si>
@@ -579,6 +579,9 @@
     <t>08/30/20</t>
   </si>
   <si>
+    <t>08/31/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1247,10 +1250,13 @@
       <c r="GG1" t="s">
         <v>187</v>
       </c>
+      <c r="GH1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1814,12 +1820,15 @@
         <v>5369.0</v>
       </c>
       <c r="GG2" t="n">
-        <v>7351.0</v>
+        <v>160.0</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2383,12 +2392,15 @@
         <v>12146.0</v>
       </c>
       <c r="GG3" t="n">
-        <v>12146.0</v>
+        <v>12237.0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>12245.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2952,12 +2964,15 @@
         <v>8643.0</v>
       </c>
       <c r="GG4" t="n">
-        <v>8643.0</v>
+        <v>8783.0</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>8792.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3521,12 +3536,15 @@
         <v>20084.0</v>
       </c>
       <c r="GG5" t="n">
-        <v>20084.0</v>
+        <v>20241.0</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>20246.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -4090,12 +4108,15 @@
         <v>124249.0</v>
       </c>
       <c r="GG6" t="n">
-        <v>124249.0</v>
+        <v>125798.0</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>125975.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4659,12 +4680,15 @@
         <v>11032.0</v>
       </c>
       <c r="GG7" t="n">
-        <v>11032.0</v>
+        <v>11210.0</v>
+      </c>
+      <c r="GH7" t="n">
+        <v>11238.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5228,12 +5252,15 @@
         <v>7497.0</v>
       </c>
       <c r="GG8" t="n">
-        <v>7497.0</v>
+        <v>7632.0</v>
+      </c>
+      <c r="GH8" t="n">
+        <v>7632.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5797,12 +5824,15 @@
         <v>3486.0</v>
       </c>
       <c r="GG9" t="n">
-        <v>3486.0</v>
+        <v>3520.0</v>
+      </c>
+      <c r="GH9" t="n">
+        <v>3521.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -6366,12 +6396,15 @@
         <v>8376.0</v>
       </c>
       <c r="GG10" t="n">
-        <v>8376.0</v>
+        <v>8462.0</v>
+      </c>
+      <c r="GH10" t="n">
+        <v>8466.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6935,12 +6968,15 @@
         <v>8064.0</v>
       </c>
       <c r="GG11" t="n">
-        <v>8064.0</v>
+        <v>8185.0</v>
+      </c>
+      <c r="GH11" t="n">
+        <v>8193.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -7504,12 +7540,15 @@
         <v>5641.0</v>
       </c>
       <c r="GG12" t="n">
-        <v>5641.0</v>
+        <v>5702.0</v>
+      </c>
+      <c r="GH12" t="n">
+        <v>5706.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -8073,12 +8112,15 @@
         <v>28501.0</v>
       </c>
       <c r="GG13" t="n">
-        <v>28501.0</v>
+        <v>29060.0</v>
+      </c>
+      <c r="GH13" t="n">
+        <v>29073.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -8642,12 +8684,15 @@
         <v>47635.0</v>
       </c>
       <c r="GG14" t="n">
-        <v>47635.0</v>
+        <v>48034.0</v>
+      </c>
+      <c r="GH14" t="n">
+        <v>48041.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -9211,12 +9256,15 @@
         <v>41944.0</v>
       </c>
       <c r="GG15" t="n">
-        <v>41944.0</v>
+        <v>42602.0</v>
+      </c>
+      <c r="GH15" t="n">
+        <v>42736.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -9780,12 +9828,15 @@
         <v>31413.0</v>
       </c>
       <c r="GG16" t="n">
-        <v>31413.0</v>
+        <v>31731.0</v>
+      </c>
+      <c r="GH16" t="n">
+        <v>31796.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -10349,12 +10400,15 @@
         <v>33771.0</v>
       </c>
       <c r="GG17" t="n">
-        <v>33771.0</v>
+        <v>34053.0</v>
+      </c>
+      <c r="GH17" t="n">
+        <v>34156.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -10918,12 +10972,15 @@
         <v>403571.0</v>
       </c>
       <c r="GG18" t="n">
-        <v>403571.0</v>
+        <v>405994.0</v>
+      </c>
+      <c r="GH18" t="n">
+        <v>406366.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -11487,7 +11544,10 @@
         <v>256511.0</v>
       </c>
       <c r="GG19" t="n">
-        <v>256511.0</v>
+        <v>257778.0</v>
+      </c>
+      <c r="GH19" t="n">
+        <v>257949.0</v>
       </c>
     </row>
   </sheetData>
@@ -12069,10 +12129,13 @@
       <c r="GG1" t="s">
         <v>187</v>
       </c>
+      <c r="GH1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -12636,12 +12699,15 @@
         <v>250.0</v>
       </c>
       <c r="GG2" t="n">
-        <v>284.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -13205,12 +13271,15 @@
         <v>308.0</v>
       </c>
       <c r="GG3" t="n">
-        <v>308.0</v>
+        <v>312.0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>312.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -13774,12 +13843,15 @@
         <v>217.0</v>
       </c>
       <c r="GG4" t="n">
-        <v>217.0</v>
+        <v>223.0</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -14343,12 +14415,15 @@
         <v>361.0</v>
       </c>
       <c r="GG5" t="n">
-        <v>361.0</v>
+        <v>365.0</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>367.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -14912,12 +14987,15 @@
         <v>3731.0</v>
       </c>
       <c r="GG6" t="n">
-        <v>3731.0</v>
+        <v>3779.0</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>3783.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -15481,12 +15559,15 @@
         <v>178.0</v>
       </c>
       <c r="GG7" t="n">
-        <v>178.0</v>
+        <v>183.0</v>
+      </c>
+      <c r="GH7" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -16050,12 +16131,15 @@
         <v>177.0</v>
       </c>
       <c r="GG8" t="n">
-        <v>177.0</v>
+        <v>180.0</v>
+      </c>
+      <c r="GH8" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -16619,12 +16703,15 @@
         <v>84.0</v>
       </c>
       <c r="GG9" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
+      </c>
+      <c r="GH9" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -17188,12 +17275,15 @@
         <v>163.0</v>
       </c>
       <c r="GG10" t="n">
-        <v>163.0</v>
+        <v>165.0</v>
+      </c>
+      <c r="GH10" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -17757,12 +17847,15 @@
         <v>238.0</v>
       </c>
       <c r="GG11" t="n">
-        <v>238.0</v>
+        <v>240.0</v>
+      </c>
+      <c r="GH11" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -18326,12 +18419,15 @@
         <v>122.0</v>
       </c>
       <c r="GG12" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="GH12" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -18895,12 +18991,15 @@
         <v>926.0</v>
       </c>
       <c r="GG13" t="n">
-        <v>926.0</v>
+        <v>939.0</v>
+      </c>
+      <c r="GH13" t="n">
+        <v>939.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -19464,12 +19563,15 @@
         <v>1704.0</v>
       </c>
       <c r="GG14" t="n">
-        <v>1704.0</v>
+        <v>1727.0</v>
+      </c>
+      <c r="GH14" t="n">
+        <v>1727.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -20033,12 +20135,15 @@
         <v>983.0</v>
       </c>
       <c r="GG15" t="n">
-        <v>983.0</v>
+        <v>1008.0</v>
+      </c>
+      <c r="GH15" t="n">
+        <v>1023.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -20602,12 +20707,15 @@
         <v>870.0</v>
       </c>
       <c r="GG16" t="n">
-        <v>870.0</v>
+        <v>890.0</v>
+      </c>
+      <c r="GH16" t="n">
+        <v>890.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -21171,12 +21279,15 @@
         <v>876.0</v>
       </c>
       <c r="GG17" t="n">
-        <v>876.0</v>
+        <v>883.0</v>
+      </c>
+      <c r="GH17" t="n">
+        <v>884.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -21740,12 +21851,15 @@
         <v>18756.0</v>
       </c>
       <c r="GG18" t="n">
-        <v>18756.0</v>
+        <v>18877.0</v>
+      </c>
+      <c r="GH18" t="n">
+        <v>18890.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -22309,7 +22423,10 @@
         <v>11344.0</v>
       </c>
       <c r="GG19" t="n">
-        <v>11344.0</v>
+        <v>11400.0</v>
+      </c>
+      <c r="GH19" t="n">
+        <v>11408.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="209">
   <si>
     <t>02/25/20</t>
   </si>
@@ -582,6 +582,12 @@
     <t>08/31/20</t>
   </si>
   <si>
+    <t>09/01/20</t>
+  </si>
+  <si>
+    <t>09/02/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1253,10 +1259,16 @@
       <c r="GH1" t="s">
         <v>188</v>
       </c>
+      <c r="GI1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1824,11 +1836,17 @@
       </c>
       <c r="GH2" t="n">
         <v>160.0</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>12118.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2396,11 +2414,17 @@
       </c>
       <c r="GH3" t="n">
         <v>12245.0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>12391.0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>12391.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2968,11 +2992,17 @@
       </c>
       <c r="GH4" t="n">
         <v>8792.0</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>8976.0</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>8976.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3540,11 +3570,17 @@
       </c>
       <c r="GH5" t="n">
         <v>20246.0</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>20476.0</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>20476.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -4112,11 +4148,17 @@
       </c>
       <c r="GH6" t="n">
         <v>125975.0</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>127570.0</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>127570.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4684,11 +4726,17 @@
       </c>
       <c r="GH7" t="n">
         <v>11238.0</v>
+      </c>
+      <c r="GI7" t="n">
+        <v>11436.0</v>
+      </c>
+      <c r="GJ7" t="n">
+        <v>11436.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5256,11 +5304,17 @@
       </c>
       <c r="GH8" t="n">
         <v>7632.0</v>
+      </c>
+      <c r="GI8" t="n">
+        <v>7747.0</v>
+      </c>
+      <c r="GJ8" t="n">
+        <v>7747.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5828,11 +5882,17 @@
       </c>
       <c r="GH9" t="n">
         <v>3521.0</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>3594.0</v>
+      </c>
+      <c r="GJ9" t="n">
+        <v>3594.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -6400,11 +6460,17 @@
       </c>
       <c r="GH10" t="n">
         <v>8466.0</v>
+      </c>
+      <c r="GI10" t="n">
+        <v>8673.0</v>
+      </c>
+      <c r="GJ10" t="n">
+        <v>8673.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -6972,11 +7038,17 @@
       </c>
       <c r="GH11" t="n">
         <v>8193.0</v>
+      </c>
+      <c r="GI11" t="n">
+        <v>8376.0</v>
+      </c>
+      <c r="GJ11" t="n">
+        <v>8376.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -7544,11 +7616,17 @@
       </c>
       <c r="GH12" t="n">
         <v>5706.0</v>
+      </c>
+      <c r="GI12" t="n">
+        <v>5751.0</v>
+      </c>
+      <c r="GJ12" t="n">
+        <v>5751.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -8116,11 +8194,17 @@
       </c>
       <c r="GH13" t="n">
         <v>29073.0</v>
+      </c>
+      <c r="GI13" t="n">
+        <v>29557.0</v>
+      </c>
+      <c r="GJ13" t="n">
+        <v>29557.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -8688,11 +8772,17 @@
       </c>
       <c r="GH14" t="n">
         <v>48041.0</v>
+      </c>
+      <c r="GI14" t="n">
+        <v>48374.0</v>
+      </c>
+      <c r="GJ14" t="n">
+        <v>48374.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -9260,11 +9350,17 @@
       </c>
       <c r="GH15" t="n">
         <v>42736.0</v>
+      </c>
+      <c r="GI15" t="n">
+        <v>43224.0</v>
+      </c>
+      <c r="GJ15" t="n">
+        <v>43224.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -9832,11 +9928,17 @@
       </c>
       <c r="GH16" t="n">
         <v>31796.0</v>
+      </c>
+      <c r="GI16" t="n">
+        <v>32367.0</v>
+      </c>
+      <c r="GJ16" t="n">
+        <v>32367.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -10404,11 +10506,17 @@
       </c>
       <c r="GH17" t="n">
         <v>34156.0</v>
+      </c>
+      <c r="GI17" t="n">
+        <v>34697.0</v>
+      </c>
+      <c r="GJ17" t="n">
+        <v>34697.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -10976,11 +11084,17 @@
       </c>
       <c r="GH18" t="n">
         <v>406366.0</v>
+      </c>
+      <c r="GI18" t="n">
+        <v>411004.0</v>
+      </c>
+      <c r="GJ18" t="n">
+        <v>411004.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -11548,6 +11662,12 @@
       </c>
       <c r="GH19" t="n">
         <v>257949.0</v>
+      </c>
+      <c r="GI19" t="n">
+        <v>260991.0</v>
+      </c>
+      <c r="GJ19" t="n">
+        <v>260991.0</v>
       </c>
     </row>
   </sheetData>
@@ -12132,10 +12252,16 @@
       <c r="GH1" t="s">
         <v>188</v>
       </c>
+      <c r="GI1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -12703,11 +12829,17 @@
       </c>
       <c r="GH2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>298.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -13275,11 +13407,17 @@
       </c>
       <c r="GH3" t="n">
         <v>312.0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>317.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -13847,11 +13985,17 @@
       </c>
       <c r="GH4" t="n">
         <v>224.0</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>229.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -14419,11 +14563,17 @@
       </c>
       <c r="GH5" t="n">
         <v>367.0</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>375.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -14991,11 +15141,17 @@
       </c>
       <c r="GH6" t="n">
         <v>3783.0</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>3854.0</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>3854.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -15563,11 +15719,17 @@
       </c>
       <c r="GH7" t="n">
         <v>183.0</v>
+      </c>
+      <c r="GI7" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="GJ7" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -16135,11 +16297,17 @@
       </c>
       <c r="GH8" t="n">
         <v>180.0</v>
+      </c>
+      <c r="GI8" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="GJ8" t="n">
+        <v>198.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -16706,12 +16874,18 @@
         <v>85.0</v>
       </c>
       <c r="GH9" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="GJ9" t="n">
         <v>85.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -17279,11 +17453,17 @@
       </c>
       <c r="GH10" t="n">
         <v>165.0</v>
+      </c>
+      <c r="GI10" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="GJ10" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -17851,11 +18031,17 @@
       </c>
       <c r="GH11" t="n">
         <v>240.0</v>
+      </c>
+      <c r="GI11" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="GJ11" t="n">
+        <v>243.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -18423,11 +18609,17 @@
       </c>
       <c r="GH12" t="n">
         <v>122.0</v>
+      </c>
+      <c r="GI12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="GJ12" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -18995,11 +19187,17 @@
       </c>
       <c r="GH13" t="n">
         <v>939.0</v>
+      </c>
+      <c r="GI13" t="n">
+        <v>967.0</v>
+      </c>
+      <c r="GJ13" t="n">
+        <v>967.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -19567,11 +19765,17 @@
       </c>
       <c r="GH14" t="n">
         <v>1727.0</v>
+      </c>
+      <c r="GI14" t="n">
+        <v>1735.0</v>
+      </c>
+      <c r="GJ14" t="n">
+        <v>1735.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -20139,11 +20343,17 @@
       </c>
       <c r="GH15" t="n">
         <v>1023.0</v>
+      </c>
+      <c r="GI15" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="GJ15" t="n">
+        <v>1050.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -20711,11 +20921,17 @@
       </c>
       <c r="GH16" t="n">
         <v>890.0</v>
+      </c>
+      <c r="GI16" t="n">
+        <v>919.0</v>
+      </c>
+      <c r="GJ16" t="n">
+        <v>919.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -21283,11 +21499,17 @@
       </c>
       <c r="GH17" t="n">
         <v>884.0</v>
+      </c>
+      <c r="GI17" t="n">
+        <v>901.0</v>
+      </c>
+      <c r="GJ17" t="n">
+        <v>901.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -21855,11 +22077,17 @@
       </c>
       <c r="GH18" t="n">
         <v>18890.0</v>
+      </c>
+      <c r="GI18" t="n">
+        <v>19018.0</v>
+      </c>
+      <c r="GJ18" t="n">
+        <v>19018.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -22427,6 +22655,12 @@
       </c>
       <c r="GH19" t="n">
         <v>11408.0</v>
+      </c>
+      <c r="GI19" t="n">
+        <v>11478.0</v>
+      </c>
+      <c r="GJ19" t="n">
+        <v>11478.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="210">
   <si>
     <t>02/25/20</t>
   </si>
@@ -588,6 +588,9 @@
     <t>09/02/20</t>
   </si>
   <si>
+    <t>09/03/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1265,10 +1268,13 @@
       <c r="GJ1" t="s">
         <v>190</v>
       </c>
+      <c r="GK1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1841,12 +1847,15 @@
         <v>162.0</v>
       </c>
       <c r="GJ2" t="n">
-        <v>12118.0</v>
+        <v>162.0</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>11809.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2419,12 +2428,15 @@
         <v>12391.0</v>
       </c>
       <c r="GJ3" t="n">
-        <v>12391.0</v>
+        <v>12584.0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>12584.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2997,12 +3009,15 @@
         <v>8976.0</v>
       </c>
       <c r="GJ4" t="n">
-        <v>8976.0</v>
+        <v>9296.0</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>9296.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3575,12 +3590,15 @@
         <v>20476.0</v>
       </c>
       <c r="GJ5" t="n">
-        <v>20476.0</v>
+        <v>20966.0</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>20966.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -4153,12 +4171,15 @@
         <v>127570.0</v>
       </c>
       <c r="GJ6" t="n">
-        <v>127570.0</v>
+        <v>129837.0</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>129837.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4731,12 +4752,15 @@
         <v>11436.0</v>
       </c>
       <c r="GJ7" t="n">
-        <v>11436.0</v>
+        <v>11733.0</v>
+      </c>
+      <c r="GK7" t="n">
+        <v>11733.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5309,12 +5333,15 @@
         <v>7747.0</v>
       </c>
       <c r="GJ8" t="n">
-        <v>7747.0</v>
+        <v>8031.0</v>
+      </c>
+      <c r="GK8" t="n">
+        <v>8031.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5887,12 +5914,15 @@
         <v>3594.0</v>
       </c>
       <c r="GJ9" t="n">
-        <v>3594.0</v>
+        <v>3702.0</v>
+      </c>
+      <c r="GK9" t="n">
+        <v>3702.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -6465,12 +6495,15 @@
         <v>8673.0</v>
       </c>
       <c r="GJ10" t="n">
-        <v>8673.0</v>
+        <v>8830.0</v>
+      </c>
+      <c r="GK10" t="n">
+        <v>8830.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -7043,12 +7076,15 @@
         <v>8376.0</v>
       </c>
       <c r="GJ11" t="n">
-        <v>8376.0</v>
+        <v>8612.0</v>
+      </c>
+      <c r="GK11" t="n">
+        <v>8612.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -7621,12 +7657,15 @@
         <v>5751.0</v>
       </c>
       <c r="GJ12" t="n">
-        <v>5751.0</v>
+        <v>5780.0</v>
+      </c>
+      <c r="GK12" t="n">
+        <v>5780.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -8199,12 +8238,15 @@
         <v>29557.0</v>
       </c>
       <c r="GJ13" t="n">
-        <v>29557.0</v>
+        <v>30046.0</v>
+      </c>
+      <c r="GK13" t="n">
+        <v>30046.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -8777,12 +8819,15 @@
         <v>48374.0</v>
       </c>
       <c r="GJ14" t="n">
-        <v>48374.0</v>
+        <v>48752.0</v>
+      </c>
+      <c r="GK14" t="n">
+        <v>48752.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -9355,12 +9400,15 @@
         <v>43224.0</v>
       </c>
       <c r="GJ15" t="n">
-        <v>43224.0</v>
+        <v>44488.0</v>
+      </c>
+      <c r="GK15" t="n">
+        <v>44488.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -9933,12 +9981,15 @@
         <v>32367.0</v>
       </c>
       <c r="GJ16" t="n">
-        <v>32367.0</v>
+        <v>33191.0</v>
+      </c>
+      <c r="GK16" t="n">
+        <v>33191.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -10511,12 +10562,15 @@
         <v>34697.0</v>
       </c>
       <c r="GJ17" t="n">
-        <v>34697.0</v>
+        <v>35791.0</v>
+      </c>
+      <c r="GK17" t="n">
+        <v>35791.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -11089,12 +11143,15 @@
         <v>411004.0</v>
       </c>
       <c r="GJ18" t="n">
-        <v>411004.0</v>
+        <v>414530.0</v>
+      </c>
+      <c r="GK18" t="n">
+        <v>414530.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -11667,7 +11724,10 @@
         <v>260991.0</v>
       </c>
       <c r="GJ19" t="n">
-        <v>260991.0</v>
+        <v>262570.0</v>
+      </c>
+      <c r="GK19" t="n">
+        <v>262570.0</v>
       </c>
     </row>
   </sheetData>
@@ -12258,10 +12318,13 @@
       <c r="GJ1" t="s">
         <v>190</v>
       </c>
+      <c r="GK1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -12834,12 +12897,15 @@
         <v>0.0</v>
       </c>
       <c r="GJ2" t="n">
-        <v>298.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>232.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -13412,12 +13478,15 @@
         <v>317.0</v>
       </c>
       <c r="GJ3" t="n">
-        <v>317.0</v>
+        <v>322.0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>322.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -13990,12 +14059,15 @@
         <v>229.0</v>
       </c>
       <c r="GJ4" t="n">
-        <v>229.0</v>
+        <v>232.0</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>232.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -14568,12 +14640,15 @@
         <v>375.0</v>
       </c>
       <c r="GJ5" t="n">
-        <v>375.0</v>
+        <v>380.0</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>380.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -15146,12 +15221,15 @@
         <v>3854.0</v>
       </c>
       <c r="GJ6" t="n">
-        <v>3854.0</v>
+        <v>3914.0</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>3914.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -15724,12 +15802,15 @@
         <v>192.0</v>
       </c>
       <c r="GJ7" t="n">
-        <v>192.0</v>
+        <v>196.0</v>
+      </c>
+      <c r="GK7" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -16302,12 +16383,15 @@
         <v>198.0</v>
       </c>
       <c r="GJ8" t="n">
-        <v>198.0</v>
+        <v>202.0</v>
+      </c>
+      <c r="GK8" t="n">
+        <v>202.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -16880,12 +16964,15 @@
         <v>85.0</v>
       </c>
       <c r="GJ9" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
+      </c>
+      <c r="GK9" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -17458,12 +17545,15 @@
         <v>169.0</v>
       </c>
       <c r="GJ10" t="n">
-        <v>169.0</v>
+        <v>171.0</v>
+      </c>
+      <c r="GK10" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -18036,12 +18126,15 @@
         <v>243.0</v>
       </c>
       <c r="GJ11" t="n">
-        <v>243.0</v>
+        <v>249.0</v>
+      </c>
+      <c r="GK11" t="n">
+        <v>249.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -18614,12 +18707,15 @@
         <v>123.0</v>
       </c>
       <c r="GJ12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="GK12" t="n">
         <v>123.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -19192,12 +19288,15 @@
         <v>967.0</v>
       </c>
       <c r="GJ13" t="n">
-        <v>967.0</v>
+        <v>988.0</v>
+      </c>
+      <c r="GK13" t="n">
+        <v>988.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -19770,12 +19869,15 @@
         <v>1735.0</v>
       </c>
       <c r="GJ14" t="n">
-        <v>1735.0</v>
+        <v>1745.0</v>
+      </c>
+      <c r="GK14" t="n">
+        <v>1745.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -20348,12 +20450,15 @@
         <v>1050.0</v>
       </c>
       <c r="GJ15" t="n">
-        <v>1050.0</v>
+        <v>1065.0</v>
+      </c>
+      <c r="GK15" t="n">
+        <v>1065.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -20926,12 +21031,15 @@
         <v>919.0</v>
       </c>
       <c r="GJ16" t="n">
-        <v>919.0</v>
+        <v>931.0</v>
+      </c>
+      <c r="GK16" t="n">
+        <v>931.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -21504,12 +21612,15 @@
         <v>901.0</v>
       </c>
       <c r="GJ17" t="n">
-        <v>901.0</v>
+        <v>909.0</v>
+      </c>
+      <c r="GK17" t="n">
+        <v>909.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -22082,12 +22193,15 @@
         <v>19018.0</v>
       </c>
       <c r="GJ18" t="n">
-        <v>19018.0</v>
+        <v>19158.0</v>
+      </c>
+      <c r="GK18" t="n">
+        <v>19158.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -22660,7 +22774,10 @@
         <v>11478.0</v>
       </c>
       <c r="GJ19" t="n">
-        <v>11478.0</v>
+        <v>11554.0</v>
+      </c>
+      <c r="GK19" t="n">
+        <v>11554.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="214">
   <si>
     <t>02/25/20</t>
   </si>
@@ -591,6 +591,18 @@
     <t>09/03/20</t>
   </si>
   <si>
+    <t>09/04/20</t>
+  </si>
+  <si>
+    <t>09/05/20</t>
+  </si>
+  <si>
+    <t>09/06/20</t>
+  </si>
+  <si>
+    <t>09/07/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1271,10 +1283,22 @@
       <c r="GK1" t="s">
         <v>191</v>
       </c>
+      <c r="GL1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1850,12 +1874,24 @@
         <v>162.0</v>
       </c>
       <c r="GK2" t="n">
-        <v>11809.0</v>
+        <v>162.0</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>8232.0</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>10869.0</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>12477.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2431,12 +2467,24 @@
         <v>12584.0</v>
       </c>
       <c r="GK3" t="n">
-        <v>12584.0</v>
+        <v>12712.0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>12847.0</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>12847.0</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>12847.0</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>12847.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -3012,12 +3060,24 @@
         <v>9296.0</v>
       </c>
       <c r="GK4" t="n">
-        <v>9296.0</v>
+        <v>9544.0</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>9724.0</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>9724.0</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>9724.0</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>9724.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3593,12 +3653,24 @@
         <v>20966.0</v>
       </c>
       <c r="GK5" t="n">
-        <v>20966.0</v>
+        <v>21239.0</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>21588.0</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>21588.0</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>21588.0</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>21588.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -4174,12 +4246,24 @@
         <v>129837.0</v>
       </c>
       <c r="GK6" t="n">
-        <v>129837.0</v>
+        <v>132371.0</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>133953.0</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>133953.0</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>133953.0</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>133953.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4755,12 +4839,24 @@
         <v>11733.0</v>
       </c>
       <c r="GK7" t="n">
-        <v>11733.0</v>
+        <v>11947.0</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>12092.0</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>12092.0</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>12092.0</v>
+      </c>
+      <c r="GO7" t="n">
+        <v>12092.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5336,12 +5432,24 @@
         <v>8031.0</v>
       </c>
       <c r="GK8" t="n">
-        <v>8031.0</v>
+        <v>8280.0</v>
+      </c>
+      <c r="GL8" t="n">
+        <v>8472.0</v>
+      </c>
+      <c r="GM8" t="n">
+        <v>8472.0</v>
+      </c>
+      <c r="GN8" t="n">
+        <v>8472.0</v>
+      </c>
+      <c r="GO8" t="n">
+        <v>8472.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5917,12 +6025,24 @@
         <v>3702.0</v>
       </c>
       <c r="GK9" t="n">
-        <v>3702.0</v>
+        <v>3780.0</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>3835.0</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>3835.0</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>3835.0</v>
+      </c>
+      <c r="GO9" t="n">
+        <v>3835.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -6498,12 +6618,24 @@
         <v>8830.0</v>
       </c>
       <c r="GK10" t="n">
-        <v>8830.0</v>
+        <v>8949.0</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>9076.0</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>9076.0</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>9076.0</v>
+      </c>
+      <c r="GO10" t="n">
+        <v>9076.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -7079,12 +7211,24 @@
         <v>8612.0</v>
       </c>
       <c r="GK11" t="n">
-        <v>8612.0</v>
+        <v>8775.0</v>
+      </c>
+      <c r="GL11" t="n">
+        <v>8945.0</v>
+      </c>
+      <c r="GM11" t="n">
+        <v>8945.0</v>
+      </c>
+      <c r="GN11" t="n">
+        <v>8945.0</v>
+      </c>
+      <c r="GO11" t="n">
+        <v>8945.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -7660,12 +7804,24 @@
         <v>5780.0</v>
       </c>
       <c r="GK12" t="n">
-        <v>5780.0</v>
+        <v>5814.0</v>
+      </c>
+      <c r="GL12" t="n">
+        <v>5844.0</v>
+      </c>
+      <c r="GM12" t="n">
+        <v>5844.0</v>
+      </c>
+      <c r="GN12" t="n">
+        <v>5844.0</v>
+      </c>
+      <c r="GO12" t="n">
+        <v>5844.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -8241,12 +8397,24 @@
         <v>30046.0</v>
       </c>
       <c r="GK13" t="n">
-        <v>30046.0</v>
+        <v>30408.0</v>
+      </c>
+      <c r="GL13" t="n">
+        <v>30782.0</v>
+      </c>
+      <c r="GM13" t="n">
+        <v>30782.0</v>
+      </c>
+      <c r="GN13" t="n">
+        <v>30782.0</v>
+      </c>
+      <c r="GO13" t="n">
+        <v>30782.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -8822,12 +8990,24 @@
         <v>48752.0</v>
       </c>
       <c r="GK14" t="n">
-        <v>48752.0</v>
+        <v>49133.0</v>
+      </c>
+      <c r="GL14" t="n">
+        <v>49528.0</v>
+      </c>
+      <c r="GM14" t="n">
+        <v>49528.0</v>
+      </c>
+      <c r="GN14" t="n">
+        <v>49528.0</v>
+      </c>
+      <c r="GO14" t="n">
+        <v>49528.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -9403,12 +9583,24 @@
         <v>44488.0</v>
       </c>
       <c r="GK15" t="n">
-        <v>44488.0</v>
+        <v>45254.0</v>
+      </c>
+      <c r="GL15" t="n">
+        <v>45739.0</v>
+      </c>
+      <c r="GM15" t="n">
+        <v>45739.0</v>
+      </c>
+      <c r="GN15" t="n">
+        <v>45739.0</v>
+      </c>
+      <c r="GO15" t="n">
+        <v>45739.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -9984,12 +10176,24 @@
         <v>33191.0</v>
       </c>
       <c r="GK16" t="n">
-        <v>33191.0</v>
+        <v>33798.0</v>
+      </c>
+      <c r="GL16" t="n">
+        <v>34148.0</v>
+      </c>
+      <c r="GM16" t="n">
+        <v>34148.0</v>
+      </c>
+      <c r="GN16" t="n">
+        <v>34148.0</v>
+      </c>
+      <c r="GO16" t="n">
+        <v>34148.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -10565,12 +10769,24 @@
         <v>35791.0</v>
       </c>
       <c r="GK17" t="n">
-        <v>35791.0</v>
+        <v>36899.0</v>
+      </c>
+      <c r="GL17" t="n">
+        <v>37195.0</v>
+      </c>
+      <c r="GM17" t="n">
+        <v>37195.0</v>
+      </c>
+      <c r="GN17" t="n">
+        <v>37195.0</v>
+      </c>
+      <c r="GO17" t="n">
+        <v>37195.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -11146,12 +11362,24 @@
         <v>414530.0</v>
       </c>
       <c r="GK18" t="n">
-        <v>414530.0</v>
+        <v>418913.0</v>
+      </c>
+      <c r="GL18" t="n">
+        <v>421085.0</v>
+      </c>
+      <c r="GM18" t="n">
+        <v>421085.0</v>
+      </c>
+      <c r="GN18" t="n">
+        <v>421085.0</v>
+      </c>
+      <c r="GO18" t="n">
+        <v>421085.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -11727,7 +11955,19 @@
         <v>262570.0</v>
       </c>
       <c r="GK19" t="n">
-        <v>262570.0</v>
+        <v>265066.0</v>
+      </c>
+      <c r="GL19" t="n">
+        <v>266232.0</v>
+      </c>
+      <c r="GM19" t="n">
+        <v>266232.0</v>
+      </c>
+      <c r="GN19" t="n">
+        <v>266232.0</v>
+      </c>
+      <c r="GO19" t="n">
+        <v>266232.0</v>
       </c>
     </row>
   </sheetData>
@@ -12321,10 +12561,22 @@
       <c r="GK1" t="s">
         <v>191</v>
       </c>
+      <c r="GL1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -12900,12 +13152,24 @@
         <v>0.0</v>
       </c>
       <c r="GK2" t="n">
-        <v>232.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -13481,12 +13745,24 @@
         <v>322.0</v>
       </c>
       <c r="GK3" t="n">
-        <v>322.0</v>
+        <v>328.0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>331.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -14063,11 +14339,23 @@
       </c>
       <c r="GK4" t="n">
         <v>232.0</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -14643,12 +14931,24 @@
         <v>380.0</v>
       </c>
       <c r="GK5" t="n">
-        <v>380.0</v>
+        <v>387.0</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>392.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -15224,12 +15524,24 @@
         <v>3914.0</v>
       </c>
       <c r="GK6" t="n">
-        <v>3914.0</v>
+        <v>3949.0</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>3982.0</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>3982.0</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>3982.0</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>3982.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -15805,12 +16117,24 @@
         <v>196.0</v>
       </c>
       <c r="GK7" t="n">
-        <v>196.0</v>
+        <v>203.0</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="GO7" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -16386,12 +16710,24 @@
         <v>202.0</v>
       </c>
       <c r="GK8" t="n">
-        <v>202.0</v>
+        <v>205.0</v>
+      </c>
+      <c r="GL8" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="GM8" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="GN8" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="GO8" t="n">
+        <v>209.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -16967,12 +17303,24 @@
         <v>88.0</v>
       </c>
       <c r="GK9" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="GO9" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -17548,12 +17896,24 @@
         <v>171.0</v>
       </c>
       <c r="GK10" t="n">
-        <v>171.0</v>
+        <v>173.0</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="GO10" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -18129,12 +18489,24 @@
         <v>249.0</v>
       </c>
       <c r="GK11" t="n">
-        <v>249.0</v>
+        <v>254.0</v>
+      </c>
+      <c r="GL11" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="GM11" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="GN11" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="GO11" t="n">
+        <v>259.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -18710,12 +19082,24 @@
         <v>123.0</v>
       </c>
       <c r="GK12" t="n">
-        <v>123.0</v>
+        <v>126.0</v>
+      </c>
+      <c r="GL12" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="GM12" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="GN12" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="GO12" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -19291,12 +19675,24 @@
         <v>988.0</v>
       </c>
       <c r="GK13" t="n">
-        <v>988.0</v>
+        <v>998.0</v>
+      </c>
+      <c r="GL13" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="GM13" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="GN13" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="GO13" t="n">
+        <v>1003.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -19872,12 +20268,24 @@
         <v>1745.0</v>
       </c>
       <c r="GK14" t="n">
-        <v>1745.0</v>
+        <v>1757.0</v>
+      </c>
+      <c r="GL14" t="n">
+        <v>1762.0</v>
+      </c>
+      <c r="GM14" t="n">
+        <v>1762.0</v>
+      </c>
+      <c r="GN14" t="n">
+        <v>1762.0</v>
+      </c>
+      <c r="GO14" t="n">
+        <v>1762.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -20453,12 +20861,24 @@
         <v>1065.0</v>
       </c>
       <c r="GK15" t="n">
-        <v>1065.0</v>
+        <v>1089.0</v>
+      </c>
+      <c r="GL15" t="n">
+        <v>1103.0</v>
+      </c>
+      <c r="GM15" t="n">
+        <v>1103.0</v>
+      </c>
+      <c r="GN15" t="n">
+        <v>1103.0</v>
+      </c>
+      <c r="GO15" t="n">
+        <v>1103.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -21034,12 +21454,24 @@
         <v>931.0</v>
       </c>
       <c r="GK16" t="n">
-        <v>931.0</v>
+        <v>936.0</v>
+      </c>
+      <c r="GL16" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="GM16" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="GN16" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="GO16" t="n">
+        <v>939.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -21615,12 +22047,24 @@
         <v>909.0</v>
       </c>
       <c r="GK17" t="n">
-        <v>909.0</v>
+        <v>917.0</v>
+      </c>
+      <c r="GL17" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="GM17" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="GN17" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="GO17" t="n">
+        <v>922.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -22196,12 +22640,24 @@
         <v>19158.0</v>
       </c>
       <c r="GK18" t="n">
-        <v>19158.0</v>
+        <v>19260.0</v>
+      </c>
+      <c r="GL18" t="n">
+        <v>19352.0</v>
+      </c>
+      <c r="GM18" t="n">
+        <v>19352.0</v>
+      </c>
+      <c r="GN18" t="n">
+        <v>19352.0</v>
+      </c>
+      <c r="GO18" t="n">
+        <v>19352.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -22777,7 +23233,19 @@
         <v>11554.0</v>
       </c>
       <c r="GK19" t="n">
-        <v>11554.0</v>
+        <v>11611.0</v>
+      </c>
+      <c r="GL19" t="n">
+        <v>11666.0</v>
+      </c>
+      <c r="GM19" t="n">
+        <v>11666.0</v>
+      </c>
+      <c r="GN19" t="n">
+        <v>11666.0</v>
+      </c>
+      <c r="GO19" t="n">
+        <v>11666.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="216">
   <si>
     <t>02/25/20</t>
   </si>
@@ -603,6 +603,12 @@
     <t>09/07/20</t>
   </si>
   <si>
+    <t>09/08/20</t>
+  </si>
+  <si>
+    <t>09/09/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1295,10 +1301,16 @@
       <c r="GO1" t="s">
         <v>195</v>
       </c>
+      <c r="GP1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1887,11 +1899,17 @@
       </c>
       <c r="GO2" t="n">
         <v>12477.0</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>13930.0</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2480,11 +2498,17 @@
       </c>
       <c r="GO3" t="n">
         <v>12847.0</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>12847.0</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>13256.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -3073,11 +3097,17 @@
       </c>
       <c r="GO4" t="n">
         <v>9724.0</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>9724.0</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>10289.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3666,11 +3696,17 @@
       </c>
       <c r="GO5" t="n">
         <v>21588.0</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>21588.0</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>22329.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -4259,11 +4295,17 @@
       </c>
       <c r="GO6" t="n">
         <v>133953.0</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>133953.0</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>138304.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4852,11 +4894,17 @@
       </c>
       <c r="GO7" t="n">
         <v>12092.0</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>12092.0</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>12654.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5445,11 +5493,17 @@
       </c>
       <c r="GO8" t="n">
         <v>8472.0</v>
+      </c>
+      <c r="GP8" t="n">
+        <v>8472.0</v>
+      </c>
+      <c r="GQ8" t="n">
+        <v>8882.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -6038,11 +6092,17 @@
       </c>
       <c r="GO9" t="n">
         <v>3835.0</v>
+      </c>
+      <c r="GP9" t="n">
+        <v>3835.0</v>
+      </c>
+      <c r="GQ9" t="n">
+        <v>3995.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -6631,11 +6691,17 @@
       </c>
       <c r="GO10" t="n">
         <v>9076.0</v>
+      </c>
+      <c r="GP10" t="n">
+        <v>9076.0</v>
+      </c>
+      <c r="GQ10" t="n">
+        <v>9541.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -7224,11 +7290,17 @@
       </c>
       <c r="GO11" t="n">
         <v>8945.0</v>
+      </c>
+      <c r="GP11" t="n">
+        <v>8945.0</v>
+      </c>
+      <c r="GQ11" t="n">
+        <v>9676.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -7817,11 +7889,17 @@
       </c>
       <c r="GO12" t="n">
         <v>5844.0</v>
+      </c>
+      <c r="GP12" t="n">
+        <v>5844.0</v>
+      </c>
+      <c r="GQ12" t="n">
+        <v>5982.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -8410,11 +8488,17 @@
       </c>
       <c r="GO13" t="n">
         <v>30782.0</v>
+      </c>
+      <c r="GP13" t="n">
+        <v>30782.0</v>
+      </c>
+      <c r="GQ13" t="n">
+        <v>31825.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -9003,11 +9087,17 @@
       </c>
       <c r="GO14" t="n">
         <v>49528.0</v>
+      </c>
+      <c r="GP14" t="n">
+        <v>49528.0</v>
+      </c>
+      <c r="GQ14" t="n">
+        <v>50277.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -9596,11 +9686,17 @@
       </c>
       <c r="GO15" t="n">
         <v>45739.0</v>
+      </c>
+      <c r="GP15" t="n">
+        <v>45739.0</v>
+      </c>
+      <c r="GQ15" t="n">
+        <v>47548.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -10189,11 +10285,17 @@
       </c>
       <c r="GO16" t="n">
         <v>34148.0</v>
+      </c>
+      <c r="GP16" t="n">
+        <v>34148.0</v>
+      </c>
+      <c r="GQ16" t="n">
+        <v>35569.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -10782,11 +10884,17 @@
       </c>
       <c r="GO17" t="n">
         <v>37195.0</v>
+      </c>
+      <c r="GP17" t="n">
+        <v>37195.0</v>
+      </c>
+      <c r="GQ17" t="n">
+        <v>38260.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -11375,11 +11483,17 @@
       </c>
       <c r="GO18" t="n">
         <v>421085.0</v>
+      </c>
+      <c r="GP18" t="n">
+        <v>421085.0</v>
+      </c>
+      <c r="GQ18" t="n">
+        <v>428025.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -11968,6 +12082,12 @@
       </c>
       <c r="GO19" t="n">
         <v>266232.0</v>
+      </c>
+      <c r="GP19" t="n">
+        <v>266232.0</v>
+      </c>
+      <c r="GQ19" t="n">
+        <v>270000.0</v>
       </c>
     </row>
   </sheetData>
@@ -12573,10 +12693,16 @@
       <c r="GO1" t="s">
         <v>195</v>
       </c>
+      <c r="GP1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -13165,11 +13291,17 @@
       </c>
       <c r="GO2" t="n">
         <v>286.0</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -13758,11 +13890,17 @@
       </c>
       <c r="GO3" t="n">
         <v>331.0</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>343.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -14351,11 +14489,17 @@
       </c>
       <c r="GO4" t="n">
         <v>235.0</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -14944,11 +15088,17 @@
       </c>
       <c r="GO5" t="n">
         <v>392.0</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>409.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -15537,11 +15687,17 @@
       </c>
       <c r="GO6" t="n">
         <v>3982.0</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>3982.0</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>4111.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -16130,11 +16286,17 @@
       </c>
       <c r="GO7" t="n">
         <v>206.0</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -16723,11 +16885,17 @@
       </c>
       <c r="GO8" t="n">
         <v>209.0</v>
+      </c>
+      <c r="GP8" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="GQ8" t="n">
+        <v>226.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -17316,11 +17484,17 @@
       </c>
       <c r="GO9" t="n">
         <v>94.0</v>
+      </c>
+      <c r="GP9" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="GQ9" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -17909,11 +18083,17 @@
       </c>
       <c r="GO10" t="n">
         <v>175.0</v>
+      </c>
+      <c r="GP10" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="GQ10" t="n">
+        <v>188.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -18502,11 +18682,17 @@
       </c>
       <c r="GO11" t="n">
         <v>259.0</v>
+      </c>
+      <c r="GP11" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="GQ11" t="n">
+        <v>271.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -19095,11 +19281,17 @@
       </c>
       <c r="GO12" t="n">
         <v>127.0</v>
+      </c>
+      <c r="GP12" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="GQ12" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -19688,11 +19880,17 @@
       </c>
       <c r="GO13" t="n">
         <v>1003.0</v>
+      </c>
+      <c r="GP13" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="GQ13" t="n">
+        <v>1046.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -20281,11 +20479,17 @@
       </c>
       <c r="GO14" t="n">
         <v>1762.0</v>
+      </c>
+      <c r="GP14" t="n">
+        <v>1762.0</v>
+      </c>
+      <c r="GQ14" t="n">
+        <v>1792.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -20874,11 +21078,17 @@
       </c>
       <c r="GO15" t="n">
         <v>1103.0</v>
+      </c>
+      <c r="GP15" t="n">
+        <v>1103.0</v>
+      </c>
+      <c r="GQ15" t="n">
+        <v>1177.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -21467,11 +21677,17 @@
       </c>
       <c r="GO16" t="n">
         <v>939.0</v>
+      </c>
+      <c r="GP16" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="GQ16" t="n">
+        <v>968.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -22060,11 +22276,17 @@
       </c>
       <c r="GO17" t="n">
         <v>922.0</v>
+      </c>
+      <c r="GP17" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="GQ17" t="n">
+        <v>942.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -22653,11 +22875,17 @@
       </c>
       <c r="GO18" t="n">
         <v>19352.0</v>
+      </c>
+      <c r="GP18" t="n">
+        <v>19352.0</v>
+      </c>
+      <c r="GQ18" t="n">
+        <v>19663.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -23246,6 +23474,12 @@
       </c>
       <c r="GO19" t="n">
         <v>11666.0</v>
+      </c>
+      <c r="GP19" t="n">
+        <v>11666.0</v>
+      </c>
+      <c r="GQ19" t="n">
+        <v>11856.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="217">
   <si>
     <t>02/25/20</t>
   </si>
@@ -609,6 +609,9 @@
     <t>09/09/20</t>
   </si>
   <si>
+    <t>09/10/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1307,10 +1310,13 @@
       <c r="GQ1" t="s">
         <v>197</v>
       </c>
+      <c r="GR1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1905,11 +1911,14 @@
       </c>
       <c r="GQ2" t="n">
         <v>164.0</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>8342.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2503,12 +2512,15 @@
         <v>12847.0</v>
       </c>
       <c r="GQ3" t="n">
+        <v>13256.0</v>
+      </c>
+      <c r="GR3" t="n">
         <v>13256.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -3102,12 +3114,15 @@
         <v>9724.0</v>
       </c>
       <c r="GQ4" t="n">
+        <v>10289.0</v>
+      </c>
+      <c r="GR4" t="n">
         <v>10289.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3701,12 +3716,15 @@
         <v>21588.0</v>
       </c>
       <c r="GQ5" t="n">
+        <v>22329.0</v>
+      </c>
+      <c r="GR5" t="n">
         <v>22329.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -4300,12 +4318,15 @@
         <v>133953.0</v>
       </c>
       <c r="GQ6" t="n">
+        <v>138304.0</v>
+      </c>
+      <c r="GR6" t="n">
         <v>138304.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4899,12 +4920,15 @@
         <v>12092.0</v>
       </c>
       <c r="GQ7" t="n">
+        <v>12654.0</v>
+      </c>
+      <c r="GR7" t="n">
         <v>12654.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5498,12 +5522,15 @@
         <v>8472.0</v>
       </c>
       <c r="GQ8" t="n">
+        <v>8882.0</v>
+      </c>
+      <c r="GR8" t="n">
         <v>8882.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -6097,12 +6124,15 @@
         <v>3835.0</v>
       </c>
       <c r="GQ9" t="n">
+        <v>3995.0</v>
+      </c>
+      <c r="GR9" t="n">
         <v>3995.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -6696,12 +6726,15 @@
         <v>9076.0</v>
       </c>
       <c r="GQ10" t="n">
+        <v>9541.0</v>
+      </c>
+      <c r="GR10" t="n">
         <v>9541.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -7295,12 +7328,15 @@
         <v>8945.0</v>
       </c>
       <c r="GQ11" t="n">
+        <v>9676.0</v>
+      </c>
+      <c r="GR11" t="n">
         <v>9676.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -7894,12 +7930,15 @@
         <v>5844.0</v>
       </c>
       <c r="GQ12" t="n">
+        <v>5982.0</v>
+      </c>
+      <c r="GR12" t="n">
         <v>5982.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -8493,12 +8532,15 @@
         <v>30782.0</v>
       </c>
       <c r="GQ13" t="n">
+        <v>31825.0</v>
+      </c>
+      <c r="GR13" t="n">
         <v>31825.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -9092,12 +9134,15 @@
         <v>49528.0</v>
       </c>
       <c r="GQ14" t="n">
+        <v>50277.0</v>
+      </c>
+      <c r="GR14" t="n">
         <v>50277.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -9691,12 +9736,15 @@
         <v>45739.0</v>
       </c>
       <c r="GQ15" t="n">
+        <v>47548.0</v>
+      </c>
+      <c r="GR15" t="n">
         <v>47548.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -10290,12 +10338,15 @@
         <v>34148.0</v>
       </c>
       <c r="GQ16" t="n">
+        <v>35569.0</v>
+      </c>
+      <c r="GR16" t="n">
         <v>35569.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -10889,12 +10940,15 @@
         <v>37195.0</v>
       </c>
       <c r="GQ17" t="n">
+        <v>38260.0</v>
+      </c>
+      <c r="GR17" t="n">
         <v>38260.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -11488,12 +11542,15 @@
         <v>421085.0</v>
       </c>
       <c r="GQ18" t="n">
+        <v>428025.0</v>
+      </c>
+      <c r="GR18" t="n">
         <v>428025.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -12087,6 +12144,9 @@
         <v>266232.0</v>
       </c>
       <c r="GQ19" t="n">
+        <v>270000.0</v>
+      </c>
+      <c r="GR19" t="n">
         <v>270000.0</v>
       </c>
     </row>
@@ -12699,10 +12759,13 @@
       <c r="GQ1" t="s">
         <v>197</v>
       </c>
+      <c r="GR1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -13297,11 +13360,14 @@
       </c>
       <c r="GQ2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -13895,12 +13961,15 @@
         <v>331.0</v>
       </c>
       <c r="GQ3" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="GR3" t="n">
         <v>343.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -14494,12 +14563,15 @@
         <v>235.0</v>
       </c>
       <c r="GQ4" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="GR4" t="n">
         <v>237.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -15093,12 +15165,15 @@
         <v>392.0</v>
       </c>
       <c r="GQ5" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="GR5" t="n">
         <v>409.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -15692,12 +15767,15 @@
         <v>3982.0</v>
       </c>
       <c r="GQ6" t="n">
+        <v>4111.0</v>
+      </c>
+      <c r="GR6" t="n">
         <v>4111.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -16291,12 +16369,15 @@
         <v>206.0</v>
       </c>
       <c r="GQ7" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="GR7" t="n">
         <v>217.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -16890,12 +16971,15 @@
         <v>209.0</v>
       </c>
       <c r="GQ8" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="GR8" t="n">
         <v>226.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -17489,12 +17573,15 @@
         <v>94.0</v>
       </c>
       <c r="GQ9" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="GR9" t="n">
         <v>96.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -18088,12 +18175,15 @@
         <v>175.0</v>
       </c>
       <c r="GQ10" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="GR10" t="n">
         <v>188.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -18687,12 +18777,15 @@
         <v>259.0</v>
       </c>
       <c r="GQ11" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="GR11" t="n">
         <v>271.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -19286,12 +19379,15 @@
         <v>127.0</v>
       </c>
       <c r="GQ12" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="GR12" t="n">
         <v>135.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -19885,12 +19981,15 @@
         <v>1003.0</v>
       </c>
       <c r="GQ13" t="n">
+        <v>1046.0</v>
+      </c>
+      <c r="GR13" t="n">
         <v>1046.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -20484,12 +20583,15 @@
         <v>1762.0</v>
       </c>
       <c r="GQ14" t="n">
+        <v>1792.0</v>
+      </c>
+      <c r="GR14" t="n">
         <v>1792.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -21083,12 +21185,15 @@
         <v>1103.0</v>
       </c>
       <c r="GQ15" t="n">
+        <v>1177.0</v>
+      </c>
+      <c r="GR15" t="n">
         <v>1177.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -21682,12 +21787,15 @@
         <v>939.0</v>
       </c>
       <c r="GQ16" t="n">
+        <v>968.0</v>
+      </c>
+      <c r="GR16" t="n">
         <v>968.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -22281,12 +22389,15 @@
         <v>922.0</v>
       </c>
       <c r="GQ17" t="n">
+        <v>942.0</v>
+      </c>
+      <c r="GR17" t="n">
         <v>942.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -22880,12 +22991,15 @@
         <v>19352.0</v>
       </c>
       <c r="GQ18" t="n">
+        <v>19663.0</v>
+      </c>
+      <c r="GR18" t="n">
         <v>19663.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -23479,6 +23593,9 @@
         <v>11666.0</v>
       </c>
       <c r="GQ19" t="n">
+        <v>11856.0</v>
+      </c>
+      <c r="GR19" t="n">
         <v>11856.0</v>
       </c>
     </row>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="221">
   <si>
     <t>02/25/20</t>
   </si>
@@ -612,6 +612,18 @@
     <t>09/10/20</t>
   </si>
   <si>
+    <t>09/11/20</t>
+  </si>
+  <si>
+    <t>09/12/20</t>
+  </si>
+  <si>
+    <t>09/13/20</t>
+  </si>
+  <si>
+    <t>09/14/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1313,10 +1325,22 @@
       <c r="GR1" t="s">
         <v>198</v>
       </c>
+      <c r="GS1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1898,27 +1922,39 @@
         <v>163.0</v>
       </c>
       <c r="GM2" t="n">
-        <v>8232.0</v>
+        <v>163.0</v>
       </c>
       <c r="GN2" t="n">
-        <v>10869.0</v>
+        <v>163.0</v>
       </c>
       <c r="GO2" t="n">
-        <v>12477.0</v>
+        <v>1771.0</v>
       </c>
       <c r="GP2" t="n">
-        <v>13930.0</v>
+        <v>163.0</v>
       </c>
       <c r="GQ2" t="n">
         <v>164.0</v>
       </c>
       <c r="GR2" t="n">
-        <v>8342.0</v>
+        <v>164.0</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2500,27 +2536,39 @@
         <v>12847.0</v>
       </c>
       <c r="GM3" t="n">
-        <v>12847.0</v>
+        <v>12950.0</v>
       </c>
       <c r="GN3" t="n">
-        <v>12847.0</v>
+        <v>12988.0</v>
       </c>
       <c r="GO3" t="n">
-        <v>12847.0</v>
+        <v>12988.0</v>
       </c>
       <c r="GP3" t="n">
-        <v>12847.0</v>
+        <v>13024.0</v>
       </c>
       <c r="GQ3" t="n">
         <v>13256.0</v>
       </c>
       <c r="GR3" t="n">
-        <v>13256.0</v>
+        <v>13409.0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>13532.0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>13738.0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>13761.0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>13774.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -3102,27 +3150,39 @@
         <v>9724.0</v>
       </c>
       <c r="GM4" t="n">
-        <v>9724.0</v>
+        <v>9955.0</v>
       </c>
       <c r="GN4" t="n">
-        <v>9724.0</v>
+        <v>10027.0</v>
       </c>
       <c r="GO4" t="n">
-        <v>9724.0</v>
+        <v>10027.0</v>
       </c>
       <c r="GP4" t="n">
-        <v>9724.0</v>
+        <v>10121.0</v>
       </c>
       <c r="GQ4" t="n">
         <v>10289.0</v>
       </c>
       <c r="GR4" t="n">
-        <v>10289.0</v>
+        <v>10403.0</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>10534.0</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>10729.0</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>10741.0</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>10745.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3704,27 +3764,39 @@
         <v>21588.0</v>
       </c>
       <c r="GM5" t="n">
-        <v>21588.0</v>
+        <v>21821.0</v>
       </c>
       <c r="GN5" t="n">
-        <v>21588.0</v>
+        <v>21937.0</v>
       </c>
       <c r="GO5" t="n">
-        <v>21588.0</v>
+        <v>21937.0</v>
       </c>
       <c r="GP5" t="n">
-        <v>21588.0</v>
+        <v>21978.0</v>
       </c>
       <c r="GQ5" t="n">
         <v>22329.0</v>
       </c>
       <c r="GR5" t="n">
-        <v>22329.0</v>
+        <v>22668.0</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>22979.0</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>23345.0</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>23356.0</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>23357.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -4306,27 +4378,39 @@
         <v>133953.0</v>
       </c>
       <c r="GM6" t="n">
-        <v>133953.0</v>
+        <v>136023.0</v>
       </c>
       <c r="GN6" t="n">
-        <v>133953.0</v>
+        <v>136466.0</v>
       </c>
       <c r="GO6" t="n">
-        <v>133953.0</v>
+        <v>136466.0</v>
       </c>
       <c r="GP6" t="n">
-        <v>133953.0</v>
+        <v>137002.0</v>
       </c>
       <c r="GQ6" t="n">
         <v>138304.0</v>
       </c>
       <c r="GR6" t="n">
-        <v>138304.0</v>
+        <v>140058.0</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>141774.0</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>143245.0</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>143427.0</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>143700.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -4908,27 +4992,39 @@
         <v>12092.0</v>
       </c>
       <c r="GM7" t="n">
-        <v>12092.0</v>
+        <v>12301.0</v>
       </c>
       <c r="GN7" t="n">
-        <v>12092.0</v>
+        <v>12412.0</v>
       </c>
       <c r="GO7" t="n">
-        <v>12092.0</v>
+        <v>12412.0</v>
       </c>
       <c r="GP7" t="n">
-        <v>12092.0</v>
+        <v>12495.0</v>
       </c>
       <c r="GQ7" t="n">
         <v>12654.0</v>
       </c>
       <c r="GR7" t="n">
-        <v>12654.0</v>
+        <v>12869.0</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>13104.0</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>13316.0</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>13351.0</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>13375.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5510,27 +5606,39 @@
         <v>8472.0</v>
       </c>
       <c r="GM8" t="n">
-        <v>8472.0</v>
+        <v>8600.0</v>
       </c>
       <c r="GN8" t="n">
-        <v>8472.0</v>
+        <v>8647.0</v>
       </c>
       <c r="GO8" t="n">
-        <v>8472.0</v>
+        <v>8647.0</v>
       </c>
       <c r="GP8" t="n">
-        <v>8472.0</v>
+        <v>8688.0</v>
       </c>
       <c r="GQ8" t="n">
         <v>8882.0</v>
       </c>
       <c r="GR8" t="n">
-        <v>8882.0</v>
+        <v>9072.0</v>
+      </c>
+      <c r="GS8" t="n">
+        <v>9273.0</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>9469.0</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>9474.0</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>9493.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -6112,27 +6220,39 @@
         <v>3835.0</v>
       </c>
       <c r="GM9" t="n">
-        <v>3835.0</v>
+        <v>3909.0</v>
       </c>
       <c r="GN9" t="n">
-        <v>3835.0</v>
+        <v>3923.0</v>
       </c>
       <c r="GO9" t="n">
-        <v>3835.0</v>
+        <v>3923.0</v>
       </c>
       <c r="GP9" t="n">
-        <v>3835.0</v>
+        <v>3939.0</v>
       </c>
       <c r="GQ9" t="n">
         <v>3995.0</v>
       </c>
       <c r="GR9" t="n">
-        <v>3995.0</v>
+        <v>4061.0</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>4119.0</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>4177.0</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>4180.0</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>4187.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -6714,27 +6834,39 @@
         <v>9076.0</v>
       </c>
       <c r="GM10" t="n">
-        <v>9076.0</v>
+        <v>9256.0</v>
       </c>
       <c r="GN10" t="n">
-        <v>9076.0</v>
+        <v>9309.0</v>
       </c>
       <c r="GO10" t="n">
-        <v>9076.0</v>
+        <v>9309.0</v>
       </c>
       <c r="GP10" t="n">
-        <v>9076.0</v>
+        <v>9350.0</v>
       </c>
       <c r="GQ10" t="n">
         <v>9541.0</v>
       </c>
       <c r="GR10" t="n">
-        <v>9541.0</v>
+        <v>9682.0</v>
+      </c>
+      <c r="GS10" t="n">
+        <v>9858.0</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>9997.0</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>10014.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -7316,27 +7448,39 @@
         <v>8945.0</v>
       </c>
       <c r="GM11" t="n">
-        <v>8945.0</v>
+        <v>9261.0</v>
       </c>
       <c r="GN11" t="n">
-        <v>8945.0</v>
+        <v>9334.0</v>
       </c>
       <c r="GO11" t="n">
-        <v>8945.0</v>
+        <v>9334.0</v>
       </c>
       <c r="GP11" t="n">
-        <v>8945.0</v>
+        <v>9383.0</v>
       </c>
       <c r="GQ11" t="n">
         <v>9676.0</v>
       </c>
       <c r="GR11" t="n">
-        <v>9676.0</v>
+        <v>9840.0</v>
+      </c>
+      <c r="GS11" t="n">
+        <v>10022.0</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>10190.0</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>10202.0</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>10217.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -7918,27 +8062,39 @@
         <v>5844.0</v>
       </c>
       <c r="GM12" t="n">
-        <v>5844.0</v>
+        <v>5880.0</v>
       </c>
       <c r="GN12" t="n">
-        <v>5844.0</v>
+        <v>5893.0</v>
       </c>
       <c r="GO12" t="n">
-        <v>5844.0</v>
+        <v>5893.0</v>
       </c>
       <c r="GP12" t="n">
-        <v>5844.0</v>
+        <v>5923.0</v>
       </c>
       <c r="GQ12" t="n">
         <v>5982.0</v>
       </c>
       <c r="GR12" t="n">
-        <v>5982.0</v>
+        <v>6050.0</v>
+      </c>
+      <c r="GS12" t="n">
+        <v>6092.0</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>6151.0</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>6151.0</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>6155.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -8520,27 +8676,39 @@
         <v>30782.0</v>
       </c>
       <c r="GM13" t="n">
-        <v>30782.0</v>
+        <v>31108.0</v>
       </c>
       <c r="GN13" t="n">
-        <v>30782.0</v>
+        <v>31262.0</v>
       </c>
       <c r="GO13" t="n">
-        <v>30782.0</v>
+        <v>31262.0</v>
       </c>
       <c r="GP13" t="n">
-        <v>30782.0</v>
+        <v>31342.0</v>
       </c>
       <c r="GQ13" t="n">
         <v>31825.0</v>
       </c>
       <c r="GR13" t="n">
-        <v>31825.0</v>
+        <v>32161.0</v>
+      </c>
+      <c r="GS13" t="n">
+        <v>32632.0</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>32916.0</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>33103.0</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>33109.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -9122,27 +9290,39 @@
         <v>49528.0</v>
       </c>
       <c r="GM14" t="n">
-        <v>49528.0</v>
+        <v>49802.0</v>
       </c>
       <c r="GN14" t="n">
-        <v>49528.0</v>
+        <v>49883.0</v>
       </c>
       <c r="GO14" t="n">
-        <v>49528.0</v>
+        <v>49883.0</v>
       </c>
       <c r="GP14" t="n">
-        <v>49528.0</v>
+        <v>50039.0</v>
       </c>
       <c r="GQ14" t="n">
         <v>50277.0</v>
       </c>
       <c r="GR14" t="n">
-        <v>50277.0</v>
+        <v>50570.0</v>
+      </c>
+      <c r="GS14" t="n">
+        <v>50765.0</v>
+      </c>
+      <c r="GT14" t="n">
+        <v>51015.0</v>
+      </c>
+      <c r="GU14" t="n">
+        <v>51204.0</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>51244.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -9724,27 +9904,39 @@
         <v>45739.0</v>
       </c>
       <c r="GM15" t="n">
-        <v>45739.0</v>
+        <v>46267.0</v>
       </c>
       <c r="GN15" t="n">
-        <v>45739.0</v>
+        <v>46618.0</v>
       </c>
       <c r="GO15" t="n">
-        <v>45739.0</v>
+        <v>46618.0</v>
       </c>
       <c r="GP15" t="n">
-        <v>45739.0</v>
+        <v>47112.0</v>
       </c>
       <c r="GQ15" t="n">
         <v>47548.0</v>
       </c>
       <c r="GR15" t="n">
-        <v>47548.0</v>
+        <v>48099.0</v>
+      </c>
+      <c r="GS15" t="n">
+        <v>48811.0</v>
+      </c>
+      <c r="GT15" t="n">
+        <v>49444.0</v>
+      </c>
+      <c r="GU15" t="n">
+        <v>49714.0</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>49813.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -10326,27 +10518,39 @@
         <v>34148.0</v>
       </c>
       <c r="GM16" t="n">
-        <v>34148.0</v>
+        <v>34654.0</v>
       </c>
       <c r="GN16" t="n">
-        <v>34148.0</v>
+        <v>34901.0</v>
       </c>
       <c r="GO16" t="n">
-        <v>34148.0</v>
+        <v>34901.0</v>
       </c>
       <c r="GP16" t="n">
-        <v>34148.0</v>
+        <v>35103.0</v>
       </c>
       <c r="GQ16" t="n">
         <v>35569.0</v>
       </c>
       <c r="GR16" t="n">
-        <v>35569.0</v>
+        <v>36020.0</v>
+      </c>
+      <c r="GS16" t="n">
+        <v>36529.0</v>
+      </c>
+      <c r="GT16" t="n">
+        <v>37186.0</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>37251.0</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>37291.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -10928,27 +11132,39 @@
         <v>37195.0</v>
       </c>
       <c r="GM17" t="n">
-        <v>37195.0</v>
+        <v>37625.0</v>
       </c>
       <c r="GN17" t="n">
-        <v>37195.0</v>
+        <v>37797.0</v>
       </c>
       <c r="GO17" t="n">
-        <v>37195.0</v>
+        <v>37797.0</v>
       </c>
       <c r="GP17" t="n">
-        <v>37195.0</v>
+        <v>37909.0</v>
       </c>
       <c r="GQ17" t="n">
         <v>38260.0</v>
       </c>
       <c r="GR17" t="n">
-        <v>38260.0</v>
+        <v>38747.0</v>
+      </c>
+      <c r="GS17" t="n">
+        <v>39229.0</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>39691.0</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>39706.0</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>39806.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -11530,27 +11746,39 @@
         <v>421085.0</v>
       </c>
       <c r="GM18" t="n">
-        <v>421085.0</v>
+        <v>423510.0</v>
       </c>
       <c r="GN18" t="n">
-        <v>421085.0</v>
+        <v>424162.0</v>
       </c>
       <c r="GO18" t="n">
-        <v>421085.0</v>
+        <v>424162.0</v>
       </c>
       <c r="GP18" t="n">
-        <v>421085.0</v>
+        <v>425212.0</v>
       </c>
       <c r="GQ18" t="n">
         <v>428025.0</v>
       </c>
       <c r="GR18" t="n">
-        <v>428025.0</v>
+        <v>430881.0</v>
+      </c>
+      <c r="GS18" t="n">
+        <v>433391.0</v>
+      </c>
+      <c r="GT18" t="n">
+        <v>435915.0</v>
+      </c>
+      <c r="GU18" t="n">
+        <v>436458.0</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>436903.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -12132,22 +12360,34 @@
         <v>266232.0</v>
       </c>
       <c r="GM19" t="n">
-        <v>266232.0</v>
+        <v>267477.0</v>
       </c>
       <c r="GN19" t="n">
-        <v>266232.0</v>
+        <v>267767.0</v>
       </c>
       <c r="GO19" t="n">
-        <v>266232.0</v>
+        <v>267767.0</v>
       </c>
       <c r="GP19" t="n">
-        <v>266232.0</v>
+        <v>268347.0</v>
       </c>
       <c r="GQ19" t="n">
         <v>270000.0</v>
       </c>
       <c r="GR19" t="n">
-        <v>270000.0</v>
+        <v>271505.0</v>
+      </c>
+      <c r="GS19" t="n">
+        <v>272857.0</v>
+      </c>
+      <c r="GT19" t="n">
+        <v>274173.0</v>
+      </c>
+      <c r="GU19" t="n">
+        <v>274467.0</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>274740.0</v>
       </c>
     </row>
   </sheetData>
@@ -12762,10 +13002,22 @@
       <c r="GR1" t="s">
         <v>198</v>
       </c>
+      <c r="GS1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -13347,27 +13599,39 @@
         <v>0.0</v>
       </c>
       <c r="GM2" t="n">
-        <v>222.0</v>
+        <v>0.0</v>
       </c>
       <c r="GN2" t="n">
-        <v>262.0</v>
+        <v>0.0</v>
       </c>
       <c r="GO2" t="n">
-        <v>286.0</v>
+        <v>24.0</v>
       </c>
       <c r="GP2" t="n">
-        <v>339.0</v>
+        <v>0.0</v>
       </c>
       <c r="GQ2" t="n">
         <v>0.0</v>
       </c>
       <c r="GR2" t="n">
-        <v>283.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -13949,27 +14213,39 @@
         <v>331.0</v>
       </c>
       <c r="GM3" t="n">
-        <v>331.0</v>
+        <v>335.0</v>
       </c>
       <c r="GN3" t="n">
-        <v>331.0</v>
+        <v>335.0</v>
       </c>
       <c r="GO3" t="n">
-        <v>331.0</v>
+        <v>335.0</v>
       </c>
       <c r="GP3" t="n">
-        <v>331.0</v>
+        <v>336.0</v>
       </c>
       <c r="GQ3" t="n">
         <v>343.0</v>
       </c>
       <c r="GR3" t="n">
-        <v>343.0</v>
+        <v>346.0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>350.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -14551,27 +14827,39 @@
         <v>235.0</v>
       </c>
       <c r="GM4" t="n">
-        <v>235.0</v>
+        <v>236.0</v>
       </c>
       <c r="GN4" t="n">
-        <v>235.0</v>
+        <v>236.0</v>
       </c>
       <c r="GO4" t="n">
-        <v>235.0</v>
+        <v>236.0</v>
       </c>
       <c r="GP4" t="n">
-        <v>235.0</v>
+        <v>237.0</v>
       </c>
       <c r="GQ4" t="n">
         <v>237.0</v>
       </c>
       <c r="GR4" t="n">
-        <v>237.0</v>
+        <v>241.0</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -15153,27 +15441,39 @@
         <v>392.0</v>
       </c>
       <c r="GM5" t="n">
-        <v>392.0</v>
+        <v>401.0</v>
       </c>
       <c r="GN5" t="n">
-        <v>392.0</v>
+        <v>401.0</v>
       </c>
       <c r="GO5" t="n">
-        <v>392.0</v>
+        <v>401.0</v>
       </c>
       <c r="GP5" t="n">
-        <v>392.0</v>
+        <v>402.0</v>
       </c>
       <c r="GQ5" t="n">
         <v>409.0</v>
       </c>
       <c r="GR5" t="n">
-        <v>409.0</v>
+        <v>414.0</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>423.0</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>427.0</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>427.0</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>427.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -15755,27 +16055,39 @@
         <v>3982.0</v>
       </c>
       <c r="GM6" t="n">
-        <v>3982.0</v>
+        <v>4026.0</v>
       </c>
       <c r="GN6" t="n">
-        <v>3982.0</v>
+        <v>4035.0</v>
       </c>
       <c r="GO6" t="n">
-        <v>3982.0</v>
+        <v>4035.0</v>
       </c>
       <c r="GP6" t="n">
-        <v>3982.0</v>
+        <v>4045.0</v>
       </c>
       <c r="GQ6" t="n">
         <v>4111.0</v>
       </c>
       <c r="GR6" t="n">
-        <v>4111.0</v>
+        <v>4151.0</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>4179.0</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>4207.0</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>4213.0</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>4220.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -16357,27 +16669,39 @@
         <v>206.0</v>
       </c>
       <c r="GM7" t="n">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="GN7" t="n">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="GO7" t="n">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="GP7" t="n">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="GQ7" t="n">
         <v>217.0</v>
       </c>
       <c r="GR7" t="n">
-        <v>217.0</v>
+        <v>218.0</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>232.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -16959,27 +17283,39 @@
         <v>209.0</v>
       </c>
       <c r="GM8" t="n">
-        <v>209.0</v>
+        <v>212.0</v>
       </c>
       <c r="GN8" t="n">
-        <v>209.0</v>
+        <v>212.0</v>
       </c>
       <c r="GO8" t="n">
-        <v>209.0</v>
+        <v>212.0</v>
       </c>
       <c r="GP8" t="n">
-        <v>209.0</v>
+        <v>217.0</v>
       </c>
       <c r="GQ8" t="n">
         <v>226.0</v>
       </c>
       <c r="GR8" t="n">
-        <v>226.0</v>
+        <v>237.0</v>
+      </c>
+      <c r="GS8" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>249.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -17561,27 +17897,39 @@
         <v>94.0</v>
       </c>
       <c r="GM9" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="GN9" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="GO9" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="GP9" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="GQ9" t="n">
         <v>96.0</v>
       </c>
       <c r="GR9" t="n">
         <v>96.0</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -18163,27 +18511,39 @@
         <v>175.0</v>
       </c>
       <c r="GM10" t="n">
-        <v>175.0</v>
+        <v>180.0</v>
       </c>
       <c r="GN10" t="n">
-        <v>175.0</v>
+        <v>180.0</v>
       </c>
       <c r="GO10" t="n">
-        <v>175.0</v>
+        <v>180.0</v>
       </c>
       <c r="GP10" t="n">
-        <v>175.0</v>
+        <v>180.0</v>
       </c>
       <c r="GQ10" t="n">
         <v>188.0</v>
       </c>
       <c r="GR10" t="n">
-        <v>188.0</v>
+        <v>190.0</v>
+      </c>
+      <c r="GS10" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>197.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -18765,27 +19125,39 @@
         <v>259.0</v>
       </c>
       <c r="GM11" t="n">
-        <v>259.0</v>
+        <v>265.0</v>
       </c>
       <c r="GN11" t="n">
-        <v>259.0</v>
+        <v>267.0</v>
       </c>
       <c r="GO11" t="n">
-        <v>259.0</v>
+        <v>267.0</v>
       </c>
       <c r="GP11" t="n">
-        <v>259.0</v>
+        <v>267.0</v>
       </c>
       <c r="GQ11" t="n">
         <v>271.0</v>
       </c>
       <c r="GR11" t="n">
-        <v>271.0</v>
+        <v>272.0</v>
+      </c>
+      <c r="GS11" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>282.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -19367,27 +19739,39 @@
         <v>127.0</v>
       </c>
       <c r="GM12" t="n">
-        <v>127.0</v>
+        <v>132.0</v>
       </c>
       <c r="GN12" t="n">
-        <v>127.0</v>
+        <v>132.0</v>
       </c>
       <c r="GO12" t="n">
-        <v>127.0</v>
+        <v>132.0</v>
       </c>
       <c r="GP12" t="n">
-        <v>127.0</v>
+        <v>133.0</v>
       </c>
       <c r="GQ12" t="n">
         <v>135.0</v>
       </c>
       <c r="GR12" t="n">
         <v>135.0</v>
+      </c>
+      <c r="GS12" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -19969,27 +20353,39 @@
         <v>1003.0</v>
       </c>
       <c r="GM13" t="n">
-        <v>1003.0</v>
+        <v>1019.0</v>
       </c>
       <c r="GN13" t="n">
-        <v>1003.0</v>
+        <v>1022.0</v>
       </c>
       <c r="GO13" t="n">
-        <v>1003.0</v>
+        <v>1022.0</v>
       </c>
       <c r="GP13" t="n">
-        <v>1003.0</v>
+        <v>1023.0</v>
       </c>
       <c r="GQ13" t="n">
         <v>1046.0</v>
       </c>
       <c r="GR13" t="n">
-        <v>1046.0</v>
+        <v>1058.0</v>
+      </c>
+      <c r="GS13" t="n">
+        <v>1067.0</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>1083.0</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>1089.0</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>1089.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -20571,27 +20967,39 @@
         <v>1762.0</v>
       </c>
       <c r="GM14" t="n">
-        <v>1762.0</v>
+        <v>1775.0</v>
       </c>
       <c r="GN14" t="n">
-        <v>1762.0</v>
+        <v>1777.0</v>
       </c>
       <c r="GO14" t="n">
-        <v>1762.0</v>
+        <v>1777.0</v>
       </c>
       <c r="GP14" t="n">
-        <v>1762.0</v>
+        <v>1779.0</v>
       </c>
       <c r="GQ14" t="n">
         <v>1792.0</v>
       </c>
       <c r="GR14" t="n">
-        <v>1792.0</v>
+        <v>1801.0</v>
+      </c>
+      <c r="GS14" t="n">
+        <v>1804.0</v>
+      </c>
+      <c r="GT14" t="n">
+        <v>1815.0</v>
+      </c>
+      <c r="GU14" t="n">
+        <v>1816.0</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>1816.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -21173,27 +21581,39 @@
         <v>1103.0</v>
       </c>
       <c r="GM15" t="n">
-        <v>1103.0</v>
+        <v>1119.0</v>
       </c>
       <c r="GN15" t="n">
-        <v>1103.0</v>
+        <v>1130.0</v>
       </c>
       <c r="GO15" t="n">
-        <v>1103.0</v>
+        <v>1130.0</v>
       </c>
       <c r="GP15" t="n">
-        <v>1103.0</v>
+        <v>1158.0</v>
       </c>
       <c r="GQ15" t="n">
         <v>1177.0</v>
       </c>
       <c r="GR15" t="n">
-        <v>1177.0</v>
+        <v>1193.0</v>
+      </c>
+      <c r="GS15" t="n">
+        <v>1210.0</v>
+      </c>
+      <c r="GT15" t="n">
+        <v>1229.0</v>
+      </c>
+      <c r="GU15" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>1256.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -21775,27 +22195,39 @@
         <v>939.0</v>
       </c>
       <c r="GM16" t="n">
-        <v>939.0</v>
+        <v>944.0</v>
       </c>
       <c r="GN16" t="n">
-        <v>939.0</v>
+        <v>944.0</v>
       </c>
       <c r="GO16" t="n">
-        <v>939.0</v>
+        <v>944.0</v>
       </c>
       <c r="GP16" t="n">
-        <v>939.0</v>
+        <v>944.0</v>
       </c>
       <c r="GQ16" t="n">
         <v>968.0</v>
       </c>
       <c r="GR16" t="n">
-        <v>968.0</v>
+        <v>993.0</v>
+      </c>
+      <c r="GS16" t="n">
+        <v>1002.0</v>
+      </c>
+      <c r="GT16" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>1014.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -22377,27 +22809,39 @@
         <v>922.0</v>
       </c>
       <c r="GM17" t="n">
-        <v>922.0</v>
+        <v>926.0</v>
       </c>
       <c r="GN17" t="n">
-        <v>922.0</v>
+        <v>926.0</v>
       </c>
       <c r="GO17" t="n">
-        <v>922.0</v>
+        <v>926.0</v>
       </c>
       <c r="GP17" t="n">
-        <v>922.0</v>
+        <v>926.0</v>
       </c>
       <c r="GQ17" t="n">
         <v>942.0</v>
       </c>
       <c r="GR17" t="n">
-        <v>942.0</v>
+        <v>951.0</v>
+      </c>
+      <c r="GS17" t="n">
+        <v>958.0</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>973.0</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>974.0</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>974.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -22979,27 +23423,39 @@
         <v>19352.0</v>
       </c>
       <c r="GM18" t="n">
-        <v>19352.0</v>
+        <v>19441.0</v>
       </c>
       <c r="GN18" t="n">
-        <v>19352.0</v>
+        <v>19454.0</v>
       </c>
       <c r="GO18" t="n">
-        <v>19352.0</v>
+        <v>19454.0</v>
       </c>
       <c r="GP18" t="n">
-        <v>19352.0</v>
+        <v>19481.0</v>
       </c>
       <c r="GQ18" t="n">
         <v>19663.0</v>
       </c>
       <c r="GR18" t="n">
-        <v>19663.0</v>
+        <v>19808.0</v>
+      </c>
+      <c r="GS18" t="n">
+        <v>19927.0</v>
+      </c>
+      <c r="GT18" t="n">
+        <v>20020.0</v>
+      </c>
+      <c r="GU18" t="n">
+        <v>20031.0</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>20041.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -23581,22 +24037,34 @@
         <v>11666.0</v>
       </c>
       <c r="GM19" t="n">
-        <v>11666.0</v>
+        <v>11717.0</v>
       </c>
       <c r="GN19" t="n">
-        <v>11666.0</v>
+        <v>11731.0</v>
       </c>
       <c r="GO19" t="n">
-        <v>11666.0</v>
+        <v>11731.0</v>
       </c>
       <c r="GP19" t="n">
-        <v>11666.0</v>
+        <v>11740.0</v>
       </c>
       <c r="GQ19" t="n">
         <v>11856.0</v>
       </c>
       <c r="GR19" t="n">
-        <v>11856.0</v>
+        <v>11933.0</v>
+      </c>
+      <c r="GS19" t="n">
+        <v>12003.0</v>
+      </c>
+      <c r="GT19" t="n">
+        <v>12048.0</v>
+      </c>
+      <c r="GU19" t="n">
+        <v>12057.0</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>12068.0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_sp.xlsx
+++ b/docs/excel_sp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="240">
   <si>
     <t>02/25/20</t>
   </si>
@@ -624,6 +624,63 @@
     <t>09/14/20</t>
   </si>
   <si>
+    <t>09/15/20</t>
+  </si>
+  <si>
+    <t>09/16/20</t>
+  </si>
+  <si>
+    <t>09/17/20</t>
+  </si>
+  <si>
+    <t>09/18/20</t>
+  </si>
+  <si>
+    <t>09/19/20</t>
+  </si>
+  <si>
+    <t>09/20/20</t>
+  </si>
+  <si>
+    <t>09/21/20</t>
+  </si>
+  <si>
+    <t>09/22/20</t>
+  </si>
+  <si>
+    <t>09/23/20</t>
+  </si>
+  <si>
+    <t>09/24/20</t>
+  </si>
+  <si>
+    <t>09/25/20</t>
+  </si>
+  <si>
+    <t>09/26/20</t>
+  </si>
+  <si>
+    <t>09/27/20</t>
+  </si>
+  <si>
+    <t>09/28/20</t>
+  </si>
+  <si>
+    <t>09/29/20</t>
+  </si>
+  <si>
+    <t>09/30/20</t>
+  </si>
+  <si>
+    <t>10/01/20</t>
+  </si>
+  <si>
+    <t>10/02/20</t>
+  </si>
+  <si>
+    <t>10/03/20</t>
+  </si>
+  <si>
     <t>CASO SEM LOCALIZAÇÃO DEFINIDA/SP</t>
   </si>
   <si>
@@ -1337,10 +1394,67 @@
       <c r="GV1" t="s">
         <v>202</v>
       </c>
+      <c r="GW1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -1950,11 +2064,68 @@
       </c>
       <c r="GV2" t="n">
         <v>166.0</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>6274.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -2564,11 +2735,68 @@
       </c>
       <c r="GV3" t="n">
         <v>13774.0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>14006.0</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>14162.0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>14263.0</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>14388.0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>14534.0</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>14610.0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>14730.0</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>14922.0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>15015.0</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>15121.0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>15298.0</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>15424.0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>15439.0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>15478.0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>15670.0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>15833.0</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>16013.0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>16157.0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>16157.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -3178,11 +3406,68 @@
       </c>
       <c r="GV4" t="n">
         <v>10745.0</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>10972.0</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>11086.0</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>11189.0</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>11386.0</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>11534.0</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>11587.0</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>11611.0</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>11751.0</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>11851.0</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>12013.0</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>12147.0</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>12259.0</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>12296.0</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>12304.0</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>12438.0</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>12627.0</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>12731.0</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>12804.0</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>12804.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -3792,11 +4077,68 @@
       </c>
       <c r="GV5" t="n">
         <v>23357.0</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>23734.0</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>24098.0</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>24503.0</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>24925.0</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>25246.0</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>25503.0</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>25531.0</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>25845.0</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>26222.0</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>26594.0</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>26884.0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>27248.0</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>27337.0</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>27381.0</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>27664.0</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>27941.0</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>28338.0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>28617.0</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>28617.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -4406,11 +4748,68 @@
       </c>
       <c r="GV6" t="n">
         <v>143700.0</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>145200.0</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>146766.0</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>148086.0</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>149181.0</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>150570.0</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>151168.0</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>151635.0</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>153155.0</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>154478.0</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>155686.0</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>156749.0</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>157937.0</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>158081.0</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>158202.0</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>159201.0</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>160249.0</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>161110.0</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>162022.0</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>162022.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -5020,11 +5419,68 @@
       </c>
       <c r="GV7" t="n">
         <v>13375.0</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>13560.0</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>13762.0</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>13999.0</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>14199.0</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>14369.0</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>14475.0</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>14508.0</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>14659.0</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>14821.0</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>15004.0</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>15195.0</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>15310.0</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>15331.0</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>15351.0</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>15566.0</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>15725.0</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>15940.0</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>16153.0</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>16153.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5634,11 +6090,68 @@
       </c>
       <c r="GV8" t="n">
         <v>9493.0</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>9644.0</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>9808.0</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>10020.0</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>10305.0</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>10522.0</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>10561.0</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>10587.0</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>10793.0</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>10957.0</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>11191.0</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>11382.0</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>11536.0</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>11538.0</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>11557.0</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>11726.0</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>11887.0</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>12134.0</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>12309.0</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>12309.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -6248,11 +6761,68 @@
       </c>
       <c r="GV9" t="n">
         <v>4187.0</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>4261.0</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>4309.0</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>4383.0</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>4425.0</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>4476.0</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>4510.0</v>
+      </c>
+      <c r="HC9" t="n">
+        <v>4532.0</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>4622.0</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>4666.0</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>4717.0</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>4763.0</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>4810.0</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>4822.0</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>4822.0</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>4875.0</v>
+      </c>
+      <c r="HL9" t="n">
+        <v>4924.0</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>5003.0</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>5058.0</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>5058.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -6862,11 +7432,68 @@
       </c>
       <c r="GV10" t="n">
         <v>10014.0</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>10210.0</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>10418.0</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>10569.0</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>10723.0</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>10875.0</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>10895.0</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>10910.0</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>11061.0</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>11172.0</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>11286.0</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>11440.0</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>11561.0</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>11585.0</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>11597.0</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>11771.0</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>11869.0</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>11987.0</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>12105.0</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>12105.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -7476,11 +8103,68 @@
       </c>
       <c r="GV11" t="n">
         <v>10217.0</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>10384.0</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>10631.0</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>10754.0</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>10889.0</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>11088.0</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>11163.0</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>11183.0</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>11328.0</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>11515.0</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>11659.0</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>11803.0</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>11939.0</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>11950.0</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>11960.0</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>12144.0</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>12282.0</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>12389.0</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>12545.0</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>12545.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -8090,11 +8774,68 @@
       </c>
       <c r="GV12" t="n">
         <v>6155.0</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>6204.0</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>6235.0</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>6298.0</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>6357.0</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>6389.0</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>6408.0</v>
+      </c>
+      <c r="HC12" t="n">
+        <v>6421.0</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>6492.0</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>6504.0</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>6532.0</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>6582.0</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>6623.0</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>6640.0</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>6647.0</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>6674.0</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>6744.0</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>6786.0</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>6852.0</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>6852.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -8704,11 +9445,68 @@
       </c>
       <c r="GV13" t="n">
         <v>33109.0</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>33463.0</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>33736.0</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>34115.0</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>34626.0</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>34917.0</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>35188.0</v>
+      </c>
+      <c r="HC13" t="n">
+        <v>35197.0</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>35658.0</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>35925.0</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>36155.0</v>
+      </c>
+      <c r="HG13" t="n">
+        <v>36563.0</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>36777.0</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>36947.0</v>
+      </c>
+      <c r="HJ13" t="n">
+        <v>36979.0</v>
+      </c>
+      <c r="HK13" t="n">
+        <v>37322.0</v>
+      </c>
+      <c r="HL13" t="n">
+        <v>37777.0</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>38122.0</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>38471.0</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>38471.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -9318,11 +10116,68 @@
       </c>
       <c r="GV14" t="n">
         <v>51244.0</v>
+      </c>
+      <c r="GW14" t="n">
+        <v>51518.0</v>
+      </c>
+      <c r="GX14" t="n">
+        <v>51891.0</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>52132.0</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>52391.0</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>52736.0</v>
+      </c>
+      <c r="HB14" t="n">
+        <v>53168.0</v>
+      </c>
+      <c r="HC14" t="n">
+        <v>53211.0</v>
+      </c>
+      <c r="HD14" t="n">
+        <v>53514.0</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>53759.0</v>
+      </c>
+      <c r="HF14" t="n">
+        <v>54039.0</v>
+      </c>
+      <c r="HG14" t="n">
+        <v>54249.0</v>
+      </c>
+      <c r="HH14" t="n">
+        <v>54514.0</v>
+      </c>
+      <c r="HI14" t="n">
+        <v>54678.0</v>
+      </c>
+      <c r="HJ14" t="n">
+        <v>54733.0</v>
+      </c>
+      <c r="HK14" t="n">
+        <v>54863.0</v>
+      </c>
+      <c r="HL14" t="n">
+        <v>55083.0</v>
+      </c>
+      <c r="HM14" t="n">
+        <v>55253.0</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>55423.0</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>55423.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -9932,11 +10787,68 @@
       </c>
       <c r="GV15" t="n">
         <v>49813.0</v>
+      </c>
+      <c r="GW15" t="n">
+        <v>50332.0</v>
+      </c>
+      <c r="GX15" t="n">
+        <v>50986.0</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>51510.0</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>52081.0</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>52605.0</v>
+      </c>
+      <c r="HB15" t="n">
+        <v>53058.0</v>
+      </c>
+      <c r="HC15" t="n">
+        <v>53428.0</v>
+      </c>
+      <c r="HD15" t="n">
+        <v>53919.0</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>54509.0</v>
+      </c>
+      <c r="HF15" t="n">
+        <v>54863.0</v>
+      </c>
+      <c r="HG15" t="n">
+        <v>55578.0</v>
+      </c>
+      <c r="HH15" t="n">
+        <v>56144.0</v>
+      </c>
+      <c r="HI15" t="n">
+        <v>56358.0</v>
+      </c>
+      <c r="HJ15" t="n">
+        <v>56548.0</v>
+      </c>
+      <c r="HK15" t="n">
+        <v>57097.0</v>
+      </c>
+      <c r="HL15" t="n">
+        <v>57425.0</v>
+      </c>
+      <c r="HM15" t="n">
+        <v>57925.0</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>58522.0</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>58522.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -10546,11 +11458,68 @@
       </c>
       <c r="GV16" t="n">
         <v>37291.0</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>37792.0</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>38523.0</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>39009.0</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>39617.0</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>40079.0</v>
+      </c>
+      <c r="HB16" t="n">
+        <v>40331.0</v>
+      </c>
+      <c r="HC16" t="n">
+        <v>40474.0</v>
+      </c>
+      <c r="HD16" t="n">
+        <v>40808.0</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>41227.0</v>
+      </c>
+      <c r="HF16" t="n">
+        <v>41536.0</v>
+      </c>
+      <c r="HG16" t="n">
+        <v>42057.0</v>
+      </c>
+      <c r="HH16" t="n">
+        <v>42415.0</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>42611.0</v>
+      </c>
+      <c r="HJ16" t="n">
+        <v>42646.0</v>
+      </c>
+      <c r="HK16" t="n">
+        <v>42965.0</v>
+      </c>
+      <c r="HL16" t="n">
+        <v>43357.0</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>43796.0</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>44135.0</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>44135.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -11160,11 +12129,68 @@
       </c>
       <c r="GV17" t="n">
         <v>39806.0</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>40182.0</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>40531.0</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>40876.0</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>41271.0</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>41614.0</v>
+      </c>
+      <c r="HB17" t="n">
+        <v>41860.0</v>
+      </c>
+      <c r="HC17" t="n">
+        <v>42053.0</v>
+      </c>
+      <c r="HD17" t="n">
+        <v>42627.0</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>42938.0</v>
+      </c>
+      <c r="HF17" t="n">
+        <v>43175.0</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>43447.0</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>43724.0</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>43731.0</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>43782.0</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>44186.0</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>44475.0</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>44703.0</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>44987.0</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>44987.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -11774,11 +12800,68 @@
       </c>
       <c r="GV18" t="n">
         <v>436903.0</v>
+      </c>
+      <c r="GW18" t="n">
+        <v>439643.0</v>
+      </c>
+      <c r="GX18" t="n">
+        <v>442317.0</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>444945.0</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>447598.0</v>
+      </c>
+      <c r="HA18" t="n">
+        <v>449949.0</v>
+      </c>
+      <c r="HB18" t="n">
+        <v>450645.0</v>
+      </c>
+      <c r="HC18" t="n">
+        <v>451151.0</v>
+      </c>
+      <c r="HD18" t="n">
+        <v>454095.0</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>456240.0</v>
+      </c>
+      <c r="HF18" t="n">
+        <v>458496.0</v>
+      </c>
+      <c r="HG18" t="n">
+        <v>460611.0</v>
+      </c>
+      <c r="HH18" t="n">
+        <v>462494.0</v>
+      </c>
+      <c r="HI18" t="n">
+        <v>462720.0</v>
+      </c>
+      <c r="HJ18" t="n">
+        <v>462982.0</v>
+      </c>
+      <c r="HK18" t="n">
+        <v>465184.0</v>
+      </c>
+      <c r="HL18" t="n">
+        <v>467253.0</v>
+      </c>
+      <c r="HM18" t="n">
+        <v>469317.0</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>470995.0</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>470995.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -12388,6 +13471,63 @@
       </c>
       <c r="GV19" t="n">
         <v>274740.0</v>
+      </c>
+      <c r="GW19" t="n">
+        <v>276241.0</v>
+      </c>
+      <c r="GX19" t="n">
+        <v>277683.0</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>279193.0</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>280774.0</v>
+      </c>
+      <c r="HA19" t="n">
+        <v>282217.0</v>
+      </c>
+      <c r="HB19" t="n">
+        <v>282498.0</v>
+      </c>
+      <c r="HC19" t="n">
+        <v>282726.0</v>
+      </c>
+      <c r="HD19" t="n">
+        <v>284252.0</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>285475.0</v>
+      </c>
+      <c r="HF19" t="n">
+        <v>286862.0</v>
+      </c>
+      <c r="HG19" t="n">
+        <v>288081.0</v>
+      </c>
+      <c r="HH19" t="n">
+        <v>289185.0</v>
+      </c>
+      <c r="HI19" t="n">
+        <v>289308.0</v>
+      </c>
+      <c r="HJ19" t="n">
+        <v>289466.0</v>
+      </c>
+      <c r="HK19" t="n">
+        <v>290839.0</v>
+      </c>
+      <c r="HL19" t="n">
+        <v>292067.0</v>
+      </c>
+      <c r="HM19" t="n">
+        <v>293210.0</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>294135.0</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>294135.0</v>
       </c>
     </row>
   </sheetData>
@@ -13014,10 +14154,67 @@
       <c r="GV1" t="s">
         <v>202</v>
       </c>
+      <c r="GW1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -13627,11 +14824,68 @@
       </c>
       <c r="GV2" t="n">
         <v>0.0</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -14241,11 +15495,68 @@
       </c>
       <c r="GV3" t="n">
         <v>350.0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>406.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -14855,11 +16166,68 @@
       </c>
       <c r="GV4" t="n">
         <v>256.0</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>314.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -15469,11 +16837,68 @@
       </c>
       <c r="GV5" t="n">
         <v>427.0</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>435.0</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>437.0</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>497.0</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>506.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -16083,11 +17508,68 @@
       </c>
       <c r="GV6" t="n">
         <v>4220.0</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>4287.0</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>4318.0</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>4348.0</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>4379.0</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>4415.0</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>4420.0</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>4427.0</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>4483.0</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>4513.0</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>4546.0</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>4572.0</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>4606.0</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>4608.0</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>4610.0</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>4657.0</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>4686.0</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>4701.0</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>4719.0</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>4719.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -16697,11 +18179,68 @@
       </c>
       <c r="GV7" t="n">
         <v>232.0</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -17311,11 +18850,68 @@
       </c>
       <c r="GV8" t="n">
         <v>249.0</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>328.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -17925,11 +19521,68 @@
       </c>
       <c r="GV9" t="n">
         <v>98.0</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="HC9" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="HL9" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -18539,11 +20192,68 @@
       </c>
       <c r="GV10" t="n">
         <v>197.0</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -19153,11 +20863,68 @@
       </c>
       <c r="GV11" t="n">
         <v>282.0</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>348.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -19767,11 +21534,68 @@
       </c>
       <c r="GV12" t="n">
         <v>141.0</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="HC12" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -20381,11 +22205,68 @@
       </c>
       <c r="GV13" t="n">
         <v>1089.0</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>1111.0</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>1125.0</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>1136.0</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>1146.0</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>1156.0</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>1158.0</v>
+      </c>
+      <c r="HC13" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>1180.0</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>1189.0</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>1202.0</v>
+      </c>
+      <c r="HG13" t="n">
+        <v>1211.0</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>1215.0</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>1217.0</v>
+      </c>
+      <c r="HJ13" t="n">
+        <v>1218.0</v>
+      </c>
+      <c r="HK13" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="HL13" t="n">
+        <v>1256.0</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>1265.0</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>1270.0</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>1270.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -20995,11 +22876,68 @@
       </c>
       <c r="GV14" t="n">
         <v>1816.0</v>
+      </c>
+      <c r="GW14" t="n">
+        <v>1823.0</v>
+      </c>
+      <c r="GX14" t="n">
+        <v>1844.0</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>1888.0</v>
+      </c>
+      <c r="HB14" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="HC14" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="HD14" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="HF14" t="n">
+        <v>1916.0</v>
+      </c>
+      <c r="HG14" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="HH14" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="HI14" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="HJ14" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="HK14" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="HL14" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="HM14" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>1990.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -21609,11 +23547,68 @@
       </c>
       <c r="GV15" t="n">
         <v>1256.0</v>
+      </c>
+      <c r="GW15" t="n">
+        <v>1272.0</v>
+      </c>
+      <c r="GX15" t="n">
+        <v>1285.0</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>1299.0</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>1307.0</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>1326.0</v>
+      </c>
+      <c r="HB15" t="n">
+        <v>1333.0</v>
+      </c>
+      <c r="HC15" t="n">
+        <v>1342.0</v>
+      </c>
+      <c r="HD15" t="n">
+        <v>1363.0</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>1373.0</v>
+      </c>
+      <c r="HF15" t="n">
+        <v>1381.0</v>
+      </c>
+      <c r="HG15" t="n">
+        <v>1391.0</v>
+      </c>
+      <c r="HH15" t="n">
+        <v>1396.0</v>
+      </c>
+      <c r="HI15" t="n">
+        <v>1411.0</v>
+      </c>
+      <c r="HJ15" t="n">
+        <v>1415.0</v>
+      </c>
+      <c r="HK15" t="n">
+        <v>1433.0</v>
+      </c>
+      <c r="HL15" t="n">
+        <v>1447.0</v>
+      </c>
+      <c r="HM15" t="n">
+        <v>1460.0</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>1470.0</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>1470.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -22223,11 +24218,68 @@
       </c>
       <c r="GV16" t="n">
         <v>1014.0</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>1037.0</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>1049.0</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>1057.0</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="HB16" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="HC16" t="n">
+        <v>1072.0</v>
+      </c>
+      <c r="HD16" t="n">
+        <v>1098.0</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>1115.0</v>
+      </c>
+      <c r="HF16" t="n">
+        <v>1125.0</v>
+      </c>
+      <c r="HG16" t="n">
+        <v>1156.0</v>
+      </c>
+      <c r="HH16" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>1169.0</v>
+      </c>
+      <c r="HJ16" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="HK16" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="HL16" t="n">
+        <v>1190.0</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>1196.0</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>1202.0</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>1202.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -22837,11 +24889,68 @@
       </c>
       <c r="GV17" t="n">
         <v>974.0</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>986.0</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>996.0</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>1006.0</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>1007.0</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="HB17" t="n">
+        <v>1017.0</v>
+      </c>
+      <c r="HC17" t="n">
+        <v>1018.0</v>
+      </c>
+      <c r="HD17" t="n">
+        <v>1029.0</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>1042.0</v>
+      </c>
+      <c r="HF17" t="n">
+        <v>1048.0</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>1052.0</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>1060.0</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>1060.0</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>1060.0</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>1076.0</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>1084.0</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>1094.0</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>1102.0</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>1102.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -23451,11 +25560,68 @@
       </c>
       <c r="GV18" t="n">
         <v>20041.0</v>
+      </c>
+      <c r="GW18" t="n">
+        <v>20156.0</v>
+      </c>
+      <c r="GX18" t="n">
+        <v>20320.0</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>20418.0</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>20519.0</v>
+      </c>
+      <c r="HA18" t="n">
+        <v>20635.0</v>
+      </c>
+      <c r="HB18" t="n">
+        <v>20642.0</v>
+      </c>
+      <c r="HC18" t="n">
+        <v>20649.0</v>
+      </c>
+      <c r="HD18" t="n">
+        <v>20751.0</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>20852.0</v>
+      </c>
+      <c r="HF18" t="n">
+        <v>20930.0</v>
+      </c>
+      <c r="HG18" t="n">
+        <v>20984.0</v>
+      </c>
+      <c r="HH18" t="n">
+        <v>21062.0</v>
+      </c>
+      <c r="HI18" t="n">
+        <v>21082.0</v>
+      </c>
+      <c r="HJ18" t="n">
+        <v>21087.0</v>
+      </c>
+      <c r="HK18" t="n">
+        <v>21208.0</v>
+      </c>
+      <c r="HL18" t="n">
+        <v>21317.0</v>
+      </c>
+      <c r="HM18" t="n">
+        <v>21411.0</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>21492.0</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>21492.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -24065,6 +26231,63 @@
       </c>
       <c r="GV19" t="n">
         <v>12068.0</v>
+      </c>
+      <c r="GW19" t="n">
+        <v>12128.0</v>
+      </c>
+      <c r="GX19" t="n">
+        <v>12213.0</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>12266.0</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>12308.0</v>
+      </c>
+      <c r="HA19" t="n">
+        <v>12376.0</v>
+      </c>
+      <c r="HB19" t="n">
+        <v>12380.0</v>
+      </c>
+      <c r="HC19" t="n">
+        <v>12384.0</v>
+      </c>
+      <c r="HD19" t="n">
+        <v>12428.0</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>12478.0</v>
+      </c>
+      <c r="HF19" t="n">
+        <v>12504.0</v>
+      </c>
+      <c r="HG19" t="n">
+        <v>12547.0</v>
+      </c>
+      <c r="HH19" t="n">
+        <v>12593.0</v>
+      </c>
+      <c r="HI19" t="n">
+        <v>12602.0</v>
+      </c>
+      <c r="HJ19" t="n">
+        <v>12605.0</v>
+      </c>
+      <c r="HK19" t="n">
+        <v>12666.0</v>
+      </c>
+      <c r="HL19" t="n">
+        <v>12730.0</v>
+      </c>
+      <c r="HM19" t="n">
+        <v>12797.0</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>12840.0</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>12840.0</v>
       </c>
     </row>
   </sheetData>
